--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
-  <si>
-    <t>Margin(decimal)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="199">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -579,7 +576,46 @@
     <t>T1</t>
   </si>
   <si>
-    <t>poisson</t>
+    <t>ov25</t>
+  </si>
+  <si>
+    <t>un25</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Margin(dec)</t>
+  </si>
+  <si>
+    <t>Pscore</t>
+  </si>
+  <si>
+    <t>P(1X2)</t>
   </si>
 </sst>
 </file>
@@ -682,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,28 +729,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,6 +751,32 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T185"/>
+  <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,142 +1076,155 @@
     <col min="10" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="23"/>
+    <col min="19" max="19" width="6.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="16"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="S1" t="s">
-        <v>171</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="P1" s="21"/>
+      <c r="S1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>50</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="9">
         <v>50</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="10">
         <f>(100/A2)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="11">
         <f>(100/B2)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="12">
         <v>3.7128117398625982E-2</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <f>(E2/100%) + 1</f>
         <v>1.037128117398626</v>
       </c>
-      <c r="G2" s="20">
-        <f>C2/F2</f>
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:G11" si="0">C2/F2</f>
         <v>1.9284020618556703</v>
       </c>
-      <c r="H2" s="20">
-        <f>D2/F2</f>
+      <c r="H2" s="13">
+        <f t="shared" ref="H2:H11" si="1">D2/F2</f>
         <v>1.9284020618556703</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="14">
         <v>2.09</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="14">
         <v>1.79</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="13">
         <f>(I2*F2)</f>
         <v>2.1675977653631282</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="13">
         <f>(J2*F2)</f>
         <v>1.8564593301435406</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="15">
         <f>(1/K2)</f>
         <v>0.46134020618556709</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="15">
         <f>(1/L2)</f>
         <v>0.53865979381443296</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="14">
         <f>(G2/I2)</f>
         <v>0.92268041237113418</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="14">
         <f>(H2/J2)</f>
         <v>1.0773195876288661</v>
       </c>
-      <c r="T2" s="24"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="B3" s="1">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="C3" s="3">
-        <f>(100%/A3)</f>
-        <v>1.9607843137254901</v>
+        <f t="shared" ref="C3:C11" si="2">(100%/A3)</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D3" s="4">
-        <f>(100%/B3)</f>
-        <v>2.0408163265306123</v>
-      </c>
-      <c r="E3" s="14">
+        <f t="shared" ref="D3:D11" si="3">(100%/B3)</f>
+        <v>1.5625</v>
+      </c>
+      <c r="E3" s="7">
         <v>3.4391534391534417E-2</v>
       </c>
-      <c r="F3" s="15">
-        <f t="shared" ref="F3:F66" si="0">(E3/100%) + 1</f>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F66" si="4">(E3/100%) + 1</f>
         <v>1.0343915343915344</v>
       </c>
       <c r="G3" s="5">
-        <f>C3/F3</f>
-        <v>1.8955919963893484</v>
+        <f t="shared" si="0"/>
+        <v>2.6854219948849103</v>
       </c>
       <c r="H3" s="5">
-        <f>D3/F3</f>
-        <v>1.9729630982827913</v>
+        <f t="shared" si="1"/>
+        <v>1.5105498721227621</v>
       </c>
       <c r="I3">
         <v>2.16</v>
@@ -1179,40 +1233,43 @@
         <v>1.75</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K5" si="1">(I3*F3)</f>
+        <f t="shared" ref="K3" si="5">(I3*F3)</f>
         <v>2.2342857142857144</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L5" si="2">(J3*F3)</f>
+        <f t="shared" ref="L3" si="6">(J3*F3)</f>
         <v>1.8101851851851851</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M6" si="3">(1/K3)</f>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3" si="7">(1/K3)</f>
         <v>0.4475703324808184</v>
       </c>
-      <c r="N3" s="11">
-        <f t="shared" ref="N3:N6" si="4">(1/L3)</f>
+      <c r="N3" s="6">
+        <f t="shared" ref="N3" si="8">(1/L3)</f>
         <v>0.55242966751918166</v>
       </c>
       <c r="O3">
-        <f>(I3/G3)</f>
-        <v>1.1394857142857144</v>
+        <f t="shared" ref="O3:O11" si="9">(I3/G3)</f>
+        <v>0.80434285714285725</v>
       </c>
       <c r="P3">
-        <f>(J3/H3)</f>
-        <v>0.8869907407407408</v>
+        <f t="shared" ref="P3:P11" si="10">(J3/H3)</f>
+        <v>1.1585185185185185</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="V3" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.51</v>
       </c>
@@ -1220,26 +1277,26 @@
         <v>0.49</v>
       </c>
       <c r="C4" s="3">
-        <f>(100%/A4)</f>
+        <f t="shared" si="2"/>
         <v>1.9607843137254901</v>
       </c>
       <c r="D4" s="4">
-        <f>(100%/B4)</f>
+        <f t="shared" si="3"/>
         <v>2.0408163265306123</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="7">
         <v>2.9539874871307603E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0295398748713076</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>1.0295398748713076</v>
-      </c>
-      <c r="G4" s="5">
-        <f>C4/F4</f>
         <v>1.9045248868778277</v>
       </c>
       <c r="H4" s="5">
-        <f>D4/F4</f>
+        <f t="shared" si="1"/>
         <v>1.9822605965463107</v>
       </c>
       <c r="I4">
@@ -1249,68 +1306,71 @@
         <v>1.83</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K11" si="5">(I4*F4)</f>
+        <f t="shared" ref="K4:K11" si="11">(I4*F4)</f>
         <v>2.1311475409836067</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L11" si="6">(J4*F4)</f>
+        <f t="shared" ref="L4:L11" si="12">(J4*F4)</f>
         <v>1.8840579710144929</v>
       </c>
-      <c r="M4" s="11">
-        <f t="shared" ref="M4:M27" si="7">(1/K4)</f>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M27" si="13">(1/K4)</f>
         <v>0.46923076923076917</v>
       </c>
-      <c r="N4" s="11">
-        <f t="shared" ref="N4:N27" si="8">(1/L4)</f>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N27" si="14">(1/L4)</f>
         <v>0.53076923076923077</v>
       </c>
       <c r="O4">
-        <f>(I4/G4)</f>
+        <f t="shared" si="9"/>
         <v>1.0868852459016394</v>
       </c>
       <c r="P4">
-        <f>(J4/H4)</f>
+        <f t="shared" si="10"/>
         <v>0.9231884057971016</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="V4" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="B5" s="1">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="C5" s="3">
-        <f>(100%/A5)</f>
-        <v>2.7777777777777777</v>
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
       </c>
       <c r="D5" s="4">
-        <f>(100%/B5)</f>
-        <v>1.5625</v>
-      </c>
-      <c r="E5" s="14">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="E5" s="7">
         <v>3.3598632551679941E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0335986325516799</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>1.0335986325516799</v>
-      </c>
-      <c r="G5" s="5">
-        <f>C5/F5</f>
-        <v>2.6874820556991099</v>
+        <v>2.0156115417743328</v>
       </c>
       <c r="H5" s="5">
-        <f>D5/F5</f>
-        <v>1.5117086563307494</v>
+        <f t="shared" si="1"/>
+        <v>1.8605645000993836</v>
       </c>
       <c r="I5">
         <v>1.94</v>
@@ -1319,68 +1379,74 @@
         <v>1.93</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.0051813471502591</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.9948453608247423</v>
       </c>
-      <c r="M5" s="11">
-        <f t="shared" si="7"/>
+      <c r="M5" s="6">
+        <f t="shared" si="13"/>
         <v>0.49870801033591733</v>
       </c>
-      <c r="N5" s="11">
-        <f t="shared" si="8"/>
+      <c r="N5" s="6">
+        <f t="shared" si="14"/>
         <v>0.50129198966408273</v>
       </c>
       <c r="O5">
-        <f>(I5/G5)</f>
-        <v>0.7218652849740933</v>
+        <f t="shared" si="9"/>
+        <v>0.96248704663212414</v>
       </c>
       <c r="P5">
-        <f>(J5/H5)</f>
-        <v>1.276701030927835</v>
+        <f t="shared" si="10"/>
+        <v>1.0373195876288661</v>
       </c>
       <c r="Q5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5" t="s">
         <v>163</v>
       </c>
-      <c r="R5" t="s">
-        <v>164</v>
-      </c>
       <c r="S5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="V5" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.48</v>
+        <v>0.82</v>
       </c>
       <c r="B6" s="1">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="C6" s="3">
-        <f>(100%/A6)</f>
-        <v>2.0833333333333335</v>
+        <f t="shared" si="2"/>
+        <v>1.2195121951219512</v>
       </c>
       <c r="D6" s="4">
-        <f>(100%/B6)</f>
-        <v>1.9230769230769229</v>
-      </c>
-      <c r="E6" s="14">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E6" s="7">
         <v>3.9646627881921859E-2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0396466278819219</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>1.0396466278819219</v>
-      </c>
-      <c r="G6" s="5">
-        <f>C6/F6</f>
-        <v>2.0038860103626948</v>
+        <v>1.1730064450903577</v>
       </c>
       <c r="H6" s="5">
-        <f>D6/F6</f>
-        <v>1.8497409326424872</v>
+        <f t="shared" si="1"/>
+        <v>5.3436960276338521</v>
       </c>
       <c r="I6">
         <v>1.82</v>
@@ -1389,40 +1455,46 @@
         <v>2.04</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.8921568627450978</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.1208791208791204</v>
       </c>
-      <c r="M6" s="11">
-        <f t="shared" si="7"/>
+      <c r="M6" s="6">
+        <f t="shared" si="13"/>
         <v>0.52849740932642497</v>
       </c>
-      <c r="N6" s="11">
-        <f t="shared" si="8"/>
+      <c r="N6" s="6">
+        <f t="shared" si="14"/>
         <v>0.47150259067357525</v>
       </c>
       <c r="O6">
-        <f>(I6/G6)</f>
-        <v>0.90823529411764692</v>
+        <f t="shared" si="9"/>
+        <v>1.5515686274509803</v>
       </c>
       <c r="P6">
-        <f>(J6/H6)</f>
-        <v>1.1028571428571428</v>
+        <f t="shared" si="10"/>
+        <v>0.38175824175824175</v>
       </c>
       <c r="Q6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" t="s">
         <v>165</v>
       </c>
-      <c r="R6" t="s">
-        <v>166</v>
-      </c>
       <c r="S6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.82</v>
       </c>
@@ -1430,26 +1502,26 @@
         <v>0.18</v>
       </c>
       <c r="C7" s="3">
-        <f>(100%/A7)</f>
+        <f t="shared" si="2"/>
         <v>1.2195121951219512</v>
       </c>
       <c r="D7" s="4">
-        <f>(100%/B7)</f>
+        <f t="shared" si="3"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="7">
         <v>2.7986944565804084E-2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0279869445658041</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>1.0279869445658041</v>
-      </c>
-      <c r="G7" s="5">
-        <f>C7/F7</f>
         <v>1.1863109756097561</v>
       </c>
       <c r="H7" s="5">
-        <f>D7/F7</f>
+        <f t="shared" si="1"/>
         <v>5.4043055555555553</v>
       </c>
       <c r="I7">
@@ -1459,40 +1531,43 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.3952095808383236</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.7167381974248928</v>
       </c>
-      <c r="M7" s="11">
-        <f t="shared" si="7"/>
+      <c r="M7" s="6">
+        <f t="shared" si="13"/>
         <v>0.41749999999999998</v>
       </c>
-      <c r="N7" s="11">
-        <f t="shared" si="8"/>
+      <c r="N7" s="6">
+        <f t="shared" si="14"/>
         <v>0.58250000000000002</v>
       </c>
       <c r="O7">
-        <f>(I7/G7)</f>
+        <f t="shared" si="9"/>
         <v>1.9640718562874253</v>
       </c>
       <c r="P7">
-        <f>(J7/H7)</f>
+        <f t="shared" si="10"/>
         <v>0.30901287553648071</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V7" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.68</v>
       </c>
@@ -1500,26 +1575,26 @@
         <v>0.32</v>
       </c>
       <c r="C8" s="3">
-        <f>(100%/A8)</f>
+        <f t="shared" si="2"/>
         <v>1.4705882352941175</v>
       </c>
       <c r="D8" s="4">
-        <f>(100%/B8)</f>
+        <f t="shared" si="3"/>
         <v>3.125</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="7">
         <v>2.9489204844655115E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0294892048446551</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>1.0294892048446551</v>
-      </c>
-      <c r="G8" s="5">
-        <f>C8/F8</f>
         <v>1.4284639687076874</v>
       </c>
       <c r="H8" s="5">
-        <f>D8/F8</f>
+        <f t="shared" si="1"/>
         <v>3.035485933503836</v>
       </c>
       <c r="I8">
@@ -1529,40 +1604,43 @@
         <v>2.11</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.8530805687203793</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.1722222222222221</v>
       </c>
-      <c r="M8" s="11">
-        <f t="shared" si="7"/>
+      <c r="M8" s="6">
+        <f t="shared" si="13"/>
         <v>0.53964194373401531</v>
       </c>
-      <c r="N8" s="11">
-        <f t="shared" si="8"/>
+      <c r="N8" s="6">
+        <f t="shared" si="14"/>
         <v>0.46035805626598469</v>
       </c>
       <c r="O8">
-        <f>(I8/G8)</f>
+        <f t="shared" si="9"/>
         <v>1.260094786729858</v>
       </c>
       <c r="P8">
-        <f>(J8/H8)</f>
+        <f t="shared" si="10"/>
         <v>0.69511111111111112</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V8" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -1570,26 +1648,26 @@
         <v>0.42</v>
       </c>
       <c r="C9" s="3">
-        <f>(100%/A9)</f>
+        <f t="shared" si="2"/>
         <v>1.7241379310344829</v>
       </c>
       <c r="D9" s="4">
-        <f>(100%/B9)</f>
+        <f t="shared" si="3"/>
         <v>2.3809523809523809</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="7">
         <v>2.4525731055444977E-2</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>1.024525731055445</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>1.024525731055445</v>
-      </c>
-      <c r="G9" s="5">
-        <f>C9/F9</f>
         <v>1.6828644501278773</v>
       </c>
       <c r="H9" s="5">
-        <f>D9/F9</f>
+        <f t="shared" si="1"/>
         <v>2.3239556692242114</v>
       </c>
       <c r="I9">
@@ -1599,40 +1677,43 @@
         <v>1.88</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.0797872340425529</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.9261083743842364</v>
       </c>
-      <c r="M9" s="11">
-        <f t="shared" si="7"/>
+      <c r="M9" s="6">
+        <f t="shared" si="13"/>
         <v>0.4808184143222507</v>
       </c>
-      <c r="N9" s="11">
-        <f t="shared" si="8"/>
+      <c r="N9" s="6">
+        <f t="shared" si="14"/>
         <v>0.51918158567774941</v>
       </c>
       <c r="O9">
-        <f>(I9/G9)</f>
+        <f t="shared" si="9"/>
         <v>1.2062765957446806</v>
       </c>
       <c r="P9">
-        <f>(J9/H9)</f>
+        <f t="shared" si="10"/>
         <v>0.80896551724137933</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V9" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.54</v>
       </c>
@@ -1640,26 +1721,26 @@
         <v>0.46</v>
       </c>
       <c r="C10" s="3">
-        <f>(100%/A10)</f>
+        <f t="shared" si="2"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="D10" s="4">
-        <f>(100%/B10)</f>
+        <f t="shared" si="3"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="7">
         <v>2.5667999158426325E-2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0256679991584263</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>1.0256679991584263</v>
-      </c>
-      <c r="G10" s="5">
-        <f>C10/F10</f>
         <v>1.8055080721747385</v>
       </c>
       <c r="H10" s="5">
-        <f>D10/F10</f>
+        <f t="shared" si="1"/>
         <v>2.1195094760312148</v>
       </c>
       <c r="I10">
@@ -1669,40 +1750,43 @@
         <v>1.96</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.989795918367347</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.0103092783505154</v>
       </c>
-      <c r="M10" s="11">
-        <f t="shared" si="7"/>
+      <c r="M10" s="6">
+        <f t="shared" si="13"/>
         <v>0.50256410256410255</v>
       </c>
-      <c r="N10" s="11">
-        <f t="shared" si="8"/>
+      <c r="N10" s="6">
+        <f t="shared" si="14"/>
         <v>0.49743589743589745</v>
       </c>
       <c r="O10">
-        <f>(I10/G10)</f>
+        <f t="shared" si="9"/>
         <v>1.0744897959183675</v>
       </c>
       <c r="P10">
-        <f>(J10/H10)</f>
+        <f t="shared" si="10"/>
         <v>0.92474226804123727</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V10" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.54</v>
       </c>
@@ -1710,26 +1794,26 @@
         <v>0.46</v>
       </c>
       <c r="C11" s="3">
-        <f>(100%/A11)</f>
+        <f t="shared" si="2"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="D11" s="4">
-        <f>(100%/B11)</f>
+        <f t="shared" si="3"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="7">
         <v>3.0088030482196881E-2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0300880304821969</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>1.0300880304821969</v>
-      </c>
-      <c r="G11" s="5">
-        <f>C11/F11</f>
         <v>1.7977607709750563</v>
       </c>
       <c r="H11" s="5">
-        <f>D11/F11</f>
+        <f t="shared" si="1"/>
         <v>2.1104148181011531</v>
       </c>
       <c r="I11">
@@ -1739,50 +1823,67 @@
         <v>1.77</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.2146892655367232</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.8232558139534885</v>
       </c>
-      <c r="M11" s="11">
-        <f t="shared" si="7"/>
+      <c r="M11" s="6">
+        <f t="shared" si="13"/>
         <v>0.45153061224489793</v>
       </c>
-      <c r="N11" s="11">
-        <f t="shared" si="8"/>
+      <c r="N11" s="6">
+        <f t="shared" si="14"/>
         <v>0.54846938775510201</v>
       </c>
       <c r="O11">
-        <f>(I11/G11)</f>
+        <f t="shared" si="9"/>
         <v>1.1959322033898308</v>
       </c>
       <c r="P11">
-        <f>(J11/H11)</f>
+        <f t="shared" si="10"/>
         <v>0.83869767441860488</v>
       </c>
       <c r="Q11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V11" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14">
+      <c r="C12" s="3" t="e">
+        <f t="shared" ref="C12:C19" si="15">(100%/A12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="4" t="e">
+        <f t="shared" ref="D12:D19" si="16">(100%/B12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="7">
         <v>3.1919317945518833E-2</v>
       </c>
-      <c r="F12" s="15">
-        <f t="shared" si="0"/>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
         <v>1.0319193179455188</v>
+      </c>
+      <c r="G12" s="5" t="e">
+        <f t="shared" ref="G12:G41" si="17">C12/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="5" t="e">
+        <f t="shared" ref="H12:H41" si="18">D12/F12</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I12">
         <v>2.29</v>
@@ -1791,44 +1892,67 @@
         <v>1.68</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:K26" si="9">(I12*F12)</f>
+        <f t="shared" ref="K12:K26" si="19">(I12*F12)</f>
         <v>2.3630952380952381</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12:L26" si="10">(J12*F12)</f>
+        <f t="shared" ref="L12:L26" si="20">(J12*F12)</f>
         <v>1.7336244541484715</v>
       </c>
-      <c r="M12" s="11">
-        <f t="shared" si="7"/>
+      <c r="M12" s="6">
+        <f t="shared" si="13"/>
         <v>0.42317380352644834</v>
       </c>
-      <c r="N12" s="11">
-        <f t="shared" si="8"/>
+      <c r="N12" s="6">
+        <f t="shared" si="14"/>
         <v>0.57682619647355171</v>
       </c>
+      <c r="O12" t="e">
+        <f t="shared" ref="O12:O16" si="21">(I12/G12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" ref="P12:P16" si="22">(J12/H12)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.52</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="V12" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14">
+      <c r="C13" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="7">
         <v>3.7318153067678717E-2</v>
       </c>
-      <c r="F13" s="15">
-        <f t="shared" si="0"/>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
         <v>1.0373181530676787</v>
+      </c>
+      <c r="G13" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I13">
         <v>1.55</v>
@@ -1837,42 +1961,67 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.607843137254902</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.6451612903225805</v>
       </c>
-      <c r="M13" s="11">
-        <f t="shared" si="7"/>
+      <c r="M13" s="6">
+        <f t="shared" si="13"/>
         <v>0.62195121951219512</v>
       </c>
-      <c r="N13" s="11">
-        <f t="shared" si="8"/>
+      <c r="N13" s="6">
+        <f t="shared" si="14"/>
         <v>0.37804878048780488</v>
       </c>
+      <c r="O13" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V13" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14">
+      <c r="C14" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="7">
         <v>3.002070393374745E-2</v>
       </c>
-      <c r="F14" s="15">
-        <f t="shared" si="0"/>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
         <v>1.0300207039337475</v>
+      </c>
+      <c r="G14" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I14">
         <v>1.68</v>
@@ -1881,42 +2030,67 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.7304347826086957</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.3690476190476191</v>
       </c>
-      <c r="M14" s="11">
-        <f t="shared" si="7"/>
+      <c r="M14" s="6">
+        <f t="shared" si="13"/>
         <v>0.57788944723618085</v>
       </c>
-      <c r="N14" s="11">
-        <f t="shared" si="8"/>
+      <c r="N14" s="6">
+        <f t="shared" si="14"/>
         <v>0.42211055276381909</v>
       </c>
+      <c r="O14" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V14" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14">
+      <c r="C15" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="7">
         <v>2.925809822361547E-2</v>
       </c>
-      <c r="F15" s="15">
-        <f t="shared" si="0"/>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
         <v>1.0292580982236155</v>
+      </c>
+      <c r="G15" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I15">
         <v>2.2000000000000002</v>
@@ -1925,42 +2099,67 @@
         <v>1.74</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.264367816091954</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.790909090909091</v>
       </c>
-      <c r="M15" s="11">
-        <f t="shared" si="7"/>
+      <c r="M15" s="6">
+        <f t="shared" si="13"/>
         <v>0.44162436548223349</v>
       </c>
-      <c r="N15" s="11">
-        <f t="shared" si="8"/>
+      <c r="N15" s="6">
+        <f t="shared" si="14"/>
         <v>0.55837563451776651</v>
       </c>
+      <c r="O15" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V15" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="14">
+      <c r="C16" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="7">
         <v>3.4882037921551534E-2</v>
       </c>
-      <c r="F16" s="15">
-        <f t="shared" si="0"/>
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
         <v>1.0348820379215515</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I16">
         <v>1.47</v>
@@ -1969,42 +2168,67 @@
         <v>2.82</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.5212765957446808</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.918367346938775</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" si="7"/>
+      <c r="M16" s="6">
+        <f t="shared" si="13"/>
         <v>0.6573426573426574</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" si="8"/>
+      <c r="N16" s="6">
+        <f t="shared" si="14"/>
         <v>0.34265734265734271</v>
       </c>
+      <c r="O16" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="V16" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="14">
+      <c r="C17" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="7">
         <v>3.678349083513166E-2</v>
       </c>
-      <c r="F17" s="15">
-        <f t="shared" si="0"/>
+      <c r="F17" s="8">
+        <f t="shared" si="4"/>
         <v>1.0367834908351317</v>
+      </c>
+      <c r="G17" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I17">
         <v>2.67</v>
@@ -2013,42 +2237,70 @@
         <v>1.51</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.7682119205298013</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.5655430711610487</v>
       </c>
-      <c r="M17" s="11">
-        <f t="shared" si="7"/>
+      <c r="M17" s="6">
+        <f t="shared" si="13"/>
         <v>0.36124401913875598</v>
       </c>
-      <c r="N17" s="11">
-        <f t="shared" si="8"/>
+      <c r="N17" s="6">
+        <f t="shared" si="14"/>
         <v>0.63875598086124397</v>
       </c>
+      <c r="O17" t="e">
+        <f t="shared" ref="O17:O80" si="23">(I17/G17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" ref="P17:P80" si="24">(J17/H17)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="V17" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="14">
+      <c r="C18" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="7">
         <v>4.0967868791783379E-2</v>
       </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
+      <c r="F18" s="8">
+        <f t="shared" si="4"/>
         <v>1.0409678687917834</v>
+      </c>
+      <c r="G18" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <v>3.11</v>
@@ -2057,42 +2309,70 @@
         <v>1.39</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>3.2374100719424463</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4469453376205788</v>
       </c>
-      <c r="M18" s="11">
-        <f t="shared" si="7"/>
+      <c r="M18" s="6">
+        <f t="shared" si="13"/>
         <v>0.30888888888888888</v>
       </c>
-      <c r="N18" s="11">
-        <f t="shared" si="8"/>
+      <c r="N18" s="6">
+        <f t="shared" si="14"/>
         <v>0.69111111111111112</v>
       </c>
+      <c r="O18" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="V18" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="14">
+      <c r="C19" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="7">
         <v>3.6544850498338777E-2</v>
       </c>
-      <c r="F19" s="15">
-        <f t="shared" si="0"/>
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
         <v>1.0365448504983388</v>
+      </c>
+      <c r="G19" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I19">
         <v>2.15</v>
@@ -2101,42 +2381,70 @@
         <v>1.75</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.2285714285714282</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.8139534883720929</v>
       </c>
-      <c r="M19" s="11">
-        <f t="shared" si="7"/>
+      <c r="M19" s="6">
+        <f t="shared" si="13"/>
         <v>0.44871794871794879</v>
       </c>
-      <c r="N19" s="11">
-        <f t="shared" si="8"/>
+      <c r="N19" s="6">
+        <f t="shared" si="14"/>
         <v>0.55128205128205132</v>
       </c>
+      <c r="O19" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="V19" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="14">
+      <c r="C20" s="3" t="e">
+        <f t="shared" ref="C20:C83" si="25">(100%/A20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="4" t="e">
+        <f t="shared" ref="D20:D83" si="26">(100%/B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="7">
         <v>3.7665386256935607E-2</v>
       </c>
-      <c r="F20" s="15">
-        <f t="shared" si="0"/>
+      <c r="F20" s="8">
+        <f t="shared" si="4"/>
         <v>1.0376653862569356</v>
+      </c>
+      <c r="G20" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I20">
         <v>2.13</v>
@@ -2145,40 +2453,70 @@
         <v>1.76</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.2102272727272729</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.8262910798122067</v>
       </c>
-      <c r="M20" s="11">
-        <f t="shared" si="7"/>
+      <c r="M20" s="6">
+        <f t="shared" si="13"/>
         <v>0.45244215938303339</v>
       </c>
-      <c r="N20" s="11">
-        <f t="shared" si="8"/>
+      <c r="N20" s="6">
+        <f t="shared" si="14"/>
         <v>0.54755784061696655</v>
       </c>
+      <c r="O20" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="14">
+        <v>175</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="V20" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="7">
         <v>3.9415457445713731E-2</v>
       </c>
-      <c r="F21" s="15">
-        <f t="shared" si="0"/>
+      <c r="F21" s="8">
+        <f t="shared" si="4"/>
         <v>1.0394154574457137</v>
+      </c>
+      <c r="G21" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I21">
         <v>2.46</v>
@@ -2187,40 +2525,70 @@
         <v>1.58</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.5569620253164556</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.6422764227642277</v>
       </c>
-      <c r="M21" s="11">
-        <f t="shared" si="7"/>
+      <c r="M21" s="6">
+        <f t="shared" si="13"/>
         <v>0.3910891089108911</v>
       </c>
-      <c r="N21" s="11">
-        <f t="shared" si="8"/>
+      <c r="N21" s="6">
+        <f t="shared" si="14"/>
         <v>0.6089108910891089</v>
       </c>
+      <c r="O21" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
         <v>20</v>
       </c>
-      <c r="R21" t="s">
-        <v>21</v>
-      </c>
       <c r="S21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="14">
+        <v>175</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="V21" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="7">
         <v>3.6736533693937368E-2</v>
       </c>
-      <c r="F22" s="15">
-        <f t="shared" si="0"/>
+      <c r="F22" s="8">
+        <f t="shared" si="4"/>
         <v>1.0367365336939374</v>
+      </c>
+      <c r="G22" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I22">
         <v>2.61</v>
@@ -2229,40 +2597,70 @@
         <v>1.53</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.7058823529411762</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.5862068965517242</v>
       </c>
-      <c r="M22" s="11">
-        <f t="shared" si="7"/>
+      <c r="M22" s="6">
+        <f t="shared" si="13"/>
         <v>0.36956521739130438</v>
       </c>
-      <c r="N22" s="11">
-        <f t="shared" si="8"/>
+      <c r="N22" s="6">
+        <f t="shared" si="14"/>
         <v>0.63043478260869568</v>
       </c>
+      <c r="O22" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="14">
+        <v>175</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="V22" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="7">
         <v>3.9574126155082379E-2</v>
       </c>
-      <c r="F23" s="15">
-        <f t="shared" si="0"/>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
         <v>1.0395741261550824</v>
+      </c>
+      <c r="G23" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I23">
         <v>2.62</v>
@@ -2271,40 +2669,67 @@
         <v>1.52</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.7236842105263159</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.5801526717557253</v>
       </c>
-      <c r="M23" s="11">
-        <f t="shared" si="7"/>
+      <c r="M23" s="6">
+        <f t="shared" si="13"/>
         <v>0.36714975845410625</v>
       </c>
-      <c r="N23" s="11">
-        <f t="shared" si="8"/>
+      <c r="N23" s="6">
+        <f t="shared" si="14"/>
         <v>0.63285024154589364</v>
       </c>
+      <c r="O23" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="14">
+        <v>175</v>
+      </c>
+      <c r="V23" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="7">
         <v>4.1416326203636888E-2</v>
       </c>
-      <c r="F24" s="15">
-        <f t="shared" si="0"/>
+      <c r="F24" s="8">
+        <f t="shared" si="4"/>
         <v>1.0414163262036369</v>
+      </c>
+      <c r="G24" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I24">
         <v>2.19</v>
@@ -2313,40 +2738,67 @@
         <v>1.71</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.2807017543859649</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.780821917808219</v>
       </c>
-      <c r="M24" s="11">
-        <f t="shared" si="7"/>
+      <c r="M24" s="6">
+        <f t="shared" si="13"/>
         <v>0.43846153846153846</v>
       </c>
-      <c r="N24" s="11">
-        <f t="shared" si="8"/>
+      <c r="N24" s="6">
+        <f t="shared" si="14"/>
         <v>0.56153846153846165</v>
       </c>
+      <c r="O24" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" t="s">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
-        <v>23</v>
-      </c>
       <c r="S24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="14">
+        <v>175</v>
+      </c>
+      <c r="V24" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="7">
         <v>3.9682539682539542E-2</v>
       </c>
-      <c r="F25" s="15">
-        <f t="shared" si="0"/>
+      <c r="F25" s="8">
+        <f t="shared" si="4"/>
         <v>1.0396825396825395</v>
+      </c>
+      <c r="G25" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I25">
         <v>2.25</v>
@@ -2355,40 +2807,67 @@
         <v>1.68</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.339285714285714</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.7466666666666664</v>
       </c>
-      <c r="M25" s="11">
-        <f t="shared" si="7"/>
+      <c r="M25" s="6">
+        <f t="shared" si="13"/>
         <v>0.4274809160305344</v>
       </c>
-      <c r="N25" s="11">
-        <f t="shared" si="8"/>
+      <c r="N25" s="6">
+        <f t="shared" si="14"/>
         <v>0.57251908396946571</v>
       </c>
+      <c r="O25" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="14">
+        <v>175</v>
+      </c>
+      <c r="V25" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="7">
         <v>3.8905400701529036E-2</v>
       </c>
-      <c r="F26" s="15">
-        <f t="shared" si="0"/>
+      <c r="F26" s="8">
+        <f t="shared" si="4"/>
         <v>1.038905400701529</v>
+      </c>
+      <c r="G26" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I26">
         <v>2.11</v>
@@ -2397,40 +2876,71 @@
         <v>1.77</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.1920903954802262</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.8388625592417065</v>
       </c>
-      <c r="M26" s="11">
-        <f t="shared" si="7"/>
+      <c r="M26" s="6">
+        <f t="shared" si="13"/>
         <v>0.45618556701030921</v>
       </c>
-      <c r="N26" s="11">
-        <f t="shared" si="8"/>
+      <c r="N26" s="6">
+        <f t="shared" si="14"/>
         <v>0.54381443298969068</v>
       </c>
+      <c r="O26" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="14">
+        <v>175</v>
+      </c>
+      <c r="V26" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="25"/>
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="26"/>
+        <v>3.125</v>
+      </c>
+      <c r="E27" s="7">
         <v>2.5439286650930981E-2</v>
       </c>
-      <c r="F27" s="15">
-        <f t="shared" si="0"/>
+      <c r="F27" s="8">
+        <f t="shared" si="4"/>
         <v>1.025439286650931</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4341056115540844</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="18"/>
+        <v>3.0474744245524299</v>
       </c>
       <c r="I27">
         <v>2.0499999999999998</v>
@@ -2439,40 +2949,71 @@
         <v>1.86</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ref="K27:K83" si="11">(I27*F27)</f>
+        <f t="shared" ref="K27:K83" si="27">(I27*F27)</f>
         <v>2.1021505376344085</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" ref="L27:L83" si="12">(J27*F27)</f>
+        <f t="shared" ref="L27:L83" si="28">(J27*F27)</f>
         <v>1.9073170731707316</v>
       </c>
-      <c r="M27" s="11">
-        <f t="shared" si="7"/>
+      <c r="M27" s="6">
+        <f t="shared" si="13"/>
         <v>0.47570332480818417</v>
       </c>
-      <c r="N27" s="11">
-        <f t="shared" si="8"/>
+      <c r="N27" s="6">
+        <f t="shared" si="14"/>
         <v>0.52429667519181589</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="23"/>
+        <v>1.4294623655913978</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="24"/>
+        <v>0.61034146341463413</v>
+      </c>
       <c r="Q27" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" t="s">
         <v>48</v>
       </c>
-      <c r="R27" t="s">
-        <v>49</v>
-      </c>
       <c r="S27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="14">
+        <v>176</v>
+      </c>
+      <c r="V27" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="25"/>
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="26"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="E28" s="7">
         <v>2.9789419619928204E-2</v>
       </c>
-      <c r="F28" s="15">
-        <f t="shared" si="0"/>
+      <c r="F28" s="8">
+        <f t="shared" si="4"/>
         <v>1.0297894196199282</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="17"/>
+        <v>1.6742626193137844</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="18"/>
+        <v>2.3120769504809404</v>
       </c>
       <c r="I28">
         <v>1.65</v>
@@ -2481,40 +3022,65 @@
         <v>2.36</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.6991525423728815</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.4303030303030306</v>
       </c>
-      <c r="M28" s="11">
-        <f t="shared" ref="M28:M83" si="13">(1/K28)</f>
+      <c r="M28" s="6">
+        <f t="shared" ref="M28:M83" si="29">(1/K28)</f>
         <v>0.58852867830423938</v>
       </c>
-      <c r="N28" s="11">
-        <f t="shared" ref="N28:N83" si="14">(1/L28)</f>
+      <c r="N28" s="6">
+        <f t="shared" ref="N28:N83" si="30">(1/L28)</f>
         <v>0.41147132169576056</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="23"/>
+        <v>0.98550847457627122</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="24"/>
+        <v>1.0207272727272727</v>
+      </c>
       <c r="Q28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="14">
+        <v>176</v>
+      </c>
+      <c r="V28" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="7">
         <v>2.8049575994781417E-2</v>
       </c>
-      <c r="F29" s="15">
-        <f t="shared" si="0"/>
+      <c r="F29" s="8">
+        <f t="shared" si="4"/>
         <v>1.0280495759947814</v>
+      </c>
+      <c r="G29" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29">
         <v>1.75</v>
@@ -2523,40 +3089,65 @@
         <v>2.19</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7990867579908674</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.2514285714285713</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" si="13"/>
+      <c r="M29" s="6">
+        <f t="shared" si="29"/>
         <v>0.55583756345177671</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" si="14"/>
+      <c r="N29" s="6">
+        <f t="shared" si="30"/>
         <v>0.44416243654822335</v>
       </c>
+      <c r="O29" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14">
+        <v>176</v>
+      </c>
+      <c r="V29" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="7">
         <v>2.830305277468792E-2</v>
       </c>
-      <c r="F30" s="15">
-        <f t="shared" si="0"/>
+      <c r="F30" s="8">
+        <f t="shared" si="4"/>
         <v>1.0283030527746879</v>
+      </c>
+      <c r="G30" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I30">
         <v>1.55</v>
@@ -2565,40 +3156,65 @@
         <v>2.61</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.5938697318007664</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.6838709677419352</v>
       </c>
-      <c r="M30" s="11">
-        <f t="shared" si="13"/>
+      <c r="M30" s="6">
+        <f t="shared" si="29"/>
         <v>0.62740384615384615</v>
       </c>
-      <c r="N30" s="11">
-        <f t="shared" si="14"/>
+      <c r="N30" s="6">
+        <f t="shared" si="30"/>
         <v>0.37259615384615385</v>
       </c>
+      <c r="O30" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="14">
+        <v>176</v>
+      </c>
+      <c r="V30" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="7">
         <v>2.9011311269375728E-2</v>
       </c>
-      <c r="F31" s="15">
-        <f t="shared" si="0"/>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
         <v>1.0290113112693757</v>
+      </c>
+      <c r="G31" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31">
         <v>1.76</v>
@@ -2607,40 +3223,65 @@
         <v>2.17</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.8110599078341012</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.2329545454545454</v>
       </c>
-      <c r="M31" s="11">
-        <f t="shared" si="13"/>
+      <c r="M31" s="6">
+        <f t="shared" si="29"/>
         <v>0.55216284987277364</v>
       </c>
-      <c r="N31" s="11">
-        <f t="shared" si="14"/>
+      <c r="N31" s="6">
+        <f t="shared" si="30"/>
         <v>0.44783715012722647</v>
       </c>
+      <c r="O31" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="14">
+        <v>176</v>
+      </c>
+      <c r="V31" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="7">
         <v>3.2622025999509585E-2</v>
       </c>
-      <c r="F32" s="15">
-        <f t="shared" si="0"/>
+      <c r="F32" s="8">
+        <f t="shared" si="4"/>
         <v>1.0326220259995096</v>
+      </c>
+      <c r="G32" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I32">
         <v>1.51</v>
@@ -2649,40 +3290,65 @@
         <v>2.7</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.5592592592592596</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.7880794701986762</v>
       </c>
-      <c r="M32" s="11">
-        <f t="shared" si="13"/>
+      <c r="M32" s="6">
+        <f t="shared" si="29"/>
         <v>0.64133016627078376</v>
       </c>
-      <c r="N32" s="11">
-        <f t="shared" si="14"/>
+      <c r="N32" s="6">
+        <f t="shared" si="30"/>
         <v>0.35866983372921607</v>
       </c>
+      <c r="O32" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="14">
+        <v>176</v>
+      </c>
+      <c r="V32" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="7">
         <v>3.495275717882973E-2</v>
       </c>
-      <c r="F33" s="15">
-        <f t="shared" si="0"/>
+      <c r="F33" s="8">
+        <f t="shared" si="4"/>
         <v>1.0349527571788297</v>
+      </c>
+      <c r="G33" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I33">
         <v>1.41</v>
@@ -2691,40 +3357,65 @@
         <v>3.07</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.4592833876221498</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>3.1773049645390072</v>
       </c>
-      <c r="M33" s="11">
-        <f t="shared" si="13"/>
+      <c r="M33" s="6">
+        <f t="shared" si="29"/>
         <v>0.68526785714285721</v>
       </c>
-      <c r="N33" s="11">
-        <f t="shared" si="14"/>
+      <c r="N33" s="6">
+        <f t="shared" si="30"/>
         <v>0.31473214285714285</v>
       </c>
+      <c r="O33" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="14">
+        <v>176</v>
+      </c>
+      <c r="V33" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="7">
         <v>2.9011311269375728E-2</v>
       </c>
-      <c r="F34" s="15">
-        <f t="shared" si="0"/>
+      <c r="F34" s="8">
+        <f t="shared" si="4"/>
         <v>1.0290113112693757</v>
+      </c>
+      <c r="G34" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I34">
         <v>1.76</v>
@@ -2733,40 +3424,65 @@
         <v>2.17</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.8110599078341012</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.2329545454545454</v>
       </c>
-      <c r="M34" s="11">
-        <f t="shared" si="13"/>
+      <c r="M34" s="6">
+        <f t="shared" si="29"/>
         <v>0.55216284987277364</v>
       </c>
-      <c r="N34" s="11">
-        <f t="shared" si="14"/>
+      <c r="N34" s="6">
+        <f t="shared" si="30"/>
         <v>0.44783715012722647</v>
       </c>
+      <c r="O34" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="14">
+        <v>176</v>
+      </c>
+      <c r="V34" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="7">
         <v>2.3185220076411994E-2</v>
       </c>
-      <c r="F35" s="15">
-        <f t="shared" si="0"/>
+      <c r="F35" s="8">
+        <f t="shared" si="4"/>
         <v>1.023185220076412</v>
+      </c>
+      <c r="G35" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I35">
         <v>1.93</v>
@@ -2775,40 +3491,65 @@
         <v>1.98</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.9747474747474751</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.0259067357512959</v>
       </c>
-      <c r="M35" s="11">
-        <f t="shared" si="13"/>
+      <c r="M35" s="6">
+        <f t="shared" si="29"/>
         <v>0.50639386189258306</v>
       </c>
-      <c r="N35" s="11">
-        <f t="shared" si="14"/>
+      <c r="N35" s="6">
+        <f t="shared" si="30"/>
         <v>0.49360613810741677</v>
       </c>
+      <c r="O35" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="14">
+        <v>176</v>
+      </c>
+      <c r="V35" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="7">
         <v>2.925809822361547E-2</v>
       </c>
-      <c r="F36" s="15">
-        <f t="shared" si="0"/>
+      <c r="F36" s="8">
+        <f t="shared" si="4"/>
         <v>1.0292580982236155</v>
+      </c>
+      <c r="G36" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I36">
         <v>2.2000000000000002</v>
@@ -2817,40 +3558,65 @@
         <v>1.74</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.264367816091954</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.790909090909091</v>
       </c>
-      <c r="M36" s="11">
-        <f t="shared" si="13"/>
+      <c r="M36" s="6">
+        <f t="shared" si="29"/>
         <v>0.44162436548223349</v>
       </c>
-      <c r="N36" s="11">
-        <f t="shared" si="14"/>
+      <c r="N36" s="6">
+        <f t="shared" si="30"/>
         <v>0.55837563451776651</v>
       </c>
+      <c r="O36" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="14">
+        <v>176</v>
+      </c>
+      <c r="V36" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="7">
         <v>3.5245155416829377E-2</v>
       </c>
-      <c r="F37" s="15">
-        <f t="shared" si="0"/>
+      <c r="F37" s="8">
+        <f t="shared" si="4"/>
         <v>1.0352451554168294</v>
+      </c>
+      <c r="G37" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I37">
         <v>2.33</v>
@@ -2859,40 +3625,65 @@
         <v>1.65</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.4121212121212126</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.7081545064377683</v>
       </c>
-      <c r="M37" s="11">
-        <f t="shared" si="13"/>
+      <c r="M37" s="6">
+        <f t="shared" si="29"/>
         <v>0.41457286432160795</v>
       </c>
-      <c r="N37" s="11">
-        <f t="shared" si="14"/>
+      <c r="N37" s="6">
+        <f t="shared" si="30"/>
         <v>0.58542713567839189</v>
       </c>
+      <c r="O37" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="14">
+        <v>177</v>
+      </c>
+      <c r="V37" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="7">
         <v>3.5245155416829377E-2</v>
       </c>
-      <c r="F38" s="15">
-        <f t="shared" si="0"/>
+      <c r="F38" s="8">
+        <f t="shared" si="4"/>
         <v>1.0352451554168294</v>
+      </c>
+      <c r="G38" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I38">
         <v>2.33</v>
@@ -2901,40 +3692,65 @@
         <v>1.65</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.4121212121212126</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.7081545064377683</v>
       </c>
-      <c r="M38" s="11">
-        <f t="shared" si="13"/>
+      <c r="M38" s="6">
+        <f t="shared" si="29"/>
         <v>0.41457286432160795</v>
       </c>
-      <c r="N38" s="11">
-        <f t="shared" si="14"/>
+      <c r="N38" s="6">
+        <f t="shared" si="30"/>
         <v>0.58542713567839189</v>
       </c>
+      <c r="O38" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="14">
+        <v>177</v>
+      </c>
+      <c r="V38" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="7">
         <v>3.5471537807986397E-2</v>
       </c>
-      <c r="F39" s="15">
-        <f t="shared" si="0"/>
+      <c r="F39" s="8">
+        <f t="shared" si="4"/>
         <v>1.0354715378079864</v>
+      </c>
+      <c r="G39" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I39">
         <v>1.76</v>
@@ -2943,40 +3759,65 @@
         <v>2.14</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.8224299065420562</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.2159090909090908</v>
       </c>
-      <c r="M39" s="11">
-        <f t="shared" si="13"/>
+      <c r="M39" s="6">
+        <f t="shared" si="29"/>
         <v>0.54871794871794866</v>
       </c>
-      <c r="N39" s="11">
-        <f t="shared" si="14"/>
+      <c r="N39" s="6">
+        <f t="shared" si="30"/>
         <v>0.45128205128205129</v>
       </c>
+      <c r="O39" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="14">
+        <v>177</v>
+      </c>
+      <c r="V39" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="7">
         <v>2.861071447458885E-2</v>
       </c>
-      <c r="F40" s="15">
-        <f t="shared" si="0"/>
+      <c r="F40" s="8">
+        <f t="shared" si="4"/>
         <v>1.0286107144745888</v>
+      </c>
+      <c r="G40" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I40">
         <v>1.98</v>
@@ -2985,40 +3826,65 @@
         <v>1.91</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.0366492146596857</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.9646464646464645</v>
       </c>
-      <c r="M40" s="11">
-        <f t="shared" si="13"/>
+      <c r="M40" s="6">
+        <f t="shared" si="29"/>
         <v>0.49100257069408743</v>
       </c>
-      <c r="N40" s="11">
-        <f t="shared" si="14"/>
+      <c r="N40" s="6">
+        <f t="shared" si="30"/>
         <v>0.50899742930591263</v>
       </c>
+      <c r="O40" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="14">
+        <v>177</v>
+      </c>
+      <c r="V40" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="7">
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="F41" s="15">
-        <f t="shared" si="0"/>
+      <c r="F41" s="8">
+        <f t="shared" si="4"/>
         <v>1.032258064516129</v>
+      </c>
+      <c r="G41" s="5" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="5" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I41">
         <v>2.17</v>
@@ -3027,40 +3893,65 @@
         <v>1.75</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.2399999999999998</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.8064516129032258</v>
       </c>
-      <c r="M41" s="11">
-        <f t="shared" si="13"/>
+      <c r="M41" s="6">
+        <f t="shared" si="29"/>
         <v>0.44642857142857145</v>
       </c>
-      <c r="N41" s="11">
-        <f t="shared" si="14"/>
+      <c r="N41" s="6">
+        <f t="shared" si="30"/>
         <v>0.5535714285714286</v>
       </c>
+      <c r="O41" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="14">
+        <v>177</v>
+      </c>
+      <c r="V41" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="7">
         <v>3.2258064516129004E-2</v>
       </c>
-      <c r="F42" s="15">
-        <f t="shared" si="0"/>
+      <c r="F42" s="8">
+        <f t="shared" si="4"/>
         <v>1.032258064516129</v>
+      </c>
+      <c r="G42" s="5" t="e">
+        <f t="shared" ref="G42:G83" si="31">C42/F42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="5" t="e">
+        <f t="shared" ref="H42:H83" si="32">D42/F42</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I42">
         <v>2.17</v>
@@ -3069,40 +3960,65 @@
         <v>1.75</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.2399999999999998</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.8064516129032258</v>
       </c>
-      <c r="M42" s="11">
-        <f t="shared" si="13"/>
+      <c r="M42" s="6">
+        <f t="shared" si="29"/>
         <v>0.44642857142857145</v>
       </c>
-      <c r="N42" s="11">
-        <f t="shared" si="14"/>
+      <c r="N42" s="6">
+        <f t="shared" si="30"/>
         <v>0.5535714285714286</v>
       </c>
+      <c r="O42" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P42" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="14">
+        <v>177</v>
+      </c>
+      <c r="V42" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="7">
         <v>3.4391534391534417E-2</v>
       </c>
-      <c r="F43" s="15">
-        <f t="shared" si="0"/>
+      <c r="F43" s="8">
+        <f t="shared" si="4"/>
         <v>1.0343915343915344</v>
+      </c>
+      <c r="G43" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I43">
         <v>1.75</v>
@@ -3111,40 +4027,65 @@
         <v>2.16</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.8101851851851851</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.2342857142857144</v>
       </c>
-      <c r="M43" s="11">
-        <f t="shared" si="13"/>
+      <c r="M43" s="6">
+        <f t="shared" si="29"/>
         <v>0.55242966751918166</v>
       </c>
-      <c r="N43" s="11">
-        <f t="shared" si="14"/>
+      <c r="N43" s="6">
+        <f t="shared" si="30"/>
         <v>0.4475703324808184</v>
       </c>
+      <c r="O43" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="14">
+        <v>177</v>
+      </c>
+      <c r="V43" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="7">
         <v>3.5940803382663811E-2</v>
       </c>
-      <c r="F44" s="15">
-        <f t="shared" si="0"/>
+      <c r="F44" s="8">
+        <f t="shared" si="4"/>
         <v>1.0359408033826638</v>
+      </c>
+      <c r="G44" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I44">
         <v>2.2000000000000002</v>
@@ -3153,40 +4094,65 @@
         <v>1.72</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.2790697674418605</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.7818181818181817</v>
       </c>
-      <c r="M44" s="11">
-        <f t="shared" si="13"/>
+      <c r="M44" s="6">
+        <f t="shared" si="29"/>
         <v>0.43877551020408162</v>
       </c>
-      <c r="N44" s="11">
-        <f t="shared" si="14"/>
+      <c r="N44" s="6">
+        <f t="shared" si="30"/>
         <v>0.56122448979591844</v>
       </c>
+      <c r="O44" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="14">
+        <v>177</v>
+      </c>
+      <c r="V44" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="7">
         <v>3.3585003905233002E-2</v>
       </c>
-      <c r="F45" s="15">
-        <f t="shared" si="0"/>
+      <c r="F45" s="8">
+        <f t="shared" si="4"/>
         <v>1.033585003905233</v>
+      </c>
+      <c r="G45" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I45">
         <v>1.67</v>
@@ -3195,40 +4161,65 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7260869565217389</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.3772455089820359</v>
       </c>
-      <c r="M45" s="11">
-        <f t="shared" si="13"/>
+      <c r="M45" s="6">
+        <f t="shared" si="29"/>
         <v>0.57934508816120911</v>
       </c>
-      <c r="N45" s="11">
-        <f t="shared" si="14"/>
+      <c r="N45" s="6">
+        <f t="shared" si="30"/>
         <v>0.42065491183879095</v>
       </c>
+      <c r="O45" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="14">
+        <v>177</v>
+      </c>
+      <c r="V45" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="7">
         <v>3.4517818107874465E-2</v>
       </c>
-      <c r="F46" s="15">
-        <f t="shared" si="0"/>
+      <c r="F46" s="8">
+        <f t="shared" si="4"/>
         <v>1.0345178181078745</v>
+      </c>
+      <c r="G46" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I46">
         <v>1.58</v>
@@ -3237,40 +4228,65 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.6345381526104417</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.5759493670886076</v>
       </c>
-      <c r="M46" s="11">
-        <f t="shared" si="13"/>
+      <c r="M46" s="6">
+        <f t="shared" si="29"/>
         <v>0.6117936117936118</v>
       </c>
-      <c r="N46" s="11">
-        <f t="shared" si="14"/>
+      <c r="N46" s="6">
+        <f t="shared" si="30"/>
         <v>0.3882063882063882</v>
       </c>
+      <c r="O46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="14">
+        <v>178</v>
+      </c>
+      <c r="V46" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="7">
         <v>3.3768071984632497E-2</v>
       </c>
-      <c r="F47" s="15">
-        <f t="shared" si="0"/>
+      <c r="F47" s="8">
+        <f t="shared" si="4"/>
         <v>1.0337680719846325</v>
+      </c>
+      <c r="G47" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I47">
         <v>1.57</v>
@@ -3279,40 +4295,65 @@
         <v>2.52</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.623015873015873</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.605095541401274</v>
       </c>
-      <c r="M47" s="11">
-        <f t="shared" si="13"/>
+      <c r="M47" s="6">
+        <f t="shared" si="29"/>
         <v>0.61613691931540338</v>
       </c>
-      <c r="N47" s="11">
-        <f t="shared" si="14"/>
+      <c r="N47" s="6">
+        <f t="shared" si="30"/>
         <v>0.38386308068459657</v>
       </c>
+      <c r="O47" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="14">
+        <v>178</v>
+      </c>
+      <c r="V47" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="7">
         <v>4.4108708865155943E-2</v>
       </c>
-      <c r="F48" s="15">
-        <f t="shared" si="0"/>
+      <c r="F48" s="8">
+        <f t="shared" si="4"/>
         <v>1.0441087088651559</v>
+      </c>
+      <c r="G48" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I48">
         <v>1.32</v>
@@ -3321,40 +4362,65 @@
         <v>3.49</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.3782234957020059</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>3.6439393939393945</v>
       </c>
-      <c r="M48" s="11">
-        <f t="shared" si="13"/>
+      <c r="M48" s="6">
+        <f t="shared" si="29"/>
         <v>0.72557172557172556</v>
       </c>
-      <c r="N48" s="11">
-        <f t="shared" si="14"/>
+      <c r="N48" s="6">
+        <f t="shared" si="30"/>
         <v>0.27442827442827439</v>
       </c>
+      <c r="O48" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="14">
+        <v>178</v>
+      </c>
+      <c r="V48" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="7">
         <v>3.5245155416829377E-2</v>
       </c>
-      <c r="F49" s="15">
-        <f t="shared" si="0"/>
+      <c r="F49" s="8">
+        <f t="shared" si="4"/>
         <v>1.0352451554168294</v>
+      </c>
+      <c r="G49" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I49">
         <v>1.65</v>
@@ -3363,40 +4429,65 @@
         <v>2.33</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7081545064377683</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.4121212121212126</v>
       </c>
-      <c r="M49" s="11">
-        <f t="shared" si="13"/>
+      <c r="M49" s="6">
+        <f t="shared" si="29"/>
         <v>0.58542713567839189</v>
       </c>
-      <c r="N49" s="11">
-        <f t="shared" si="14"/>
+      <c r="N49" s="6">
+        <f t="shared" si="30"/>
         <v>0.41457286432160795</v>
       </c>
+      <c r="O49" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="14">
+        <v>178</v>
+      </c>
+      <c r="V49" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="7">
         <v>3.5766729599328695E-2</v>
       </c>
-      <c r="F50" s="15">
-        <f t="shared" si="0"/>
+      <c r="F50" s="8">
+        <f t="shared" si="4"/>
         <v>1.0357667295993287</v>
+      </c>
+      <c r="G50" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I50">
         <v>1.68</v>
@@ -3405,40 +4496,65 @@
         <v>2.27</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7400881057268722</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.3511904761904763</v>
       </c>
-      <c r="M50" s="11">
-        <f t="shared" si="13"/>
+      <c r="M50" s="6">
+        <f t="shared" si="29"/>
         <v>0.57468354430379742</v>
       </c>
-      <c r="N50" s="11">
-        <f t="shared" si="14"/>
+      <c r="N50" s="6">
+        <f t="shared" si="30"/>
         <v>0.42531645569620252</v>
       </c>
+      <c r="O50" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="14">
+        <v>178</v>
+      </c>
+      <c r="V50" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="7">
         <v>4.117554612604124E-2</v>
       </c>
-      <c r="F51" s="15">
-        <f t="shared" si="0"/>
+      <c r="F51" s="8">
+        <f t="shared" si="4"/>
         <v>1.0411755461260412</v>
+      </c>
+      <c r="G51" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I51">
         <v>1.26</v>
@@ -3447,40 +4563,65 @@
         <v>4.04</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.3118811881188119</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>4.2063492063492065</v>
       </c>
-      <c r="M51" s="11">
-        <f t="shared" si="13"/>
+      <c r="M51" s="6">
+        <f t="shared" si="29"/>
         <v>0.76226415094339617</v>
       </c>
-      <c r="N51" s="11">
-        <f t="shared" si="14"/>
+      <c r="N51" s="6">
+        <f t="shared" si="30"/>
         <v>0.23773584905660378</v>
       </c>
+      <c r="O51" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="14">
+        <v>178</v>
+      </c>
+      <c r="V51" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="7">
         <v>3.4193852437555794E-2</v>
       </c>
-      <c r="F52" s="15">
-        <f t="shared" si="0"/>
+      <c r="F52" s="8">
+        <f t="shared" si="4"/>
         <v>1.0341938524375558</v>
+      </c>
+      <c r="G52" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I52">
         <v>1.69</v>
@@ -3489,40 +4630,65 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7477876106194692</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.3372781065088759</v>
       </c>
-      <c r="M52" s="11">
-        <f t="shared" si="13"/>
+      <c r="M52" s="6">
+        <f t="shared" si="29"/>
         <v>0.57215189873417716</v>
       </c>
-      <c r="N52" s="11">
-        <f t="shared" si="14"/>
+      <c r="N52" s="6">
+        <f t="shared" si="30"/>
         <v>0.42784810126582273</v>
       </c>
+      <c r="O52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="14">
+        <v>178</v>
+      </c>
+      <c r="V52" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="7">
         <v>3.0219780219780112E-2</v>
       </c>
-      <c r="F53" s="15">
-        <f t="shared" si="0"/>
+      <c r="F53" s="8">
+        <f t="shared" si="4"/>
         <v>1.0302197802197801</v>
+      </c>
+      <c r="G53" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I53">
         <v>2.08</v>
@@ -3531,40 +4697,65 @@
         <v>1.82</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.8749999999999998</v>
       </c>
-      <c r="M53" s="11">
-        <f t="shared" si="13"/>
+      <c r="M53" s="6">
+        <f t="shared" si="29"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="N53" s="11">
-        <f t="shared" si="14"/>
+      <c r="N53" s="6">
+        <f t="shared" si="30"/>
         <v>0.53333333333333344</v>
       </c>
+      <c r="O53" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P53" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="14">
+        <v>178</v>
+      </c>
+      <c r="V53" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="7">
         <v>3.9312039312039193E-2</v>
       </c>
-      <c r="F54" s="15">
-        <f t="shared" si="0"/>
+      <c r="F54" s="8">
+        <f t="shared" si="4"/>
         <v>1.0393120393120392</v>
+      </c>
+      <c r="G54" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I54">
         <v>1.48</v>
@@ -3573,40 +4764,65 @@
         <v>2.75</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.5381818181818181</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.8581081081081079</v>
       </c>
-      <c r="M54" s="11">
-        <f t="shared" si="13"/>
+      <c r="M54" s="6">
+        <f t="shared" si="29"/>
         <v>0.65011820330969272</v>
       </c>
-      <c r="N54" s="11">
-        <f t="shared" si="14"/>
+      <c r="N54" s="6">
+        <f t="shared" si="30"/>
         <v>0.34988179669030733</v>
       </c>
+      <c r="O54" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="14">
+        <v>178</v>
+      </c>
+      <c r="V54" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="7">
         <v>2.844754653130277E-2</v>
       </c>
-      <c r="F55" s="15">
-        <f t="shared" si="0"/>
+      <c r="F55" s="8">
+        <f t="shared" si="4"/>
         <v>1.0284475465313028</v>
+      </c>
+      <c r="G55" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I55">
         <v>1.97</v>
@@ -3615,40 +4831,65 @@
         <v>1.92</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.0260416666666665</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.9746192893401013</v>
       </c>
-      <c r="M55" s="11">
-        <f t="shared" si="13"/>
+      <c r="M55" s="6">
+        <f t="shared" si="29"/>
         <v>0.49357326478149105</v>
       </c>
-      <c r="N55" s="11">
-        <f t="shared" si="14"/>
+      <c r="N55" s="6">
+        <f t="shared" si="30"/>
         <v>0.50642673521850901</v>
       </c>
+      <c r="O55" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P55" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q55" t="s">
+        <v>160</v>
+      </c>
+      <c r="R55" t="s">
         <v>161</v>
       </c>
-      <c r="R55" t="s">
-        <v>162</v>
-      </c>
       <c r="S55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="14">
+        <v>179</v>
+      </c>
+      <c r="V55" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="7">
         <v>4.1767848470131153E-2</v>
       </c>
-      <c r="F56" s="15">
-        <f t="shared" si="0"/>
+      <c r="F56" s="8">
+        <f t="shared" si="4"/>
         <v>1.0417678484701312</v>
+      </c>
+      <c r="G56" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I56">
         <v>1.45</v>
@@ -3657,40 +4898,65 @@
         <v>2.84</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.51056338028169</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.9586206896551723</v>
       </c>
-      <c r="M56" s="11">
-        <f t="shared" si="13"/>
+      <c r="M56" s="6">
+        <f t="shared" si="29"/>
         <v>0.66200466200466201</v>
       </c>
-      <c r="N56" s="11">
-        <f t="shared" si="14"/>
+      <c r="N56" s="6">
+        <f t="shared" si="30"/>
         <v>0.33799533799533799</v>
       </c>
+      <c r="O56" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P56" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="14">
+        <v>180</v>
+      </c>
+      <c r="V56" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" s="7">
         <v>3.0736618971912932E-2</v>
       </c>
-      <c r="F57" s="15">
-        <f t="shared" si="0"/>
+      <c r="F57" s="8">
+        <f t="shared" si="4"/>
         <v>1.0307366189719129</v>
+      </c>
+      <c r="G57" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I57">
         <v>2.04</v>
@@ -3699,40 +4965,65 @@
         <v>1.85</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.1027027027027025</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.9068627450980391</v>
       </c>
-      <c r="M57" s="11">
-        <f t="shared" si="13"/>
+      <c r="M57" s="6">
+        <f t="shared" si="29"/>
         <v>0.47557840616966585</v>
       </c>
-      <c r="N57" s="11">
-        <f t="shared" si="14"/>
+      <c r="N57" s="6">
+        <f t="shared" si="30"/>
         <v>0.52442159383033427</v>
       </c>
+      <c r="O57" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="14">
+        <v>180</v>
+      </c>
+      <c r="V57" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="7">
         <v>2.9539874871307603E-2</v>
       </c>
-      <c r="F58" s="15">
-        <f t="shared" si="0"/>
+      <c r="F58" s="8">
+        <f t="shared" si="4"/>
         <v>1.0295398748713076</v>
+      </c>
+      <c r="G58" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I58">
         <v>2.0699999999999998</v>
@@ -3741,40 +5032,65 @@
         <v>1.83</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.1311475409836067</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.8840579710144929</v>
       </c>
-      <c r="M58" s="11">
-        <f t="shared" si="13"/>
+      <c r="M58" s="6">
+        <f t="shared" si="29"/>
         <v>0.46923076923076917</v>
       </c>
-      <c r="N58" s="11">
-        <f t="shared" si="14"/>
+      <c r="N58" s="6">
+        <f t="shared" si="30"/>
         <v>0.53076923076923077</v>
       </c>
+      <c r="O58" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P58" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="14">
+        <v>180</v>
+      </c>
+      <c r="V58" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E59" s="7">
         <v>3.3664999742228252E-2</v>
       </c>
-      <c r="F59" s="15">
-        <f t="shared" si="0"/>
+      <c r="F59" s="8">
+        <f t="shared" si="4"/>
         <v>1.0336649997422283</v>
+      </c>
+      <c r="G59" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I59">
         <v>1.63</v>
@@ -3783,40 +5099,65 @@
         <v>2.38</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.6848739495798319</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.4601226993865031</v>
       </c>
-      <c r="M59" s="11">
-        <f t="shared" si="13"/>
+      <c r="M59" s="6">
+        <f t="shared" si="29"/>
         <v>0.59351620947630923</v>
       </c>
-      <c r="N59" s="11">
-        <f t="shared" si="14"/>
+      <c r="N59" s="6">
+        <f t="shared" si="30"/>
         <v>0.40648379052369077</v>
       </c>
+      <c r="O59" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P59" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="14">
+        <v>180</v>
+      </c>
+      <c r="V59" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E60" s="7">
         <v>3.3884036620014824E-2</v>
       </c>
-      <c r="F60" s="15">
-        <f t="shared" si="0"/>
+      <c r="F60" s="8">
+        <f t="shared" si="4"/>
         <v>1.0338840366200148</v>
+      </c>
+      <c r="G60" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I60">
         <v>2.21</v>
@@ -3825,40 +5166,65 @@
         <v>1.72</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.2848837209302326</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.7782805429864255</v>
       </c>
-      <c r="M60" s="11">
-        <f t="shared" si="13"/>
+      <c r="M60" s="6">
+        <f t="shared" si="29"/>
         <v>0.43765903307888038</v>
       </c>
-      <c r="N60" s="11">
-        <f t="shared" si="14"/>
+      <c r="N60" s="6">
+        <f t="shared" si="30"/>
         <v>0.56234096692111957</v>
       </c>
+      <c r="O60" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P60" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="14">
+        <v>180</v>
+      </c>
+      <c r="V60" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E61" s="7">
         <v>3.4655686647135031E-2</v>
       </c>
-      <c r="F61" s="15">
-        <f t="shared" si="0"/>
+      <c r="F61" s="8">
+        <f t="shared" si="4"/>
         <v>1.034655686647135</v>
+      </c>
+      <c r="G61" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I61">
         <v>2.19</v>
@@ -3867,40 +5233,65 @@
         <v>1.73</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.2658959537572256</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.7899543378995435</v>
       </c>
-      <c r="M61" s="11">
-        <f t="shared" si="13"/>
+      <c r="M61" s="6">
+        <f t="shared" si="29"/>
         <v>0.44132653061224486</v>
       </c>
-      <c r="N61" s="11">
-        <f t="shared" si="14"/>
+      <c r="N61" s="6">
+        <f t="shared" si="30"/>
         <v>0.55867346938775508</v>
       </c>
+      <c r="O61" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P61" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="14">
+        <v>180</v>
+      </c>
+      <c r="V61" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D62" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E62" s="7">
         <v>5.0505050505050608E-2</v>
       </c>
-      <c r="F62" s="15">
-        <f t="shared" si="0"/>
+      <c r="F62" s="8">
+        <f t="shared" si="4"/>
         <v>1.0505050505050506</v>
+      </c>
+      <c r="G62" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I62">
         <v>1.65</v>
@@ -3909,40 +5300,65 @@
         <v>2.25</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.3636363636363638</v>
       </c>
-      <c r="M62" s="11">
-        <f t="shared" si="13"/>
+      <c r="M62" s="6">
+        <f t="shared" si="29"/>
         <v>0.57692307692307687</v>
       </c>
-      <c r="N62" s="11">
-        <f t="shared" si="14"/>
+      <c r="N62" s="6">
+        <f t="shared" si="30"/>
         <v>0.42307692307692307</v>
       </c>
+      <c r="O62" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P62" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S62" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="14">
+        <v>181</v>
+      </c>
+      <c r="V62" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D63" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63" s="7">
         <v>5.1321434246067277E-2</v>
       </c>
-      <c r="F63" s="15">
-        <f t="shared" si="0"/>
+      <c r="F63" s="8">
+        <f t="shared" si="4"/>
         <v>1.0513214342460673</v>
+      </c>
+      <c r="G63" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I63">
         <v>1.58</v>
@@ -3951,40 +5367,71 @@
         <v>2.39</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.6610878661087864</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.5126582278481009</v>
       </c>
-      <c r="M63" s="11">
-        <f t="shared" si="13"/>
+      <c r="M63" s="6">
+        <f t="shared" si="29"/>
         <v>0.60201511335012603</v>
       </c>
-      <c r="N63" s="11">
-        <f t="shared" si="14"/>
+      <c r="N63" s="6">
+        <f t="shared" si="30"/>
         <v>0.39798488664987414</v>
       </c>
+      <c r="O63" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P63" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="14">
+        <v>182</v>
+      </c>
+      <c r="V63" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="B64" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="25"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="26"/>
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="E64" s="7">
         <v>2.7215159278774159E-2</v>
       </c>
-      <c r="F64" s="15">
-        <f t="shared" si="0"/>
+      <c r="F64" s="8">
+        <f t="shared" si="4"/>
         <v>1.0272151592787742</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="31"/>
+        <v>5.1237151702786381</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="32"/>
+        <v>1.2018591140159767</v>
       </c>
       <c r="I64">
         <v>2.74</v>
@@ -3993,40 +5440,77 @@
         <v>1.51</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.8145695364238414</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.551094890510949</v>
       </c>
-      <c r="M64" s="11">
-        <f t="shared" si="13"/>
+      <c r="M64" s="6">
+        <f t="shared" si="29"/>
         <v>0.35529411764705876</v>
       </c>
-      <c r="N64" s="11">
-        <f t="shared" si="14"/>
+      <c r="N64" s="6">
+        <f t="shared" si="30"/>
         <v>0.64470588235294113</v>
       </c>
+      <c r="O64">
+        <f t="shared" si="23"/>
+        <v>0.53476821192052981</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="24"/>
+        <v>1.2563868613138687</v>
+      </c>
       <c r="Q64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="14">
+        <v>183</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="V64" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B65" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="25"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="26"/>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="E65" s="7">
         <v>2.8142785952212312E-2</v>
       </c>
-      <c r="F65" s="15">
-        <f t="shared" si="0"/>
+      <c r="F65" s="8">
+        <f t="shared" si="4"/>
         <v>1.0281427859522123</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="31"/>
+        <v>1.7368349125364431</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="32"/>
+        <v>2.210517161410019</v>
       </c>
       <c r="I65">
         <v>2.13</v>
@@ -4035,40 +5519,77 @@
         <v>1.79</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.1899441340782122</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.84037558685446</v>
       </c>
-      <c r="M65" s="11">
-        <f t="shared" si="13"/>
+      <c r="M65" s="6">
+        <f t="shared" si="29"/>
         <v>0.45663265306122452</v>
       </c>
-      <c r="N65" s="11">
-        <f t="shared" si="14"/>
+      <c r="N65" s="6">
+        <f t="shared" si="30"/>
         <v>0.54336734693877553</v>
       </c>
+      <c r="O65">
+        <f t="shared" si="23"/>
+        <v>1.226368715083799</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="24"/>
+        <v>0.80976525821596235</v>
+      </c>
       <c r="Q65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="14">
+        <v>183</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="U65" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V65" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="B66" s="18">
+        <v>0.74</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="25"/>
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="26"/>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="E66" s="7">
         <v>2.5748928223876311E-2</v>
       </c>
-      <c r="F66" s="15">
-        <f t="shared" si="0"/>
+      <c r="F66" s="8">
+        <f t="shared" si="4"/>
         <v>1.0257489282238763</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="31"/>
+        <v>3.7496055226824452</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="32"/>
+        <v>1.3174289674289674</v>
       </c>
       <c r="I66">
         <v>1.97</v>
@@ -4077,40 +5598,71 @@
         <v>1.93</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.0207253886010363</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.9796954314720812</v>
       </c>
-      <c r="M66" s="11">
-        <f t="shared" si="13"/>
+      <c r="M66" s="6">
+        <f t="shared" si="29"/>
         <v>0.49487179487179483</v>
       </c>
-      <c r="N66" s="11">
-        <f t="shared" si="14"/>
+      <c r="N66" s="6">
+        <f t="shared" si="30"/>
         <v>0.50512820512820511</v>
       </c>
+      <c r="O66">
+        <f t="shared" si="23"/>
+        <v>0.5253886010362695</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="24"/>
+        <v>1.46497461928934</v>
+      </c>
       <c r="Q66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="14">
+        <v>183</v>
+      </c>
+      <c r="V66" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="B67" s="18">
+        <v>0.84</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="26"/>
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="E67" s="7">
         <v>2.8434691851436877E-2</v>
       </c>
-      <c r="F67" s="15">
-        <f t="shared" ref="F67:F83" si="15">(E67/100%) + 1</f>
+      <c r="F67" s="8">
+        <f t="shared" ref="F67:F83" si="33">(E67/100%) + 1</f>
         <v>1.0284346918514369</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="31"/>
+        <v>6.0771967821782189</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="32"/>
+        <v>1.1575612918434701</v>
       </c>
       <c r="I67">
         <v>2.41</v>
@@ -4119,40 +5671,71 @@
         <v>1.63</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.4785276073619631</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.6763485477178419</v>
       </c>
-      <c r="M67" s="11">
-        <f t="shared" si="13"/>
+      <c r="M67" s="6">
+        <f t="shared" si="29"/>
         <v>0.40346534653465349</v>
       </c>
-      <c r="N67" s="11">
-        <f t="shared" si="14"/>
+      <c r="N67" s="6">
+        <f t="shared" si="30"/>
         <v>0.59653465346534673</v>
       </c>
+      <c r="O67">
+        <f t="shared" si="23"/>
+        <v>0.39656441717791407</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="24"/>
+        <v>1.4081327800829875</v>
+      </c>
       <c r="Q67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S67" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="14">
+        <v>183</v>
+      </c>
+      <c r="V67" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <v>0.41</v>
+      </c>
+      <c r="B68" s="18">
+        <v>0.59</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="25"/>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="26"/>
+        <v>1.6949152542372883</v>
+      </c>
+      <c r="E68" s="7">
         <v>2.6840679635557585E-2</v>
       </c>
-      <c r="F68" s="15">
-        <f t="shared" si="15"/>
+      <c r="F68" s="8">
+        <f t="shared" si="33"/>
         <v>1.0268406796355576</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="31"/>
+        <v>2.3752705152950813</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="32"/>
+        <v>1.6506117140186161</v>
       </c>
       <c r="I68">
         <v>1.55</v>
@@ -4161,40 +5744,67 @@
         <v>2.62</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.5916030534351142</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.6903225806451609</v>
       </c>
-      <c r="M68" s="11">
-        <f t="shared" si="13"/>
+      <c r="M68" s="6">
+        <f t="shared" si="29"/>
         <v>0.62829736211031184</v>
       </c>
-      <c r="N68" s="11">
-        <f t="shared" si="14"/>
+      <c r="N68" s="6">
+        <f t="shared" si="30"/>
         <v>0.37170263788968827</v>
       </c>
+      <c r="O68">
+        <f t="shared" si="23"/>
+        <v>0.65255725190839686</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="24"/>
+        <v>1.5872903225806447</v>
+      </c>
       <c r="Q68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S68" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="14">
+        <v>183</v>
+      </c>
+      <c r="V68" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D69" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E69" s="7">
         <v>2.7941553447834E-2</v>
       </c>
-      <c r="F69" s="15">
-        <f t="shared" si="15"/>
+      <c r="F69" s="8">
+        <f t="shared" si="33"/>
         <v>1.027941553447834</v>
+      </c>
+      <c r="G69" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I69">
         <v>2.35</v>
@@ -4203,40 +5813,65 @@
         <v>1.66</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.4156626506024099</v>
       </c>
       <c r="L69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.7063829787234044</v>
       </c>
-      <c r="M69" s="11">
-        <f t="shared" si="13"/>
+      <c r="M69" s="6">
+        <f t="shared" si="29"/>
         <v>0.41396508728179549</v>
       </c>
-      <c r="N69" s="11">
-        <f t="shared" si="14"/>
+      <c r="N69" s="6">
+        <f t="shared" si="30"/>
         <v>0.5860349127182044</v>
       </c>
+      <c r="O69" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="14">
+        <v>183</v>
+      </c>
+      <c r="V69" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D70" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E70" s="7">
         <v>4.664992731597728E-2</v>
       </c>
-      <c r="F70" s="15">
-        <f t="shared" si="15"/>
+      <c r="F70" s="8">
+        <f t="shared" si="33"/>
         <v>1.0466499273159773</v>
+      </c>
+      <c r="G70" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I70">
         <v>2.35</v>
@@ -4245,40 +5880,65 @@
         <v>1.61</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.4596273291925468</v>
       </c>
       <c r="L70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.6851063829787236</v>
       </c>
-      <c r="M70" s="11">
-        <f t="shared" si="13"/>
+      <c r="M70" s="6">
+        <f t="shared" si="29"/>
         <v>0.40656565656565652</v>
       </c>
-      <c r="N70" s="11">
-        <f t="shared" si="14"/>
+      <c r="N70" s="6">
+        <f t="shared" si="30"/>
         <v>0.59343434343434331</v>
       </c>
+      <c r="O70" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P70" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="14">
+        <v>183</v>
+      </c>
+      <c r="V70" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D71" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71" s="7">
         <v>3.0643462560810519E-2</v>
       </c>
-      <c r="F71" s="15">
-        <f t="shared" si="15"/>
+      <c r="F71" s="8">
+        <f t="shared" si="33"/>
         <v>1.0306434625608105</v>
+      </c>
+      <c r="G71" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I71">
         <v>1.57</v>
@@ -4287,40 +5947,65 @@
         <v>2.54</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.6181102362204727</v>
       </c>
       <c r="L71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.6178343949044587</v>
       </c>
-      <c r="M71" s="11">
-        <f t="shared" si="13"/>
+      <c r="M71" s="6">
+        <f t="shared" si="29"/>
         <v>0.61800486618004857</v>
       </c>
-      <c r="N71" s="11">
-        <f t="shared" si="14"/>
+      <c r="N71" s="6">
+        <f t="shared" si="30"/>
         <v>0.38199513381995132</v>
       </c>
+      <c r="O71" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P71" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="14">
+        <v>183</v>
+      </c>
+      <c r="V71" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D72" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E72" s="7">
         <v>3.1149301825993625E-2</v>
       </c>
-      <c r="F72" s="15">
-        <f t="shared" si="15"/>
+      <c r="F72" s="8">
+        <f t="shared" si="33"/>
         <v>1.0311493018259936</v>
+      </c>
+      <c r="G72" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I72">
         <v>2.85</v>
@@ -4329,40 +6014,65 @@
         <v>1.47</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.9387755102040818</v>
       </c>
       <c r="L72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.5157894736842106</v>
       </c>
-      <c r="M72" s="11">
-        <f t="shared" si="13"/>
+      <c r="M72" s="6">
+        <f t="shared" si="29"/>
         <v>0.34027777777777773</v>
       </c>
-      <c r="N72" s="11">
-        <f t="shared" si="14"/>
+      <c r="N72" s="6">
+        <f t="shared" si="30"/>
         <v>0.65972222222222221</v>
       </c>
+      <c r="O72" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P72" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="14">
+        <v>183</v>
+      </c>
+      <c r="V72" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D73" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E73" s="7">
         <v>2.876392847888054E-2</v>
       </c>
-      <c r="F73" s="15">
-        <f t="shared" si="15"/>
+      <c r="F73" s="8">
+        <f t="shared" si="33"/>
         <v>1.0287639284788805</v>
+      </c>
+      <c r="G73" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I73">
         <v>2.27</v>
@@ -4371,40 +6081,65 @@
         <v>1.7</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.335294117647059</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.748898678414097</v>
       </c>
-      <c r="M73" s="11">
-        <f t="shared" si="13"/>
+      <c r="M73" s="6">
+        <f t="shared" si="29"/>
         <v>0.4282115869017632</v>
       </c>
-      <c r="N73" s="11">
-        <f t="shared" si="14"/>
+      <c r="N73" s="6">
+        <f t="shared" si="30"/>
         <v>0.5717884130982368</v>
       </c>
+      <c r="O73" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P73" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q73" t="s">
+        <v>145</v>
+      </c>
+      <c r="R73" t="s">
         <v>146</v>
       </c>
-      <c r="R73" t="s">
-        <v>147</v>
-      </c>
       <c r="S73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="14">
+        <v>183</v>
+      </c>
+      <c r="V73" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D74" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E74" s="7">
         <v>3.4887442654432999E-2</v>
       </c>
-      <c r="F74" s="15">
-        <f t="shared" si="15"/>
+      <c r="F74" s="8">
+        <f t="shared" si="33"/>
         <v>1.034887442654433</v>
+      </c>
+      <c r="G74" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I74">
         <v>2.06</v>
@@ -4413,40 +6148,65 @@
         <v>1.82</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.1318681318681318</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.883495145631068</v>
       </c>
-      <c r="M74" s="11">
-        <f t="shared" si="13"/>
+      <c r="M74" s="6">
+        <f t="shared" si="29"/>
         <v>0.46907216494845361</v>
       </c>
-      <c r="N74" s="11">
-        <f t="shared" si="14"/>
+      <c r="N74" s="6">
+        <f t="shared" si="30"/>
         <v>0.53092783505154639</v>
       </c>
+      <c r="O74" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P74" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q74" t="s">
+        <v>97</v>
+      </c>
+      <c r="R74" t="s">
         <v>98</v>
       </c>
-      <c r="R74" t="s">
-        <v>99</v>
-      </c>
       <c r="S74" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="14">
+        <v>184</v>
+      </c>
+      <c r="V74" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D75" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E75" s="7">
         <v>3.9415457445713731E-2</v>
       </c>
-      <c r="F75" s="15">
-        <f t="shared" si="15"/>
+      <c r="F75" s="8">
+        <f t="shared" si="33"/>
         <v>1.0394154574457137</v>
+      </c>
+      <c r="G75" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I75">
         <v>1.58</v>
@@ -4455,40 +6215,65 @@
         <v>2.46</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.6422764227642277</v>
       </c>
       <c r="L75" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.5569620253164556</v>
       </c>
-      <c r="M75" s="11">
-        <f t="shared" si="13"/>
+      <c r="M75" s="6">
+        <f t="shared" si="29"/>
         <v>0.6089108910891089</v>
       </c>
-      <c r="N75" s="11">
-        <f t="shared" si="14"/>
+      <c r="N75" s="6">
+        <f t="shared" si="30"/>
         <v>0.3910891089108911</v>
       </c>
+      <c r="O75" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P75" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="14">
+        <v>184</v>
+      </c>
+      <c r="V75" s="27">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E76" s="7">
         <v>3.8527765820060234E-2</v>
       </c>
-      <c r="F76" s="15">
-        <f t="shared" si="15"/>
+      <c r="F76" s="8">
+        <f t="shared" si="33"/>
         <v>1.0385277658200602</v>
+      </c>
+      <c r="G76" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I76">
         <v>1.84</v>
@@ -4497,40 +6282,65 @@
         <v>2.02</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.9108910891089108</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.0978260869565215</v>
       </c>
-      <c r="M76" s="11">
-        <f t="shared" si="13"/>
+      <c r="M76" s="6">
+        <f t="shared" si="29"/>
         <v>0.52331606217616577</v>
       </c>
-      <c r="N76" s="11">
-        <f t="shared" si="14"/>
+      <c r="N76" s="6">
+        <f t="shared" si="30"/>
         <v>0.47668393782383423</v>
       </c>
+      <c r="O76" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P76" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S76" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="14">
+        <v>184</v>
+      </c>
+      <c r="V76" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E77" s="7">
         <v>3.7271921102840277E-2</v>
       </c>
-      <c r="F77" s="15">
-        <f t="shared" si="15"/>
+      <c r="F77" s="8">
+        <f t="shared" si="33"/>
         <v>1.0372719211028403</v>
+      </c>
+      <c r="G77" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I77">
         <v>1.99</v>
@@ -4539,40 +6349,65 @@
         <v>1.87</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.0641711229946522</v>
       </c>
       <c r="L77" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.9396984924623115</v>
       </c>
-      <c r="M77" s="11">
-        <f t="shared" si="13"/>
+      <c r="M77" s="6">
+        <f t="shared" si="29"/>
         <v>0.48445595854922285</v>
       </c>
-      <c r="N77" s="11">
-        <f t="shared" si="14"/>
+      <c r="N77" s="6">
+        <f t="shared" si="30"/>
         <v>0.51554404145077726</v>
       </c>
+      <c r="O77" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P77" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="14">
+        <v>184</v>
+      </c>
+      <c r="V77" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D78" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E78" s="7">
         <v>4.4538706256627814E-2</v>
       </c>
-      <c r="F78" s="15">
-        <f t="shared" si="15"/>
+      <c r="F78" s="8">
+        <f t="shared" si="33"/>
         <v>1.0445387062566278</v>
+      </c>
+      <c r="G78" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I78">
         <v>1.64</v>
@@ -4581,40 +6416,65 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7130434782608694</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.4024390243902438</v>
       </c>
-      <c r="M78" s="11">
-        <f t="shared" si="13"/>
+      <c r="M78" s="6">
+        <f t="shared" si="29"/>
         <v>0.58375634517766506</v>
       </c>
-      <c r="N78" s="11">
-        <f t="shared" si="14"/>
+      <c r="N78" s="6">
+        <f t="shared" si="30"/>
         <v>0.41624365482233505</v>
       </c>
+      <c r="O78" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P78" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="14">
+        <v>184</v>
+      </c>
+      <c r="V78" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D79" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E79" s="7">
         <v>4.4887514660411743E-2</v>
       </c>
-      <c r="F79" s="15">
-        <f t="shared" si="15"/>
+      <c r="F79" s="8">
+        <f t="shared" si="33"/>
         <v>1.0448875146604117</v>
+      </c>
+      <c r="G79" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I79">
         <v>1.66</v>
@@ -4623,40 +6483,65 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7345132743362834</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.3614457831325302</v>
       </c>
-      <c r="M79" s="11">
-        <f t="shared" si="13"/>
+      <c r="M79" s="6">
+        <f t="shared" si="29"/>
         <v>0.57653061224489788</v>
       </c>
-      <c r="N79" s="11">
-        <f t="shared" si="14"/>
+      <c r="N79" s="6">
+        <f t="shared" si="30"/>
         <v>0.42346938775510201</v>
       </c>
+      <c r="O79" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P79" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q79" t="s">
+        <v>101</v>
+      </c>
+      <c r="R79" t="s">
         <v>102</v>
       </c>
-      <c r="R79" t="s">
-        <v>103</v>
-      </c>
       <c r="S79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="14">
+        <v>184</v>
+      </c>
+      <c r="V79" s="27">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D80" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E80" s="7">
         <v>4.2566983578219642E-2</v>
       </c>
-      <c r="F80" s="15">
-        <f t="shared" si="15"/>
+      <c r="F80" s="8">
+        <f t="shared" si="33"/>
         <v>1.0425669835782196</v>
+      </c>
+      <c r="G80" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I80">
         <v>2.08</v>
@@ -4665,40 +6550,65 @@
         <v>1.78</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.1685393258426968</v>
       </c>
       <c r="L80" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.8557692307692311</v>
       </c>
-      <c r="M80" s="11">
-        <f t="shared" si="13"/>
+      <c r="M80" s="6">
+        <f t="shared" si="29"/>
         <v>0.46113989637305697</v>
       </c>
-      <c r="N80" s="11">
-        <f t="shared" si="14"/>
+      <c r="N80" s="6">
+        <f t="shared" si="30"/>
         <v>0.53886010362694292</v>
       </c>
+      <c r="O80" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P80" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q80" t="s">
+        <v>157</v>
+      </c>
+      <c r="R80" t="s">
         <v>158</v>
       </c>
-      <c r="R80" t="s">
-        <v>159</v>
-      </c>
       <c r="S80" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="14">
+        <v>184</v>
+      </c>
+      <c r="V80" s="27">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D81" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E81" s="7">
         <v>3.9024126949857019E-2</v>
       </c>
-      <c r="F81" s="15">
-        <f t="shared" si="15"/>
+      <c r="F81" s="8">
+        <f t="shared" si="33"/>
         <v>1.039024126949857</v>
+      </c>
+      <c r="G81" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I81">
         <v>1.91</v>
@@ -4707,40 +6617,65 @@
         <v>1.94</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.9845360824742269</v>
       </c>
       <c r="L81" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.0157068062827226</v>
       </c>
-      <c r="M81" s="11">
-        <f t="shared" si="13"/>
+      <c r="M81" s="6">
+        <f t="shared" si="29"/>
         <v>0.50389610389610384</v>
       </c>
-      <c r="N81" s="11">
-        <f t="shared" si="14"/>
+      <c r="N81" s="6">
+        <f t="shared" si="30"/>
         <v>0.4961038961038961</v>
       </c>
+      <c r="O81" t="e">
+        <f t="shared" ref="O81:O83" si="34">(I81/G81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P81" t="e">
+        <f t="shared" ref="P81:P83" si="35">(J81/H81)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="14">
+        <v>184</v>
+      </c>
+      <c r="V81" s="27">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D82" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E82" s="7">
         <v>4.5230966638152292E-2</v>
       </c>
-      <c r="F82" s="15">
-        <f t="shared" si="15"/>
+      <c r="F82" s="8">
+        <f t="shared" si="33"/>
         <v>1.0452309666381523</v>
+      </c>
+      <c r="G82" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I82">
         <v>1.67</v>
@@ -4749,40 +6684,65 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1.7455357142857142</v>
       </c>
       <c r="L82" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>2.3413173652694614</v>
       </c>
-      <c r="M82" s="11">
-        <f t="shared" si="13"/>
+      <c r="M82" s="6">
+        <f t="shared" si="29"/>
         <v>0.57289002557544755</v>
       </c>
-      <c r="N82" s="11">
-        <f t="shared" si="14"/>
+      <c r="N82" s="6">
+        <f t="shared" si="30"/>
         <v>0.42710997442455234</v>
       </c>
+      <c r="O82" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P82" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="14">
+        <v>184</v>
+      </c>
+      <c r="V82" s="27">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D83" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E83" s="7">
         <v>3.6965398667526461E-2</v>
       </c>
-      <c r="F83" s="15">
-        <f t="shared" si="15"/>
+      <c r="F83" s="8">
+        <f t="shared" si="33"/>
         <v>1.0369653986675265</v>
+      </c>
+      <c r="G83" s="5" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="5" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I83">
         <v>1.98</v>
@@ -4791,1050 +6751,1061 @@
         <v>1.88</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>2.0531914893617023</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>1.9494949494949496</v>
       </c>
-      <c r="M83" s="11">
-        <f t="shared" si="13"/>
+      <c r="M83" s="6">
+        <f t="shared" si="29"/>
         <v>0.48704663212435229</v>
       </c>
-      <c r="N83" s="11">
-        <f t="shared" si="14"/>
+      <c r="N83" s="6">
+        <f t="shared" si="30"/>
         <v>0.5129533678756476</v>
       </c>
+      <c r="O83" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P83" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S83" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="V83" s="27">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="15"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="15"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="15"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="15"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="15"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="15"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="15"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="15"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="8"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="15"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="15"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="15"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="15"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="15"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="15"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="15"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="8"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="15"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="15"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="15"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="15"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="8"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="15"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="8"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="15"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="15"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="15"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="8"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="15"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="15"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="15"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="15"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="15"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="15"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="8"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="15"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="15"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="8"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="15"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="8"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="15"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="8"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="15"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="8"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="15"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="15"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="8"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="15"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="8"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="15"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="8"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
     </row>
     <row r="124" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="15"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="8"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
     </row>
     <row r="125" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="15"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="8"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
     </row>
     <row r="126" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="15"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="8"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
     </row>
     <row r="127" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="15"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="8"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
     </row>
     <row r="128" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="15"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="8"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="15"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="15"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="15"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="8"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
     </row>
     <row r="132" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="15"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="8"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="15"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="8"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="15"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="8"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
     </row>
     <row r="135" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="15"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="8"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
     </row>
     <row r="136" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="15"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="8"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
     </row>
     <row r="137" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="15"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="8"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
     </row>
     <row r="138" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="15"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="8"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
     </row>
     <row r="139" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="15"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="8"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
     </row>
     <row r="140" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="15"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="8"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
     </row>
     <row r="141" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="15"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="8"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
     </row>
     <row r="142" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="15"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="8"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
     </row>
     <row r="143" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="15"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="8"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
     </row>
     <row r="144" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="15"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="8"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
     </row>
     <row r="145" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="15"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="8"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
     </row>
     <row r="146" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="15"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="8"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
     </row>
     <row r="147" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="15"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="8"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
     </row>
     <row r="148" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="15"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="8"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
     </row>
     <row r="149" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="15"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="8"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="11"/>
-      <c r="N149" s="11"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
     </row>
     <row r="150" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="15"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="8"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="11"/>
-      <c r="N150" s="11"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="15"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="8"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="11"/>
-      <c r="N151" s="11"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
     </row>
     <row r="152" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="15"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="8"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="11"/>
-      <c r="N152" s="11"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
     </row>
     <row r="153" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="15"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="8"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="11"/>
-      <c r="N153" s="11"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
     </row>
     <row r="154" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="15"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="8"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="11"/>
-      <c r="N154" s="11"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
     </row>
     <row r="155" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="15"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="8"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="11"/>
-      <c r="N155" s="11"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
     </row>
     <row r="156" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="15"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="8"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
     </row>
     <row r="157" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="15"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="8"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="11"/>
-      <c r="N157" s="11"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
     </row>
     <row r="158" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="15"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="8"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="11"/>
-      <c r="N158" s="11"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
     </row>
     <row r="159" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="15"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="11"/>
-      <c r="N159" s="11"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
     </row>
     <row r="160" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="15"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="8"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="11"/>
-      <c r="N160" s="11"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
     </row>
     <row r="161" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="15"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="8"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
     </row>
     <row r="162" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="15"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="8"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
-      <c r="M162" s="11"/>
-      <c r="N162" s="11"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
     </row>
     <row r="163" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="15"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="8"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
-      <c r="M163" s="11"/>
-      <c r="N163" s="11"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
     </row>
     <row r="164" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="15"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="8"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
-      <c r="M164" s="11"/>
-      <c r="N164" s="11"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
     </row>
     <row r="165" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="15"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="8"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
     </row>
     <row r="166" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="15"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="8"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
-      <c r="M166" s="11"/>
-      <c r="N166" s="11"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
     </row>
     <row r="167" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="15"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="8"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
-      <c r="M167" s="11"/>
-      <c r="N167" s="11"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
     </row>
     <row r="168" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="15"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="8"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
-      <c r="M168" s="11"/>
-      <c r="N168" s="11"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
     </row>
     <row r="169" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="15"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="8"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
     </row>
     <row r="170" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="15"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="8"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
     </row>
     <row r="171" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="15"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="8"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
     </row>
     <row r="172" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="15"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="8"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
     </row>
     <row r="173" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="15"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="8"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
     </row>
     <row r="174" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="15"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="8"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
-      <c r="M174" s="11"/>
-      <c r="N174" s="11"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
     </row>
     <row r="175" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="15"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="8"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
     </row>
     <row r="176" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="15"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="8"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
     </row>
     <row r="177" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="15"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="8"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
-      <c r="M177" s="11"/>
-      <c r="N177" s="11"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
     </row>
     <row r="178" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="15"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="8"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
     </row>
     <row r="179" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="15"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
     </row>
     <row r="180" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="15"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="8"/>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
-      <c r="M180" s="11"/>
-      <c r="N180" s="11"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
     </row>
     <row r="181" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="15"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="8"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
-      <c r="M181" s="11"/>
-      <c r="N181" s="11"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
     </row>
     <row r="182" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="15"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="8"/>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
-      <c r="M182" s="11"/>
-      <c r="N182" s="11"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
     </row>
     <row r="183" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="15"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="8"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
-      <c r="M183" s="11"/>
-      <c r="N183" s="11"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
     </row>
     <row r="184" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="15"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="8"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
-      <c r="M184" s="11"/>
-      <c r="N184" s="11"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
     </row>
     <row r="185" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="15"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="8"/>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
-      <c r="M185" s="11"/>
-      <c r="N185" s="11"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5847,5 +7818,6 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="217">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -36,9 +36,6 @@
     <t>My true odds</t>
   </si>
   <si>
-    <t>Bookmaker's odds(True)</t>
-  </si>
-  <si>
     <t>Bookies Prob %</t>
   </si>
   <si>
@@ -576,12 +573,6 @@
     <t>T1</t>
   </si>
   <si>
-    <t>ov25</t>
-  </si>
-  <si>
-    <t>un25</t>
-  </si>
-  <si>
     <t>SCORE</t>
   </si>
   <si>
@@ -616,6 +607,69 @@
   </si>
   <si>
     <t>P(1X2)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1X</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>Bookies odds(True)</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>0-6</t>
   </si>
 </sst>
 </file>
@@ -718,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,28 +809,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,79 +1118,79 @@
   <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="16"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="16"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="P1" s="21"/>
+      <c r="Q1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="S1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>50</v>
       </c>
@@ -1195,21 +1252,22 @@
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="B3" s="1">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C11" si="2">(100%/A3)</f>
-        <v>2.7777777777777777</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D11" si="3">(100%/B3)</f>
-        <v>1.5625</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="E3" s="7">
         <v>3.4391534391534417E-2</v>
@@ -1220,11 +1278,11 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>2.6854219948849103</v>
+        <v>1.8955919963893484</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="1"/>
-        <v>1.5105498721227621</v>
+        <v>1.9729630982827913</v>
       </c>
       <c r="I3">
         <v>2.16</v>
@@ -1250,39 +1308,48 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O11" si="9">(I3/G3)</f>
-        <v>0.80434285714285725</v>
+        <v>1.1394857142857144</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P11" si="10">(J3/H3)</f>
-        <v>1.1585185185185185</v>
+        <v>0.8869907407407408</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S3" t="s">
-        <v>171</v>
-      </c>
-      <c r="V3" s="27">
+        <v>170</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="20">
         <v>44187</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="B4" s="1">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="2"/>
-        <v>1.9607843137254901</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="3"/>
-        <v>2.0408163265306123</v>
+        <v>1.5625</v>
       </c>
       <c r="E4" s="7">
         <v>2.9539874871307603E-2</v>
@@ -1293,11 +1360,11 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>1.9045248868778277</v>
+        <v>2.6980769230769228</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>1.9822605965463107</v>
+        <v>1.517668269230769</v>
       </c>
       <c r="I4">
         <v>2.0699999999999998</v>
@@ -1323,23 +1390,32 @@
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>1.0868852459016394</v>
+        <v>0.76721311475409837</v>
       </c>
       <c r="P4">
         <f t="shared" si="10"/>
-        <v>0.9231884057971016</v>
+        <v>1.2057971014492757</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>172</v>
-      </c>
-      <c r="V4" s="27">
+        <v>171</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="V4" s="20">
         <v>44187</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1403,19 +1479,25 @@
         <v>1.0373195876288661</v>
       </c>
       <c r="Q5" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" t="s">
         <v>162</v>
       </c>
-      <c r="R5" t="s">
-        <v>163</v>
-      </c>
       <c r="S5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V5" s="27">
+        <v>197</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="V5" s="20">
         <v>44187</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1479,19 +1561,25 @@
         <v>0.38175824175824175</v>
       </c>
       <c r="Q6" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6" t="s">
         <v>164</v>
       </c>
-      <c r="R6" t="s">
-        <v>165</v>
-      </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="V6" s="27">
+        <v>197</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V6" s="20">
         <v>44187</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1555,15 +1643,15 @@
         <v>0.30901287553648071</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>174</v>
-      </c>
-      <c r="V7" s="27">
+        <v>173</v>
+      </c>
+      <c r="V7" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -1628,15 +1716,15 @@
         <v>0.69511111111111112</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>174</v>
-      </c>
-      <c r="V8" s="27">
+        <v>173</v>
+      </c>
+      <c r="V8" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -1701,15 +1789,15 @@
         <v>0.80896551724137933</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S9" t="s">
-        <v>174</v>
-      </c>
-      <c r="V9" s="27">
+        <v>173</v>
+      </c>
+      <c r="V9" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -1774,15 +1862,15 @@
         <v>0.92474226804123727</v>
       </c>
       <c r="Q10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S10" t="s">
-        <v>174</v>
-      </c>
-      <c r="V10" s="27">
+        <v>173</v>
+      </c>
+      <c r="V10" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -1847,15 +1935,15 @@
         <v>0.83869767441860488</v>
       </c>
       <c r="Q11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V11" s="27">
+        <v>173</v>
+      </c>
+      <c r="V11" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -1916,15 +2004,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s">
-        <v>174</v>
-      </c>
-      <c r="V12" s="27">
+        <v>173</v>
+      </c>
+      <c r="V12" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -1985,15 +2073,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>174</v>
-      </c>
-      <c r="V13" s="27">
+        <v>173</v>
+      </c>
+      <c r="V13" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -2054,15 +2142,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S14" t="s">
-        <v>174</v>
-      </c>
-      <c r="V14" s="27">
+        <v>173</v>
+      </c>
+      <c r="V14" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -2123,15 +2211,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S15" t="s">
-        <v>174</v>
-      </c>
-      <c r="V15" s="27">
+        <v>173</v>
+      </c>
+      <c r="V15" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -2192,28 +2280,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S16" t="s">
-        <v>174</v>
-      </c>
-      <c r="V16" s="27">
+        <v>173</v>
+      </c>
+      <c r="V16" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="e">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="4" t="e">
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.2345679012345678</v>
       </c>
       <c r="E17" s="7">
         <v>3.678349083513166E-2</v>
@@ -2222,13 +2314,13 @@
         <f t="shared" si="4"/>
         <v>1.0367834908351317</v>
       </c>
-      <c r="G17" s="5" t="e">
+      <c r="G17" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="5" t="e">
+        <v>5.07642911105515</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.1907673223462696</v>
       </c>
       <c r="I17">
         <v>2.67</v>
@@ -2252,40 +2344,50 @@
         <f t="shared" si="14"/>
         <v>0.63875598086124397</v>
       </c>
-      <c r="O17" t="e">
+      <c r="O17">
         <f t="shared" ref="O17:O80" si="23">(I17/G17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" t="e">
+        <v>0.52596026490066217</v>
+      </c>
+      <c r="P17">
         <f t="shared" ref="P17:P80" si="24">(J17/H17)</f>
-        <v>#DIV/0!</v>
+        <v>1.2680898876404496</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S17" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="V17" s="27">
+        <v>185</v>
+      </c>
+      <c r="V17" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3" t="e">
+      <c r="W17" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="4" t="e">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.0101010101010102</v>
       </c>
       <c r="E18" s="7">
         <v>4.0967868791783379E-2</v>
@@ -2294,13 +2396,13 @@
         <f t="shared" si="4"/>
         <v>1.0409678687917834</v>
       </c>
-      <c r="G18" s="5" t="e">
+      <c r="G18" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="5" t="e">
+        <v>96.064444444444433</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.970347923681257</v>
       </c>
       <c r="I18">
         <v>3.11</v>
@@ -2324,40 +2426,50 @@
         <f t="shared" si="14"/>
         <v>0.69111111111111112</v>
       </c>
-      <c r="O18" t="e">
+      <c r="O18">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" t="e">
+        <v>3.237410071942446E-2</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.432475884244373</v>
       </c>
       <c r="Q18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="V18" s="27">
+        <v>185</v>
+      </c>
+      <c r="V18" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="e">
+      <c r="W18" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C19" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="4" t="e">
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="E19" s="7">
         <v>3.6544850498338777E-2</v>
@@ -2366,13 +2478,13 @@
         <f t="shared" si="4"/>
         <v>1.0365448504983388</v>
       </c>
-      <c r="G19" s="5" t="e">
+      <c r="G19" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="5" t="e">
+        <v>2.8374811463046758</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.4617327117327119</v>
       </c>
       <c r="I19">
         <v>2.15</v>
@@ -2396,40 +2508,50 @@
         <f t="shared" si="14"/>
         <v>0.55128205128205132</v>
       </c>
-      <c r="O19" t="e">
+      <c r="O19">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" t="e">
+        <v>0.75771428571428567</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.1972093023255812</v>
       </c>
       <c r="Q19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="V19" s="27">
+        <v>188</v>
+      </c>
+      <c r="V19" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="e">
+      <c r="W19" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" ref="C20:C83" si="25">(100%/A20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="4" t="e">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" ref="D20:D83" si="26">(100%/B20)</f>
-        <v>#DIV/0!</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="E20" s="7">
         <v>3.7665386256935607E-2</v>
@@ -2438,13 +2560,13 @@
         <f t="shared" si="4"/>
         <v>1.0376653862569356</v>
       </c>
-      <c r="G20" s="5" t="e">
+      <c r="G20" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="5" t="e">
+        <v>1.7208960705104661</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.1902313624678662</v>
       </c>
       <c r="I20">
         <v>2.13</v>
@@ -2468,40 +2590,50 @@
         <f t="shared" si="14"/>
         <v>0.54755784061696655</v>
       </c>
-      <c r="O20" t="e">
+      <c r="O20">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" t="e">
+        <v>1.2377272727272728</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.80356807511737094</v>
       </c>
       <c r="Q20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S20" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="V20" s="27">
+        <v>187</v>
+      </c>
+      <c r="V20" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="e">
+      <c r="W20" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C21" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4" t="e">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.7543859649122808</v>
       </c>
       <c r="E21" s="7">
         <v>3.9415457445713731E-2</v>
@@ -2510,13 +2642,13 @@
         <f t="shared" si="4"/>
         <v>1.0394154574457137</v>
       </c>
-      <c r="G21" s="5" t="e">
+      <c r="G21" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="5" t="e">
+        <v>2.2373935067925399</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.6878582595101617</v>
       </c>
       <c r="I21">
         <v>2.46</v>
@@ -2540,40 +2672,50 @@
         <f t="shared" si="14"/>
         <v>0.6089108910891089</v>
       </c>
-      <c r="O21" t="e">
+      <c r="O21">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" t="e">
+        <v>1.0994936708860759</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.9360975609756097</v>
       </c>
       <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
         <v>19</v>
       </c>
-      <c r="R21" t="s">
-        <v>20</v>
-      </c>
       <c r="S21" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="V21" s="27">
+        <v>190</v>
+      </c>
+      <c r="V21" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="e">
+      <c r="W21" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C22" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="4" t="e">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E22" s="7">
         <v>3.6736533693937368E-2</v>
@@ -2582,13 +2724,13 @@
         <f t="shared" si="4"/>
         <v>1.0367365336939374</v>
       </c>
-      <c r="G22" s="5" t="e">
+      <c r="G22" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="5" t="e">
+        <v>5.3586956521739131</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.1762990455991515</v>
       </c>
       <c r="I22">
         <v>2.61</v>
@@ -2612,40 +2754,50 @@
         <f t="shared" si="14"/>
         <v>0.63043478260869568</v>
       </c>
-      <c r="O22" t="e">
+      <c r="O22">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" t="e">
+        <v>0.48705882352941171</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.3006896551724139</v>
       </c>
       <c r="Q22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="V22" s="27">
+        <v>190</v>
+      </c>
+      <c r="V22" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3" t="e">
+      <c r="W22" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="C23" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="4" t="e">
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>3.125</v>
       </c>
       <c r="E23" s="7">
         <v>3.9574126155082379E-2</v>
@@ -2654,13 +2806,13 @@
         <f t="shared" si="4"/>
         <v>1.0395741261550824</v>
       </c>
-      <c r="G23" s="5" t="e">
+      <c r="G23" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="5" t="e">
+        <v>1.4146064222790564</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.006038647342995</v>
       </c>
       <c r="I23">
         <v>2.62</v>
@@ -2684,37 +2836,50 @@
         <f t="shared" si="14"/>
         <v>0.63285024154589364</v>
       </c>
-      <c r="O23" t="e">
+      <c r="O23">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" t="e">
+        <v>1.8521052631578949</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.50564885496183209</v>
       </c>
       <c r="Q23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S23" t="s">
-        <v>175</v>
-      </c>
-      <c r="V23" s="27">
+        <v>174</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V23" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3" t="e">
+      <c r="W23" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C24" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="4" t="e">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.7543859649122808</v>
       </c>
       <c r="E24" s="7">
         <v>4.1416326203636888E-2</v>
@@ -2723,13 +2888,13 @@
         <f t="shared" si="4"/>
         <v>1.0414163262036369</v>
       </c>
-      <c r="G24" s="5" t="e">
+      <c r="G24" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="5" t="e">
+        <v>2.2330948121645799</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.6846153846153848</v>
       </c>
       <c r="I24">
         <v>2.19</v>
@@ -2753,37 +2918,50 @@
         <f t="shared" si="14"/>
         <v>0.56153846153846165</v>
       </c>
-      <c r="O24" t="e">
+      <c r="O24">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" t="e">
+        <v>0.98070175438596474</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.0150684931506848</v>
       </c>
       <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" t="s">
         <v>21</v>
       </c>
-      <c r="R24" t="s">
-        <v>22</v>
-      </c>
       <c r="S24" t="s">
-        <v>175</v>
-      </c>
-      <c r="V24" s="27">
+        <v>174</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V24" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3" t="e">
+      <c r="W24" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C25" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="4" t="e">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="E25" s="7">
         <v>3.9682539682539542E-2</v>
@@ -2792,13 +2970,13 @@
         <f t="shared" si="4"/>
         <v>1.0396825396825395</v>
       </c>
-      <c r="G25" s="5" t="e">
+      <c r="G25" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="5" t="e">
+        <v>3.6993540810334706</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.2997730554982465</v>
       </c>
       <c r="I25">
         <v>2.25</v>
@@ -2822,37 +3000,50 @@
         <f t="shared" si="14"/>
         <v>0.57251908396946571</v>
       </c>
-      <c r="O25" t="e">
+      <c r="O25">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" t="e">
+        <v>0.60821428571428571</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.2925333333333331</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>175</v>
-      </c>
-      <c r="V25" s="27">
+        <v>174</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V25" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3" t="e">
+      <c r="W25" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C26" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="4" t="e">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="E26" s="7">
         <v>3.8905400701529036E-2</v>
@@ -2861,13 +3052,13 @@
         <f t="shared" si="4"/>
         <v>1.038905400701529</v>
       </c>
-      <c r="G26" s="5" t="e">
+      <c r="G26" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="5" t="e">
+        <v>2.1390034364261168</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.7500937207122771</v>
       </c>
       <c r="I26">
         <v>2.11</v>
@@ -2891,28 +3082,37 @@
         <f t="shared" si="14"/>
         <v>0.54381443298969068</v>
       </c>
-      <c r="O26" t="e">
+      <c r="O26">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" t="e">
+        <v>0.98644067796610169</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.0113744075829385</v>
       </c>
       <c r="Q26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s">
-        <v>175</v>
-      </c>
-      <c r="V26" s="27">
+        <v>174</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="V26" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.68</v>
       </c>
@@ -2973,19 +3173,28 @@
         <v>0.61034146341463413</v>
       </c>
       <c r="Q27" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" t="s">
         <v>47</v>
       </c>
-      <c r="R27" t="s">
-        <v>48</v>
-      </c>
       <c r="S27" t="s">
-        <v>176</v>
-      </c>
-      <c r="V27" s="27">
+        <v>175</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V27" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -3046,26 +3255,41 @@
         <v>1.0207272727272727</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s">
-        <v>176</v>
-      </c>
-      <c r="V28" s="27">
+        <v>175</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="V28" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="e">
+      <c r="W28" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="C29" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="4" t="e">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="E29" s="7">
         <v>2.8049575994781417E-2</v>
@@ -3074,13 +3298,13 @@
         <f t="shared" si="4"/>
         <v>1.0280495759947814</v>
       </c>
-      <c r="G29" s="5" t="e">
+      <c r="G29" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="5" t="e">
+        <v>3.4739847715736039</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.3509940778341794</v>
       </c>
       <c r="I29">
         <v>1.75</v>
@@ -3104,35 +3328,47 @@
         <f t="shared" si="30"/>
         <v>0.44416243654822335</v>
       </c>
-      <c r="O29" t="e">
+      <c r="O29">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" t="e">
+        <v>0.50374429223744299</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.6210285714285715</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S29" t="s">
-        <v>176</v>
-      </c>
-      <c r="V29" s="27">
+        <v>175</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="V29" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="e">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="4" t="e">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E30" s="7">
         <v>2.830305277468792E-2</v>
@@ -3141,13 +3377,13 @@
         <f t="shared" si="4"/>
         <v>1.0283030527746879</v>
       </c>
-      <c r="G30" s="5" t="e">
+      <c r="G30" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="5" t="e">
+        <v>1.1440893665158371</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>6.4831730769230775</v>
       </c>
       <c r="I30">
         <v>1.55</v>
@@ -3171,35 +3407,47 @@
         <f t="shared" si="30"/>
         <v>0.37259615384615385</v>
       </c>
-      <c r="O30" t="e">
+      <c r="O30">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" t="e">
+        <v>1.3547892720306514</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.40258064516129027</v>
       </c>
       <c r="Q30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S30" t="s">
-        <v>176</v>
-      </c>
-      <c r="V30" s="27">
+        <v>175</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="V30" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="e">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C31" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="4" t="e">
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="E31" s="7">
         <v>2.9011311269375728E-2</v>
@@ -3208,13 +3456,13 @@
         <f t="shared" si="4"/>
         <v>1.0290113112693757</v>
       </c>
-      <c r="G31" s="5" t="e">
+      <c r="G31" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="5" t="e">
+        <v>1.4950871011939715</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.7765903307888045</v>
       </c>
       <c r="I31">
         <v>1.76</v>
@@ -3238,35 +3486,47 @@
         <f t="shared" si="30"/>
         <v>0.44783715012722647</v>
       </c>
-      <c r="O31" t="e">
+      <c r="O31">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" t="e">
+        <v>1.1771889400921658</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.78153409090909076</v>
       </c>
       <c r="Q31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S31" t="s">
-        <v>176</v>
-      </c>
-      <c r="V31" s="27">
+        <v>175</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V31" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="e">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="4" t="e">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7">
         <v>3.2622025999509585E-2</v>
@@ -3275,13 +3535,13 @@
         <f t="shared" si="4"/>
         <v>1.0326220259995096</v>
       </c>
-      <c r="G32" s="5" t="e">
+      <c r="G32" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="5" t="e">
+        <v>1.0760095011876483</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>9.6840855106888348</v>
       </c>
       <c r="I32">
         <v>1.51</v>
@@ -3305,35 +3565,47 @@
         <f t="shared" si="30"/>
         <v>0.35866983372921607</v>
       </c>
-      <c r="O32" t="e">
+      <c r="O32">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" t="e">
+        <v>1.4033333333333335</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.27880794701986761</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S32" t="s">
-        <v>176</v>
-      </c>
-      <c r="V32" s="27">
+        <v>175</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="V32" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="e">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C33" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="4" t="e">
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="E33" s="7">
         <v>3.495275717882973E-2</v>
@@ -3342,13 +3614,13 @@
         <f t="shared" si="4"/>
         <v>1.0349527571788297</v>
       </c>
-      <c r="G33" s="5" t="e">
+      <c r="G33" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="5" t="e">
+        <v>1.3057130791505791</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.7162603021978016</v>
       </c>
       <c r="I33">
         <v>1.41</v>
@@ -3372,35 +3644,47 @@
         <f t="shared" si="30"/>
         <v>0.31473214285714285</v>
       </c>
-      <c r="O33" t="e">
+      <c r="O33">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" t="e">
+        <v>1.0798697068403909</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.82609929078014199</v>
       </c>
       <c r="Q33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S33" t="s">
-        <v>176</v>
-      </c>
-      <c r="V33" s="27">
+        <v>175</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="V33" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="e">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="4" t="e">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
       <c r="E34" s="7">
         <v>2.9011311269375728E-2</v>
@@ -3409,13 +3693,13 @@
         <f t="shared" si="4"/>
         <v>1.0290113112693757</v>
       </c>
-      <c r="G34" s="5" t="e">
+      <c r="G34" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="5" t="e">
+        <v>1.619677692960136</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.4295165394402036</v>
       </c>
       <c r="I34">
         <v>1.76</v>
@@ -3439,35 +3723,47 @@
         <f t="shared" si="30"/>
         <v>0.44783715012722647</v>
       </c>
-      <c r="O34" t="e">
+      <c r="O34">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" t="e">
+        <v>1.0866359447004608</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.89318181818181808</v>
       </c>
       <c r="Q34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S34" t="s">
-        <v>176</v>
-      </c>
-      <c r="V34" s="27">
+        <v>175</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V34" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="e">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C35" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="4" t="e">
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.4492753623188408</v>
       </c>
       <c r="E35" s="7">
         <v>2.3185220076411994E-2</v>
@@ -3476,13 +3772,13 @@
         <f t="shared" si="4"/>
         <v>1.023185220076412</v>
       </c>
-      <c r="G35" s="5" t="e">
+      <c r="G35" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="5" t="e">
+        <v>3.1527101724280171</v>
+      </c>
+      <c r="H35" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.4164350050038919</v>
       </c>
       <c r="I35">
         <v>1.93</v>
@@ -3506,35 +3802,47 @@
         <f t="shared" si="30"/>
         <v>0.49360613810741677</v>
       </c>
-      <c r="O35" t="e">
+      <c r="O35">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" t="e">
+        <v>0.61217171717171726</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.3978756476683938</v>
       </c>
       <c r="Q35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S35" t="s">
-        <v>176</v>
-      </c>
-      <c r="V35" s="27">
+        <v>175</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V35" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="e">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="C36" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="4" t="e">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="D36" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="E36" s="7">
         <v>2.925809822361547E-2</v>
@@ -3543,13 +3851,13 @@
         <f t="shared" si="4"/>
         <v>1.0292580982236155</v>
       </c>
-      <c r="G36" s="5" t="e">
+      <c r="G36" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="5" t="e">
+        <v>3.4699057287889774</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.3494077834179357</v>
       </c>
       <c r="I36">
         <v>2.2000000000000002</v>
@@ -3573,28 +3881,34 @@
         <f t="shared" si="30"/>
         <v>0.55837563451776651</v>
       </c>
-      <c r="O36" t="e">
+      <c r="O36">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" t="e">
+        <v>0.63402298850574723</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.2894545454545454</v>
       </c>
       <c r="Q36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S36" t="s">
-        <v>176</v>
-      </c>
-      <c r="V36" s="27">
+        <v>175</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="V36" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -3649,19 +3963,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S37" t="s">
-        <v>177</v>
-      </c>
-      <c r="V37" s="27">
+        <v>176</v>
+      </c>
+      <c r="V37" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -3716,19 +4030,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S38" t="s">
-        <v>177</v>
-      </c>
-      <c r="V38" s="27">
+        <v>176</v>
+      </c>
+      <c r="V38" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -3783,19 +4097,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>177</v>
-      </c>
-      <c r="V39" s="27">
+        <v>176</v>
+      </c>
+      <c r="V39" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -3850,19 +4164,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S40" t="s">
-        <v>177</v>
-      </c>
-      <c r="V40" s="27">
+        <v>176</v>
+      </c>
+      <c r="V40" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -3917,19 +4231,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S41" t="s">
-        <v>177</v>
-      </c>
-      <c r="V41" s="27">
+        <v>176</v>
+      </c>
+      <c r="V41" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -3984,19 +4298,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S42" t="s">
-        <v>177</v>
-      </c>
-      <c r="V42" s="27">
+        <v>176</v>
+      </c>
+      <c r="V42" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4051,19 +4365,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>177</v>
-      </c>
-      <c r="V43" s="27">
+        <v>176</v>
+      </c>
+      <c r="V43" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4118,19 +4432,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S44" t="s">
-        <v>177</v>
-      </c>
-      <c r="V44" s="27">
+        <v>176</v>
+      </c>
+      <c r="V44" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4185,26 +4499,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>177</v>
-      </c>
-      <c r="V45" s="27">
+        <v>176</v>
+      </c>
+      <c r="V45" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="e">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="B46" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="C46" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" s="4" t="e">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D46" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
       <c r="E46" s="7">
         <v>3.4517818107874465E-2</v>
@@ -4213,13 +4533,13 @@
         <f t="shared" si="4"/>
         <v>1.0345178181078745</v>
       </c>
-      <c r="G46" s="5" t="e">
+      <c r="G46" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="5" t="e">
+        <v>1.6110565110565112</v>
+      </c>
+      <c r="H46" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>2.4165847665847666</v>
       </c>
       <c r="I46">
         <v>1.58</v>
@@ -4243,35 +4563,50 @@
         <f t="shared" si="30"/>
         <v>0.3882063882063882</v>
       </c>
-      <c r="O46" t="e">
+      <c r="O46">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" t="e">
+        <v>0.98072289156626502</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.0303797468354432</v>
       </c>
       <c r="Q46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S46" t="s">
-        <v>178</v>
-      </c>
-      <c r="V46" s="27">
+        <v>177</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V46" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C47" s="3" t="e">
+      <c r="W46" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B47" s="18">
+        <v>0.46</v>
+      </c>
+      <c r="C47" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D47" s="4" t="e">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="D47" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="E47" s="7">
         <v>3.3768071984632497E-2</v>
@@ -4280,13 +4615,13 @@
         <f t="shared" si="4"/>
         <v>1.0337680719846325</v>
       </c>
-      <c r="G47" s="5" t="e">
+      <c r="G47" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="5" t="e">
+        <v>1.7273838630806844</v>
+      </c>
+      <c r="H47" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>2.1029020941851813</v>
       </c>
       <c r="I47">
         <v>1.57</v>
@@ -4310,35 +4645,50 @@
         <f t="shared" si="30"/>
         <v>0.38386308068459657</v>
       </c>
-      <c r="O47" t="e">
+      <c r="O47">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" t="e">
+        <v>0.90888888888888908</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.198343949044586</v>
       </c>
       <c r="Q47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S47" t="s">
-        <v>178</v>
-      </c>
-      <c r="V47" s="27">
+        <v>177</v>
+      </c>
+      <c r="T47" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V47" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="e">
+      <c r="W47" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="B48" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="C48" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="4" t="e">
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="D48" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="E48" s="7">
         <v>4.4108708865155943E-2</v>
@@ -4347,13 +4697,13 @@
         <f t="shared" si="4"/>
         <v>1.0441087088651559</v>
       </c>
-      <c r="G48" s="5" t="e">
+      <c r="G48" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="5" t="e">
+        <v>1.4511434511434511</v>
+      </c>
+      <c r="H48" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>2.8169255228078751</v>
       </c>
       <c r="I48">
         <v>1.32</v>
@@ -4377,35 +4727,50 @@
         <f t="shared" si="30"/>
         <v>0.27442827442827439</v>
       </c>
-      <c r="O48" t="e">
+      <c r="O48">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P48" t="e">
+        <v>0.90962750716332386</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.2389393939393942</v>
       </c>
       <c r="Q48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S48" t="s">
-        <v>178</v>
-      </c>
-      <c r="V48" s="27">
+        <v>177</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="V48" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="e">
+      <c r="W48" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="B49" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C49" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" s="4" t="e">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="D49" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="E49" s="7">
         <v>3.5245155416829377E-2</v>
@@ -4414,13 +4779,13 @@
         <f t="shared" si="4"/>
         <v>1.0352451554168294</v>
       </c>
-      <c r="G49" s="5" t="e">
+      <c r="G49" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="5" t="e">
+        <v>2.1465661641541036</v>
+      </c>
+      <c r="H49" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>1.7562814070351755</v>
       </c>
       <c r="I49">
         <v>1.65</v>
@@ -4444,35 +4809,50 @@
         <f t="shared" si="30"/>
         <v>0.41457286432160795</v>
       </c>
-      <c r="O49" t="e">
+      <c r="O49">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P49" t="e">
+        <v>0.76866952789699572</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.3266666666666669</v>
       </c>
       <c r="Q49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S49" t="s">
-        <v>178</v>
-      </c>
-      <c r="V49" s="27">
+        <v>177</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="V49" s="20">
         <v>44187</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="e">
+      <c r="W49" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="B50" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="C50" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="4" t="e">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="D50" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.8867924528301885</v>
       </c>
       <c r="E50" s="7">
         <v>3.5766729599328695E-2</v>
@@ -4481,13 +4861,13 @@
         <f t="shared" si="4"/>
         <v>1.0357667295993287</v>
       </c>
-      <c r="G50" s="5" t="e">
+      <c r="G50" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="5" t="e">
+        <v>2.054187988149744</v>
+      </c>
+      <c r="H50" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>1.821638404585622</v>
       </c>
       <c r="I50">
         <v>1.68</v>
@@ -4511,28 +4891,28 @@
         <f t="shared" si="30"/>
         <v>0.42531645569620252</v>
       </c>
-      <c r="O50" t="e">
+      <c r="O50">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P50" t="e">
+        <v>0.81784140969162999</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>1.2461309523809525</v>
       </c>
       <c r="Q50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S50" t="s">
-        <v>178</v>
-      </c>
-      <c r="V50" s="27">
+        <v>177</v>
+      </c>
+      <c r="V50" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4587,19 +4967,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S51" t="s">
-        <v>178</v>
-      </c>
-      <c r="V51" s="27">
+        <v>177</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="V51" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4654,19 +5040,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S52" t="s">
-        <v>178</v>
-      </c>
-      <c r="V52" s="27">
+        <v>177</v>
+      </c>
+      <c r="V52" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4721,19 +5107,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S53" t="s">
-        <v>178</v>
-      </c>
-      <c r="V53" s="27">
+        <v>177</v>
+      </c>
+      <c r="V53" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4788,19 +5174,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S54" t="s">
-        <v>178</v>
-      </c>
-      <c r="V54" s="27">
+        <v>177</v>
+      </c>
+      <c r="V54" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4855,19 +5241,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" t="s">
+        <v>159</v>
+      </c>
+      <c r="R55" t="s">
         <v>160</v>
       </c>
-      <c r="R55" t="s">
-        <v>161</v>
-      </c>
       <c r="S55" t="s">
-        <v>179</v>
-      </c>
-      <c r="V55" s="27">
+        <v>178</v>
+      </c>
+      <c r="V55" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4922,19 +5308,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S56" t="s">
-        <v>180</v>
-      </c>
-      <c r="V56" s="27">
+        <v>179</v>
+      </c>
+      <c r="V56" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -4989,19 +5375,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S57" t="s">
-        <v>180</v>
-      </c>
-      <c r="V57" s="27">
+        <v>179</v>
+      </c>
+      <c r="V57" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5056,19 +5442,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s">
-        <v>180</v>
-      </c>
-      <c r="V58" s="27">
+        <v>179</v>
+      </c>
+      <c r="V58" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5123,19 +5509,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S59" t="s">
-        <v>180</v>
-      </c>
-      <c r="V59" s="27">
+        <v>179</v>
+      </c>
+      <c r="V59" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5190,19 +5576,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S60" t="s">
-        <v>180</v>
-      </c>
-      <c r="V60" s="27">
+        <v>179</v>
+      </c>
+      <c r="V60" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5257,19 +5643,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S61" t="s">
-        <v>180</v>
-      </c>
-      <c r="V61" s="27">
+        <v>179</v>
+      </c>
+      <c r="V61" s="20">
         <v>44188</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5324,19 +5710,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S62" t="s">
-        <v>181</v>
-      </c>
-      <c r="V62" s="27">
+        <v>180</v>
+      </c>
+      <c r="V62" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5391,19 +5777,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S63" t="s">
-        <v>182</v>
-      </c>
-      <c r="V63" s="27">
+        <v>181</v>
+      </c>
+      <c r="V63" s="20">
         <v>44187</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>0.19</v>
       </c>
@@ -5464,21 +5850,21 @@
         <v>1.2563868613138687</v>
       </c>
       <c r="Q64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T64" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U64" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="V64" s="27">
+        <v>186</v>
+      </c>
+      <c r="V64" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -5543,21 +5929,21 @@
         <v>0.80976525821596235</v>
       </c>
       <c r="Q65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T65" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U65" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="V65" s="27">
+        <v>188</v>
+      </c>
+      <c r="V65" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -5622,15 +6008,15 @@
         <v>1.46497461928934</v>
       </c>
       <c r="Q66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S66" t="s">
-        <v>183</v>
-      </c>
-      <c r="V66" s="27">
+        <v>182</v>
+      </c>
+      <c r="V66" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -5695,15 +6081,15 @@
         <v>1.4081327800829875</v>
       </c>
       <c r="Q67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S67" t="s">
-        <v>183</v>
-      </c>
-      <c r="V67" s="27">
+        <v>182</v>
+      </c>
+      <c r="V67" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -5768,15 +6154,15 @@
         <v>1.5872903225806447</v>
       </c>
       <c r="Q68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S68" t="s">
-        <v>183</v>
-      </c>
-      <c r="V68" s="27">
+        <v>182</v>
+      </c>
+      <c r="V68" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -5837,15 +6223,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S69" t="s">
-        <v>183</v>
-      </c>
-      <c r="V69" s="27">
+        <v>182</v>
+      </c>
+      <c r="V69" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -5904,15 +6290,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S70" t="s">
-        <v>183</v>
-      </c>
-      <c r="V70" s="27">
+        <v>182</v>
+      </c>
+      <c r="V70" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -5971,15 +6357,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S71" t="s">
-        <v>183</v>
-      </c>
-      <c r="V71" s="27">
+        <v>182</v>
+      </c>
+      <c r="V71" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6038,15 +6424,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S72" t="s">
-        <v>183</v>
-      </c>
-      <c r="V72" s="27">
+        <v>182</v>
+      </c>
+      <c r="V72" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6105,15 +6491,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R73" t="s">
         <v>145</v>
       </c>
-      <c r="R73" t="s">
-        <v>146</v>
-      </c>
       <c r="S73" t="s">
-        <v>183</v>
-      </c>
-      <c r="V73" s="27">
+        <v>182</v>
+      </c>
+      <c r="V73" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6172,15 +6558,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q74" t="s">
+        <v>96</v>
+      </c>
+      <c r="R74" t="s">
         <v>97</v>
       </c>
-      <c r="R74" t="s">
-        <v>98</v>
-      </c>
       <c r="S74" t="s">
-        <v>184</v>
-      </c>
-      <c r="V74" s="27">
+        <v>183</v>
+      </c>
+      <c r="V74" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -6239,15 +6625,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S75" t="s">
-        <v>184</v>
-      </c>
-      <c r="V75" s="27">
+        <v>183</v>
+      </c>
+      <c r="V75" s="20">
         <v>44187</v>
       </c>
     </row>
@@ -6306,15 +6692,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S76" t="s">
-        <v>184</v>
-      </c>
-      <c r="V76" s="27">
+        <v>183</v>
+      </c>
+      <c r="V76" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6373,15 +6759,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S77" t="s">
-        <v>184</v>
-      </c>
-      <c r="V77" s="27">
+        <v>183</v>
+      </c>
+      <c r="V77" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6440,15 +6826,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S78" t="s">
-        <v>184</v>
-      </c>
-      <c r="V78" s="27">
+        <v>183</v>
+      </c>
+      <c r="V78" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6507,15 +6893,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q79" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" t="s">
         <v>101</v>
       </c>
-      <c r="R79" t="s">
-        <v>102</v>
-      </c>
       <c r="S79" t="s">
-        <v>184</v>
-      </c>
-      <c r="V79" s="27">
+        <v>183</v>
+      </c>
+      <c r="V79" s="20">
         <v>44188</v>
       </c>
     </row>
@@ -6574,15 +6960,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q80" t="s">
+        <v>156</v>
+      </c>
+      <c r="R80" t="s">
         <v>157</v>
       </c>
-      <c r="R80" t="s">
-        <v>158</v>
-      </c>
       <c r="S80" t="s">
-        <v>184</v>
-      </c>
-      <c r="V80" s="27">
+        <v>183</v>
+      </c>
+      <c r="V80" s="20">
         <v>44189</v>
       </c>
     </row>
@@ -6641,15 +7027,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S81" t="s">
-        <v>184</v>
-      </c>
-      <c r="V81" s="27">
+        <v>183</v>
+      </c>
+      <c r="V81" s="20">
         <v>44189</v>
       </c>
     </row>
@@ -6708,15 +7094,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S82" t="s">
-        <v>184</v>
-      </c>
-      <c r="V82" s="27">
+        <v>183</v>
+      </c>
+      <c r="V82" s="20">
         <v>44189</v>
       </c>
     </row>
@@ -6775,15 +7161,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S83" t="s">
-        <v>184</v>
-      </c>
-      <c r="V83" s="27">
+        <v>183</v>
+      </c>
+      <c r="V83" s="20">
         <v>44189</v>
       </c>
     </row>
@@ -7809,15 +8195,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$201</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="384">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1147,6 +1150,30 @@
   </si>
   <si>
     <t>2-5</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>30/12/2020</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>1X2</t>
+  </si>
+  <si>
+    <t>H-A</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,6 +1216,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1255,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1310,6 +1343,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,11 +1651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W185"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W84" sqref="W84:W176"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U14" sqref="U13:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,40 +1670,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="34"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="2" t="s">
         <v>210</v>
       </c>
@@ -1750,9 +1786,27 @@
         <f>(H2/J2)</f>
         <v>1.0773195876288661</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="Q2" t="s">
+        <v>379</v>
+      </c>
+      <c r="R2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S2" t="s">
+        <v>381</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="V2" s="20">
+        <v>43831</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -12266,7 +12320,7 @@
         <v>4.0540540540540349E-2</v>
       </c>
       <c r="F131" s="8">
-        <f t="shared" ref="F131:F185" si="52">(E131/100%) + 1</f>
+        <f t="shared" ref="F131:F194" si="52">(E131/100%) + 1</f>
         <v>1.0405405405405403</v>
       </c>
       <c r="G131" s="5">
@@ -16019,14 +16073,20 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C177" s="3" t="e">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A177" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="B177" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="C177" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D177" s="4" t="e">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D177" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>1.2820512820512819</v>
       </c>
       <c r="E177" s="7">
         <v>3.709508881922674E-2</v>
@@ -16035,13 +16095,13 @@
         <f t="shared" si="52"/>
         <v>1.0370950888192267</v>
       </c>
-      <c r="G177" s="5" t="e">
+      <c r="G177" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H177" s="5" t="e">
+        <v>4.3828715365239299</v>
+      </c>
+      <c r="H177" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.2361945359426467</v>
       </c>
       <c r="I177">
         <v>2.3199999999999998</v>
@@ -16065,13 +16125,13 @@
         <f t="shared" si="62"/>
         <v>0.58438287153652402</v>
       </c>
-      <c r="O177" t="e">
+      <c r="O177">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P177" t="e">
+        <v>0.52933333333333321</v>
+      </c>
+      <c r="P177">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.3347413793103449</v>
       </c>
       <c r="Q177" t="s">
         <v>160</v>
@@ -16082,18 +16142,33 @@
       <c r="S177" t="s">
         <v>178</v>
       </c>
+      <c r="T177" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U177" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="V177" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C178" s="3" t="e">
+      <c r="W177" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A178" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="B178" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="C178" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D178" s="4" t="e">
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="D178" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>3.125</v>
       </c>
       <c r="E178" s="7">
         <v>3.3764291056736839E-2</v>
@@ -16102,13 +16177,13 @@
         <f t="shared" si="52"/>
         <v>1.0337642910567368</v>
       </c>
-      <c r="G178" s="5" t="e">
+      <c r="G178" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H178" s="5" t="e">
+        <v>1.4225566195470436</v>
+      </c>
+      <c r="H178" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>3.0229328165374678</v>
       </c>
       <c r="I178">
         <v>1.91</v>
@@ -16132,13 +16207,13 @@
         <f t="shared" si="62"/>
         <v>0.49354005167958659</v>
       </c>
-      <c r="O178" t="e">
+      <c r="O178">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P178" t="e">
+        <v>1.3426530612244898</v>
+      </c>
+      <c r="P178">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0.64837696335078532</v>
       </c>
       <c r="Q178" t="s">
         <v>360</v>
@@ -16149,18 +16224,33 @@
       <c r="S178" t="s">
         <v>178</v>
       </c>
+      <c r="T178" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U178" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="V178" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C179" s="3" t="e">
+      <c r="W178" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A179" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="B179" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="C179" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D179" s="4" t="e">
+        <v>5</v>
+      </c>
+      <c r="D179" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>1.25</v>
       </c>
       <c r="E179" s="7">
         <v>4.2682266276676373E-2</v>
@@ -16169,13 +16259,13 @@
         <f t="shared" si="52"/>
         <v>1.0426822662766764</v>
       </c>
-      <c r="G179" s="5" t="e">
+      <c r="G179" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H179" s="5" t="e">
+        <v>4.7953246753246752</v>
+      </c>
+      <c r="H179" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.1988311688311688</v>
       </c>
       <c r="I179">
         <v>1.81</v>
@@ -16199,13 +16289,13 @@
         <f t="shared" si="62"/>
         <v>0.47012987012987018</v>
       </c>
-      <c r="O179" t="e">
+      <c r="O179">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P179" t="e">
+        <v>0.37745098039215691</v>
+      </c>
+      <c r="P179">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.701657458563536</v>
       </c>
       <c r="Q179" t="s">
         <v>149</v>
@@ -16216,18 +16306,33 @@
       <c r="S179" t="s">
         <v>183</v>
       </c>
+      <c r="T179" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="U179" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="V179" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C180" s="3" t="e">
+      <c r="W179" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="B180" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C180" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D180" s="4" t="e">
+        <v>2</v>
+      </c>
+      <c r="D180" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="E180" s="7">
         <v>4.3410041841004166E-2</v>
@@ -16236,13 +16341,13 @@
         <f t="shared" si="52"/>
         <v>1.0434100418410042</v>
       </c>
-      <c r="G180" s="5" t="e">
+      <c r="G180" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H180" s="5" t="e">
+        <v>1.9167919799498747</v>
+      </c>
+      <c r="H180" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.9167919799498747</v>
       </c>
       <c r="I180">
         <v>2.39</v>
@@ -16266,13 +16371,13 @@
         <f t="shared" si="62"/>
         <v>0.59899749373433586</v>
       </c>
-      <c r="O180" t="e">
+      <c r="O180">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P180" t="e">
+        <v>1.246875</v>
+      </c>
+      <c r="P180">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0.83472803347280333</v>
       </c>
       <c r="Q180" t="s">
         <v>157</v>
@@ -16283,18 +16388,33 @@
       <c r="S180" t="s">
         <v>183</v>
       </c>
+      <c r="T180" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U180" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="V180" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C181" s="3" t="e">
+      <c r="W180" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A181" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="B181" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="C181" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D181" s="4" t="e">
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="D181" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>1.2345679012345678</v>
       </c>
       <c r="E181" s="7">
         <v>4.17510053167085E-2</v>
@@ -16303,13 +16423,13 @@
         <f t="shared" si="52"/>
         <v>1.0417510053167085</v>
       </c>
-      <c r="G181" s="5" t="e">
+      <c r="G181" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H181" s="5" t="e">
+        <v>5.0522225252249795</v>
+      </c>
+      <c r="H181" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.1850892343120323</v>
       </c>
       <c r="I181">
         <v>2.0699999999999998</v>
@@ -16333,13 +16453,13 @@
         <f t="shared" si="62"/>
         <v>0.53626943005181349</v>
       </c>
-      <c r="O181" t="e">
+      <c r="O181">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P181" t="e">
+        <v>0.40972067039106141</v>
+      </c>
+      <c r="P181">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.5104347826086957</v>
       </c>
       <c r="Q181" t="s">
         <v>155</v>
@@ -16350,18 +16470,30 @@
       <c r="S181" t="s">
         <v>183</v>
       </c>
+      <c r="T181" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U181" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="V181" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C182" s="3" t="e">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A182" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="B182" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="C182" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D182" s="4" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="D182" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E182" s="7">
         <v>4.4096111080978329E-2</v>
@@ -16370,13 +16502,13 @@
         <f t="shared" si="52"/>
         <v>1.0440961110809783</v>
       </c>
-      <c r="G182" s="5" t="e">
+      <c r="G182" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H182" s="5" t="e">
+        <v>2.3944155844155848</v>
+      </c>
+      <c r="H182" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.5962770562770565</v>
       </c>
       <c r="I182">
         <v>1.79</v>
@@ -16400,13 +16532,13 @@
         <f t="shared" si="62"/>
         <v>0.46493506493506503</v>
       </c>
-      <c r="O182" t="e">
+      <c r="O182">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P182" t="e">
+        <v>0.74757281553398047</v>
+      </c>
+      <c r="P182">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.2905027932960893</v>
       </c>
       <c r="Q182" t="s">
         <v>153</v>
@@ -16417,18 +16549,33 @@
       <c r="S182" t="s">
         <v>183</v>
       </c>
+      <c r="T182" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U182" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="V182" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C183" s="3" t="e">
+      <c r="W182" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="B183" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="C183" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D183" s="4" t="e">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D183" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
       <c r="E183" s="7">
         <v>4.102564102564088E-2</v>
@@ -16437,13 +16584,13 @@
         <f t="shared" si="52"/>
         <v>1.0410256410256409</v>
       </c>
-      <c r="G183" s="5" t="e">
+      <c r="G183" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H183" s="5" t="e">
+        <v>1.6009852216748772</v>
+      </c>
+      <c r="H183" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>2.4014778325123154</v>
       </c>
       <c r="I183">
         <v>1.56</v>
@@ -16467,13 +16614,13 @@
         <f t="shared" si="62"/>
         <v>0.38423645320197047</v>
       </c>
-      <c r="O183" t="e">
+      <c r="O183">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P183" t="e">
+        <v>0.97439999999999982</v>
+      </c>
+      <c r="P183">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.0410256410256409</v>
       </c>
       <c r="Q183" t="s">
         <v>361</v>
@@ -16484,18 +16631,30 @@
       <c r="S183" t="s">
         <v>178</v>
       </c>
+      <c r="T183" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U183" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="V183" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C184" s="3" t="e">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A184" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="B184" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="C184" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D184" s="4" t="e">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D184" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>1.5625</v>
       </c>
       <c r="E184" s="7">
         <v>3.7398886437651102E-2</v>
@@ -16504,13 +16663,13 @@
         <f t="shared" si="52"/>
         <v>1.0373988864376511</v>
       </c>
-      <c r="G184" s="5" t="e">
+      <c r="G184" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H184" s="5" t="e">
+        <v>2.6776371308016875</v>
+      </c>
+      <c r="H184" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.5061708860759493</v>
       </c>
       <c r="I184">
         <v>2.2799999999999998</v>
@@ -16534,13 +16693,13 @@
         <f t="shared" si="62"/>
         <v>0.57721518987341769</v>
       </c>
-      <c r="O184" t="e">
+      <c r="O184">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P184" t="e">
+        <v>0.85149700598802391</v>
+      </c>
+      <c r="P184">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.1087719298245615</v>
       </c>
       <c r="Q184" t="s">
         <v>363</v>
@@ -16551,18 +16710,30 @@
       <c r="S184" t="s">
         <v>178</v>
       </c>
+      <c r="T184" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U184" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="V184" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C185" s="3" t="e">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A185" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B185" s="18">
+        <v>0.41</v>
+      </c>
+      <c r="C185" s="3">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D185" s="4" t="e">
+        <v>3.4482758620689657</v>
+      </c>
+      <c r="D185" s="4">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="E185" s="7">
         <v>3.5590045491035394E-2</v>
@@ -16571,13 +16742,13 @@
         <f t="shared" si="52"/>
         <v>1.0355900454910354</v>
       </c>
-      <c r="G185" s="5" t="e">
+      <c r="G185" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H185" s="5" t="e">
+        <v>3.329769223915175</v>
+      </c>
+      <c r="H185" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>2.3552026217936604</v>
       </c>
       <c r="I185">
         <v>1.85</v>
@@ -16601,13 +16772,13 @@
         <f t="shared" si="62"/>
         <v>0.47803617571059442</v>
       </c>
-      <c r="O185" t="e">
+      <c r="O185">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P185" t="e">
+        <v>0.55559405940594053</v>
+      </c>
+      <c r="P185">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0.85767567567567549</v>
       </c>
       <c r="Q185" t="s">
         <v>365</v>
@@ -16618,8 +16789,1305 @@
       <c r="S185" t="s">
         <v>178</v>
       </c>
+      <c r="T185" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U185" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="V185" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="B186" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="C186" s="3">
+        <f t="shared" ref="C186:C201" si="63">(100%/A186)</f>
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="D186" s="4">
+        <f t="shared" ref="D186:D201" si="64">(100%/B186)</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="E186" s="30">
+        <v>2.3185220076411994E-2</v>
+      </c>
+      <c r="F186" s="8">
+        <f t="shared" si="52"/>
+        <v>1.023185220076412</v>
+      </c>
+      <c r="G186" s="5">
+        <f t="shared" ref="G186:G201" si="65">C186/F186</f>
+        <v>1.2371394347502342</v>
+      </c>
+      <c r="H186" s="5">
+        <f t="shared" ref="H186:H201" si="66">D186/F186</f>
+        <v>4.6540007307270725</v>
+      </c>
+      <c r="I186">
+        <v>1.93</v>
+      </c>
+      <c r="J186">
+        <v>1.98</v>
+      </c>
+      <c r="K186" s="5">
+        <f t="shared" ref="K186:K201" si="67">(I186*F186)</f>
+        <v>1.9747474747474751</v>
+      </c>
+      <c r="L186" s="5">
+        <f t="shared" ref="L186:L201" si="68">(J186*F186)</f>
+        <v>2.0259067357512959</v>
+      </c>
+      <c r="M186" s="6">
+        <f t="shared" ref="M186:M201" si="69">(1/K186)</f>
+        <v>0.50639386189258306</v>
+      </c>
+      <c r="N186" s="6">
+        <f t="shared" ref="N186:N201" si="70">(1/L186)</f>
+        <v>0.49360613810741677</v>
+      </c>
+      <c r="O186">
+        <f t="shared" ref="O186:O201" si="71">(I186/G186)</f>
+        <v>1.5600505050505056</v>
+      </c>
+      <c r="P186">
+        <f t="shared" ref="P186:P201" si="72">(J186/H186)</f>
+        <v>0.42544041450777209</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>235</v>
+      </c>
+      <c r="R186" t="s">
+        <v>231</v>
+      </c>
+      <c r="S186" t="s">
+        <v>233</v>
+      </c>
+      <c r="T186" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U186" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="V186" t="s">
+        <v>369</v>
+      </c>
+      <c r="W186" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A187" s="18">
+        <v>0.31</v>
+      </c>
+      <c r="B187" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="C187" s="3">
+        <f t="shared" si="63"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="D187" s="4">
+        <f t="shared" si="64"/>
+        <v>1.4492753623188408</v>
+      </c>
+      <c r="E187" s="30">
+        <v>3.2199592155283119E-2</v>
+      </c>
+      <c r="F187" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0321995921552831</v>
+      </c>
+      <c r="G187" s="5">
+        <f t="shared" si="65"/>
+        <v>3.1251770259638083</v>
+      </c>
+      <c r="H187" s="5">
+        <f t="shared" si="66"/>
+        <v>1.4040650406504067</v>
+      </c>
+      <c r="I187">
+        <v>1.57</v>
+      </c>
+      <c r="J187">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K187" s="5">
+        <f t="shared" si="67"/>
+        <v>1.6205533596837947</v>
+      </c>
+      <c r="L187" s="5">
+        <f t="shared" si="68"/>
+        <v>2.6114649681528661</v>
+      </c>
+      <c r="M187" s="6">
+        <f t="shared" si="69"/>
+        <v>0.6170731707317072</v>
+      </c>
+      <c r="N187" s="6">
+        <f t="shared" si="70"/>
+        <v>0.38292682926829269</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="71"/>
+        <v>0.50237154150197627</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="72"/>
+        <v>1.8019108280254772</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>239</v>
+      </c>
+      <c r="R187" t="s">
+        <v>234</v>
+      </c>
+      <c r="S187" t="s">
+        <v>233</v>
+      </c>
+      <c r="T187" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U187" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="V187" t="s">
+        <v>369</v>
+      </c>
+      <c r="W187" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="B188" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="C188" s="3">
+        <f t="shared" si="63"/>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="D188" s="4">
+        <f t="shared" si="64"/>
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="E188" s="30">
+        <v>2.7986944565804084E-2</v>
+      </c>
+      <c r="F188" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0279869445658041</v>
+      </c>
+      <c r="G188" s="5">
+        <f t="shared" si="65"/>
+        <v>2.6291216216216213</v>
+      </c>
+      <c r="H188" s="5">
+        <f t="shared" si="66"/>
+        <v>1.5440873015873013</v>
+      </c>
+      <c r="I188">
+        <v>1.67</v>
+      </c>
+      <c r="J188">
+        <v>2.33</v>
+      </c>
+      <c r="K188" s="5">
+        <f t="shared" si="67"/>
+        <v>1.7167381974248928</v>
+      </c>
+      <c r="L188" s="5">
+        <f t="shared" si="68"/>
+        <v>2.3952095808383236</v>
+      </c>
+      <c r="M188" s="6">
+        <f t="shared" si="69"/>
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="N188" s="6">
+        <f t="shared" si="70"/>
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="71"/>
+        <v>0.63519313304721037</v>
+      </c>
+      <c r="P188">
+        <f t="shared" si="72"/>
+        <v>1.5089820359281441</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>243</v>
+      </c>
+      <c r="R188" t="s">
+        <v>240</v>
+      </c>
+      <c r="S188" t="s">
+        <v>233</v>
+      </c>
+      <c r="T188" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U188" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="V188" t="s">
+        <v>369</v>
+      </c>
+      <c r="W188" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="B189" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="C189" s="3">
+        <f t="shared" si="63"/>
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="D189" s="4">
+        <f t="shared" si="64"/>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="E189" s="30">
+        <v>4.0540540540540349E-2</v>
+      </c>
+      <c r="F189" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0405405405405403</v>
+      </c>
+      <c r="G189" s="5">
+        <f t="shared" si="65"/>
+        <v>1.5254586683158113</v>
+      </c>
+      <c r="H189" s="5">
+        <f t="shared" si="66"/>
+        <v>2.5974025974025978</v>
+      </c>
+      <c r="I189">
+        <v>1.85</v>
+      </c>
+      <c r="J189">
+        <v>2</v>
+      </c>
+      <c r="K189" s="5">
+        <f t="shared" si="67"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="L189" s="5">
+        <f t="shared" si="68"/>
+        <v>2.0810810810810807</v>
+      </c>
+      <c r="M189" s="6">
+        <f t="shared" si="69"/>
+        <v>0.51948051948051954</v>
+      </c>
+      <c r="N189" s="6">
+        <f t="shared" si="70"/>
+        <v>0.48051948051948062</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="71"/>
+        <v>1.21275</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="72"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>302</v>
+      </c>
+      <c r="R189" t="s">
+        <v>164</v>
+      </c>
+      <c r="S189" t="s">
+        <v>172</v>
+      </c>
+      <c r="T189" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U189" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V189" t="s">
+        <v>369</v>
+      </c>
+      <c r="W189" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="B190" s="18">
+        <v>0.76</v>
+      </c>
+      <c r="C190" s="3">
+        <f t="shared" si="63"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D190" s="4">
+        <f t="shared" si="64"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="E190" s="30">
+        <v>4.0540540540540349E-2</v>
+      </c>
+      <c r="F190" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0405405405405403</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" si="65"/>
+        <v>4.004329004329005</v>
+      </c>
+      <c r="H190" s="5">
+        <f t="shared" si="66"/>
+        <v>1.2645249487354753</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>1.85</v>
+      </c>
+      <c r="K190" s="5">
+        <f t="shared" si="67"/>
+        <v>2.0810810810810807</v>
+      </c>
+      <c r="L190" s="5">
+        <f t="shared" si="68"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="M190" s="6">
+        <f t="shared" si="69"/>
+        <v>0.48051948051948062</v>
+      </c>
+      <c r="N190" s="6">
+        <f t="shared" si="70"/>
+        <v>0.51948051948051954</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="71"/>
+        <v>0.49945945945945935</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="72"/>
+        <v>1.4629999999999999</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>163</v>
+      </c>
+      <c r="R190" t="s">
+        <v>303</v>
+      </c>
+      <c r="S190" t="s">
+        <v>172</v>
+      </c>
+      <c r="T190" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="U190" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="V190" t="s">
+        <v>369</v>
+      </c>
+      <c r="W190" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A191" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="B191" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="C191" s="3">
+        <f t="shared" si="63"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="D191" s="4">
+        <f t="shared" si="64"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="E191" s="30">
+        <v>3.80529783514858E-2</v>
+      </c>
+      <c r="F191" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0380529783514858</v>
+      </c>
+      <c r="G191" s="5">
+        <f t="shared" si="65"/>
+        <v>1.8889058213959158</v>
+      </c>
+      <c r="H191" s="5">
+        <f t="shared" si="66"/>
+        <v>1.966004018187586</v>
+      </c>
+      <c r="I191">
+        <v>1.85</v>
+      </c>
+      <c r="J191">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K191" s="5">
+        <f t="shared" si="67"/>
+        <v>1.9203980099502489</v>
+      </c>
+      <c r="L191" s="5">
+        <f t="shared" si="68"/>
+        <v>2.086486486486486</v>
+      </c>
+      <c r="M191" s="6">
+        <f t="shared" si="69"/>
+        <v>0.52072538860103623</v>
+      </c>
+      <c r="N191" s="6">
+        <f t="shared" si="70"/>
+        <v>0.47927461139896382</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="71"/>
+        <v>0.97940298507462697</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="72"/>
+        <v>1.0223783783783782</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>306</v>
+      </c>
+      <c r="R191" t="s">
+        <v>161</v>
+      </c>
+      <c r="S191" t="s">
+        <v>172</v>
+      </c>
+      <c r="T191" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="U191" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V191" t="s">
+        <v>369</v>
+      </c>
+      <c r="W191" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" s="18">
+        <v>0.43</v>
+      </c>
+      <c r="B192" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C192" s="3">
+        <f t="shared" si="63"/>
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="D192" s="4">
+        <f t="shared" si="64"/>
+        <v>1.7543859649122808</v>
+      </c>
+      <c r="E192" s="30">
+        <v>3.9058924870117639E-2</v>
+      </c>
+      <c r="F192" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0390589248701176</v>
+      </c>
+      <c r="G192" s="5">
+        <f t="shared" si="65"/>
+        <v>2.2381612242438851</v>
+      </c>
+      <c r="H192" s="5">
+        <f t="shared" si="66"/>
+        <v>1.6884374147804746</v>
+      </c>
+      <c r="I192">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J192">
+        <v>1.83</v>
+      </c>
+      <c r="K192" s="5">
+        <f t="shared" si="67"/>
+        <v>2.1092896174863385</v>
+      </c>
+      <c r="L192" s="5">
+        <f t="shared" si="68"/>
+        <v>1.9014778325123154</v>
+      </c>
+      <c r="M192" s="6">
+        <f t="shared" si="69"/>
+        <v>0.47409326424870474</v>
+      </c>
+      <c r="N192" s="6">
+        <f t="shared" si="70"/>
+        <v>0.52590673575129532</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="71"/>
+        <v>0.90699453551912546</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="72"/>
+        <v>1.0838423645320197</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>162</v>
+      </c>
+      <c r="R192" t="s">
+        <v>376</v>
+      </c>
+      <c r="S192" t="s">
+        <v>172</v>
+      </c>
+      <c r="T192" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U192" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V192" t="s">
+        <v>369</v>
+      </c>
+      <c r="W192" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A193" s="18">
+        <v>0.84</v>
+      </c>
+      <c r="B193" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="C193" s="3">
+        <f t="shared" si="63"/>
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="D193" s="4">
+        <f t="shared" si="64"/>
+        <v>6.25</v>
+      </c>
+      <c r="E193" s="30">
+        <v>4.4887514660411743E-2</v>
+      </c>
+      <c r="F193" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0448875146604117</v>
+      </c>
+      <c r="G193" s="5">
+        <f t="shared" si="65"/>
+        <v>1.1393343051506315</v>
+      </c>
+      <c r="H193" s="5">
+        <f t="shared" si="66"/>
+        <v>5.9815051020408152</v>
+      </c>
+      <c r="I193">
+        <v>1.66</v>
+      </c>
+      <c r="J193">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K193" s="5">
+        <f t="shared" si="67"/>
+        <v>1.7345132743362834</v>
+      </c>
+      <c r="L193" s="5">
+        <f t="shared" si="68"/>
+        <v>2.3614457831325302</v>
+      </c>
+      <c r="M193" s="6">
+        <f t="shared" si="69"/>
+        <v>0.57653061224489788</v>
+      </c>
+      <c r="N193" s="6">
+        <f t="shared" si="70"/>
+        <v>0.42346938775510201</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="71"/>
+        <v>1.456991150442478</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="72"/>
+        <v>0.37783132530120483</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>304</v>
+      </c>
+      <c r="R193" t="s">
+        <v>309</v>
+      </c>
+      <c r="S193" t="s">
+        <v>172</v>
+      </c>
+      <c r="T193" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U193" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="V193" t="s">
+        <v>369</v>
+      </c>
+      <c r="W193" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A194" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="B194" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="C194" s="3">
+        <f t="shared" si="63"/>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="D194" s="4">
+        <f t="shared" si="64"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E194" s="30">
+        <v>3.9529106814990778E-2</v>
+      </c>
+      <c r="F194" s="8">
+        <f t="shared" si="52"/>
+        <v>1.0395291068149908</v>
+      </c>
+      <c r="G194" s="5">
+        <f t="shared" si="65"/>
+        <v>1.4799600399600399</v>
+      </c>
+      <c r="H194" s="5">
+        <f t="shared" si="66"/>
+        <v>2.7484972170686457</v>
+      </c>
+      <c r="I194">
+        <v>1.97</v>
+      </c>
+      <c r="J194">
+        <v>1.88</v>
+      </c>
+      <c r="K194" s="5">
+        <f t="shared" si="67"/>
+        <v>2.0478723404255317</v>
+      </c>
+      <c r="L194" s="5">
+        <f t="shared" si="68"/>
+        <v>1.9543147208121825</v>
+      </c>
+      <c r="M194" s="6">
+        <f t="shared" si="69"/>
+        <v>0.48831168831168836</v>
+      </c>
+      <c r="N194" s="6">
+        <f t="shared" si="70"/>
+        <v>0.51168831168831175</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="71"/>
+        <v>1.3311170212765957</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="72"/>
+        <v>0.68401015228426387</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>310</v>
+      </c>
+      <c r="R194" t="s">
+        <v>301</v>
+      </c>
+      <c r="S194" t="s">
+        <v>172</v>
+      </c>
+      <c r="T194" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U194" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V194" t="s">
+        <v>369</v>
+      </c>
+      <c r="W194" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A195" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="B195" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="C195" s="3">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="D195" s="4">
+        <f t="shared" si="64"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E195" s="30">
+        <v>2.4916986953225084E-2</v>
+      </c>
+      <c r="F195" s="8">
+        <f t="shared" ref="F195:F201" si="73">(E195/100%) + 1</f>
+        <v>1.0249169869532251</v>
+      </c>
+      <c r="G195" s="5">
+        <f t="shared" si="65"/>
+        <v>3.9027551020408162</v>
+      </c>
+      <c r="H195" s="5">
+        <f t="shared" si="66"/>
+        <v>1.3009183673469387</v>
+      </c>
+      <c r="I195">
+        <v>2.09</v>
+      </c>
+      <c r="J195">
+        <v>1.83</v>
+      </c>
+      <c r="K195" s="5">
+        <f t="shared" si="67"/>
+        <v>2.1420765027322402</v>
+      </c>
+      <c r="L195" s="5">
+        <f t="shared" si="68"/>
+        <v>1.8755980861244019</v>
+      </c>
+      <c r="M195" s="6">
+        <f t="shared" si="69"/>
+        <v>0.4668367346938776</v>
+      </c>
+      <c r="N195" s="6">
+        <f t="shared" si="70"/>
+        <v>0.53316326530612246</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="71"/>
+        <v>0.53551912568306004</v>
+      </c>
+      <c r="P195">
+        <f t="shared" si="72"/>
+        <v>1.4066985645933017</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>344</v>
+      </c>
+      <c r="R195" t="s">
+        <v>238</v>
+      </c>
+      <c r="S195" t="s">
+        <v>233</v>
+      </c>
+      <c r="T195" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="U195" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V195" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A196" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="B196" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="C196" s="3">
+        <f t="shared" si="63"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="D196" s="4">
+        <f t="shared" si="64"/>
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="E196" s="30">
+        <v>2.9736789230460081E-2</v>
+      </c>
+      <c r="F196" s="8">
+        <f t="shared" si="73"/>
+        <v>1.0297367892304601</v>
+      </c>
+      <c r="G196" s="5">
+        <f t="shared" si="65"/>
+        <v>5.71248206599713</v>
+      </c>
+      <c r="H196" s="5">
+        <f t="shared" si="66"/>
+        <v>1.1700264472524244</v>
+      </c>
+      <c r="I196">
+        <v>2.52</v>
+      </c>
+      <c r="J196">
+        <v>1.58</v>
+      </c>
+      <c r="K196" s="5">
+        <f t="shared" si="67"/>
+        <v>2.5949367088607596</v>
+      </c>
+      <c r="L196" s="5">
+        <f t="shared" si="68"/>
+        <v>1.626984126984127</v>
+      </c>
+      <c r="M196" s="6">
+        <f t="shared" si="69"/>
+        <v>0.38536585365853659</v>
+      </c>
+      <c r="N196" s="6">
+        <f t="shared" si="70"/>
+        <v>0.61463414634146341</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="71"/>
+        <v>0.44113924050632913</v>
+      </c>
+      <c r="P196">
+        <f t="shared" si="72"/>
+        <v>1.3503968253968253</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>342</v>
+      </c>
+      <c r="R196" t="s">
+        <v>242</v>
+      </c>
+      <c r="S196" t="s">
+        <v>233</v>
+      </c>
+      <c r="T196" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="U196" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V196" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A197" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="B197" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="C197" s="3">
+        <f t="shared" si="63"/>
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="D197" s="4">
+        <f t="shared" si="64"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="E197" s="30">
+        <v>2.5748928223876311E-2</v>
+      </c>
+      <c r="F197" s="8">
+        <f t="shared" si="73"/>
+        <v>1.0257489282238763</v>
+      </c>
+      <c r="G197" s="5">
+        <f t="shared" si="65"/>
+        <v>1.455070799846919</v>
+      </c>
+      <c r="H197" s="5">
+        <f t="shared" si="66"/>
+        <v>2.954234654234654</v>
+      </c>
+      <c r="I197">
+        <v>1.97</v>
+      </c>
+      <c r="J197">
+        <v>1.93</v>
+      </c>
+      <c r="K197" s="5">
+        <f t="shared" si="67"/>
+        <v>2.0207253886010363</v>
+      </c>
+      <c r="L197" s="5">
+        <f t="shared" si="68"/>
+        <v>1.9796954314720812</v>
+      </c>
+      <c r="M197" s="6">
+        <f t="shared" si="69"/>
+        <v>0.49487179487179483</v>
+      </c>
+      <c r="N197" s="6">
+        <f t="shared" si="70"/>
+        <v>0.50512820512820511</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="71"/>
+        <v>1.3538860103626944</v>
+      </c>
+      <c r="P197">
+        <f t="shared" si="72"/>
+        <v>0.65329949238578677</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>237</v>
+      </c>
+      <c r="R197" t="s">
+        <v>343</v>
+      </c>
+      <c r="S197" t="s">
+        <v>233</v>
+      </c>
+      <c r="T197" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U197" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V197" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A198" s="18">
+        <v>0.73</v>
+      </c>
+      <c r="B198" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="C198" s="3">
+        <f t="shared" si="63"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="D198" s="4">
+        <f t="shared" si="64"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="E198" s="30">
+        <v>2.6228673287496784E-2</v>
+      </c>
+      <c r="F198" s="8">
+        <f t="shared" si="73"/>
+        <v>1.0262286732874968</v>
+      </c>
+      <c r="G198" s="5">
+        <f t="shared" si="65"/>
+        <v>1.3348516264998811</v>
+      </c>
+      <c r="H198" s="5">
+        <f t="shared" si="66"/>
+        <v>3.6090432864626409</v>
+      </c>
+      <c r="I198">
+        <v>1.65</v>
+      </c>
+      <c r="J198">
+        <v>2.38</v>
+      </c>
+      <c r="K198" s="5">
+        <f t="shared" si="67"/>
+        <v>1.6932773109243695</v>
+      </c>
+      <c r="L198" s="5">
+        <f t="shared" si="68"/>
+        <v>2.4424242424242424</v>
+      </c>
+      <c r="M198" s="6">
+        <f t="shared" si="69"/>
+        <v>0.5905707196029778</v>
+      </c>
+      <c r="N198" s="6">
+        <f t="shared" si="70"/>
+        <v>0.40942928039702237</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="71"/>
+        <v>1.2360924369747899</v>
+      </c>
+      <c r="P198">
+        <f t="shared" si="72"/>
+        <v>0.65945454545454552</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>346</v>
+      </c>
+      <c r="R198" t="s">
+        <v>341</v>
+      </c>
+      <c r="S198" t="s">
+        <v>233</v>
+      </c>
+      <c r="T198" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U198" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V198" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A199" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="B199" s="18">
+        <v>0.53</v>
+      </c>
+      <c r="C199" s="3">
+        <f t="shared" si="63"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="D199" s="4">
+        <f t="shared" si="64"/>
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="E199" s="30">
+        <v>4.445050449959087E-2</v>
+      </c>
+      <c r="F199" s="8">
+        <f t="shared" si="73"/>
+        <v>1.0444505044995909</v>
+      </c>
+      <c r="G199" s="5">
+        <f t="shared" si="65"/>
+        <v>2.0371090494972504</v>
+      </c>
+      <c r="H199" s="5">
+        <f t="shared" si="66"/>
+        <v>1.8064929306862407</v>
+      </c>
+      <c r="I199">
+        <v>1.9</v>
+      </c>
+      <c r="J199">
+        <v>1.93</v>
+      </c>
+      <c r="K199" s="5">
+        <f t="shared" si="67"/>
+        <v>1.9844559585492225</v>
+      </c>
+      <c r="L199" s="5">
+        <f t="shared" si="68"/>
+        <v>2.0157894736842104</v>
+      </c>
+      <c r="M199" s="6">
+        <f t="shared" si="69"/>
+        <v>0.50391644908616195</v>
+      </c>
+      <c r="N199" s="6">
+        <f t="shared" si="70"/>
+        <v>0.49608355091383816</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="71"/>
+        <v>0.93269430051813462</v>
+      </c>
+      <c r="P199">
+        <f t="shared" si="72"/>
+        <v>1.0683684210526316</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>232</v>
+      </c>
+      <c r="R199" t="s">
+        <v>347</v>
+      </c>
+      <c r="S199" t="s">
+        <v>233</v>
+      </c>
+      <c r="T199" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U199" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A200" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="B200" s="18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C200" s="3">
+        <f t="shared" si="63"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="D200" s="4">
+        <f t="shared" si="64"/>
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="E200" s="30">
+        <v>4.4564446626302434E-2</v>
+      </c>
+      <c r="F200" s="8">
+        <f t="shared" si="73"/>
+        <v>1.0445644466263024</v>
+      </c>
+      <c r="G200" s="5">
+        <f t="shared" si="65"/>
+        <v>2.2793733681462136</v>
+      </c>
+      <c r="H200" s="5">
+        <f t="shared" si="66"/>
+        <v>1.6505807148644998</v>
+      </c>
+      <c r="I200">
+        <v>1.94</v>
+      </c>
+      <c r="J200">
+        <v>1.89</v>
+      </c>
+      <c r="K200" s="5">
+        <f t="shared" si="67"/>
+        <v>2.0264550264550265</v>
+      </c>
+      <c r="L200" s="5">
+        <f t="shared" si="68"/>
+        <v>1.9742268041237114</v>
+      </c>
+      <c r="M200" s="6">
+        <f t="shared" si="69"/>
+        <v>0.49347258485639683</v>
+      </c>
+      <c r="N200" s="6">
+        <f t="shared" si="70"/>
+        <v>0.50652741514360311</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="71"/>
+        <v>0.85111111111111126</v>
+      </c>
+      <c r="P200">
+        <f t="shared" si="72"/>
+        <v>1.1450515463917526</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>348</v>
+      </c>
+      <c r="R200" t="s">
+        <v>236</v>
+      </c>
+      <c r="S200" t="s">
+        <v>233</v>
+      </c>
+      <c r="T200" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U200" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="V200" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A201" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="B201" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="C201" s="3">
+        <f t="shared" si="63"/>
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="D201" s="4">
+        <f t="shared" si="64"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="E201" s="30">
+        <v>2.81266064478225E-2</v>
+      </c>
+      <c r="F201" s="8">
+        <f t="shared" si="73"/>
+        <v>1.0281266064478225</v>
+      </c>
+      <c r="G201" s="5">
+        <f t="shared" si="65"/>
+        <v>1.1718588640275389</v>
+      </c>
+      <c r="H201" s="5">
+        <f t="shared" si="66"/>
+        <v>5.7214285714285715</v>
+      </c>
+      <c r="I201">
+        <v>1.53</v>
+      </c>
+      <c r="J201">
+        <v>2.67</v>
+      </c>
+      <c r="K201" s="5">
+        <f t="shared" si="67"/>
+        <v>1.5730337078651684</v>
+      </c>
+      <c r="L201" s="5">
+        <f t="shared" si="68"/>
+        <v>2.7450980392156858</v>
+      </c>
+      <c r="M201" s="6">
+        <f t="shared" si="69"/>
+        <v>0.63571428571428579</v>
+      </c>
+      <c r="N201" s="6">
+        <f t="shared" si="70"/>
+        <v>0.36428571428571432</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="71"/>
+        <v>1.3056179775280896</v>
+      </c>
+      <c r="P201">
+        <f t="shared" si="72"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>241</v>
+      </c>
+      <c r="R201" t="s">
+        <v>345</v>
+      </c>
+      <c r="S201" t="s">
+        <v>233</v>
+      </c>
+      <c r="T201" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U201" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="V201" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2way" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="327">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -980,6 +980,30 @@
   </si>
   <si>
     <t>1-3</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1436,9 +1460,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U135" sqref="U135"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2:U134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,6 +1693,9 @@
       <c r="V3" s="12">
         <v>44409</v>
       </c>
+      <c r="W3" s="9" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1748,6 +1775,9 @@
       <c r="V4" s="12">
         <v>44409</v>
       </c>
+      <c r="W4" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1827,6 +1857,9 @@
       <c r="V5" s="12">
         <v>44409</v>
       </c>
+      <c r="W5" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1906,6 +1939,9 @@
       <c r="V6" s="12">
         <v>44409</v>
       </c>
+      <c r="W6" s="9" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1985,6 +2021,9 @@
       <c r="V7" s="12">
         <v>44409</v>
       </c>
+      <c r="W7" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2064,6 +2103,9 @@
       <c r="V8" s="12">
         <v>44409</v>
       </c>
+      <c r="W8" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2143,6 +2185,9 @@
       <c r="V9" s="12">
         <v>44409</v>
       </c>
+      <c r="W9" s="9" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2222,6 +2267,9 @@
       <c r="V10" s="12">
         <v>44409</v>
       </c>
+      <c r="W10" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2301,6 +2349,9 @@
       <c r="V11" s="12">
         <v>44409</v>
       </c>
+      <c r="W11" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2380,6 +2431,9 @@
       <c r="V12" s="12">
         <v>44409</v>
       </c>
+      <c r="W12" s="9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2459,6 +2513,9 @@
       <c r="V13" s="12">
         <v>44409</v>
       </c>
+      <c r="W13" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2538,6 +2595,9 @@
       <c r="V14" s="12">
         <v>44409</v>
       </c>
+      <c r="W14" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2617,6 +2677,9 @@
       <c r="V15" s="12">
         <v>44409</v>
       </c>
+      <c r="W15" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2696,8 +2759,11 @@
       <c r="V16" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.94</v>
       </c>
@@ -2775,8 +2841,11 @@
       <c r="V17" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.59</v>
       </c>
@@ -2854,8 +2923,11 @@
       <c r="V18" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.32</v>
       </c>
@@ -2933,8 +3005,11 @@
       <c r="V19" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.42</v>
       </c>
@@ -3012,8 +3087,11 @@
       <c r="V20" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.6</v>
       </c>
@@ -3091,8 +3169,11 @@
       <c r="V21" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.74</v>
       </c>
@@ -3170,8 +3251,11 @@
       <c r="V22" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.72</v>
       </c>
@@ -3249,8 +3333,11 @@
       <c r="V23" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.25</v>
       </c>
@@ -3328,8 +3415,11 @@
       <c r="V24" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.66</v>
       </c>
@@ -3407,8 +3497,11 @@
       <c r="V25" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.62</v>
       </c>
@@ -3486,8 +3579,11 @@
       <c r="V26" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.39</v>
       </c>
@@ -3565,8 +3661,11 @@
       <c r="V27" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.56000000000000005</v>
       </c>
@@ -3644,8 +3743,11 @@
       <c r="V28" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.35</v>
       </c>
@@ -3723,8 +3825,11 @@
       <c r="V29" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.63</v>
       </c>
@@ -3802,8 +3907,11 @@
       <c r="V30" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.46</v>
       </c>
@@ -3881,8 +3989,11 @@
       <c r="V31" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.66</v>
       </c>
@@ -3960,8 +4071,11 @@
       <c r="V32" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.36</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="V33" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.47</v>
       </c>
@@ -4118,8 +4235,11 @@
       <c r="V34" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -4197,8 +4317,11 @@
       <c r="V35" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.62</v>
       </c>
@@ -4276,8 +4399,11 @@
       <c r="V36" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.51</v>
       </c>
@@ -4355,8 +4481,11 @@
       <c r="V37" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.35</v>
       </c>
@@ -4434,8 +4563,11 @@
       <c r="V38" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.44</v>
       </c>
@@ -4513,8 +4645,11 @@
       <c r="V39" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.44</v>
       </c>
@@ -4592,8 +4727,11 @@
       <c r="V40" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.47</v>
       </c>
@@ -4671,8 +4809,11 @@
       <c r="V41" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.66</v>
       </c>
@@ -4750,8 +4891,11 @@
       <c r="V42" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.43</v>
       </c>
@@ -4829,8 +4973,11 @@
       <c r="V43" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.65</v>
       </c>
@@ -4908,8 +5055,11 @@
       <c r="V44" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>0.34</v>
       </c>
@@ -4987,8 +5137,11 @@
       <c r="V45" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>0.28000000000000003</v>
       </c>
@@ -5066,8 +5219,11 @@
       <c r="V46" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>0.15</v>
       </c>
@@ -5145,8 +5301,11 @@
       <c r="V47" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>0.85</v>
       </c>
@@ -5224,8 +5383,11 @@
       <c r="V48" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>0.23</v>
       </c>
@@ -5303,8 +5465,11 @@
       <c r="V49" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>0.83</v>
       </c>
@@ -5382,8 +5547,11 @@
       <c r="V50" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>0.7</v>
       </c>
@@ -5461,8 +5629,11 @@
       <c r="V51" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>0.74</v>
       </c>
@@ -5540,8 +5711,11 @@
       <c r="V52" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>0.72</v>
       </c>
@@ -5619,8 +5793,11 @@
       <c r="V53" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>0.3</v>
       </c>
@@ -5698,8 +5875,11 @@
       <c r="V54" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>0.41</v>
       </c>
@@ -5777,8 +5957,11 @@
       <c r="V55" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>0.6</v>
       </c>
@@ -5856,8 +6039,11 @@
       <c r="V56" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>0.64</v>
       </c>
@@ -5935,8 +6121,11 @@
       <c r="V57" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>0.63</v>
       </c>
@@ -6014,8 +6203,11 @@
       <c r="V58" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>0.44</v>
       </c>
@@ -6093,8 +6285,11 @@
       <c r="V59" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>0.79</v>
       </c>
@@ -6172,8 +6367,11 @@
       <c r="V60" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>0.47</v>
       </c>
@@ -6251,8 +6449,11 @@
       <c r="V61" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>0.54</v>
       </c>
@@ -6330,8 +6531,11 @@
       <c r="V62" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>0.88</v>
       </c>
@@ -6409,8 +6613,11 @@
       <c r="V63" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>0.38</v>
       </c>
@@ -6488,8 +6695,11 @@
       <c r="V64" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>0.54</v>
       </c>
@@ -6567,8 +6777,11 @@
       <c r="V65" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>0.53</v>
       </c>
@@ -6646,8 +6859,11 @@
       <c r="V66" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>0.13</v>
       </c>
@@ -6725,8 +6941,11 @@
       <c r="V67" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>0.53</v>
       </c>
@@ -6804,8 +7023,11 @@
       <c r="V68" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>0.51</v>
       </c>
@@ -6883,8 +7105,11 @@
       <c r="V69" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W69" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>0.73</v>
       </c>
@@ -6962,8 +7187,11 @@
       <c r="V70" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>0.27</v>
       </c>
@@ -7041,8 +7269,11 @@
       <c r="V71" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W71" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>0.26</v>
       </c>
@@ -7120,8 +7351,11 @@
       <c r="V72" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W72" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>0.57999999999999996</v>
       </c>
@@ -7199,8 +7433,11 @@
       <c r="V73" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W73" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>0.52</v>
       </c>
@@ -7278,8 +7515,11 @@
       <c r="V74" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W74" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>0.66</v>
       </c>
@@ -7357,8 +7597,11 @@
       <c r="V75" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W75" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>0.09</v>
       </c>
@@ -7436,8 +7679,11 @@
       <c r="V76" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W76" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>0.27</v>
       </c>
@@ -7515,8 +7761,11 @@
       <c r="V77" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>0.13</v>
       </c>
@@ -7594,8 +7843,11 @@
       <c r="V78" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>0.39</v>
       </c>
@@ -7673,8 +7925,11 @@
       <c r="V79" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W79" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>0.56000000000000005</v>
       </c>
@@ -7752,6 +8007,9 @@
       <c r="V80" s="12">
         <v>44440</v>
       </c>
+      <c r="W80" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
@@ -7831,6 +8089,9 @@
       <c r="V81" s="12">
         <v>44440</v>
       </c>
+      <c r="W81" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="82" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
@@ -7910,7 +8171,9 @@
       <c r="V82" s="12">
         <v>44440</v>
       </c>
-      <c r="W82" s="20"/>
+      <c r="W82" s="20" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
@@ -7990,6 +8253,9 @@
       <c r="V83" s="12">
         <v>44470</v>
       </c>
+      <c r="W83" s="9" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
@@ -8069,6 +8335,9 @@
       <c r="V84" s="12">
         <v>44470</v>
       </c>
+      <c r="W84" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
@@ -8148,6 +8417,9 @@
       <c r="V85" s="12">
         <v>44470</v>
       </c>
+      <c r="W85" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
@@ -8227,6 +8499,9 @@
       <c r="V86" s="12">
         <v>44470</v>
       </c>
+      <c r="W86" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
@@ -8306,6 +8581,9 @@
       <c r="V87" s="12">
         <v>44470</v>
       </c>
+      <c r="W87" s="9" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
@@ -8385,6 +8663,9 @@
       <c r="V88" s="12">
         <v>44470</v>
       </c>
+      <c r="W88" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
@@ -8464,6 +8745,9 @@
       <c r="V89" s="12">
         <v>44470</v>
       </c>
+      <c r="W89" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
@@ -8543,6 +8827,9 @@
       <c r="V90" s="12">
         <v>44470</v>
       </c>
+      <c r="W90" s="9" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
@@ -8622,6 +8909,9 @@
       <c r="V91" s="12">
         <v>44470</v>
       </c>
+      <c r="W91" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
@@ -8701,6 +8991,9 @@
       <c r="V92" s="12">
         <v>44470</v>
       </c>
+      <c r="W92" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
@@ -8780,6 +9073,9 @@
       <c r="V93" s="12">
         <v>44470</v>
       </c>
+      <c r="W93" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
@@ -8859,6 +9155,9 @@
       <c r="V94" s="12">
         <v>44470</v>
       </c>
+      <c r="W94" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
@@ -8938,6 +9237,9 @@
       <c r="V95" s="12">
         <v>44470</v>
       </c>
+      <c r="W95" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
@@ -9017,8 +9319,11 @@
       <c r="V96" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W96" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>0.3</v>
       </c>
@@ -9096,8 +9401,11 @@
       <c r="V97" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W97" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>0.27</v>
       </c>
@@ -9175,8 +9483,11 @@
       <c r="V98" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W98" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>0.34</v>
       </c>
@@ -9254,8 +9565,11 @@
       <c r="V99" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W99" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>0.38</v>
       </c>
@@ -9333,8 +9647,11 @@
       <c r="V100" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W100" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>0.59</v>
       </c>
@@ -9412,8 +9729,11 @@
       <c r="V101" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W101" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>0.83</v>
       </c>
@@ -9491,8 +9811,11 @@
       <c r="V102" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W102" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>0.55000000000000004</v>
       </c>
@@ -9570,8 +9893,11 @@
       <c r="V103" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W103" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>0.67</v>
       </c>
@@ -9649,8 +9975,11 @@
       <c r="V104" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W104" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>0.7</v>
       </c>
@@ -9728,8 +10057,11 @@
       <c r="V105" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W105" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>0.37</v>
       </c>
@@ -9807,8 +10139,11 @@
       <c r="V106" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W106" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>0.17</v>
       </c>
@@ -9886,8 +10221,11 @@
       <c r="V107" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W107" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>0.44</v>
       </c>
@@ -9965,8 +10303,11 @@
       <c r="V108" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W108" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>0.27</v>
       </c>
@@ -10044,8 +10385,11 @@
       <c r="V109" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W109" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>0.53</v>
       </c>
@@ -10123,8 +10467,11 @@
       <c r="V110" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W110" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>0.24</v>
       </c>
@@ -10202,8 +10549,11 @@
       <c r="V111" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W111" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>0.2</v>
       </c>
@@ -10281,8 +10631,11 @@
       <c r="V112" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W112" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>0.57999999999999996</v>
       </c>
@@ -10360,8 +10713,11 @@
       <c r="V113" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W113" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>0.28999999999999998</v>
       </c>
@@ -10439,8 +10795,11 @@
       <c r="V114" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W114" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>0.5</v>
       </c>
@@ -10518,8 +10877,11 @@
       <c r="V115" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W115" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>0.3</v>
       </c>
@@ -10597,8 +10959,11 @@
       <c r="V116" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W116" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>0.44</v>
       </c>
@@ -10676,8 +11041,11 @@
       <c r="V117" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W117" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>0.56999999999999995</v>
       </c>
@@ -10755,8 +11123,11 @@
       <c r="V118" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W118" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>0.41</v>
       </c>
@@ -10834,8 +11205,11 @@
       <c r="V119" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W119" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>0.6</v>
       </c>
@@ -10913,8 +11287,11 @@
       <c r="V120" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W120" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>0.86</v>
       </c>
@@ -10992,8 +11369,11 @@
       <c r="V121" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W121" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>0.66</v>
       </c>
@@ -11071,8 +11451,11 @@
       <c r="V122" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W122" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>0.5</v>
       </c>
@@ -11150,8 +11533,11 @@
       <c r="V123" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W123" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>0.55000000000000004</v>
       </c>
@@ -11229,8 +11615,11 @@
       <c r="V124" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W124" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>0.38</v>
       </c>
@@ -11308,8 +11697,11 @@
       <c r="V125" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W125" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>0.17</v>
       </c>
@@ -11387,8 +11779,11 @@
       <c r="V126" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W126" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>0.74</v>
       </c>
@@ -11466,8 +11861,11 @@
       <c r="V127" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W127" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>0.51</v>
       </c>
@@ -11545,8 +11943,11 @@
       <c r="V128" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W128" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>0.35</v>
       </c>
@@ -11624,8 +12025,11 @@
       <c r="V129" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W129" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>0.35</v>
       </c>
@@ -11703,8 +12107,11 @@
       <c r="V130" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W130" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>0.38</v>
       </c>
@@ -11782,8 +12189,11 @@
       <c r="V131" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W131" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>0.44</v>
       </c>
@@ -11861,8 +12271,11 @@
       <c r="V132" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W132" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>0.62</v>
       </c>
@@ -11940,8 +12353,11 @@
       <c r="V133" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W133" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>0.6</v>
       </c>
@@ -12019,8 +12435,11 @@
       <c r="V134" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W134" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="3"/>
@@ -12034,7 +12453,7 @@
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="3"/>
@@ -12048,7 +12467,7 @@
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="3"/>
@@ -12062,7 +12481,7 @@
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="3"/>
@@ -12076,7 +12495,7 @@
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="3"/>
@@ -12090,7 +12509,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="3"/>
@@ -12104,7 +12523,7 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="3"/>
@@ -12118,7 +12537,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="3"/>
@@ -12132,7 +12551,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="3"/>
@@ -12146,7 +12565,7 @@
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="3"/>
@@ -16103,9 +16522,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L142" sqref="L142"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AB134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16278,8 +16697,17 @@
       <c r="Z2" t="s">
         <v>291</v>
       </c>
+      <c r="AA2" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC2" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -16377,8 +16805,17 @@
       <c r="Z3" t="s">
         <v>292</v>
       </c>
+      <c r="AA3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="AC3" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -16476,8 +16913,17 @@
       <c r="Z4" t="s">
         <v>292</v>
       </c>
+      <c r="AA4" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC4" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -16575,8 +17021,17 @@
       <c r="Z5" t="s">
         <v>144</v>
       </c>
+      <c r="AA5" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC5" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -16674,8 +17129,17 @@
       <c r="Z6" t="s">
         <v>148</v>
       </c>
+      <c r="AA6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC6" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -16773,8 +17237,17 @@
       <c r="Z7" t="s">
         <v>148</v>
       </c>
+      <c r="AA7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC7" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -16872,8 +17345,17 @@
       <c r="Z8" t="s">
         <v>148</v>
       </c>
+      <c r="AA8" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="AC8" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -16971,8 +17453,17 @@
       <c r="Z9" t="s">
         <v>148</v>
       </c>
+      <c r="AA9" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC9" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -17070,8 +17561,17 @@
       <c r="Z10" t="s">
         <v>148</v>
       </c>
+      <c r="AA10" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC10" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -17169,8 +17669,17 @@
       <c r="Z11" t="s">
         <v>148</v>
       </c>
+      <c r="AA11" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC11" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -17268,8 +17777,17 @@
       <c r="Z12" t="s">
         <v>148</v>
       </c>
+      <c r="AA12" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC12" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -17367,8 +17885,17 @@
       <c r="Z13" t="s">
         <v>148</v>
       </c>
+      <c r="AA13" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC13" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -17466,8 +17993,17 @@
       <c r="Z14" t="s">
         <v>152</v>
       </c>
+      <c r="AA14" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC14" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -17565,8 +18101,17 @@
       <c r="Z15" t="s">
         <v>152</v>
       </c>
+      <c r="AA15" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="AC15" s="12">
         <v>44409</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -17664,11 +18209,20 @@
       <c r="Z16" t="s">
         <v>152</v>
       </c>
+      <c r="AA16" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="AC16" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6.2123051413596808E-2</v>
       </c>
@@ -17763,11 +18317,20 @@
       <c r="Z17" t="s">
         <v>152</v>
       </c>
+      <c r="AA17" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>311</v>
+      </c>
       <c r="AC17" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.44037454488302569</v>
       </c>
@@ -17862,11 +18425,20 @@
       <c r="Z18" t="s">
         <v>154</v>
       </c>
+      <c r="AA18" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC18" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.42620366316813763</v>
       </c>
@@ -17961,11 +18533,20 @@
       <c r="Z19" t="s">
         <v>293</v>
       </c>
+      <c r="AA19" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC19" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.43617341027296519</v>
       </c>
@@ -18060,11 +18641,20 @@
       <c r="Z20" t="s">
         <v>166</v>
       </c>
+      <c r="AA20" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC20" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41570997240918606</v>
       </c>
@@ -18159,11 +18749,20 @@
       <c r="Z21" t="s">
         <v>166</v>
       </c>
+      <c r="AA21" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC21" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.24027750458078972</v>
       </c>
@@ -18258,11 +18857,20 @@
       <c r="Z22" t="s">
         <v>166</v>
       </c>
+      <c r="AA22" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC22" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.46869679616404447</v>
       </c>
@@ -18357,11 +18965,20 @@
       <c r="Z23" t="s">
         <v>166</v>
       </c>
+      <c r="AA23" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC23" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.28118753536373869</v>
       </c>
@@ -18456,11 +19073,20 @@
       <c r="Z24" t="s">
         <v>291</v>
       </c>
+      <c r="AA24" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC24" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.56768178666478497</v>
       </c>
@@ -18555,11 +19181,20 @@
       <c r="Z25" t="s">
         <v>291</v>
       </c>
+      <c r="AA25" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC25" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.18162653442644522</v>
       </c>
@@ -18654,11 +19289,20 @@
       <c r="Z26" t="s">
         <v>291</v>
       </c>
+      <c r="AA26" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC26" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9.7250284255914518E-2</v>
       </c>
@@ -18753,11 +19397,20 @@
       <c r="Z27" t="s">
         <v>291</v>
       </c>
+      <c r="AA27" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC27" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.59759458046274416</v>
       </c>
@@ -18852,11 +19505,20 @@
       <c r="Z28" t="s">
         <v>291</v>
       </c>
+      <c r="AA28" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC28" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.65387090984680474</v>
       </c>
@@ -18951,11 +19613,20 @@
       <c r="Z29" t="s">
         <v>291</v>
       </c>
+      <c r="AA29" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC29" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.2622589909085144</v>
       </c>
@@ -19050,11 +19721,20 @@
       <c r="Z30" t="s">
         <v>292</v>
       </c>
+      <c r="AA30" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC30" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.5742133992084526</v>
       </c>
@@ -19149,11 +19829,20 @@
       <c r="Z31" t="s">
         <v>292</v>
       </c>
+      <c r="AA31" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC31" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD31" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2.9113857908379205E-2</v>
       </c>
@@ -19248,11 +19937,20 @@
       <c r="Z32" t="s">
         <v>292</v>
       </c>
+      <c r="AA32" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="AC32" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.46921645882924051</v>
       </c>
@@ -19347,11 +20045,20 @@
       <c r="Z33" t="s">
         <v>144</v>
       </c>
+      <c r="AA33" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB33" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC33" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD33" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.49240067283319178</v>
       </c>
@@ -19446,11 +20153,20 @@
       <c r="Z34" t="s">
         <v>144</v>
       </c>
+      <c r="AA34" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB34" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC34" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD34" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.2211583457211834</v>
       </c>
@@ -19545,11 +20261,20 @@
       <c r="Z35" t="s">
         <v>144</v>
       </c>
+      <c r="AA35" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB35" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC35" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.66987024916978644</v>
       </c>
@@ -19644,11 +20369,20 @@
       <c r="Z36" t="s">
         <v>144</v>
       </c>
+      <c r="AA36" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB36" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC36" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD36" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.1768033997068223</v>
       </c>
@@ -19743,11 +20477,20 @@
       <c r="Z37" t="s">
         <v>144</v>
       </c>
+      <c r="AA37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB37" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC37" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.39335068982757332</v>
       </c>
@@ -19842,11 +20585,20 @@
       <c r="Z38" t="s">
         <v>145</v>
       </c>
+      <c r="AA38" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB38" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC38" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.44132545559572545</v>
       </c>
@@ -19941,11 +20693,20 @@
       <c r="Z39" t="s">
         <v>145</v>
       </c>
+      <c r="AA39" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB39" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC39" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.27265081609876396</v>
       </c>
@@ -20040,11 +20801,20 @@
       <c r="Z40" t="s">
         <v>145</v>
       </c>
+      <c r="AA40" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB40" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC40" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.28334668653440015</v>
       </c>
@@ -20139,11 +20909,20 @@
       <c r="Z41" t="s">
         <v>145</v>
       </c>
+      <c r="AA41" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB41" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC41" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.29544472701407398</v>
       </c>
@@ -20238,11 +21017,20 @@
       <c r="Z42" t="s">
         <v>146</v>
       </c>
+      <c r="AA42" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB42" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC42" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.59699521881376949</v>
       </c>
@@ -20337,11 +21125,20 @@
       <c r="Z43" t="s">
         <v>146</v>
       </c>
+      <c r="AA43" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB43" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC43" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.1959880950766629</v>
       </c>
@@ -20436,11 +21233,20 @@
       <c r="Z44" t="s">
         <v>146</v>
       </c>
+      <c r="AA44" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB44" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC44" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>0.57049328237212005</v>
       </c>
@@ -20535,11 +21341,20 @@
       <c r="Z45" t="s">
         <v>146</v>
       </c>
+      <c r="AA45" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB45" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC45" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>0.56961537305403809</v>
       </c>
@@ -20634,11 +21449,20 @@
       <c r="Z46" t="s">
         <v>147</v>
       </c>
+      <c r="AA46" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB46" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC46" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>6.7473889548138211E-2</v>
       </c>
@@ -20733,11 +21557,20 @@
       <c r="Z47" t="s">
         <v>147</v>
       </c>
+      <c r="AA47" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB47" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC47" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>0.49972354973019445</v>
       </c>
@@ -20832,11 +21665,20 @@
       <c r="Z48" t="s">
         <v>147</v>
       </c>
+      <c r="AA48" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB48" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="AC48" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>0.22917409405530703</v>
       </c>
@@ -20931,11 +21773,20 @@
       <c r="Z49" t="s">
         <v>147</v>
       </c>
+      <c r="AA49" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB49" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC49" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>0.53760110988486476</v>
       </c>
@@ -21030,11 +21881,20 @@
       <c r="Z50" t="s">
         <v>147</v>
       </c>
+      <c r="AA50" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC50" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>0.56665209698906627</v>
       </c>
@@ -21129,11 +21989,20 @@
       <c r="Z51" t="s">
         <v>147</v>
       </c>
+      <c r="AA51" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB51" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC51" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>5.21393324376608E-2</v>
       </c>
@@ -21228,11 +22097,20 @@
       <c r="Z52" t="s">
         <v>147</v>
       </c>
+      <c r="AA52" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="AC52" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>0.88928671231211154</v>
       </c>
@@ -21327,11 +22205,20 @@
       <c r="Z53" t="s">
         <v>147</v>
       </c>
+      <c r="AA53" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB53" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="AC53" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>0.30412861518986983</v>
       </c>
@@ -21426,11 +22313,20 @@
       <c r="Z54" t="s">
         <v>147</v>
       </c>
+      <c r="AA54" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB54" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC54" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>0.20969413819151186</v>
       </c>
@@ -21525,11 +22421,20 @@
       <c r="Z55" t="s">
         <v>147</v>
       </c>
+      <c r="AA55" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB55" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC55" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>0.74163936753608262</v>
       </c>
@@ -21624,11 +22529,20 @@
       <c r="Z56" t="s">
         <v>148</v>
       </c>
+      <c r="AA56" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB56" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC56" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>1.9743578757040206E-2</v>
       </c>
@@ -21723,11 +22637,20 @@
       <c r="Z57" t="s">
         <v>294</v>
       </c>
+      <c r="AA57" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB57" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="AC57" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>0.14971262622143144</v>
       </c>
@@ -21822,11 +22745,20 @@
       <c r="Z58" t="s">
         <v>149</v>
       </c>
+      <c r="AA58" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB58" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC58" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD58" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>0.39998944303640677</v>
       </c>
@@ -21921,11 +22853,20 @@
       <c r="Z59" t="s">
         <v>149</v>
       </c>
+      <c r="AA59" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB59" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC59" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>0.60216309656719047</v>
       </c>
@@ -22020,11 +22961,20 @@
       <c r="Z60" t="s">
         <v>149</v>
       </c>
+      <c r="AA60" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB60" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC60" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD60" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>0.23421546413336722</v>
       </c>
@@ -22119,11 +23069,20 @@
       <c r="Z61" t="s">
         <v>150</v>
       </c>
+      <c r="AA61" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB61" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC61" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD61" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>0.56005719945261123</v>
       </c>
@@ -22218,11 +23177,20 @@
       <c r="Z62" t="s">
         <v>151</v>
       </c>
+      <c r="AA62" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB62" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC62" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD62" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>5.2946967976284877E-2</v>
       </c>
@@ -22317,11 +23285,20 @@
       <c r="Z63" t="s">
         <v>151</v>
       </c>
+      <c r="AA63" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB63" s="9" t="s">
+        <v>311</v>
+      </c>
       <c r="AC63" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD63" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>0.36899127166386891</v>
       </c>
@@ -22416,11 +23393,20 @@
       <c r="Z64" t="s">
         <v>151</v>
       </c>
+      <c r="AA64" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB64" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC64" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD64" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>0.23543539852779272</v>
       </c>
@@ -22515,11 +23501,20 @@
       <c r="Z65" t="s">
         <v>151</v>
       </c>
+      <c r="AA65" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB65" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC65" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD65" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>0.31158245086342173</v>
       </c>
@@ -22614,11 +23609,20 @@
       <c r="Z66" t="s">
         <v>151</v>
       </c>
+      <c r="AA66" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB66" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC66" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD66" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>6.4159570488889026E-2</v>
       </c>
@@ -22713,11 +23717,20 @@
       <c r="Z67" t="s">
         <v>152</v>
       </c>
+      <c r="AA67" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB67" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC67" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD67" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>0.12283038505361712</v>
       </c>
@@ -22812,11 +23825,20 @@
       <c r="Z68" t="s">
         <v>152</v>
       </c>
+      <c r="AA68" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB68" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="AC68" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD68" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>0.48978343297631866</v>
       </c>
@@ -22911,11 +23933,20 @@
       <c r="Z69" t="s">
         <v>153</v>
       </c>
+      <c r="AA69" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB69" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC69" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD69" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>0.68673739329116235</v>
       </c>
@@ -23010,11 +24041,20 @@
       <c r="Z70" t="s">
         <v>153</v>
       </c>
+      <c r="AA70" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB70" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC70" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD70" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>0.30286346072710735</v>
       </c>
@@ -23109,11 +24149,20 @@
       <c r="Z71" t="s">
         <v>153</v>
       </c>
+      <c r="AA71" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB71" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="AC71" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD71" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>0.21580690606651745</v>
       </c>
@@ -23208,11 +24257,20 @@
       <c r="Z72" t="s">
         <v>154</v>
       </c>
+      <c r="AA72" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB72" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC72" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD72" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>0.90449649966324497</v>
       </c>
@@ -23307,11 +24365,20 @@
       <c r="Z73" t="s">
         <v>154</v>
       </c>
+      <c r="AA73" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB73" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="AC73" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD73" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>0.28318801224999063</v>
       </c>
@@ -23406,11 +24473,20 @@
       <c r="Z74" t="s">
         <v>154</v>
       </c>
+      <c r="AA74" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB74" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC74" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD74" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>0.10440650291595109</v>
       </c>
@@ -23505,11 +24581,20 @@
       <c r="Z75" t="s">
         <v>154</v>
       </c>
+      <c r="AA75" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB75" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC75" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD75" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>0.39361852938156183</v>
       </c>
@@ -23604,11 +24689,20 @@
       <c r="Z76" t="s">
         <v>293</v>
       </c>
+      <c r="AA76" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB76" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="AC76" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD76" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>0.18907498644664966</v>
       </c>
@@ -23703,11 +24797,20 @@
       <c r="Z77" t="s">
         <v>293</v>
       </c>
+      <c r="AA77" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB77" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC77" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD77" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>0.45943107003381983</v>
       </c>
@@ -23802,11 +24905,20 @@
       <c r="Z78" t="s">
         <v>293</v>
       </c>
+      <c r="AA78" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB78" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC78" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD78" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>0.11545016164609148</v>
       </c>
@@ -23901,11 +25013,20 @@
       <c r="Z79" t="s">
         <v>155</v>
       </c>
+      <c r="AA79" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB79" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC79" s="12">
         <v>44440</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD79" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>0.62495928458594152</v>
       </c>
@@ -24000,8 +25121,17 @@
       <c r="Z80" t="s">
         <v>155</v>
       </c>
+      <c r="AA80" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB80" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC80" s="12">
         <v>44440</v>
+      </c>
+      <c r="AD80" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
@@ -24099,8 +25229,17 @@
       <c r="Z81" t="s">
         <v>155</v>
       </c>
+      <c r="AA81" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB81" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC81" s="12">
         <v>44440</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -24198,12 +25337,18 @@
       <c r="Z82" t="s">
         <v>155</v>
       </c>
-      <c r="AA82" s="9"/>
-      <c r="AB82" s="9"/>
+      <c r="AA82" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB82" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="AC82" s="12">
         <v>44440</v>
       </c>
-      <c r="AD82" s="9"/>
+      <c r="AD82" s="20" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
@@ -24300,8 +25445,17 @@
       <c r="Z83" t="s">
         <v>166</v>
       </c>
+      <c r="AA83" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB83" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC83" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD83" s="9" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
@@ -24399,8 +25553,17 @@
       <c r="Z84" t="s">
         <v>166</v>
       </c>
+      <c r="AA84" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB84" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC84" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD84" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
@@ -24498,8 +25661,17 @@
       <c r="Z85" t="s">
         <v>166</v>
       </c>
+      <c r="AA85" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB85" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC85" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD85" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
@@ -24597,8 +25769,17 @@
       <c r="Z86" t="s">
         <v>166</v>
       </c>
+      <c r="AA86" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB86" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC86" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD86" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
@@ -24696,8 +25877,17 @@
       <c r="Z87" t="s">
         <v>291</v>
       </c>
+      <c r="AA87" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB87" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC87" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD87" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
@@ -24795,8 +25985,17 @@
       <c r="Z88" t="s">
         <v>291</v>
       </c>
+      <c r="AA88" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB88" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC88" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD88" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
@@ -24894,8 +26093,17 @@
       <c r="Z89" t="s">
         <v>292</v>
       </c>
+      <c r="AA89" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB89" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC89" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD89" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
@@ -24993,8 +26201,17 @@
       <c r="Z90" t="s">
         <v>292</v>
       </c>
+      <c r="AA90" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB90" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC90" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD90" s="9" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
@@ -25092,8 +26309,17 @@
       <c r="Z91" t="s">
         <v>292</v>
       </c>
+      <c r="AA91" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB91" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC91" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD91" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
@@ -25191,8 +26417,17 @@
       <c r="Z92" t="s">
         <v>294</v>
       </c>
+      <c r="AA92" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB92" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC92" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD92" s="9" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
@@ -25290,8 +26525,17 @@
       <c r="Z93" t="s">
         <v>294</v>
       </c>
+      <c r="AA93" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB93" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="AC93" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD93" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
@@ -25389,8 +26633,17 @@
       <c r="Z94" t="s">
         <v>294</v>
       </c>
+      <c r="AA94" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB94" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC94" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD94" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
@@ -25488,8 +26741,17 @@
       <c r="Z95" t="s">
         <v>294</v>
       </c>
+      <c r="AA95" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB95" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC95" s="12">
         <v>44470</v>
+      </c>
+      <c r="AD95" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
@@ -25587,11 +26849,20 @@
       <c r="Z96" t="s">
         <v>149</v>
       </c>
+      <c r="AA96" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB96" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC96" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD96" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>7.9880701848163732E-2</v>
       </c>
@@ -25686,11 +26957,20 @@
       <c r="Z97" t="s">
         <v>149</v>
       </c>
+      <c r="AA97" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB97" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC97" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD97" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>0.12157741075252057</v>
       </c>
@@ -25785,11 +27065,20 @@
       <c r="Z98" t="s">
         <v>149</v>
       </c>
+      <c r="AA98" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB98" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC98" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD98" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>0.60186229280102344</v>
       </c>
@@ -25884,11 +27173,20 @@
       <c r="Z99" t="s">
         <v>149</v>
       </c>
+      <c r="AA99" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB99" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC99" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD99" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>0.46776316582884891</v>
       </c>
@@ -25983,11 +27281,20 @@
       <c r="Z100" t="s">
         <v>149</v>
       </c>
+      <c r="AA100" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB100" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC100" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD100" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>0.52990454159905342</v>
       </c>
@@ -26082,11 +27389,20 @@
       <c r="Z101" t="s">
         <v>149</v>
       </c>
+      <c r="AA101" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB101" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC101" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD101" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>0.13012049652723914</v>
       </c>
@@ -26181,11 +27497,20 @@
       <c r="Z102" t="s">
         <v>151</v>
       </c>
+      <c r="AA102" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB102" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="AC102" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD102" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>0.6858405217467094</v>
       </c>
@@ -26280,11 +27605,20 @@
       <c r="Z103" t="s">
         <v>151</v>
       </c>
+      <c r="AA103" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB103" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC103" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD103" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>0.28013896035866404</v>
       </c>
@@ -26379,11 +27713,20 @@
       <c r="Z104" t="s">
         <v>151</v>
       </c>
+      <c r="AA104" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB104" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC104" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD104" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>0.64186002596036251</v>
       </c>
@@ -26478,11 +27821,20 @@
       <c r="Z105" t="s">
         <v>151</v>
       </c>
+      <c r="AA105" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB105" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC105" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD105" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>0.51147775378258331</v>
       </c>
@@ -26577,11 +27929,20 @@
       <c r="Z106" t="s">
         <v>152</v>
       </c>
+      <c r="AA106" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB106" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC106" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD106" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>0.28551214701524202</v>
       </c>
@@ -26676,11 +28037,20 @@
       <c r="Z107" t="s">
         <v>152</v>
       </c>
+      <c r="AA107" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB107" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="AC107" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD107" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>8.2666413663354033E-2</v>
       </c>
@@ -26775,11 +28145,20 @@
       <c r="Z108" t="s">
         <v>153</v>
       </c>
+      <c r="AA108" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB108" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="AC108" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD108" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>0.45617709847214871</v>
       </c>
@@ -26874,11 +28253,20 @@
       <c r="Z109" t="s">
         <v>153</v>
       </c>
+      <c r="AA109" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB109" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC109" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD109" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>0.3316273385383105</v>
       </c>
@@ -26973,11 +28361,20 @@
       <c r="Z110" t="s">
         <v>154</v>
       </c>
+      <c r="AA110" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB110" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC110" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD110" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>0.16653837445242251</v>
       </c>
@@ -27072,11 +28469,20 @@
       <c r="Z111" t="s">
         <v>154</v>
       </c>
+      <c r="AA111" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB111" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC111" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD111" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>0.3758624069381864</v>
       </c>
@@ -27171,11 +28577,20 @@
       <c r="Z112" t="s">
         <v>154</v>
       </c>
+      <c r="AA112" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB112" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC112" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD112" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>0.2901996013872975</v>
       </c>
@@ -27270,11 +28685,20 @@
       <c r="Z113" t="s">
         <v>154</v>
       </c>
+      <c r="AA113" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB113" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC113" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD113" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>0.41821620952473704</v>
       </c>
@@ -27369,11 +28793,20 @@
       <c r="Z114" t="s">
         <v>293</v>
       </c>
+      <c r="AA114" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB114" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="AC114" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD114" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>0.78551233951015986</v>
       </c>
@@ -27468,11 +28901,20 @@
       <c r="Z115" t="s">
         <v>293</v>
       </c>
+      <c r="AA115" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB115" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="AC115" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD115" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>0.47036100599099284</v>
       </c>
@@ -27567,11 +29009,20 @@
       <c r="Z116" t="s">
         <v>293</v>
       </c>
+      <c r="AA116" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB116" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC116" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD116" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>0.55304964040756843</v>
       </c>
@@ -27666,11 +29117,20 @@
       <c r="Z117" t="s">
         <v>293</v>
       </c>
+      <c r="AA117" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB117" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC117" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD117" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>0.83104814496776791</v>
       </c>
@@ -27765,11 +29225,20 @@
       <c r="Z118" t="s">
         <v>293</v>
       </c>
+      <c r="AA118" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB118" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="AC118" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD118" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>0.57287282841539722</v>
       </c>
@@ -27864,11 +29333,20 @@
       <c r="Z119" t="s">
         <v>155</v>
       </c>
+      <c r="AA119" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB119" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC119" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD119" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>0.56237452306207891</v>
       </c>
@@ -27963,11 +29441,20 @@
       <c r="Z120" t="s">
         <v>155</v>
       </c>
+      <c r="AA120" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB120" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC120" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD120" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>0.473713266379231</v>
       </c>
@@ -28062,11 +29549,20 @@
       <c r="Z121" t="s">
         <v>155</v>
       </c>
+      <c r="AA121" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB121" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="AC121" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD121" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>0.57753263902376606</v>
       </c>
@@ -28161,11 +29657,20 @@
       <c r="Z122" t="s">
         <v>155</v>
       </c>
+      <c r="AA122" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB122" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC122" s="12">
         <v>44470</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD122" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>0.4592204175001412</v>
       </c>
@@ -28260,11 +29765,20 @@
       <c r="Z123" t="s">
         <v>166</v>
       </c>
+      <c r="AA123" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB123" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC123" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD123" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>0.36223833212572742</v>
       </c>
@@ -28359,11 +29873,20 @@
       <c r="Z124" t="s">
         <v>292</v>
       </c>
+      <c r="AA124" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB124" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC124" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD124" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>0.16826012845114469</v>
       </c>
@@ -28458,11 +29981,20 @@
       <c r="Z125" t="s">
         <v>148</v>
       </c>
+      <c r="AA125" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB125" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC125" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD125" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>6.1412109809058597E-2</v>
       </c>
@@ -28557,11 +30089,20 @@
       <c r="Z126" t="s">
         <v>294</v>
       </c>
+      <c r="AA126" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB126" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC126" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD126" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>2.1619500815037586E-2</v>
       </c>
@@ -28656,11 +30197,20 @@
       <c r="Z127" t="s">
         <v>294</v>
       </c>
+      <c r="AA127" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB127" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="AC127" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD127" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>0.22235805352463514</v>
       </c>
@@ -28755,11 +30305,20 @@
       <c r="Z128" t="s">
         <v>149</v>
       </c>
+      <c r="AA128" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB128" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC128" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD128" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>0.4627728460246</v>
       </c>
@@ -28854,11 +30413,20 @@
       <c r="Z129" t="s">
         <v>153</v>
       </c>
+      <c r="AA129" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB129" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="AC129" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD129" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>0.35654006202948424</v>
       </c>
@@ -28953,11 +30521,20 @@
       <c r="Z130" t="s">
         <v>154</v>
       </c>
+      <c r="AA130" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB130" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC130" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD130" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>0.38073499806560657</v>
       </c>
@@ -29052,11 +30629,20 @@
       <c r="Z131" t="s">
         <v>293</v>
       </c>
+      <c r="AA131" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB131" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC131" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD131" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>0.27483094355050974</v>
       </c>
@@ -29151,11 +30737,20 @@
       <c r="Z132" t="s">
         <v>293</v>
       </c>
+      <c r="AA132" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB132" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="AC132" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD132" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>6.0087488218398308E-2</v>
       </c>
@@ -29250,11 +30845,20 @@
       <c r="Z133" t="s">
         <v>155</v>
       </c>
+      <c r="AA133" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB133" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="AC133" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD133" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>0.87952830978091823</v>
       </c>
@@ -29349,11 +30953,20 @@
       <c r="Z134" t="s">
         <v>155</v>
       </c>
+      <c r="AA134" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB134" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="AC134" s="12">
         <v>44501</v>
       </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD134" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -29373,7 +30986,7 @@
       <c r="T135" s="6"/>
       <c r="AC135" s="12"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -29393,7 +31006,7 @@
       <c r="T136" s="6"/>
       <c r="AC136" s="12"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -29413,7 +31026,7 @@
       <c r="T137" s="6"/>
       <c r="AC137" s="12"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -29433,7 +31046,7 @@
       <c r="T138" s="6"/>
       <c r="AC138" s="12"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -29453,7 +31066,7 @@
       <c r="T139" s="6"/>
       <c r="AC139" s="12"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -29473,7 +31086,7 @@
       <c r="T140" s="6"/>
       <c r="AC140" s="12"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -29493,7 +31106,7 @@
       <c r="T141" s="6"/>
       <c r="AC141" s="12"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -29513,7 +31126,7 @@
       <c r="T142" s="6"/>
       <c r="AC142" s="12"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -29533,7 +31146,7 @@
       <c r="T143" s="6"/>
       <c r="AC143" s="12"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="2way" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="352">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1005,6 +1005,81 @@
   <si>
     <t>P</t>
   </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
 </sst>
 </file>
 
@@ -1013,7 +1088,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1129,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1102,11 +1191,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1176,8 +1266,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1460,9 +1554,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W409"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2:U134"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U173" sqref="U173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12048,7 +12142,7 @@
         <v>2.8142785952212312E-2</v>
       </c>
       <c r="F130" s="8">
-        <f t="shared" ref="F130:F134" si="34">(E130/100%) + 1</f>
+        <f t="shared" ref="F130:F166" si="34">(E130/100%) + 1</f>
         <v>1.0281427859522123</v>
       </c>
       <c r="G130" s="8">
@@ -12440,454 +12534,2582 @@
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
+      <c r="A135" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="B135" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="C135" s="17">
+        <f t="shared" ref="C135:C166" si="35">(100%/A135)</f>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="D135" s="18">
+        <f t="shared" ref="D135:D166" si="36">(100%/B135)</f>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="E135" s="13">
+        <v>3.7452017844174623E-2</v>
+      </c>
+      <c r="F135" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0374520178441746</v>
+      </c>
+      <c r="G135" s="8">
+        <f t="shared" ref="G135:G166" si="37">C135/F135</f>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="H135" s="8">
+        <f t="shared" ref="H135:H166" si="38">D135/F135</f>
+        <v>1.9671428571428573</v>
+      </c>
+      <c r="I135">
+        <v>1.62</v>
+      </c>
+      <c r="J135">
+        <v>2.38</v>
+      </c>
+      <c r="K135" s="8">
+        <f t="shared" ref="K135:K166" si="39">(I135*F135)</f>
+        <v>1.680672268907563</v>
+      </c>
+      <c r="L135" s="8">
+        <f t="shared" ref="L135:L166" si="40">(J135*F135)</f>
+        <v>2.4691358024691357</v>
+      </c>
+      <c r="M135" s="19">
+        <f t="shared" ref="M135:M166" si="41">(1/K135)</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N135" s="19">
+        <f t="shared" ref="N135:N166" si="42">(1/L135)</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="O135" s="16">
+        <f t="shared" ref="O135:O166" si="43">(I135/G135)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P135" s="16">
+        <f t="shared" ref="P135:P166" si="44">(J135/H135)</f>
+        <v>1.2098765432098764</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>172</v>
+      </c>
+      <c r="R135" t="s">
+        <v>165</v>
+      </c>
+      <c r="S135" t="s">
+        <v>166</v>
+      </c>
+      <c r="T135" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U135" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V135" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W135" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
+      <c r="A136" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="B136" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="C136" s="17">
+        <f t="shared" si="35"/>
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="D136" s="18">
+        <f t="shared" si="36"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="E136" s="13">
+        <v>3.0130699391399673E-2</v>
+      </c>
+      <c r="F136" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0301306993913997</v>
+      </c>
+      <c r="G136" s="8">
+        <f t="shared" si="37"/>
+        <v>3.7336561743341403</v>
+      </c>
+      <c r="H136" s="8">
+        <f t="shared" si="38"/>
+        <v>1.3297953497628445</v>
+      </c>
+      <c r="I136">
+        <v>2.57</v>
+      </c>
+      <c r="J136">
+        <v>1.56</v>
+      </c>
+      <c r="K136" s="8">
+        <f t="shared" si="39"/>
+        <v>2.6474358974358969</v>
+      </c>
+      <c r="L136" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6070038910505835</v>
+      </c>
+      <c r="M136" s="19">
+        <f t="shared" si="41"/>
+        <v>0.37772397094430998</v>
+      </c>
+      <c r="N136" s="19">
+        <f t="shared" si="42"/>
+        <v>0.62227602905569013</v>
+      </c>
+      <c r="O136" s="16">
+        <f t="shared" si="43"/>
+        <v>0.68833333333333335</v>
+      </c>
+      <c r="P136" s="16">
+        <f t="shared" si="44"/>
+        <v>1.1731128404669262</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>327</v>
+      </c>
+      <c r="R136" t="s">
+        <v>328</v>
+      </c>
+      <c r="S136" t="s">
+        <v>349</v>
+      </c>
+      <c r="T136" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U136" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="V136" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W136" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
+      <c r="A137" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="B137" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="C137" s="17">
+        <f t="shared" si="35"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="D137" s="18">
+        <f t="shared" si="36"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="E137" s="13">
+        <v>4.6464095925875526E-2</v>
+      </c>
+      <c r="F137" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0464640959258755</v>
+      </c>
+      <c r="G137" s="8">
+        <f t="shared" si="37"/>
+        <v>1.8737234477124181</v>
+      </c>
+      <c r="H137" s="8">
+        <f t="shared" si="38"/>
+        <v>1.9502019557823129</v>
+      </c>
+      <c r="I137">
+        <v>1.79</v>
+      </c>
+      <c r="J137">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K137" s="8">
+        <f t="shared" si="39"/>
+        <v>1.8731707317073172</v>
+      </c>
+      <c r="L137" s="8">
+        <f t="shared" si="40"/>
+        <v>2.1452513966480447</v>
+      </c>
+      <c r="M137" s="19">
+        <f t="shared" si="41"/>
+        <v>0.53385416666666663</v>
+      </c>
+      <c r="N137" s="19">
+        <f t="shared" si="42"/>
+        <v>0.46614583333333331</v>
+      </c>
+      <c r="O137" s="16">
+        <f t="shared" si="43"/>
+        <v>0.95531707317073189</v>
+      </c>
+      <c r="P137" s="16">
+        <f t="shared" si="44"/>
+        <v>1.0511731843575418</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>139</v>
+      </c>
+      <c r="R137" t="s">
+        <v>138</v>
+      </c>
+      <c r="S137" t="s">
+        <v>146</v>
+      </c>
+      <c r="T137" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U137" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="V137" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W137" s="9" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
+      <c r="A138" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B138" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="C138" s="17">
+        <f t="shared" si="35"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="D138" s="18">
+        <f t="shared" si="36"/>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="E138" s="13">
+        <v>3.1845799287659737E-2</v>
+      </c>
+      <c r="F138" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0318457992876597</v>
+      </c>
+      <c r="G138" s="8">
+        <f t="shared" si="37"/>
+        <v>1.7306018854242204</v>
+      </c>
+      <c r="H138" s="8">
+        <f t="shared" si="38"/>
+        <v>2.2025842178126442</v>
+      </c>
+      <c r="I138">
+        <v>1.72</v>
+      </c>
+      <c r="J138">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K138" s="8">
+        <f t="shared" si="39"/>
+        <v>1.7747747747747746</v>
+      </c>
+      <c r="L138" s="8">
+        <f t="shared" si="40"/>
+        <v>2.2906976744186047</v>
+      </c>
+      <c r="M138" s="19">
+        <f t="shared" si="41"/>
+        <v>0.56345177664974622</v>
+      </c>
+      <c r="N138" s="19">
+        <f t="shared" si="42"/>
+        <v>0.43654822335025378</v>
+      </c>
+      <c r="O138" s="16">
+        <f t="shared" si="43"/>
+        <v>0.99387387387387383</v>
+      </c>
+      <c r="P138" s="16">
+        <f t="shared" si="44"/>
+        <v>1.0079069767441862</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>329</v>
+      </c>
+      <c r="R138" t="s">
+        <v>330</v>
+      </c>
+      <c r="S138" t="s">
+        <v>349</v>
+      </c>
+      <c r="T138" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U138" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="V138" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W138" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
+      <c r="A139" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="B139" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="C139" s="17">
+        <f t="shared" si="35"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="D139" s="18">
+        <f t="shared" si="36"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="E139" s="13">
+        <v>2.8806584362139898E-2</v>
+      </c>
+      <c r="F139" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0288065843621399</v>
+      </c>
+      <c r="G139" s="8">
+        <f t="shared" si="37"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="H139" s="8">
+        <f t="shared" si="38"/>
+        <v>1.3315068493150684</v>
+      </c>
+      <c r="I139">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J139">
+        <v>1.62</v>
+      </c>
+      <c r="K139" s="8">
+        <f t="shared" si="39"/>
+        <v>2.5</v>
+      </c>
+      <c r="L139" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M139" s="19">
+        <f t="shared" si="41"/>
+        <v>0.4</v>
+      </c>
+      <c r="N139" s="19">
+        <f t="shared" si="42"/>
+        <v>0.6</v>
+      </c>
+      <c r="O139" s="16">
+        <f t="shared" si="43"/>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="P139" s="16">
+        <f t="shared" si="44"/>
+        <v>1.2166666666666668</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>331</v>
+      </c>
+      <c r="R139" t="s">
+        <v>332</v>
+      </c>
+      <c r="S139" t="s">
+        <v>349</v>
+      </c>
+      <c r="T139" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U139" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="V139" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W139" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
+      <c r="A140" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="B140" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="C140" s="17">
+        <f t="shared" si="35"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="D140" s="18">
+        <f t="shared" si="36"/>
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="E140" s="13">
+        <v>3.4024455077086735E-2</v>
+      </c>
+      <c r="F140" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0340244550770867</v>
+      </c>
+      <c r="G140" s="8">
+        <f t="shared" si="37"/>
+        <v>2.0576491823004974</v>
+      </c>
+      <c r="H140" s="8">
+        <f t="shared" si="38"/>
+        <v>1.8247077654362902</v>
+      </c>
+      <c r="I140">
+        <v>2.09</v>
+      </c>
+      <c r="J140">
+        <v>1.8</v>
+      </c>
+      <c r="K140" s="8">
+        <f t="shared" si="39"/>
+        <v>2.161111111111111</v>
+      </c>
+      <c r="L140" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8612440191387563</v>
+      </c>
+      <c r="M140" s="19">
+        <f t="shared" si="41"/>
+        <v>0.46272493573264784</v>
+      </c>
+      <c r="N140" s="19">
+        <f t="shared" si="42"/>
+        <v>0.53727506426735205</v>
+      </c>
+      <c r="O140" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0157222222222222</v>
+      </c>
+      <c r="P140" s="16">
+        <f t="shared" si="44"/>
+        <v>0.98645933014354081</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>333</v>
+      </c>
+      <c r="R140" t="s">
+        <v>334</v>
+      </c>
+      <c r="S140" t="s">
+        <v>350</v>
+      </c>
+      <c r="T140" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U140" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V140" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W140" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
+      <c r="A141" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="B141" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="C141" s="17">
+        <f t="shared" si="35"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="D141" s="18">
+        <f t="shared" si="36"/>
+        <v>1.5625</v>
+      </c>
+      <c r="E141" s="13">
+        <v>3.4193852437555794E-2</v>
+      </c>
+      <c r="F141" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0341938524375558</v>
+      </c>
+      <c r="G141" s="8">
+        <f t="shared" si="37"/>
+        <v>2.9301112389719979</v>
+      </c>
+      <c r="H141" s="8">
+        <f t="shared" si="38"/>
+        <v>1.5108386075949365</v>
+      </c>
+      <c r="I141">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J141">
+        <v>1.69</v>
+      </c>
+      <c r="K141" s="8">
+        <f t="shared" si="39"/>
+        <v>2.3372781065088759</v>
+      </c>
+      <c r="L141" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7477876106194692</v>
+      </c>
+      <c r="M141" s="19">
+        <f t="shared" si="41"/>
+        <v>0.42784810126582273</v>
+      </c>
+      <c r="N141" s="19">
+        <f t="shared" si="42"/>
+        <v>0.57215189873417716</v>
+      </c>
+      <c r="O141" s="16">
+        <f t="shared" si="43"/>
+        <v>0.77130177514792908</v>
+      </c>
+      <c r="P141" s="16">
+        <f t="shared" si="44"/>
+        <v>1.1185840707964603</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>335</v>
+      </c>
+      <c r="R141" t="s">
+        <v>336</v>
+      </c>
+      <c r="S141" t="s">
+        <v>350</v>
+      </c>
+      <c r="T141" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U141" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V141" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W141" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
+      <c r="A142" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="B142" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C142" s="17">
+        <f t="shared" si="35"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D142" s="18">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="E142" s="13">
+        <v>3.5577975284917462E-2</v>
+      </c>
+      <c r="F142" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0355779752849175</v>
+      </c>
+      <c r="G142" s="8">
+        <f t="shared" si="37"/>
+        <v>1.287525773195876</v>
+      </c>
+      <c r="H142" s="8">
+        <f t="shared" si="38"/>
+        <v>3.8625773195876287</v>
+      </c>
+      <c r="I142">
+        <v>1.81</v>
+      </c>
+      <c r="J142">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K142" s="8">
+        <f t="shared" si="39"/>
+        <v>1.8743961352657006</v>
+      </c>
+      <c r="L142" s="8">
+        <f t="shared" si="40"/>
+        <v>2.1436464088397789</v>
+      </c>
+      <c r="M142" s="19">
+        <f t="shared" si="41"/>
+        <v>0.53350515463917525</v>
+      </c>
+      <c r="N142" s="19">
+        <f t="shared" si="42"/>
+        <v>0.46649484536082475</v>
+      </c>
+      <c r="O142" s="16">
+        <f t="shared" si="43"/>
+        <v>1.4057971014492756</v>
+      </c>
+      <c r="P142" s="16">
+        <f t="shared" si="44"/>
+        <v>0.53591160220994472</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>176</v>
+      </c>
+      <c r="R142" t="s">
+        <v>175</v>
+      </c>
+      <c r="S142" t="s">
+        <v>144</v>
+      </c>
+      <c r="T142" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U142" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V142" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W142" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
+      <c r="A143" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="B143" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C143" s="17">
+        <f t="shared" si="35"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D143" s="18">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="E143" s="13">
+        <v>3.3298097251585723E-2</v>
+      </c>
+      <c r="F143" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0332980972515857</v>
+      </c>
+      <c r="G143" s="8">
+        <f t="shared" si="37"/>
+        <v>1.2903665814151746</v>
+      </c>
+      <c r="H143" s="8">
+        <f t="shared" si="38"/>
+        <v>3.8710997442455239</v>
+      </c>
+      <c r="I143">
+        <v>1.76</v>
+      </c>
+      <c r="J143">
+        <v>2.15</v>
+      </c>
+      <c r="K143" s="8">
+        <f t="shared" si="39"/>
+        <v>1.8186046511627909</v>
+      </c>
+      <c r="L143" s="8">
+        <f t="shared" si="40"/>
+        <v>2.2215909090909092</v>
+      </c>
+      <c r="M143" s="19">
+        <f t="shared" si="41"/>
+        <v>0.54987212276214825</v>
+      </c>
+      <c r="N143" s="19">
+        <f t="shared" si="42"/>
+        <v>0.45012787723785164</v>
+      </c>
+      <c r="O143" s="16">
+        <f t="shared" si="43"/>
+        <v>1.3639534883720932</v>
+      </c>
+      <c r="P143" s="16">
+        <f t="shared" si="44"/>
+        <v>0.55539772727272729</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>337</v>
+      </c>
+      <c r="R143" t="s">
+        <v>338</v>
+      </c>
+      <c r="S143" t="s">
+        <v>145</v>
+      </c>
+      <c r="T143" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U143" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V143" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W143" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="B144" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="C144" s="17">
+        <f t="shared" si="35"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D144" s="18">
+        <f t="shared" si="36"/>
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="E144" s="13">
+        <v>2.9808863239265015E-2</v>
+      </c>
+      <c r="F144" s="8">
+        <f t="shared" si="34"/>
+        <v>1.029808863239265</v>
+      </c>
+      <c r="G144" s="8">
+        <f t="shared" si="37"/>
+        <v>5.3947443587546422</v>
+      </c>
+      <c r="H144" s="8">
+        <f t="shared" si="38"/>
+        <v>1.1842121763119946</v>
+      </c>
+      <c r="I144">
+        <v>2.02</v>
+      </c>
+      <c r="J144">
+        <v>1.87</v>
+      </c>
+      <c r="K144" s="8">
+        <f t="shared" si="39"/>
+        <v>2.0802139037433154</v>
+      </c>
+      <c r="L144" s="8">
+        <f t="shared" si="40"/>
+        <v>1.9257425742574257</v>
+      </c>
+      <c r="M144" s="19">
+        <f t="shared" si="41"/>
+        <v>0.48071979434447304</v>
+      </c>
+      <c r="N144" s="19">
+        <f t="shared" si="42"/>
+        <v>0.51928020565552702</v>
+      </c>
+      <c r="O144" s="16">
+        <f t="shared" si="43"/>
+        <v>0.37443850267379675</v>
+      </c>
+      <c r="P144" s="16">
+        <f t="shared" si="44"/>
+        <v>1.579108910891089</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>184</v>
+      </c>
+      <c r="R144" t="s">
+        <v>339</v>
+      </c>
+      <c r="S144" t="s">
+        <v>145</v>
+      </c>
+      <c r="T144" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="U144" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="V144" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W144" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="B145" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="C145" s="17">
+        <f t="shared" si="35"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D145" s="18">
+        <f t="shared" si="36"/>
+        <v>1.5625</v>
+      </c>
+      <c r="E145" s="13">
+        <v>3.383458646616555E-2</v>
+      </c>
+      <c r="F145" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0338345864661656</v>
+      </c>
+      <c r="G145" s="8">
+        <f t="shared" si="37"/>
+        <v>2.6868686868686864</v>
+      </c>
+      <c r="H145" s="8">
+        <f t="shared" si="38"/>
+        <v>1.5113636363636362</v>
+      </c>
+      <c r="I145">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J145">
+        <v>1.68</v>
+      </c>
+      <c r="K145" s="8">
+        <f t="shared" si="39"/>
+        <v>2.3571428571428572</v>
+      </c>
+      <c r="L145" s="8">
+        <f t="shared" si="40"/>
+        <v>1.736842105263158</v>
+      </c>
+      <c r="M145" s="19">
+        <f t="shared" si="41"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="N145" s="19">
+        <f t="shared" si="42"/>
+        <v>0.57575757575757569</v>
+      </c>
+      <c r="O145" s="16">
+        <f t="shared" si="43"/>
+        <v>0.84857142857142864</v>
+      </c>
+      <c r="P145" s="16">
+        <f t="shared" si="44"/>
+        <v>1.111578947368421</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>182</v>
+      </c>
+      <c r="R145" t="s">
+        <v>340</v>
+      </c>
+      <c r="S145" t="s">
+        <v>145</v>
+      </c>
+      <c r="T145" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U145" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="V145" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W145" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="B146" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="C146" s="17">
+        <f t="shared" si="35"/>
+        <v>3.125</v>
+      </c>
+      <c r="D146" s="18">
+        <f t="shared" si="36"/>
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="E146" s="13">
+        <v>3.6055771758459754E-2</v>
+      </c>
+      <c r="F146" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0360557717584598</v>
+      </c>
+      <c r="G146" s="8">
+        <f t="shared" si="37"/>
+        <v>3.0162468905472637</v>
+      </c>
+      <c r="H146" s="8">
+        <f t="shared" si="38"/>
+        <v>1.4405955298136184</v>
+      </c>
+      <c r="I146">
+        <v>1.61</v>
+      </c>
+      <c r="J146">
+        <v>2.41</v>
+      </c>
+      <c r="K146" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6680497925311204</v>
+      </c>
+      <c r="L146" s="8">
+        <f t="shared" si="40"/>
+        <v>2.4968944099378882</v>
+      </c>
+      <c r="M146" s="19">
+        <f t="shared" si="41"/>
+        <v>0.59950248756218905</v>
+      </c>
+      <c r="N146" s="19">
+        <f t="shared" si="42"/>
+        <v>0.40049751243781095</v>
+      </c>
+      <c r="O146" s="16">
+        <f t="shared" si="43"/>
+        <v>0.53377593360995856</v>
+      </c>
+      <c r="P146" s="16">
+        <f t="shared" si="44"/>
+        <v>1.6729192546583853</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>109</v>
+      </c>
+      <c r="R146" t="s">
+        <v>54</v>
+      </c>
+      <c r="S146" t="s">
+        <v>151</v>
+      </c>
+      <c r="T146" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U146" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="V146" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W146" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="B147" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="C147" s="17">
+        <f t="shared" si="35"/>
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="D147" s="18">
+        <f t="shared" si="36"/>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="E147" s="13">
+        <v>3.1914893617021267E-2</v>
+      </c>
+      <c r="F147" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0319148936170213</v>
+      </c>
+      <c r="G147" s="8">
+        <f t="shared" si="37"/>
+        <v>2.8502122498483926</v>
+      </c>
+      <c r="H147" s="8">
+        <f t="shared" si="38"/>
+        <v>1.4682911590128085</v>
+      </c>
+      <c r="I147">
+        <v>1.88</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147" s="8">
+        <f t="shared" si="39"/>
+        <v>1.94</v>
+      </c>
+      <c r="L147" s="8">
+        <f t="shared" si="40"/>
+        <v>2.0638297872340425</v>
+      </c>
+      <c r="M147" s="19">
+        <f t="shared" si="41"/>
+        <v>0.51546391752577325</v>
+      </c>
+      <c r="N147" s="19">
+        <f t="shared" si="42"/>
+        <v>0.4845360824742268</v>
+      </c>
+      <c r="O147" s="16">
+        <f t="shared" si="43"/>
+        <v>0.65960000000000008</v>
+      </c>
+      <c r="P147" s="16">
+        <f t="shared" si="44"/>
+        <v>1.362127659574468</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>114</v>
+      </c>
+      <c r="R147" t="s">
+        <v>24</v>
+      </c>
+      <c r="S147" t="s">
+        <v>151</v>
+      </c>
+      <c r="T147" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U147" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V147" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W147" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="B148" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="C148" s="17">
+        <f t="shared" si="35"/>
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="D148" s="18">
+        <f t="shared" si="36"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="E148" s="13">
+        <v>3.2622025999509585E-2</v>
+      </c>
+      <c r="F148" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0326220259995096</v>
+      </c>
+      <c r="G148" s="8">
+        <f t="shared" si="37"/>
+        <v>1.8271859454129875</v>
+      </c>
+      <c r="H148" s="8">
+        <f t="shared" si="38"/>
+        <v>2.0604437256784753</v>
+      </c>
+      <c r="I148">
+        <v>2.7</v>
+      </c>
+      <c r="J148">
+        <v>1.51</v>
+      </c>
+      <c r="K148" s="8">
+        <f t="shared" si="39"/>
+        <v>2.7880794701986762</v>
+      </c>
+      <c r="L148" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5592592592592596</v>
+      </c>
+      <c r="M148" s="19">
+        <f t="shared" si="41"/>
+        <v>0.35866983372921607</v>
+      </c>
+      <c r="N148" s="19">
+        <f t="shared" si="42"/>
+        <v>0.64133016627078376</v>
+      </c>
+      <c r="O148" s="16">
+        <f t="shared" si="43"/>
+        <v>1.4776821192052985</v>
+      </c>
+      <c r="P148" s="16">
+        <f t="shared" si="44"/>
+        <v>0.73285185185185198</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>63</v>
+      </c>
+      <c r="R148" t="s">
+        <v>61</v>
+      </c>
+      <c r="S148" t="s">
+        <v>153</v>
+      </c>
+      <c r="T148" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U148" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="V148" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W148" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B149" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="C149" s="17">
+        <f t="shared" si="35"/>
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="D149" s="18">
+        <f t="shared" si="36"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="E149" s="13">
+        <v>3.0954077996130813E-2</v>
+      </c>
+      <c r="F149" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0309540779961308</v>
+      </c>
+      <c r="G149" s="8">
+        <f t="shared" si="37"/>
+        <v>1.6723712217965092</v>
+      </c>
+      <c r="H149" s="8">
+        <f t="shared" si="38"/>
+        <v>2.3094650205761313</v>
+      </c>
+      <c r="I149">
+        <v>2.44</v>
+      </c>
+      <c r="J149">
+        <v>1.61</v>
+      </c>
+      <c r="K149" s="8">
+        <f t="shared" si="39"/>
+        <v>2.5155279503105592</v>
+      </c>
+      <c r="L149" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6598360655737707</v>
+      </c>
+      <c r="M149" s="19">
+        <f t="shared" si="41"/>
+        <v>0.39753086419753081</v>
+      </c>
+      <c r="N149" s="19">
+        <f t="shared" si="42"/>
+        <v>0.60246913580246908</v>
+      </c>
+      <c r="O149" s="16">
+        <f t="shared" si="43"/>
+        <v>1.4590062111801241</v>
+      </c>
+      <c r="P149" s="16">
+        <f t="shared" si="44"/>
+        <v>0.69713114754098371</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>121</v>
+      </c>
+      <c r="R149" t="s">
+        <v>70</v>
+      </c>
+      <c r="S149" t="s">
+        <v>154</v>
+      </c>
+      <c r="T149" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U149" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V149" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W149" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="B150" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="C150" s="17">
+        <f t="shared" si="35"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="D150" s="18">
+        <f t="shared" si="36"/>
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="E150" s="13">
+        <v>2.830305277468792E-2</v>
+      </c>
+      <c r="F150" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0283030527746879</v>
+      </c>
+      <c r="G150" s="8">
+        <f t="shared" si="37"/>
+        <v>4.6308379120879124</v>
+      </c>
+      <c r="H150" s="8">
+        <f t="shared" si="38"/>
+        <v>1.2309822297955209</v>
+      </c>
+      <c r="I150">
+        <v>2.61</v>
+      </c>
+      <c r="J150">
+        <v>1.55</v>
+      </c>
+      <c r="K150" s="8">
+        <f t="shared" si="39"/>
+        <v>2.6838709677419352</v>
+      </c>
+      <c r="L150" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5938697318007664</v>
+      </c>
+      <c r="M150" s="19">
+        <f t="shared" si="41"/>
+        <v>0.37259615384615385</v>
+      </c>
+      <c r="N150" s="19">
+        <f t="shared" si="42"/>
+        <v>0.62740384615384615</v>
+      </c>
+      <c r="O150" s="16">
+        <f t="shared" si="43"/>
+        <v>0.56361290322580637</v>
+      </c>
+      <c r="P150" s="16">
+        <f t="shared" si="44"/>
+        <v>1.2591570881226055</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>64</v>
+      </c>
+      <c r="R150" t="s">
+        <v>72</v>
+      </c>
+      <c r="S150" t="s">
+        <v>154</v>
+      </c>
+      <c r="T150" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U150" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V150" s="12">
+        <v>44208</v>
+      </c>
+      <c r="W150" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="B151" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="C151" s="17">
+        <f t="shared" si="35"/>
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="D151" s="18">
+        <f t="shared" si="36"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="E151" s="13">
+        <v>4.3410041841004166E-2</v>
+      </c>
+      <c r="F151" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0434100418410042</v>
+      </c>
+      <c r="G151" s="8">
+        <f t="shared" si="37"/>
+        <v>1.2131594809809332</v>
+      </c>
+      <c r="H151" s="8">
+        <f t="shared" si="38"/>
+        <v>4.5637904284520827</v>
+      </c>
+      <c r="I151">
+        <v>1.6</v>
+      </c>
+      <c r="J151">
+        <v>2.39</v>
+      </c>
+      <c r="K151" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6694560669456067</v>
+      </c>
+      <c r="L151" s="8">
+        <f t="shared" si="40"/>
+        <v>2.4937499999999999</v>
+      </c>
+      <c r="M151" s="19">
+        <f t="shared" si="41"/>
+        <v>0.59899749373433586</v>
+      </c>
+      <c r="N151" s="19">
+        <f t="shared" si="42"/>
+        <v>0.40100250626566419</v>
+      </c>
+      <c r="O151" s="16">
+        <f t="shared" si="43"/>
+        <v>1.3188702928870295</v>
+      </c>
+      <c r="P151" s="16">
+        <f t="shared" si="44"/>
+        <v>0.52368749999999997</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>196</v>
+      </c>
+      <c r="R151" t="s">
+        <v>168</v>
+      </c>
+      <c r="S151" t="s">
+        <v>166</v>
+      </c>
+      <c r="T151" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U151" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V151" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="B152" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="C152" s="17">
+        <f t="shared" si="35"/>
+        <v>1.5625</v>
+      </c>
+      <c r="D152" s="18">
+        <f t="shared" si="36"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E152" s="13">
+        <v>3.8787998420844794E-2</v>
+      </c>
+      <c r="F152" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0387879984208448</v>
+      </c>
+      <c r="G152" s="8">
+        <f t="shared" si="37"/>
+        <v>1.5041567695961997</v>
+      </c>
+      <c r="H152" s="8">
+        <f t="shared" si="38"/>
+        <v>2.6740564792821324</v>
+      </c>
+      <c r="I152">
+        <v>1.49</v>
+      </c>
+      <c r="J152">
+        <v>2.72</v>
+      </c>
+      <c r="K152" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5477941176470587</v>
+      </c>
+      <c r="L152" s="8">
+        <f t="shared" si="40"/>
+        <v>2.825503355704698</v>
+      </c>
+      <c r="M152" s="19">
+        <f t="shared" si="41"/>
+        <v>0.64608076009501192</v>
+      </c>
+      <c r="N152" s="19">
+        <f t="shared" si="42"/>
+        <v>0.35391923990498814</v>
+      </c>
+      <c r="O152" s="16">
+        <f t="shared" si="43"/>
+        <v>0.99058823529411755</v>
+      </c>
+      <c r="P152" s="16">
+        <f t="shared" si="44"/>
+        <v>1.0171812080536913</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>341</v>
+      </c>
+      <c r="R152" t="s">
+        <v>342</v>
+      </c>
+      <c r="S152" t="s">
+        <v>349</v>
+      </c>
+      <c r="T152" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U152" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V152" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="B153" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="C153" s="17">
+        <f t="shared" si="35"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="D153" s="18">
+        <f t="shared" si="36"/>
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="E153" s="13">
+        <v>5.3347849755035481E-2</v>
+      </c>
+      <c r="F153" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0533478497550355</v>
+      </c>
+      <c r="G153" s="8">
+        <f t="shared" si="37"/>
+        <v>2.0199021386552309</v>
+      </c>
+      <c r="H153" s="8">
+        <f t="shared" si="38"/>
+        <v>1.7912339720150159</v>
+      </c>
+      <c r="I153">
+        <v>1.67</v>
+      </c>
+      <c r="J153">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K153" s="8">
+        <f t="shared" si="39"/>
+        <v>1.7590909090909093</v>
+      </c>
+      <c r="L153" s="8">
+        <f t="shared" si="40"/>
+        <v>2.3173652694610785</v>
+      </c>
+      <c r="M153" s="19">
+        <f t="shared" si="41"/>
+        <v>0.5684754521963824</v>
+      </c>
+      <c r="N153" s="19">
+        <f t="shared" si="42"/>
+        <v>0.43152454780361743</v>
+      </c>
+      <c r="O153" s="16">
+        <f t="shared" si="43"/>
+        <v>0.82677272727272733</v>
+      </c>
+      <c r="P153" s="16">
+        <f t="shared" si="44"/>
+        <v>1.2282035928143717</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>343</v>
+      </c>
+      <c r="R153" t="s">
+        <v>344</v>
+      </c>
+      <c r="S153" t="s">
+        <v>349</v>
+      </c>
+      <c r="T153" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U153" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="V153" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="B154" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="C154" s="17">
+        <f t="shared" si="35"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="D154" s="18">
+        <f t="shared" si="36"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E154" s="13">
+        <v>3.3674339300937772E-2</v>
+      </c>
+      <c r="F154" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0336743393009378</v>
+      </c>
+      <c r="G154" s="8">
+        <f t="shared" si="37"/>
+        <v>1.7915234822451316</v>
+      </c>
+      <c r="H154" s="8">
+        <f t="shared" si="38"/>
+        <v>2.6872852233676974</v>
+      </c>
+      <c r="I154">
+        <v>2.04</v>
+      </c>
+      <c r="J154">
+        <v>1.84</v>
+      </c>
+      <c r="K154" s="8">
+        <f t="shared" si="39"/>
+        <v>2.1086956521739131</v>
+      </c>
+      <c r="L154" s="8">
+        <f t="shared" si="40"/>
+        <v>1.9019607843137256</v>
+      </c>
+      <c r="M154" s="19">
+        <f t="shared" si="41"/>
+        <v>0.47422680412371132</v>
+      </c>
+      <c r="N154" s="19">
+        <f t="shared" si="42"/>
+        <v>0.52577319587628868</v>
+      </c>
+      <c r="O154" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1386956521739131</v>
+      </c>
+      <c r="P154" s="16">
+        <f t="shared" si="44"/>
+        <v>0.68470588235294128</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>345</v>
+      </c>
+      <c r="R154" t="s">
+        <v>346</v>
+      </c>
+      <c r="S154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T154" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U154" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="V154" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B155" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="C155" s="17">
+        <f t="shared" si="35"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="D155" s="18">
+        <f t="shared" si="36"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="E155" s="13">
+        <v>5.1321434246067277E-2</v>
+      </c>
+      <c r="F155" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0513214342460673</v>
+      </c>
+      <c r="G155" s="8">
+        <f t="shared" si="37"/>
+        <v>3.397085282475711</v>
+      </c>
+      <c r="H155" s="8">
+        <f t="shared" si="38"/>
+        <v>1.3210887209627766</v>
+      </c>
+      <c r="I155">
+        <v>2.39</v>
+      </c>
+      <c r="J155">
+        <v>1.58</v>
+      </c>
+      <c r="K155" s="8">
+        <f t="shared" si="39"/>
+        <v>2.5126582278481009</v>
+      </c>
+      <c r="L155" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6610878661087864</v>
+      </c>
+      <c r="M155" s="19">
+        <f t="shared" si="41"/>
+        <v>0.39798488664987414</v>
+      </c>
+      <c r="N155" s="19">
+        <f t="shared" si="42"/>
+        <v>0.60201511335012603</v>
+      </c>
+      <c r="O155" s="16">
+        <f t="shared" si="43"/>
+        <v>0.70354430379746835</v>
+      </c>
+      <c r="P155" s="16">
+        <f t="shared" si="44"/>
+        <v>1.1959832635983263</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>268</v>
+      </c>
+      <c r="R155" t="s">
+        <v>269</v>
+      </c>
+      <c r="S155" t="s">
+        <v>294</v>
+      </c>
+      <c r="T155" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U155" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="V155" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="B156" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C156" s="17">
+        <f t="shared" si="35"/>
+        <v>1.4492753623188408</v>
+      </c>
+      <c r="D156" s="18">
+        <f t="shared" si="36"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="E156" s="13">
+        <v>3.275818954738674E-2</v>
+      </c>
+      <c r="F156" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0327581895473867</v>
+      </c>
+      <c r="G156" s="8">
+        <f t="shared" si="37"/>
+        <v>1.40330561111696</v>
+      </c>
+      <c r="H156" s="8">
+        <f t="shared" si="38"/>
+        <v>3.1234866828087173</v>
+      </c>
+      <c r="I156">
+        <v>1.55</v>
+      </c>
+      <c r="J156">
+        <v>2.58</v>
+      </c>
+      <c r="K156" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6007751937984496</v>
+      </c>
+      <c r="L156" s="8">
+        <f t="shared" si="40"/>
+        <v>2.6645161290322577</v>
+      </c>
+      <c r="M156" s="19">
+        <f t="shared" si="41"/>
+        <v>0.62469733656174331</v>
+      </c>
+      <c r="N156" s="19">
+        <f t="shared" si="42"/>
+        <v>0.37530266343825669</v>
+      </c>
+      <c r="O156" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1045348837209301</v>
+      </c>
+      <c r="P156" s="16">
+        <f t="shared" si="44"/>
+        <v>0.82599999999999985</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>53</v>
+      </c>
+      <c r="R156" t="s">
+        <v>115</v>
+      </c>
+      <c r="S156" t="s">
+        <v>151</v>
+      </c>
+      <c r="T156" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U156" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V156" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="B157" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="C157" s="17">
+        <f t="shared" si="35"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="D157" s="18">
+        <f t="shared" si="36"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E157" s="13">
+        <v>3.4391534391534417E-2</v>
+      </c>
+      <c r="F157" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0343915343915344</v>
+      </c>
+      <c r="G157" s="8">
+        <f t="shared" si="37"/>
+        <v>1.2720419975770629</v>
+      </c>
+      <c r="H157" s="8">
+        <f t="shared" si="38"/>
+        <v>4.0281329923273663</v>
+      </c>
+      <c r="I157">
+        <v>1.75</v>
+      </c>
+      <c r="J157">
+        <v>2.16</v>
+      </c>
+      <c r="K157" s="8">
+        <f t="shared" si="39"/>
+        <v>1.8101851851851851</v>
+      </c>
+      <c r="L157" s="8">
+        <f t="shared" si="40"/>
+        <v>2.2342857142857144</v>
+      </c>
+      <c r="M157" s="19">
+        <f t="shared" si="41"/>
+        <v>0.55242966751918166</v>
+      </c>
+      <c r="N157" s="19">
+        <f t="shared" si="42"/>
+        <v>0.4475703324808184</v>
+      </c>
+      <c r="O157" s="16">
+        <f t="shared" si="43"/>
+        <v>1.3757407407407407</v>
+      </c>
+      <c r="P157" s="16">
+        <f t="shared" si="44"/>
+        <v>0.53622857142857139</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>111</v>
+      </c>
+      <c r="R157" t="s">
+        <v>50</v>
+      </c>
+      <c r="S157" t="s">
+        <v>151</v>
+      </c>
+      <c r="T157" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U157" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="V157" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="B158" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="C158" s="17">
+        <f t="shared" si="35"/>
+        <v>1.6129032258064517</v>
+      </c>
+      <c r="D158" s="18">
+        <f t="shared" si="36"/>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="E158" s="13">
+        <v>3.5288012454592677E-2</v>
+      </c>
+      <c r="F158" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0352880124545927</v>
+      </c>
+      <c r="G158" s="8">
+        <f t="shared" si="37"/>
+        <v>1.557927075753901</v>
+      </c>
+      <c r="H158" s="8">
+        <f t="shared" si="38"/>
+        <v>2.541881018335312</v>
+      </c>
+      <c r="I158">
+        <v>1.64</v>
+      </c>
+      <c r="J158">
+        <v>2.35</v>
+      </c>
+      <c r="K158" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6978723404255318</v>
+      </c>
+      <c r="L158" s="8">
+        <f t="shared" si="40"/>
+        <v>2.4329268292682928</v>
+      </c>
+      <c r="M158" s="19">
+        <f t="shared" si="41"/>
+        <v>0.58897243107769426</v>
+      </c>
+      <c r="N158" s="19">
+        <f t="shared" si="42"/>
+        <v>0.41102756892230574</v>
+      </c>
+      <c r="O158" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0526808510638297</v>
+      </c>
+      <c r="P158" s="16">
+        <f t="shared" si="44"/>
+        <v>0.92451219512195126</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>55</v>
+      </c>
+      <c r="R158" t="s">
+        <v>48</v>
+      </c>
+      <c r="S158" t="s">
+        <v>151</v>
+      </c>
+      <c r="T158" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U158" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="V158" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="B159" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="C159" s="17">
+        <f t="shared" si="35"/>
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="D159" s="18">
+        <f t="shared" si="36"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="E159" s="13">
+        <v>3.2221709953383471E-2</v>
+      </c>
+      <c r="F159" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0322217099533835</v>
+      </c>
+      <c r="G159" s="8">
+        <f t="shared" si="37"/>
+        <v>1.8630463828974995</v>
+      </c>
+      <c r="H159" s="8">
+        <f t="shared" si="38"/>
+        <v>2.0183002481389583</v>
+      </c>
+      <c r="I159">
+        <v>1.62</v>
+      </c>
+      <c r="J159">
+        <v>2.41</v>
+      </c>
+      <c r="K159" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6721991701244814</v>
+      </c>
+      <c r="L159" s="8">
+        <f t="shared" si="40"/>
+        <v>2.4876543209876543</v>
+      </c>
+      <c r="M159" s="19">
+        <f t="shared" si="41"/>
+        <v>0.59801488833746896</v>
+      </c>
+      <c r="N159" s="19">
+        <f t="shared" si="42"/>
+        <v>0.40198511166253104</v>
+      </c>
+      <c r="O159" s="16">
+        <f t="shared" si="43"/>
+        <v>0.86954356846473035</v>
+      </c>
+      <c r="P159" s="16">
+        <f t="shared" si="44"/>
+        <v>1.1940740740740738</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>110</v>
+      </c>
+      <c r="R159" t="s">
+        <v>23</v>
+      </c>
+      <c r="S159" t="s">
+        <v>151</v>
+      </c>
+      <c r="T159" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U159" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="V159" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="B160" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C160" s="17">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="D160" s="18">
+        <f t="shared" si="36"/>
+        <v>1.25</v>
+      </c>
+      <c r="E160" s="13">
+        <v>3.3950617283950546E-2</v>
+      </c>
+      <c r="F160" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0339506172839505</v>
+      </c>
+      <c r="G160" s="8">
+        <f t="shared" si="37"/>
+        <v>4.8358208955223887</v>
+      </c>
+      <c r="H160" s="8">
+        <f t="shared" si="38"/>
+        <v>1.2089552238805972</v>
+      </c>
+      <c r="I160">
+        <v>2.4</v>
+      </c>
+      <c r="J160">
+        <v>1.62</v>
+      </c>
+      <c r="K160" s="8">
+        <f t="shared" si="39"/>
+        <v>2.4814814814814814</v>
+      </c>
+      <c r="L160" s="8">
+        <f t="shared" si="40"/>
+        <v>1.675</v>
+      </c>
+      <c r="M160" s="19">
+        <f t="shared" si="41"/>
+        <v>0.40298507462686567</v>
+      </c>
+      <c r="N160" s="19">
+        <f t="shared" si="42"/>
+        <v>0.59701492537313428</v>
+      </c>
+      <c r="O160" s="16">
+        <f t="shared" si="43"/>
+        <v>0.49629629629629624</v>
+      </c>
+      <c r="P160" s="16">
+        <f t="shared" si="44"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>141</v>
+      </c>
+      <c r="R160" t="s">
+        <v>118</v>
+      </c>
+      <c r="S160" t="s">
+        <v>153</v>
+      </c>
+      <c r="T160" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U160" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="V160" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A161" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="B161" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="C161" s="17">
+        <f t="shared" si="35"/>
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="D161" s="18">
+        <f t="shared" si="36"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="E161" s="13">
+        <v>2.631578947368407E-2</v>
+      </c>
+      <c r="F161" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0263157894736841</v>
+      </c>
+      <c r="G161" s="8">
+        <f t="shared" si="37"/>
+        <v>1.873767258382643</v>
+      </c>
+      <c r="H161" s="8">
+        <f t="shared" si="38"/>
+        <v>2.0299145299145303</v>
+      </c>
+      <c r="I161">
+        <v>1.9</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161" s="8">
+        <f t="shared" si="39"/>
+        <v>1.9499999999999997</v>
+      </c>
+      <c r="L161" s="8">
+        <f t="shared" si="40"/>
+        <v>2.0526315789473681</v>
+      </c>
+      <c r="M161" s="19">
+        <f t="shared" si="41"/>
+        <v>0.51282051282051289</v>
+      </c>
+      <c r="N161" s="19">
+        <f t="shared" si="42"/>
+        <v>0.48717948717948723</v>
+      </c>
+      <c r="O161" s="16">
+        <f t="shared" si="43"/>
+        <v>1.014</v>
+      </c>
+      <c r="P161" s="16">
+        <f t="shared" si="44"/>
+        <v>0.98526315789473673</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>347</v>
+      </c>
+      <c r="R161" t="s">
+        <v>348</v>
+      </c>
+      <c r="S161" t="s">
+        <v>349</v>
+      </c>
+      <c r="T161" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U161" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="V161" s="12">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B162" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="C162" s="17">
+        <f t="shared" si="35"/>
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="D162" s="18">
+        <f t="shared" si="36"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="E162" s="13">
+        <v>5.1273605621431795E-2</v>
+      </c>
+      <c r="F162" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0512736056214318</v>
+      </c>
+      <c r="G162" s="8">
+        <f t="shared" si="37"/>
+        <v>1.6400468173224092</v>
+      </c>
+      <c r="H162" s="8">
+        <f t="shared" si="38"/>
+        <v>2.2648265572547555</v>
+      </c>
+      <c r="I162">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J162">
+        <v>1.76</v>
+      </c>
+      <c r="K162" s="8">
+        <f t="shared" si="39"/>
+        <v>2.1761363636363638</v>
+      </c>
+      <c r="L162" s="8">
+        <f t="shared" si="40"/>
+        <v>1.85024154589372</v>
+      </c>
+      <c r="M162" s="19">
+        <f t="shared" si="41"/>
+        <v>0.45953002610966054</v>
+      </c>
+      <c r="N162" s="19">
+        <f t="shared" si="42"/>
+        <v>0.54046997389033935</v>
+      </c>
+      <c r="O162" s="16">
+        <f t="shared" si="43"/>
+        <v>1.262159090909091</v>
+      </c>
+      <c r="P162" s="16">
+        <f t="shared" si="44"/>
+        <v>0.7771014492753624</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>284</v>
+      </c>
+      <c r="R162" t="s">
+        <v>285</v>
+      </c>
+      <c r="S162" t="s">
+        <v>294</v>
+      </c>
+      <c r="T162" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U162" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="V162" s="12">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="B163" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="C163" s="17">
+        <f t="shared" si="35"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="D163" s="18">
+        <f t="shared" si="36"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="E163" s="13">
+        <v>5.1356713994897829E-2</v>
+      </c>
+      <c r="F163" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0513567139948978</v>
+      </c>
+      <c r="G163" s="8">
+        <f t="shared" si="37"/>
+        <v>2.0677216538789427</v>
+      </c>
+      <c r="H163" s="8">
+        <f t="shared" si="38"/>
+        <v>1.761392519970951</v>
+      </c>
+      <c r="I163">
+        <v>2.57</v>
+      </c>
+      <c r="J163">
+        <v>1.51</v>
+      </c>
+      <c r="K163" s="8">
+        <f t="shared" si="39"/>
+        <v>2.7019867549668874</v>
+      </c>
+      <c r="L163" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5875486381322956</v>
+      </c>
+      <c r="M163" s="19">
+        <f t="shared" si="41"/>
+        <v>0.37009803921568629</v>
+      </c>
+      <c r="N163" s="19">
+        <f t="shared" si="42"/>
+        <v>0.62990196078431371</v>
+      </c>
+      <c r="O163" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2429139072847684</v>
+      </c>
+      <c r="P163" s="16">
+        <f t="shared" si="44"/>
+        <v>0.8572762645914398</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>286</v>
+      </c>
+      <c r="R163" t="s">
+        <v>270</v>
+      </c>
+      <c r="S163" t="s">
+        <v>294</v>
+      </c>
+      <c r="T163" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U163" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V163" s="12">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="B164" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C164" s="17">
+        <f t="shared" si="35"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="D164" s="18">
+        <f t="shared" si="36"/>
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="E164" s="13">
+        <v>3.2911392405063244E-2</v>
+      </c>
+      <c r="F164" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0329113924050632</v>
+      </c>
+      <c r="G164" s="8">
+        <f t="shared" si="37"/>
+        <v>2.3050887021475259</v>
+      </c>
+      <c r="H164" s="8">
+        <f t="shared" si="38"/>
+        <v>1.6692021636240706</v>
+      </c>
+      <c r="I164">
+        <v>1.58</v>
+      </c>
+      <c r="J164">
+        <v>2.5</v>
+      </c>
+      <c r="K164" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="L164" s="8">
+        <f t="shared" si="40"/>
+        <v>2.5822784810126582</v>
+      </c>
+      <c r="M164" s="19">
+        <f t="shared" si="41"/>
+        <v>0.61274509803921573</v>
+      </c>
+      <c r="N164" s="19">
+        <f t="shared" si="42"/>
+        <v>0.38725490196078433</v>
+      </c>
+      <c r="O164" s="16">
+        <f t="shared" si="43"/>
+        <v>0.68543999999999994</v>
+      </c>
+      <c r="P164" s="16">
+        <f t="shared" si="44"/>
+        <v>1.4977215189873416</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>113</v>
+      </c>
+      <c r="R164" t="s">
+        <v>52</v>
+      </c>
+      <c r="S164" t="s">
+        <v>151</v>
+      </c>
+      <c r="T164" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="U164" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="V164" s="12">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A165" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="B165" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="C165" s="17">
+        <f t="shared" si="35"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="D165" s="18">
+        <f t="shared" si="36"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E165" s="13">
+        <v>4.1041041041041115E-2</v>
+      </c>
+      <c r="F165" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0410410410410411</v>
+      </c>
+      <c r="G165" s="8">
+        <f t="shared" si="37"/>
+        <v>1.263917004048583</v>
+      </c>
+      <c r="H165" s="8">
+        <f t="shared" si="38"/>
+        <v>4.0024038461538458</v>
+      </c>
+      <c r="I165">
+        <v>1.35</v>
+      </c>
+      <c r="J165">
+        <v>3.33</v>
+      </c>
+      <c r="K165" s="8">
+        <f t="shared" si="39"/>
+        <v>1.4054054054054057</v>
+      </c>
+      <c r="L165" s="8">
+        <f t="shared" si="40"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="M165" s="19">
+        <f t="shared" si="41"/>
+        <v>0.71153846153846134</v>
+      </c>
+      <c r="N165" s="19">
+        <f t="shared" si="42"/>
+        <v>0.28846153846153844</v>
+      </c>
+      <c r="O165" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0681081081081083</v>
+      </c>
+      <c r="P165" s="16">
+        <f t="shared" si="44"/>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>51</v>
+      </c>
+      <c r="R165" t="s">
+        <v>112</v>
+      </c>
+      <c r="S165" t="s">
+        <v>151</v>
+      </c>
+      <c r="T165" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U165" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="V165" s="12">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="B166" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="C166" s="17">
+        <f t="shared" si="35"/>
+        <v>1.639344262295082</v>
+      </c>
+      <c r="D166" s="18">
+        <f t="shared" si="36"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="E166" s="13">
+        <v>2.891515407344869E-2</v>
+      </c>
+      <c r="F166" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0289151540734487</v>
+      </c>
+      <c r="G166" s="8">
+        <f t="shared" si="37"/>
+        <v>1.5932744850777638</v>
+      </c>
+      <c r="H166" s="8">
+        <f t="shared" si="38"/>
+        <v>2.4920447074293226</v>
+      </c>
+      <c r="I166">
+        <v>2.06</v>
+      </c>
+      <c r="J166">
+        <v>1.84</v>
+      </c>
+      <c r="K166" s="8">
+        <f t="shared" si="39"/>
+        <v>2.1195652173913042</v>
+      </c>
+      <c r="L166" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8932038834951457</v>
+      </c>
+      <c r="M166" s="19">
+        <f t="shared" si="41"/>
+        <v>0.47179487179487184</v>
+      </c>
+      <c r="N166" s="19">
+        <f t="shared" si="42"/>
+        <v>0.52820512820512822</v>
+      </c>
+      <c r="O166" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2929347826086957</v>
+      </c>
+      <c r="P166" s="16">
+        <f t="shared" si="44"/>
+        <v>0.73834951456310693</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>116</v>
+      </c>
+      <c r="R166" t="s">
+        <v>49</v>
+      </c>
+      <c r="S166" t="s">
+        <v>151</v>
+      </c>
+      <c r="T166" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U166" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="V166" s="12">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="3"/>
@@ -12901,7 +15123,7 @@
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="3"/>
@@ -12915,7 +15137,7 @@
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="3"/>
@@ -12929,7 +15151,7 @@
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="3"/>
@@ -12943,7 +15165,7 @@
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="3"/>
@@ -12957,7 +15179,7 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="3"/>
@@ -12971,7 +15193,7 @@
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="3"/>
@@ -12985,7 +15207,7 @@
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="3"/>
@@ -12999,7 +15221,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="3"/>
@@ -13013,7 +15235,7 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="3"/>
@@ -16522,9 +18744,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AB134"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166:C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30452,7 +32674,7 @@
         <v>2.2718204384037932E-2</v>
       </c>
       <c r="H130" s="8">
-        <f t="shared" ref="H130:H134" si="53">(G130/100%) + 1</f>
+        <f t="shared" ref="H130:H166" si="53">(G130/100%) + 1</f>
         <v>1.0227182043840379</v>
       </c>
       <c r="I130" s="5">
@@ -30967,644 +33189,3316 @@
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-      <c r="AC135" s="12"/>
+      <c r="A135" s="10">
+        <v>0.6046448923593446</v>
+      </c>
+      <c r="B135" s="10">
+        <v>0.22316882072094402</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0.17218228210568884</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" ref="D135:D166" si="54">(100%/A135)</f>
+        <v>1.6538633049523772</v>
+      </c>
+      <c r="E135" s="4">
+        <f t="shared" ref="E135:E166" si="55">(100%/B135)</f>
+        <v>4.4809126865012452</v>
+      </c>
+      <c r="F135" s="14">
+        <f t="shared" ref="F135:F166" si="56">(100%/C135)</f>
+        <v>5.8077985015100477</v>
+      </c>
+      <c r="G135" s="13">
+        <v>3.4416273016484977E-2</v>
+      </c>
+      <c r="H135" s="8">
+        <f t="shared" si="53"/>
+        <v>1.034416273016485</v>
+      </c>
+      <c r="I135" s="5">
+        <f t="shared" ref="I135:I166" si="57">D135/H135</f>
+        <v>1.5988372844614176</v>
+      </c>
+      <c r="J135" s="5">
+        <f t="shared" ref="J135:J166" si="58">E135/H135</f>
+        <v>4.3318273343035809</v>
+      </c>
+      <c r="K135" s="5">
+        <f t="shared" ref="K135:K166" si="59">F135/H135</f>
+        <v>5.6145660630161913</v>
+      </c>
+      <c r="L135">
+        <v>1.87</v>
+      </c>
+      <c r="M135">
+        <v>3.91</v>
+      </c>
+      <c r="N135">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O135" s="5">
+        <f t="shared" ref="O135:O166" si="60">(L135*H135)</f>
+        <v>1.934358430540827</v>
+      </c>
+      <c r="P135" s="5">
+        <f t="shared" ref="P135:P166" si="61">(M135*H135)</f>
+        <v>4.0445676274944562</v>
+      </c>
+      <c r="Q135" s="5">
+        <f t="shared" ref="Q135:Q166" si="62">(N135*H135)</f>
+        <v>4.241106719367588</v>
+      </c>
+      <c r="R135" s="6">
+        <f t="shared" ref="R135:R166" si="63">(1/O135)</f>
+        <v>0.51696727153116606</v>
+      </c>
+      <c r="S135" s="6">
+        <f t="shared" ref="S135:S166" si="64">(1/P135)</f>
+        <v>0.24724521681925338</v>
+      </c>
+      <c r="T135" s="6">
+        <f t="shared" ref="T135:T166" si="65">(1/Q135)</f>
+        <v>0.23578751164958067</v>
+      </c>
+      <c r="U135">
+        <f t="shared" ref="U135:U166" si="66">(L135/I135)</f>
+        <v>1.1695999450187491</v>
+      </c>
+      <c r="V135">
+        <f t="shared" ref="V135:V166" si="67">(M135/J135)</f>
+        <v>0.90262138775404421</v>
+      </c>
+      <c r="W135">
+        <f t="shared" ref="W135:W166" si="68">(N135/K135)</f>
+        <v>0.73024343359448263</v>
+      </c>
+      <c r="X135" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA135" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB135" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC135" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD135" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
-      <c r="AC136" s="12"/>
+      <c r="A136" s="10">
+        <v>0.17231583763181579</v>
+      </c>
+      <c r="B136" s="10">
+        <v>0.30536152480221551</v>
+      </c>
+      <c r="C136" s="10">
+        <v>0.52232256555747358</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" si="54"/>
+        <v>5.8032970952831526</v>
+      </c>
+      <c r="E136" s="4">
+        <f t="shared" si="55"/>
+        <v>3.2748068069404157</v>
+      </c>
+      <c r="F136" s="14">
+        <f t="shared" si="56"/>
+        <v>1.9145257470021471</v>
+      </c>
+      <c r="G136" s="13">
+        <v>2.2222325801078968E-2</v>
+      </c>
+      <c r="H136" s="8">
+        <f t="shared" si="53"/>
+        <v>1.022222325801079</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="57"/>
+        <v>5.6771378875288372</v>
+      </c>
+      <c r="J136" s="5">
+        <f t="shared" si="58"/>
+        <v>3.2036150300024673</v>
+      </c>
+      <c r="K136" s="5">
+        <f t="shared" si="59"/>
+        <v>1.8729054322911622</v>
+      </c>
+      <c r="L136">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M136">
+        <v>3.18</v>
+      </c>
+      <c r="N136">
+        <v>3.2</v>
+      </c>
+      <c r="O136" s="5">
+        <f t="shared" si="60"/>
+        <v>2.5862224842767296</v>
+      </c>
+      <c r="P136" s="5">
+        <f t="shared" si="61"/>
+        <v>3.2506669960474315</v>
+      </c>
+      <c r="Q136" s="5">
+        <f t="shared" si="62"/>
+        <v>3.2711114425634529</v>
+      </c>
+      <c r="R136" s="6">
+        <f t="shared" si="63"/>
+        <v>0.38666433614262807</v>
+      </c>
+      <c r="S136" s="6">
+        <f t="shared" si="64"/>
+        <v>0.30762917309460652</v>
+      </c>
+      <c r="T136" s="6">
+        <f t="shared" si="65"/>
+        <v>0.30570649076276529</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="66"/>
+        <v>0.44564709368038025</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="67"/>
+        <v>0.99262863053728123</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="68"/>
+        <v>1.708575320904151</v>
+      </c>
+      <c r="X136" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA136" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB136" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC136" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD136" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
-      <c r="AC137" s="12"/>
+      <c r="A137" s="10">
+        <v>0.34779225232439798</v>
+      </c>
+      <c r="B137" s="10">
+        <v>0.25625517424901206</v>
+      </c>
+      <c r="C137" s="10">
+        <v>0.395952107689229</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" si="54"/>
+        <v>2.8752796915880263</v>
+      </c>
+      <c r="E137" s="4">
+        <f t="shared" si="55"/>
+        <v>3.9023602271861453</v>
+      </c>
+      <c r="F137" s="14">
+        <f t="shared" si="56"/>
+        <v>2.5255579666843704</v>
+      </c>
+      <c r="G137" s="13">
+        <v>4.3458317589764484E-2</v>
+      </c>
+      <c r="H137" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0434583175897645</v>
+      </c>
+      <c r="I137" s="5">
+        <f t="shared" si="57"/>
+        <v>2.7555290356298086</v>
+      </c>
+      <c r="J137" s="5">
+        <f t="shared" si="58"/>
+        <v>3.7398333612405565</v>
+      </c>
+      <c r="K137" s="5">
+        <f t="shared" si="59"/>
+        <v>2.4203726436510071</v>
+      </c>
+      <c r="L137">
+        <v>2.73</v>
+      </c>
+      <c r="M137">
+        <v>3.49</v>
+      </c>
+      <c r="N137">
+        <v>2.56</v>
+      </c>
+      <c r="O137" s="5">
+        <f t="shared" si="60"/>
+        <v>2.8486412070200569</v>
+      </c>
+      <c r="P137" s="5">
+        <f t="shared" si="61"/>
+        <v>3.6416695283882783</v>
+      </c>
+      <c r="Q137" s="5">
+        <f t="shared" si="62"/>
+        <v>2.671253293029797</v>
+      </c>
+      <c r="R137" s="6">
+        <f t="shared" si="63"/>
+        <v>0.3510445603102445</v>
+      </c>
+      <c r="S137" s="6">
+        <f t="shared" si="64"/>
+        <v>0.27459932654640895</v>
+      </c>
+      <c r="T137" s="6">
+        <f t="shared" si="65"/>
+        <v>0.37435611314334666</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="66"/>
+        <v>0.99073534145359732</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="67"/>
+        <v>0.93319665955445597</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="68"/>
+        <v>1.0576883715469418</v>
+      </c>
+      <c r="X137" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA137" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB137" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC137" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD137" s="9" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
-      <c r="AC138" s="12"/>
+      <c r="A138" s="10">
+        <v>0.12994483438737503</v>
+      </c>
+      <c r="B138" s="10">
+        <v>0.19162077012606551</v>
+      </c>
+      <c r="C138" s="10">
+        <v>0.6784195563832478</v>
+      </c>
+      <c r="D138" s="3">
+        <f t="shared" si="54"/>
+        <v>7.6955733155111581</v>
+      </c>
+      <c r="E138" s="4">
+        <f t="shared" si="55"/>
+        <v>5.2186409612178748</v>
+      </c>
+      <c r="F138" s="14">
+        <f t="shared" si="56"/>
+        <v>1.4740141120505779</v>
+      </c>
+      <c r="G138" s="13">
+        <v>2.6693598375615357E-2</v>
+      </c>
+      <c r="H138" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0266935983756154</v>
+      </c>
+      <c r="I138" s="5">
+        <f t="shared" si="57"/>
+        <v>7.4954916712120534</v>
+      </c>
+      <c r="J138" s="5">
+        <f t="shared" si="58"/>
+        <v>5.0829585082390256</v>
+      </c>
+      <c r="K138" s="5">
+        <f t="shared" si="59"/>
+        <v>1.4356903699240857</v>
+      </c>
+      <c r="L138">
+        <v>7.33</v>
+      </c>
+      <c r="M138">
+        <v>4.66</v>
+      </c>
+      <c r="N138">
+        <v>1.48</v>
+      </c>
+      <c r="O138" s="5">
+        <f t="shared" si="60"/>
+        <v>7.5256640760932605</v>
+      </c>
+      <c r="P138" s="5">
+        <f t="shared" si="61"/>
+        <v>4.7843921684303679</v>
+      </c>
+      <c r="Q138" s="5">
+        <f t="shared" si="62"/>
+        <v>1.5195065255959108</v>
+      </c>
+      <c r="R138" s="6">
+        <f t="shared" si="63"/>
+        <v>0.13287863899967248</v>
+      </c>
+      <c r="S138" s="6">
+        <f t="shared" si="64"/>
+        <v>0.20901296649519294</v>
+      </c>
+      <c r="T138" s="6">
+        <f t="shared" si="65"/>
+        <v>0.65810839450513459</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="66"/>
+        <v>0.97792117202295648</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="67"/>
+        <v>0.91678891189974354</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="68"/>
+        <v>1.0308629430162279</v>
+      </c>
+      <c r="X138" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA138" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB138" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC138" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD138" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
-      <c r="AC139" s="12"/>
+      <c r="A139" s="10">
+        <v>0.28997255002130079</v>
+      </c>
+      <c r="B139" s="10">
+        <v>0.32867765615239758</v>
+      </c>
+      <c r="C139" s="10">
+        <v>0.38134978473005438</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" si="54"/>
+        <v>3.4486022898599957</v>
+      </c>
+      <c r="E139" s="4">
+        <f t="shared" si="55"/>
+        <v>3.0424946183026544</v>
+      </c>
+      <c r="F139" s="14">
+        <f t="shared" si="56"/>
+        <v>2.6222644932338661</v>
+      </c>
+      <c r="G139" s="13">
+        <v>2.2550726265348819E-2</v>
+      </c>
+      <c r="H139" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0225507262653488</v>
+      </c>
+      <c r="I139" s="5">
+        <f t="shared" si="57"/>
+        <v>3.3725488636199881</v>
+      </c>
+      <c r="J139" s="5">
+        <f t="shared" si="58"/>
+        <v>2.9753972494007463</v>
+      </c>
+      <c r="K139" s="5">
+        <f t="shared" si="59"/>
+        <v>2.5644346298702803</v>
+      </c>
+      <c r="L139">
+        <v>2.56</v>
+      </c>
+      <c r="M139">
+        <v>3.18</v>
+      </c>
+      <c r="N139">
+        <v>3.15</v>
+      </c>
+      <c r="O139" s="5">
+        <f t="shared" si="60"/>
+        <v>2.6177298592392932</v>
+      </c>
+      <c r="P139" s="5">
+        <f t="shared" si="61"/>
+        <v>3.2517113095238095</v>
+      </c>
+      <c r="Q139" s="5">
+        <f t="shared" si="62"/>
+        <v>3.2210347877358485</v>
+      </c>
+      <c r="R139" s="6">
+        <f t="shared" si="63"/>
+        <v>0.38201038830286249</v>
+      </c>
+      <c r="S139" s="6">
+        <f t="shared" si="64"/>
+        <v>0.30753037548909684</v>
+      </c>
+      <c r="T139" s="6">
+        <f t="shared" si="65"/>
+        <v>0.31045923620804067</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="66"/>
+        <v>0.75906980255051859</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="67"/>
+        <v>1.0687648516985291</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="68"/>
+        <v>1.2283409229110824</v>
+      </c>
+      <c r="X139" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA139" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB139" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC139" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD139" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
-      <c r="AC140" s="12"/>
+      <c r="A140" s="10">
+        <v>0.59493196487139421</v>
+      </c>
+      <c r="B140" s="10">
+        <v>0.23316977267600927</v>
+      </c>
+      <c r="C140" s="10">
+        <v>0.17189593883168486</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" si="54"/>
+        <v>1.6808644669414743</v>
+      </c>
+      <c r="E140" s="4">
+        <f t="shared" si="55"/>
+        <v>4.2887205683796141</v>
+      </c>
+      <c r="F140" s="14">
+        <f t="shared" si="56"/>
+        <v>5.8174730991124157</v>
+      </c>
+      <c r="G140" s="13">
+        <v>2.8007099676574665E-2</v>
+      </c>
+      <c r="H140" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0280070996765747</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" si="57"/>
+        <v>1.635070873995226</v>
+      </c>
+      <c r="J140" s="5">
+        <f t="shared" si="58"/>
+        <v>4.1718783554402545</v>
+      </c>
+      <c r="K140" s="5">
+        <f t="shared" si="59"/>
+        <v>5.6589814418039266</v>
+      </c>
+      <c r="L140">
+        <v>2.37</v>
+      </c>
+      <c r="M140">
+        <v>3.31</v>
+      </c>
+      <c r="N140">
+        <v>3.29</v>
+      </c>
+      <c r="O140" s="5">
+        <f t="shared" si="60"/>
+        <v>2.4363768262334822</v>
+      </c>
+      <c r="P140" s="5">
+        <f t="shared" si="61"/>
+        <v>3.4027034999294621</v>
+      </c>
+      <c r="Q140" s="5">
+        <f t="shared" si="62"/>
+        <v>3.3821433579359308</v>
+      </c>
+      <c r="R140" s="6">
+        <f t="shared" si="63"/>
+        <v>0.41044553914344623</v>
+      </c>
+      <c r="S140" s="6">
+        <f t="shared" si="64"/>
+        <v>0.29388396609364581</v>
+      </c>
+      <c r="T140" s="6">
+        <f t="shared" si="65"/>
+        <v>0.29567049476290808</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="66"/>
+        <v>1.4494784523982169</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="67"/>
+        <v>0.79340760156241386</v>
+      </c>
+      <c r="W140">
+        <f t="shared" si="68"/>
+        <v>0.58137670777574402</v>
+      </c>
+      <c r="X140" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA140" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB140" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC140" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD140" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-      <c r="T141" s="6"/>
-      <c r="AC141" s="12"/>
+      <c r="A141" s="10">
+        <v>0.51222586534199499</v>
+      </c>
+      <c r="B141" s="10">
+        <v>0.28575060249836809</v>
+      </c>
+      <c r="C141" s="10">
+        <v>0.20202336764617718</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" si="54"/>
+        <v>1.9522637720223979</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="55"/>
+        <v>3.4995551759360191</v>
+      </c>
+      <c r="F141" s="14">
+        <f t="shared" si="56"/>
+        <v>4.949922435464968</v>
+      </c>
+      <c r="G141" s="13">
+        <v>2.8861224707732225E-2</v>
+      </c>
+      <c r="H141" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0288612247077322</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="57"/>
+        <v>1.8974996094123149</v>
+      </c>
+      <c r="J141" s="5">
+        <f t="shared" si="58"/>
+        <v>3.4013869819325095</v>
+      </c>
+      <c r="K141" s="5">
+        <f t="shared" si="59"/>
+        <v>4.8110690893916122</v>
+      </c>
+      <c r="L141">
+        <v>1.79</v>
+      </c>
+      <c r="M141">
+        <v>3.53</v>
+      </c>
+      <c r="N141">
+        <v>5.35</v>
+      </c>
+      <c r="O141" s="5">
+        <f t="shared" si="60"/>
+        <v>1.8416615922268407</v>
+      </c>
+      <c r="P141" s="5">
+        <f t="shared" si="61"/>
+        <v>3.6318801232182945</v>
+      </c>
+      <c r="Q141" s="5">
+        <f t="shared" si="62"/>
+        <v>5.5044075521863673</v>
+      </c>
+      <c r="R141" s="6">
+        <f t="shared" si="63"/>
+        <v>0.54298792146219022</v>
+      </c>
+      <c r="S141" s="6">
+        <f t="shared" si="64"/>
+        <v>0.27533948425419846</v>
+      </c>
+      <c r="T141" s="6">
+        <f t="shared" si="65"/>
+        <v>0.18167259428361132</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="66"/>
+        <v>0.9433467027455098</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="67"/>
+        <v>1.037811933411475</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="68"/>
+        <v>1.1120189505897407</v>
+      </c>
+      <c r="X141" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA141" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB141" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC141" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD141" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-      <c r="T142" s="6"/>
-      <c r="AC142" s="12"/>
+      <c r="A142" s="10">
+        <v>0.47412535197154732</v>
+      </c>
+      <c r="B142" s="10">
+        <v>0.20646355461538071</v>
+      </c>
+      <c r="C142" s="10">
+        <v>0.31939297886250279</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="54"/>
+        <v>2.1091468655740875</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="55"/>
+        <v>4.843469840780819</v>
+      </c>
+      <c r="F142" s="14">
+        <f t="shared" si="56"/>
+        <v>3.1309392071216928</v>
+      </c>
+      <c r="G142" s="13">
+        <v>2.9188957394802095E-2</v>
+      </c>
+      <c r="H142" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0291889573948021</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="57"/>
+        <v>2.0493290861893771</v>
+      </c>
+      <c r="J142" s="5">
+        <f t="shared" si="58"/>
+        <v>4.7061035837783862</v>
+      </c>
+      <c r="K142" s="5">
+        <f t="shared" si="59"/>
+        <v>3.0421422466940138</v>
+      </c>
+      <c r="L142">
+        <v>1.83</v>
+      </c>
+      <c r="M142">
+        <v>3.65</v>
+      </c>
+      <c r="N142">
+        <v>4.79</v>
+      </c>
+      <c r="O142" s="5">
+        <f t="shared" si="60"/>
+        <v>1.8834157920324879</v>
+      </c>
+      <c r="P142" s="5">
+        <f t="shared" si="61"/>
+        <v>3.7565396944910274</v>
+      </c>
+      <c r="Q142" s="5">
+        <f t="shared" si="62"/>
+        <v>4.9298151059211017</v>
+      </c>
+      <c r="R142" s="6">
+        <f t="shared" si="63"/>
+        <v>0.53095020453282393</v>
+      </c>
+      <c r="S142" s="6">
+        <f t="shared" si="64"/>
+        <v>0.26620243131371724</v>
+      </c>
+      <c r="T142" s="6">
+        <f t="shared" si="65"/>
+        <v>0.20284736415345883</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="66"/>
+        <v>0.89297517530617387</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="67"/>
+        <v>0.77558853837839392</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="68"/>
+        <v>1.5745483319215055</v>
+      </c>
+      <c r="X142" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA142" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB142" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC142" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD142" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-      <c r="T143" s="6"/>
-      <c r="AC143" s="12"/>
+      <c r="A143" s="10">
+        <v>0.70334450704793627</v>
+      </c>
+      <c r="B143" s="10">
+        <v>0.15874412225187012</v>
+      </c>
+      <c r="C143" s="10">
+        <v>0.13777988372096872</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="54"/>
+        <v>1.4217783603616674</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="55"/>
+        <v>6.2994458365731347</v>
+      </c>
+      <c r="F143" s="14">
+        <f t="shared" si="56"/>
+        <v>7.2579535777893094</v>
+      </c>
+      <c r="G143" s="13">
+        <v>3.0079039812646258E-2</v>
+      </c>
+      <c r="H143" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0300790398126463</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="57"/>
+        <v>1.3802614220946234</v>
+      </c>
+      <c r="J143" s="5">
+        <f t="shared" si="58"/>
+        <v>6.1154975425176072</v>
+      </c>
+      <c r="K143" s="5">
+        <f t="shared" si="59"/>
+        <v>7.0460161766900979</v>
+      </c>
+      <c r="L143">
+        <v>1.83</v>
+      </c>
+      <c r="M143">
+        <v>3.84</v>
+      </c>
+      <c r="N143">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="O143" s="5">
+        <f t="shared" si="60"/>
+        <v>1.8850446428571428</v>
+      </c>
+      <c r="P143" s="5">
+        <f t="shared" si="61"/>
+        <v>3.9555035128805613</v>
+      </c>
+      <c r="Q143" s="5">
+        <f t="shared" si="62"/>
+        <v>4.6147540983606561</v>
+      </c>
+      <c r="R143" s="6">
+        <f t="shared" si="63"/>
+        <v>0.53049141503848429</v>
+      </c>
+      <c r="S143" s="6">
+        <f t="shared" si="64"/>
+        <v>0.25281231497927775</v>
+      </c>
+      <c r="T143" s="6">
+        <f t="shared" si="65"/>
+        <v>0.21669626998223798</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="66"/>
+        <v>1.3258357950937101</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="67"/>
+        <v>0.62791293321641362</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="68"/>
+        <v>0.6358202830729951</v>
+      </c>
+      <c r="X143" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA143" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB143" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC143" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD143" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-      <c r="T144" s="6"/>
-      <c r="AC144" s="12"/>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-      <c r="T145" s="6"/>
-      <c r="AC145" s="12"/>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-      <c r="T146" s="6"/>
-      <c r="AC146" s="12"/>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-      <c r="T147" s="6"/>
-      <c r="AC147" s="12"/>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="AC148" s="12"/>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-      <c r="T149" s="6"/>
-      <c r="AC149" s="12"/>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-      <c r="AC150" s="12"/>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-      <c r="T151" s="6"/>
-      <c r="AC151" s="12"/>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-      <c r="T152" s="6"/>
-      <c r="AC152" s="12"/>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-      <c r="T153" s="6"/>
-      <c r="AC153" s="12"/>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-      <c r="T154" s="6"/>
-      <c r="AC154" s="12"/>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-      <c r="T155" s="6"/>
-      <c r="AC155" s="12"/>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-      <c r="T156" s="6"/>
-      <c r="AC156" s="12"/>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
-      <c r="AC157" s="12"/>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
-      <c r="AC158" s="12"/>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-      <c r="T159" s="6"/>
-      <c r="AC159" s="12"/>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
-      <c r="AC160" s="12"/>
+      <c r="A144" s="10">
+        <v>0.17073642317731574</v>
+      </c>
+      <c r="B144" s="10">
+        <v>0.35587040363623113</v>
+      </c>
+      <c r="C144" s="10">
+        <v>0.47339316490064853</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="54"/>
+        <v>5.8569810787324803</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="55"/>
+        <v>2.8100117058967196</v>
+      </c>
+      <c r="F144" s="14">
+        <f t="shared" si="56"/>
+        <v>2.1124090378657474</v>
+      </c>
+      <c r="G144" s="13">
+        <v>3.1941838676174283E-2</v>
+      </c>
+      <c r="H144" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0319418386761743</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="57"/>
+        <v>5.6756891320988627</v>
+      </c>
+      <c r="J144" s="5">
+        <f t="shared" si="58"/>
+        <v>2.7230330243238714</v>
+      </c>
+      <c r="K144" s="5">
+        <f t="shared" si="59"/>
+        <v>2.0470233483077394</v>
+      </c>
+      <c r="L144">
+        <v>4.47</v>
+      </c>
+      <c r="M144">
+        <v>3.82</v>
+      </c>
+      <c r="N144">
+        <v>1.83</v>
+      </c>
+      <c r="O144" s="5">
+        <f t="shared" si="60"/>
+        <v>4.612780018882499</v>
+      </c>
+      <c r="P144" s="5">
+        <f t="shared" si="61"/>
+        <v>3.9420178237429857</v>
+      </c>
+      <c r="Q144" s="5">
+        <f t="shared" si="62"/>
+        <v>1.888453564777399</v>
+      </c>
+      <c r="R144" s="6">
+        <f t="shared" si="63"/>
+        <v>0.21678900704271215</v>
+      </c>
+      <c r="S144" s="6">
+        <f t="shared" si="64"/>
+        <v>0.25367718886935164</v>
+      </c>
+      <c r="T144" s="6">
+        <f t="shared" si="65"/>
+        <v>0.52953380408793627</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="66"/>
+        <v>0.78756956132778877</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="67"/>
+        <v>1.4028474740766337</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="68"/>
+        <v>0.89398100979788475</v>
+      </c>
+      <c r="X144" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA144" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB144" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC144" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD144" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>0.19345556110680084</v>
+      </c>
+      <c r="B145" s="10">
+        <v>0.27356294051493196</v>
+      </c>
+      <c r="C145" s="10">
+        <v>0.53298119234540786</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" si="54"/>
+        <v>5.1691457938907783</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="55"/>
+        <v>3.6554658979673333</v>
+      </c>
+      <c r="F145" s="14">
+        <f t="shared" si="56"/>
+        <v>1.8762388136051382</v>
+      </c>
+      <c r="G145" s="13">
+        <v>2.6479537465979863E-2</v>
+      </c>
+      <c r="H145" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0264795374659799</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="57"/>
+        <v>5.0358001355308035</v>
+      </c>
+      <c r="J145" s="5">
+        <f t="shared" si="58"/>
+        <v>3.561167821222627</v>
+      </c>
+      <c r="K145" s="5">
+        <f t="shared" si="59"/>
+        <v>1.8278384956770963</v>
+      </c>
+      <c r="L145">
+        <v>3.1</v>
+      </c>
+      <c r="M145">
+        <v>3.24</v>
+      </c>
+      <c r="N145">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O145" s="5">
+        <f t="shared" si="60"/>
+        <v>3.1820865661445379</v>
+      </c>
+      <c r="P145" s="5">
+        <f t="shared" si="61"/>
+        <v>3.3257937013897751</v>
+      </c>
+      <c r="Q145" s="5">
+        <f t="shared" si="62"/>
+        <v>2.5969932297889287</v>
+      </c>
+      <c r="R145" s="6">
+        <f t="shared" si="63"/>
+        <v>0.31425920672284363</v>
+      </c>
+      <c r="S145" s="6">
+        <f t="shared" si="64"/>
+        <v>0.30068010519778249</v>
+      </c>
+      <c r="T145" s="6">
+        <f t="shared" si="65"/>
+        <v>0.38506068807937371</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="66"/>
+        <v>0.61559234214390468</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="67"/>
+        <v>0.90981390449822641</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="68"/>
+        <v>1.3841485481258551</v>
+      </c>
+      <c r="X145" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA145" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB145" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC145" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD145" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>0.76170880504476879</v>
+      </c>
+      <c r="B146" s="10">
+        <v>0.19614366622911322</v>
+      </c>
+      <c r="C146" s="10">
+        <v>4.214485363360241E-2</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" si="54"/>
+        <v>1.3128376531517525</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="55"/>
+        <v>5.098303805700823</v>
+      </c>
+      <c r="F146" s="14">
+        <f t="shared" si="56"/>
+        <v>23.727689475297939</v>
+      </c>
+      <c r="G146" s="13">
+        <v>2.8361268912444171E-2</v>
+      </c>
+      <c r="H146" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0283612689124442</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="57"/>
+        <v>1.2766307841797269</v>
+      </c>
+      <c r="J146" s="5">
+        <f t="shared" si="58"/>
+        <v>4.9576972216122019</v>
+      </c>
+      <c r="K146" s="5">
+        <f t="shared" si="59"/>
+        <v>23.073301370433217</v>
+      </c>
+      <c r="L146">
+        <v>2.27</v>
+      </c>
+      <c r="M146">
+        <v>3.77</v>
+      </c>
+      <c r="N146">
+        <v>3.1</v>
+      </c>
+      <c r="O146" s="5">
+        <f t="shared" si="60"/>
+        <v>2.3343800804312482</v>
+      </c>
+      <c r="P146" s="5">
+        <f t="shared" si="61"/>
+        <v>3.8769219837999147</v>
+      </c>
+      <c r="Q146" s="5">
+        <f t="shared" si="62"/>
+        <v>3.1879199336285771</v>
+      </c>
+      <c r="R146" s="6">
+        <f t="shared" si="63"/>
+        <v>0.42837925511053121</v>
+      </c>
+      <c r="S146" s="6">
+        <f t="shared" si="64"/>
+        <v>0.25793658066337022</v>
+      </c>
+      <c r="T146" s="6">
+        <f t="shared" si="65"/>
+        <v>0.31368416422609863</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="66"/>
+        <v>1.7781178615855973</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="67"/>
+        <v>0.760433691586762</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="68"/>
+        <v>0.13435441899841988</v>
+      </c>
+      <c r="X146" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA146" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB146" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC146" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD146" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>0.67675718631958826</v>
+      </c>
+      <c r="B147" s="10">
+        <v>0.23139238818355348</v>
+      </c>
+      <c r="C147" s="10">
+        <v>9.1849097975868668E-2</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" si="54"/>
+        <v>1.4776348448374883</v>
+      </c>
+      <c r="E147" s="4">
+        <f t="shared" si="55"/>
+        <v>4.3216633349526763</v>
+      </c>
+      <c r="F147" s="14">
+        <f t="shared" si="56"/>
+        <v>10.887423197805688</v>
+      </c>
+      <c r="G147" s="13">
+        <v>2.9743980075710885E-2</v>
+      </c>
+      <c r="H147" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0297439800757109</v>
+      </c>
+      <c r="I147" s="5">
+        <f t="shared" si="57"/>
+        <v>1.4349536131581431</v>
+      </c>
+      <c r="J147" s="5">
+        <f t="shared" si="58"/>
+        <v>4.1968328230818406</v>
+      </c>
+      <c r="K147" s="5">
+        <f t="shared" si="59"/>
+        <v>10.572941826768632</v>
+      </c>
+      <c r="L147">
+        <v>1.79</v>
+      </c>
+      <c r="M147">
+        <v>3.92</v>
+      </c>
+      <c r="N147">
+        <v>4.63</v>
+      </c>
+      <c r="O147" s="5">
+        <f t="shared" si="60"/>
+        <v>1.8432417243355226</v>
+      </c>
+      <c r="P147" s="5">
+        <f t="shared" si="61"/>
+        <v>4.0365964018967864</v>
+      </c>
+      <c r="Q147" s="5">
+        <f t="shared" si="62"/>
+        <v>4.7677146277505411</v>
+      </c>
+      <c r="R147" s="6">
+        <f t="shared" si="63"/>
+        <v>0.54252244119554849</v>
+      </c>
+      <c r="S147" s="6">
+        <f t="shared" si="64"/>
+        <v>0.24773346166837551</v>
+      </c>
+      <c r="T147" s="6">
+        <f t="shared" si="65"/>
+        <v>0.20974409713607603</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="66"/>
+        <v>1.2474270830681744</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="67"/>
+        <v>0.93403768156803646</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="68"/>
+        <v>0.43791028796524167</v>
+      </c>
+      <c r="X147" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA147" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB147" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC147" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD147" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>0.50166128805260735</v>
+      </c>
+      <c r="B148" s="10">
+        <v>0.24262970871343459</v>
+      </c>
+      <c r="C148" s="10">
+        <v>0.25570743568243565</v>
+      </c>
+      <c r="D148" s="3">
+        <f t="shared" si="54"/>
+        <v>1.9933768536972176</v>
+      </c>
+      <c r="E148" s="4">
+        <f t="shared" si="55"/>
+        <v>4.1215068233094296</v>
+      </c>
+      <c r="F148" s="14">
+        <f t="shared" si="56"/>
+        <v>3.9107192848388852</v>
+      </c>
+      <c r="G148" s="13">
+        <v>3.0059773420131108E-2</v>
+      </c>
+      <c r="H148" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0300597734201311</v>
+      </c>
+      <c r="I148" s="5">
+        <f t="shared" si="57"/>
+        <v>1.9352050290038632</v>
+      </c>
+      <c r="J148" s="5">
+        <f t="shared" si="58"/>
+        <v>4.0012307340424487</v>
+      </c>
+      <c r="K148" s="5">
+        <f t="shared" si="59"/>
+        <v>3.7965945139805179</v>
+      </c>
+      <c r="L148">
+        <v>4.38</v>
+      </c>
+      <c r="M148">
+        <v>3.43</v>
+      </c>
+      <c r="N148">
+        <v>1.96</v>
+      </c>
+      <c r="O148" s="5">
+        <f t="shared" si="60"/>
+        <v>4.5116618075801744</v>
+      </c>
+      <c r="P148" s="5">
+        <f t="shared" si="61"/>
+        <v>3.5331050228310499</v>
+      </c>
+      <c r="Q148" s="5">
+        <f t="shared" si="62"/>
+        <v>2.0189171559034569</v>
+      </c>
+      <c r="R148" s="6">
+        <f t="shared" si="63"/>
+        <v>0.22164781906300488</v>
+      </c>
+      <c r="S148" s="6">
+        <f t="shared" si="64"/>
+        <v>0.28303715670436191</v>
+      </c>
+      <c r="T148" s="6">
+        <f t="shared" si="65"/>
+        <v>0.49531502423263335</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="66"/>
+        <v>2.2633260736484249</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="67"/>
+        <v>0.85723624254347031</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="68"/>
+        <v>0.51625212879134919</v>
+      </c>
+      <c r="X148" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA148" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB148" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC148" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD148" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>0.65032373359755835</v>
+      </c>
+      <c r="B149" s="10">
+        <v>0.19853148385553709</v>
+      </c>
+      <c r="C149" s="10">
+        <v>0.15113150595606661</v>
+      </c>
+      <c r="D149" s="3">
+        <f t="shared" si="54"/>
+        <v>1.5376956865283848</v>
+      </c>
+      <c r="E149" s="4">
+        <f t="shared" si="55"/>
+        <v>5.0369844650315381</v>
+      </c>
+      <c r="F149" s="14">
+        <f t="shared" si="56"/>
+        <v>6.6167540227561581</v>
+      </c>
+      <c r="G149" s="13">
+        <v>2.3669972608769685E-2</v>
+      </c>
+      <c r="H149" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0236699726087697</v>
+      </c>
+      <c r="I149" s="5">
+        <f t="shared" si="57"/>
+        <v>1.5021400721656877</v>
+      </c>
+      <c r="J149" s="5">
+        <f t="shared" si="58"/>
+        <v>4.9205159864121493</v>
+      </c>
+      <c r="K149" s="5">
+        <f t="shared" si="59"/>
+        <v>6.4637570699604527</v>
+      </c>
+      <c r="L149">
+        <v>2.33</v>
+      </c>
+      <c r="M149">
+        <v>3.12</v>
+      </c>
+      <c r="N149">
+        <v>3.65</v>
+      </c>
+      <c r="O149" s="5">
+        <f t="shared" si="60"/>
+        <v>2.3851510361784336</v>
+      </c>
+      <c r="P149" s="5">
+        <f t="shared" si="61"/>
+        <v>3.1938503145393615</v>
+      </c>
+      <c r="Q149" s="5">
+        <f t="shared" si="62"/>
+        <v>3.7363954000220092</v>
+      </c>
+      <c r="R149" s="6">
+        <f t="shared" si="63"/>
+        <v>0.41926066099454751</v>
+      </c>
+      <c r="S149" s="6">
+        <f t="shared" si="64"/>
+        <v>0.31310171157605632</v>
+      </c>
+      <c r="T149" s="6">
+        <f t="shared" si="65"/>
+        <v>0.26763762742939612</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="66"/>
+        <v>1.5511203270416438</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="67"/>
+        <v>0.63407984215797331</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="68"/>
+        <v>0.5646870636526462</v>
+      </c>
+      <c r="X149" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA149" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB149" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC149" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD149" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>0.63666168061512607</v>
+      </c>
+      <c r="B150" s="10">
+        <v>0.2879667251246727</v>
+      </c>
+      <c r="C150" s="10">
+        <v>7.5371458624600096E-2</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" si="54"/>
+        <v>1.5706929291453913</v>
+      </c>
+      <c r="E150" s="4">
+        <f t="shared" si="55"/>
+        <v>3.4726234413613541</v>
+      </c>
+      <c r="F150" s="14">
+        <f t="shared" si="56"/>
+        <v>13.267621699888601</v>
+      </c>
+      <c r="G150" s="13">
+        <v>2.4479501983655894E-2</v>
+      </c>
+      <c r="H150" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0244795019836559</v>
+      </c>
+      <c r="I150" s="5">
+        <f t="shared" si="57"/>
+        <v>1.5331618896270014</v>
+      </c>
+      <c r="J150" s="5">
+        <f t="shared" si="58"/>
+        <v>3.3896465811540999</v>
+      </c>
+      <c r="K150" s="5">
+        <f t="shared" si="59"/>
+        <v>12.950597522155467</v>
+      </c>
+      <c r="L150">
+        <v>1.97</v>
+      </c>
+      <c r="M150">
+        <v>3.21</v>
+      </c>
+      <c r="N150">
+        <v>4.87</v>
+      </c>
+      <c r="O150" s="5">
+        <f t="shared" si="60"/>
+        <v>2.0182246189078019</v>
+      </c>
+      <c r="P150" s="5">
+        <f t="shared" si="61"/>
+        <v>3.2885792013675355</v>
+      </c>
+      <c r="Q150" s="5">
+        <f t="shared" si="62"/>
+        <v>4.9892151746604041</v>
+      </c>
+      <c r="R150" s="6">
+        <f t="shared" si="63"/>
+        <v>0.49548498746446157</v>
+      </c>
+      <c r="S150" s="6">
+        <f t="shared" si="64"/>
+        <v>0.30408268701090008</v>
+      </c>
+      <c r="T150" s="6">
+        <f t="shared" si="65"/>
+        <v>0.20043232552463844</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="66"/>
+        <v>1.2849262777326638</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="67"/>
+        <v>0.94700138293092073</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="68"/>
+        <v>0.37604442510614355</v>
+      </c>
+      <c r="X150" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA150" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB150" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC150" s="12">
+        <v>44208</v>
+      </c>
+      <c r="AD150" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
+        <v>0.69552286340079184</v>
+      </c>
+      <c r="B151" s="10">
+        <v>0.15597252426330901</v>
+      </c>
+      <c r="C151" s="10">
+        <v>0.148307767471656</v>
+      </c>
+      <c r="D151" s="3">
+        <f t="shared" si="54"/>
+        <v>1.4377672577296063</v>
+      </c>
+      <c r="E151" s="4">
+        <f t="shared" si="55"/>
+        <v>6.4113856252773367</v>
+      </c>
+      <c r="F151" s="14">
+        <f t="shared" si="56"/>
+        <v>6.7427351719195432</v>
+      </c>
+      <c r="G151" s="13">
+        <v>4.020697955274799E-2</v>
+      </c>
+      <c r="H151" s="8">
+        <f t="shared" si="53"/>
+        <v>1.040206979552748</v>
+      </c>
+      <c r="I151" s="5">
+        <f t="shared" si="57"/>
+        <v>1.3821934345679887</v>
+      </c>
+      <c r="J151" s="5">
+        <f t="shared" si="58"/>
+        <v>6.1635672047057444</v>
+      </c>
+      <c r="K151" s="5">
+        <f t="shared" si="59"/>
+        <v>6.4821091421811836</v>
+      </c>
+      <c r="L151">
+        <v>1.91</v>
+      </c>
+      <c r="M151">
+        <v>3.59</v>
+      </c>
+      <c r="N151">
+        <v>4.2</v>
+      </c>
+      <c r="O151" s="5">
+        <f t="shared" si="60"/>
+        <v>1.9867953309457487</v>
+      </c>
+      <c r="P151" s="5">
+        <f t="shared" si="61"/>
+        <v>3.7343430565943652</v>
+      </c>
+      <c r="Q151" s="5">
+        <f t="shared" si="62"/>
+        <v>4.3688693141215413</v>
+      </c>
+      <c r="R151" s="6">
+        <f t="shared" si="63"/>
+        <v>0.50332310753115317</v>
+      </c>
+      <c r="S151" s="6">
+        <f t="shared" si="64"/>
+        <v>0.26778471737729875</v>
+      </c>
+      <c r="T151" s="6">
+        <f t="shared" si="65"/>
+        <v>0.22889217509154822</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="66"/>
+        <v>1.3818615775707108</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="67"/>
+        <v>0.58245491300218422</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="68"/>
+        <v>0.64793725435279081</v>
+      </c>
+      <c r="X151" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC151" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>0.67761818020343789</v>
+      </c>
+      <c r="B152" s="10">
+        <v>0.18049730989888862</v>
+      </c>
+      <c r="C152" s="10">
+        <v>0.14185018375040948</v>
+      </c>
+      <c r="D152" s="3">
+        <f t="shared" si="54"/>
+        <v>1.4757573353474298</v>
+      </c>
+      <c r="E152" s="4">
+        <f t="shared" si="55"/>
+        <v>5.5402487746780391</v>
+      </c>
+      <c r="F152" s="14">
+        <f t="shared" si="56"/>
+        <v>7.0496912556668674</v>
+      </c>
+      <c r="G152" s="13">
+        <v>3.0669698283280367E-2</v>
+      </c>
+      <c r="H152" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0306696982832804</v>
+      </c>
+      <c r="I152" s="5">
+        <f t="shared" si="57"/>
+        <v>1.4318431383065817</v>
+      </c>
+      <c r="J152" s="5">
+        <f t="shared" si="58"/>
+        <v>5.3753872689825579</v>
+      </c>
+      <c r="K152" s="5">
+        <f t="shared" si="59"/>
+        <v>6.8399131820883845</v>
+      </c>
+      <c r="L152">
+        <v>1.19</v>
+      </c>
+      <c r="M152">
+        <v>7.61</v>
+      </c>
+      <c r="N152">
+        <v>16.97</v>
+      </c>
+      <c r="O152" s="5">
+        <f t="shared" si="60"/>
+        <v>1.2264969409571036</v>
+      </c>
+      <c r="P152" s="5">
+        <f t="shared" si="61"/>
+        <v>7.8433964039357642</v>
+      </c>
+      <c r="Q152" s="5">
+        <f t="shared" si="62"/>
+        <v>17.490464779867267</v>
+      </c>
+      <c r="R152" s="6">
+        <f t="shared" si="63"/>
+        <v>0.81533020312276072</v>
+      </c>
+      <c r="S152" s="6">
+        <f t="shared" si="64"/>
+        <v>0.12749578734771158</v>
+      </c>
+      <c r="T152" s="6">
+        <f t="shared" si="65"/>
+        <v>5.7174009529527718E-2</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="66"/>
+        <v>0.8310966251564359</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="67"/>
+        <v>1.4157119513810221</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="68"/>
+        <v>2.4810256429042368</v>
+      </c>
+      <c r="X152" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC152" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>0.64299397301714745</v>
+      </c>
+      <c r="B153" s="10">
+        <v>0.21888522466344593</v>
+      </c>
+      <c r="C153" s="10">
+        <v>0.13811700038343097</v>
+      </c>
+      <c r="D153" s="3">
+        <f t="shared" si="54"/>
+        <v>1.555224530811165</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="55"/>
+        <v>4.5686043977503843</v>
+      </c>
+      <c r="F153" s="14">
+        <f t="shared" si="56"/>
+        <v>7.2402383285465826</v>
+      </c>
+      <c r="G153" s="13">
+        <v>5.9050380715666373E-2</v>
+      </c>
+      <c r="H153" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0590503807156664</v>
+      </c>
+      <c r="I153" s="5">
+        <f t="shared" si="57"/>
+        <v>1.4685085423039108</v>
+      </c>
+      <c r="J153" s="5">
+        <f t="shared" si="58"/>
+        <v>4.3138688025994512</v>
+      </c>
+      <c r="K153" s="5">
+        <f t="shared" si="59"/>
+        <v>6.8365381481227567</v>
+      </c>
+      <c r="L153">
+        <v>1.36</v>
+      </c>
+      <c r="M153">
+        <v>4.97</v>
+      </c>
+      <c r="N153">
+        <v>8.16</v>
+      </c>
+      <c r="O153" s="5">
+        <f t="shared" si="60"/>
+        <v>1.4403085177733064</v>
+      </c>
+      <c r="P153" s="5">
+        <f t="shared" si="61"/>
+        <v>5.263480392156862</v>
+      </c>
+      <c r="Q153" s="5">
+        <f t="shared" si="62"/>
+        <v>8.6418511066398374</v>
+      </c>
+      <c r="R153" s="6">
+        <f t="shared" si="63"/>
+        <v>0.69429569266589064</v>
+      </c>
+      <c r="S153" s="6">
+        <f t="shared" si="64"/>
+        <v>0.18998835855646104</v>
+      </c>
+      <c r="T153" s="6">
+        <f t="shared" si="65"/>
+        <v>0.11571594877764844</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="66"/>
+        <v>0.92610969621349692</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="67"/>
+        <v>1.1520980881488971</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="68"/>
+        <v>1.1935865526093279</v>
+      </c>
+      <c r="X153" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC153" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>0.21137289283237148</v>
+      </c>
+      <c r="B154" s="10">
+        <v>0.22975278822319095</v>
+      </c>
+      <c r="C154" s="10">
+        <v>0.55887099630354942</v>
+      </c>
+      <c r="D154" s="3">
+        <f t="shared" si="54"/>
+        <v>4.7309756071373181</v>
+      </c>
+      <c r="E154" s="4">
+        <f t="shared" si="55"/>
+        <v>4.3525043057521478</v>
+      </c>
+      <c r="F154" s="14">
+        <f t="shared" si="56"/>
+        <v>1.7893216978768611</v>
+      </c>
+      <c r="G154" s="13">
+        <v>3.3206209515692642E-2</v>
+      </c>
+      <c r="H154" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0332062095156926</v>
+      </c>
+      <c r="I154" s="5">
+        <f t="shared" si="57"/>
+        <v>4.5789268043161746</v>
+      </c>
+      <c r="J154" s="5">
+        <f t="shared" si="58"/>
+        <v>4.2126191903089225</v>
+      </c>
+      <c r="K154" s="5">
+        <f t="shared" si="59"/>
+        <v>1.7318146962314442</v>
+      </c>
+      <c r="L154">
+        <v>2.86</v>
+      </c>
+      <c r="M154">
+        <v>3.45</v>
+      </c>
+      <c r="N154">
+        <v>2.54</v>
+      </c>
+      <c r="O154" s="5">
+        <f t="shared" si="60"/>
+        <v>2.9549697592148809</v>
+      </c>
+      <c r="P154" s="5">
+        <f t="shared" si="61"/>
+        <v>3.56456142282914</v>
+      </c>
+      <c r="Q154" s="5">
+        <f t="shared" si="62"/>
+        <v>2.6243437721698593</v>
+      </c>
+      <c r="R154" s="6">
+        <f t="shared" si="63"/>
+        <v>0.3384129387048937</v>
+      </c>
+      <c r="S154" s="6">
+        <f t="shared" si="64"/>
+        <v>0.28053942165101331</v>
+      </c>
+      <c r="T154" s="6">
+        <f t="shared" si="65"/>
+        <v>0.38104763964409294</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="66"/>
+        <v>0.62460050623742558</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="67"/>
+        <v>0.81896792568781951</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="68"/>
+        <v>1.4666696185955843</v>
+      </c>
+      <c r="X154" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC154" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>0.22318825217254445</v>
+      </c>
+      <c r="B155" s="10">
+        <v>0.31207046290941687</v>
+      </c>
+      <c r="C155" s="10">
+        <v>0.46474124448222215</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="54"/>
+        <v>4.4805225645430058</v>
+      </c>
+      <c r="E155" s="4">
+        <f t="shared" si="55"/>
+        <v>3.2044045138942385</v>
+      </c>
+      <c r="F155" s="14">
+        <f t="shared" si="56"/>
+        <v>2.1517349963507559</v>
+      </c>
+      <c r="G155" s="13">
+        <v>5.1032692366556276E-2</v>
+      </c>
+      <c r="H155" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0510326923665563</v>
+      </c>
+      <c r="I155" s="5">
+        <f t="shared" si="57"/>
+        <v>4.2629716440641285</v>
+      </c>
+      <c r="J155" s="5">
+        <f t="shared" si="58"/>
+        <v>3.0488152625196134</v>
+      </c>
+      <c r="K155" s="5">
+        <f t="shared" si="59"/>
+        <v>2.0472579130776656</v>
+      </c>
+      <c r="L155">
+        <v>3.26</v>
+      </c>
+      <c r="M155">
+        <v>2.99</v>
+      </c>
+      <c r="N155">
+        <v>2.44</v>
+      </c>
+      <c r="O155" s="5">
+        <f t="shared" si="60"/>
+        <v>3.4263665771149734</v>
+      </c>
+      <c r="P155" s="5">
+        <f t="shared" si="61"/>
+        <v>3.1425877501760033</v>
+      </c>
+      <c r="Q155" s="5">
+        <f t="shared" si="62"/>
+        <v>2.5645197693743973</v>
+      </c>
+      <c r="R155" s="6">
+        <f t="shared" si="63"/>
+        <v>0.29185435285269667</v>
+      </c>
+      <c r="S155" s="6">
+        <f t="shared" si="64"/>
+        <v>0.31820909374574957</v>
+      </c>
+      <c r="T155" s="6">
+        <f t="shared" si="65"/>
+        <v>0.38993655340155375</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="66"/>
+        <v>0.76472476764871467</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="67"/>
+        <v>0.98070881393088838</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="68"/>
+        <v>1.1918381091183186</v>
+      </c>
+      <c r="X155" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC155" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>0.79853419879119281</v>
+      </c>
+      <c r="B156" s="10">
+        <v>0.12840485410821306</v>
+      </c>
+      <c r="C156" s="10">
+        <v>7.288988783980746E-2</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="54"/>
+        <v>1.2522945185237935</v>
+      </c>
+      <c r="E156" s="4">
+        <f t="shared" si="55"/>
+        <v>7.7878675766980816</v>
+      </c>
+      <c r="F156" s="14">
+        <f t="shared" si="56"/>
+        <v>13.719324170147351</v>
+      </c>
+      <c r="G156" s="13">
+        <v>3.0889405013735605E-2</v>
+      </c>
+      <c r="H156" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0308894050137356</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" si="57"/>
+        <v>1.2147709661514154</v>
+      </c>
+      <c r="J156" s="5">
+        <f t="shared" si="58"/>
+        <v>7.5545131600167297</v>
+      </c>
+      <c r="K156" s="5">
+        <f t="shared" si="59"/>
+        <v>13.308240538144394</v>
+      </c>
+      <c r="L156">
+        <v>1.86</v>
+      </c>
+      <c r="M156">
+        <v>4.09</v>
+      </c>
+      <c r="N156">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="O156" s="5">
+        <f t="shared" si="60"/>
+        <v>1.9174542933255483</v>
+      </c>
+      <c r="P156" s="5">
+        <f t="shared" si="61"/>
+        <v>4.2163376665061785</v>
+      </c>
+      <c r="Q156" s="5">
+        <f t="shared" si="62"/>
+        <v>4.1441754081552169</v>
+      </c>
+      <c r="R156" s="6">
+        <f t="shared" si="63"/>
+        <v>0.52152481729598055</v>
+      </c>
+      <c r="S156" s="6">
+        <f t="shared" si="64"/>
+        <v>0.23717265529841658</v>
+      </c>
+      <c r="T156" s="6">
+        <f t="shared" si="65"/>
+        <v>0.24130252740560296</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="66"/>
+        <v>1.5311528278394497</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="67"/>
+        <v>0.54139822293868933</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="68"/>
+        <v>0.30206848068892206</v>
+      </c>
+      <c r="X156" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC156" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>0.20271693637764593</v>
+      </c>
+      <c r="B157" s="10">
+        <v>0.18130939195581758</v>
+      </c>
+      <c r="C157" s="10">
+        <v>0.61590199659111566</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="54"/>
+        <v>4.9329869416390428</v>
+      </c>
+      <c r="E157" s="4">
+        <f t="shared" si="55"/>
+        <v>5.5154340832144273</v>
+      </c>
+      <c r="F157" s="14">
+        <f t="shared" si="56"/>
+        <v>1.6236349379199673</v>
+      </c>
+      <c r="G157" s="13">
+        <v>2.7898816377242674E-2</v>
+      </c>
+      <c r="H157" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0278988163772427</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="57"/>
+        <v>4.7990977935211649</v>
+      </c>
+      <c r="J157" s="5">
+        <f t="shared" si="58"/>
+        <v>5.3657363889698679</v>
+      </c>
+      <c r="K157" s="5">
+        <f t="shared" si="59"/>
+        <v>1.5795668912649932</v>
+      </c>
+      <c r="L157">
+        <v>2.61</v>
+      </c>
+      <c r="M157">
+        <v>3.72</v>
+      </c>
+      <c r="N157">
+        <v>2.66</v>
+      </c>
+      <c r="O157" s="5">
+        <f t="shared" si="60"/>
+        <v>2.6828159107446035</v>
+      </c>
+      <c r="P157" s="5">
+        <f t="shared" si="61"/>
+        <v>3.8237835969233429</v>
+      </c>
+      <c r="Q157" s="5">
+        <f t="shared" si="62"/>
+        <v>2.7342108515634655</v>
+      </c>
+      <c r="R157" s="6">
+        <f t="shared" si="63"/>
+        <v>0.37274268278901568</v>
+      </c>
+      <c r="S157" s="6">
+        <f t="shared" si="64"/>
+        <v>0.26152107582777717</v>
+      </c>
+      <c r="T157" s="6">
+        <f t="shared" si="65"/>
+        <v>0.36573624138320715</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="66"/>
+        <v>0.54385222229135</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="67"/>
+        <v>0.69328787892880039</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="68"/>
+        <v>1.6840059225790331</v>
+      </c>
+      <c r="X157" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC157" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>0.30186175749937527</v>
+      </c>
+      <c r="B158" s="10">
+        <v>0.22932072769437528</v>
+      </c>
+      <c r="C158" s="10">
+        <v>0.46881408174925615</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="54"/>
+        <v>3.3127747227207793</v>
+      </c>
+      <c r="E158" s="4">
+        <f t="shared" si="55"/>
+        <v>4.360704808737303</v>
+      </c>
+      <c r="F158" s="14">
+        <f t="shared" si="56"/>
+        <v>2.1330417300366995</v>
+      </c>
+      <c r="G158" s="13">
+        <v>2.8652102163479576E-2</v>
+      </c>
+      <c r="H158" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0286521021634796</v>
+      </c>
+      <c r="I158" s="5">
+        <f t="shared" si="57"/>
+        <v>3.2205006102192297</v>
+      </c>
+      <c r="J158" s="5">
+        <f t="shared" si="58"/>
+        <v>4.2392416246132099</v>
+      </c>
+      <c r="K158" s="5">
+        <f t="shared" si="59"/>
+        <v>2.073627930716758</v>
+      </c>
+      <c r="L158">
+        <v>3.28</v>
+      </c>
+      <c r="M158">
+        <v>3.58</v>
+      </c>
+      <c r="N158">
+        <v>2.25</v>
+      </c>
+      <c r="O158" s="5">
+        <f t="shared" si="60"/>
+        <v>3.3739788950962128</v>
+      </c>
+      <c r="P158" s="5">
+        <f t="shared" si="61"/>
+        <v>3.6825745257452569</v>
+      </c>
+      <c r="Q158" s="5">
+        <f t="shared" si="62"/>
+        <v>2.3144672298678293</v>
+      </c>
+      <c r="R158" s="6">
+        <f t="shared" si="63"/>
+        <v>0.29638596775261805</v>
+      </c>
+      <c r="S158" s="6">
+        <f t="shared" si="64"/>
+        <v>0.27154915481245451</v>
+      </c>
+      <c r="T158" s="6">
+        <f t="shared" si="65"/>
+        <v>0.43206487743492755</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="66"/>
+        <v>1.0184751990395431</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="67"/>
+        <v>0.84449067003267142</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="68"/>
+        <v>1.085054829109231</v>
+      </c>
+      <c r="X158" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC158" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>0.73652905880105435</v>
+      </c>
+      <c r="B159" s="10">
+        <v>0.17521568869691806</v>
+      </c>
+      <c r="C159" s="10">
+        <v>8.8238132193620492E-2</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="54"/>
+        <v>1.3577196826800453</v>
+      </c>
+      <c r="E159" s="4">
+        <f t="shared" si="55"/>
+        <v>5.7072514877920826</v>
+      </c>
+      <c r="F159" s="14">
+        <f t="shared" si="56"/>
+        <v>11.332968809966479</v>
+      </c>
+      <c r="G159" s="13">
+        <v>3.0394612905191298E-2</v>
+      </c>
+      <c r="H159" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0303946129051913</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="57"/>
+        <v>1.3176696245062491</v>
+      </c>
+      <c r="J159" s="5">
+        <f t="shared" si="58"/>
+        <v>5.5388988027611301</v>
+      </c>
+      <c r="K159" s="5">
+        <f t="shared" si="59"/>
+        <v>10.998668537302658</v>
+      </c>
+      <c r="L159">
+        <v>1.48</v>
+      </c>
+      <c r="M159">
+        <v>4.68</v>
+      </c>
+      <c r="N159">
+        <v>7.09</v>
+      </c>
+      <c r="O159" s="5">
+        <f t="shared" si="60"/>
+        <v>1.5249840270996831</v>
+      </c>
+      <c r="P159" s="5">
+        <f t="shared" si="61"/>
+        <v>4.8222467883962947</v>
+      </c>
+      <c r="Q159" s="5">
+        <f t="shared" si="62"/>
+        <v>7.3054978054978061</v>
+      </c>
+      <c r="R159" s="6">
+        <f t="shared" si="63"/>
+        <v>0.65574457320832868</v>
+      </c>
+      <c r="S159" s="6">
+        <f t="shared" si="64"/>
+        <v>0.20737221545904413</v>
+      </c>
+      <c r="T159" s="6">
+        <f t="shared" si="65"/>
+        <v>0.13688321133262715</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="66"/>
+        <v>1.1231950501663712</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="67"/>
+        <v>0.84493329209535817</v>
+      </c>
+      <c r="W159">
+        <f t="shared" si="68"/>
+        <v>0.64462348110171974</v>
+      </c>
+      <c r="X159" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC159" s="12">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>0.16367400259787682</v>
+      </c>
+      <c r="B160" s="10">
+        <v>0.33663878861756596</v>
+      </c>
+      <c r="C160" s="10">
+        <v>0.49968718932525957</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" si="54"/>
+        <v>6.1097057817841378</v>
+      </c>
+      <c r="E160" s="4">
+        <f t="shared" si="55"/>
+        <v>2.9705430087441194</v>
+      </c>
+      <c r="F160" s="14">
+        <f t="shared" si="56"/>
+        <v>2.001252025993153</v>
+      </c>
+      <c r="G160" s="13">
+        <v>2.7200557449667873E-2</v>
+      </c>
+      <c r="H160" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0272005574496679</v>
+      </c>
+      <c r="I160" s="5">
+        <f t="shared" si="57"/>
+        <v>5.9479190674830891</v>
+      </c>
+      <c r="J160" s="5">
+        <f t="shared" si="58"/>
+        <v>2.8918822008034919</v>
+      </c>
+      <c r="K160" s="5">
+        <f t="shared" si="59"/>
+        <v>1.9482583138017942</v>
+      </c>
+      <c r="L160">
+        <v>2.81</v>
+      </c>
+      <c r="M160">
+        <v>3.25</v>
+      </c>
+      <c r="N160">
+        <v>2.75</v>
+      </c>
+      <c r="O160" s="5">
+        <f t="shared" si="60"/>
+        <v>2.886433566433567</v>
+      </c>
+      <c r="P160" s="5">
+        <f t="shared" si="61"/>
+        <v>3.3384018117114205</v>
+      </c>
+      <c r="Q160" s="5">
+        <f t="shared" si="62"/>
+        <v>2.8248015329865868</v>
+      </c>
+      <c r="R160" s="6">
+        <f t="shared" si="63"/>
+        <v>0.3464482992538036</v>
+      </c>
+      <c r="S160" s="6">
+        <f t="shared" si="64"/>
+        <v>0.29954452950867327</v>
+      </c>
+      <c r="T160" s="6">
+        <f t="shared" si="65"/>
+        <v>0.35400717123752296</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="66"/>
+        <v>0.47243413505104648</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="67"/>
+        <v>1.1238355418132202</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="68"/>
+        <v>1.4115171384197522</v>
+      </c>
+      <c r="X160" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC160" s="12">
+        <v>44209</v>
+      </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-      <c r="T161" s="6"/>
-      <c r="AC161" s="12"/>
+      <c r="A161" s="10">
+        <v>0.38957189513279422</v>
+      </c>
+      <c r="B161" s="10">
+        <v>0.25470206233720055</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0.35572553544237256</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="54"/>
+        <v>2.5669202847888393</v>
+      </c>
+      <c r="E161" s="4">
+        <f t="shared" si="55"/>
+        <v>3.926155881204048</v>
+      </c>
+      <c r="F161" s="14">
+        <f t="shared" si="56"/>
+        <v>2.8111560750240256</v>
+      </c>
+      <c r="G161" s="13">
+        <v>2.4817597891019672E-2</v>
+      </c>
+      <c r="H161" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0248175978910197</v>
+      </c>
+      <c r="I161" s="5">
+        <f t="shared" si="57"/>
+        <v>2.5047582028951543</v>
+      </c>
+      <c r="J161" s="5">
+        <f t="shared" si="58"/>
+        <v>3.8310777344999889</v>
+      </c>
+      <c r="K161" s="5">
+        <f t="shared" si="59"/>
+        <v>2.7430794326806316</v>
+      </c>
+      <c r="L161">
+        <v>1.58</v>
+      </c>
+      <c r="M161">
+        <v>4.18</v>
+      </c>
+      <c r="N161">
+        <v>6.55</v>
+      </c>
+      <c r="O161" s="5">
+        <f t="shared" si="60"/>
+        <v>1.6192118046678112</v>
+      </c>
+      <c r="P161" s="5">
+        <f t="shared" si="61"/>
+        <v>4.2837375591844618</v>
+      </c>
+      <c r="Q161" s="5">
+        <f t="shared" si="62"/>
+        <v>6.7125552661861789</v>
+      </c>
+      <c r="R161" s="6">
+        <f t="shared" si="63"/>
+        <v>0.61758443034890953</v>
+      </c>
+      <c r="S161" s="6">
+        <f t="shared" si="64"/>
+        <v>0.23344100477303284</v>
+      </c>
+      <c r="T161" s="6">
+        <f t="shared" si="65"/>
+        <v>0.14897456487805757</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="66"/>
+        <v>0.63079941136583106</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="67"/>
+        <v>1.091076790835608</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="68"/>
+        <v>2.3878273162505961</v>
+      </c>
+      <c r="X161" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC161" s="12">
+        <v>44210</v>
+      </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-      <c r="T162" s="6"/>
-      <c r="AC162" s="12"/>
+      <c r="A162" s="10">
+        <v>0.8759179871749776</v>
+      </c>
+      <c r="B162" s="10">
+        <v>9.8510251964720755E-2</v>
+      </c>
+      <c r="C162" s="10">
+        <v>2.5445199311341628E-2</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="54"/>
+        <v>1.1416593957902537</v>
+      </c>
+      <c r="E162" s="4">
+        <f t="shared" si="55"/>
+        <v>10.151227715447602</v>
+      </c>
+      <c r="F162" s="14">
+        <f t="shared" si="56"/>
+        <v>39.300144116154449</v>
+      </c>
+      <c r="G162" s="13">
+        <v>5.7054418147456598E-2</v>
+      </c>
+      <c r="H162" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0570544181474566</v>
+      </c>
+      <c r="I162" s="5">
+        <f t="shared" si="57"/>
+        <v>1.0800384315039067</v>
+      </c>
+      <c r="J162" s="5">
+        <f t="shared" si="58"/>
+        <v>9.6033161029099734</v>
+      </c>
+      <c r="K162" s="5">
+        <f t="shared" si="59"/>
+        <v>37.178922334982545</v>
+      </c>
+      <c r="L162">
+        <v>1.59</v>
+      </c>
+      <c r="M162">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N162">
+        <v>5.5</v>
+      </c>
+      <c r="O162" s="5">
+        <f t="shared" si="60"/>
+        <v>1.680716524854456</v>
+      </c>
+      <c r="P162" s="5">
+        <f t="shared" si="61"/>
+        <v>4.2916409376786735</v>
+      </c>
+      <c r="Q162" s="5">
+        <f t="shared" si="62"/>
+        <v>5.8137992998110111</v>
+      </c>
+      <c r="R162" s="6">
+        <f t="shared" si="63"/>
+        <v>0.59498433270095707</v>
+      </c>
+      <c r="S162" s="6">
+        <f t="shared" si="64"/>
+        <v>0.23301110566367531</v>
+      </c>
+      <c r="T162" s="6">
+        <f t="shared" si="65"/>
+        <v>0.17200456163536759</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="66"/>
+        <v>1.4721698354622381</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="67"/>
+        <v>0.42277063011283655</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="68"/>
+        <v>0.14793328193982958</v>
+      </c>
+      <c r="X162" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC162" s="12">
+        <v>44210</v>
+      </c>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-      <c r="T163" s="6"/>
-      <c r="AC163" s="12"/>
+      <c r="A163" s="10">
+        <v>0.53090534376660448</v>
+      </c>
+      <c r="B163" s="10">
+        <v>0.25096454422306969</v>
+      </c>
+      <c r="C163" s="10">
+        <v>0.21812912002235751</v>
+      </c>
+      <c r="D163" s="3">
+        <f t="shared" si="54"/>
+        <v>1.8835749380582953</v>
+      </c>
+      <c r="E163" s="4">
+        <f t="shared" si="55"/>
+        <v>3.984626605705508</v>
+      </c>
+      <c r="F163" s="14">
+        <f t="shared" si="56"/>
+        <v>4.5844406280899284</v>
+      </c>
+      <c r="G163" s="13">
+        <v>4.8701009406703077E-2</v>
+      </c>
+      <c r="H163" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0487010094067031</v>
+      </c>
+      <c r="I163" s="5">
+        <f t="shared" si="57"/>
+        <v>1.7961029131877329</v>
+      </c>
+      <c r="J163" s="5">
+        <f t="shared" si="58"/>
+        <v>3.7995830746456409</v>
+      </c>
+      <c r="K163" s="5">
+        <f t="shared" si="59"/>
+        <v>4.3715421144521933</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>3.01</v>
+      </c>
+      <c r="N163">
+        <v>2.61</v>
+      </c>
+      <c r="O163" s="5">
+        <f t="shared" si="60"/>
+        <v>3.146103028220109</v>
+      </c>
+      <c r="P163" s="5">
+        <f t="shared" si="61"/>
+        <v>3.1565900383141758</v>
+      </c>
+      <c r="Q163" s="5">
+        <f t="shared" si="62"/>
+        <v>2.7371096345514947</v>
+      </c>
+      <c r="R163" s="6">
+        <f t="shared" si="63"/>
+        <v>0.3178535448553777</v>
+      </c>
+      <c r="S163" s="6">
+        <f t="shared" si="64"/>
+        <v>0.31679755301200435</v>
+      </c>
+      <c r="T163" s="6">
+        <f t="shared" si="65"/>
+        <v>0.36534890213261806</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="66"/>
+        <v>1.6702829097223524</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="67"/>
+        <v>0.79219218026459925</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="68"/>
+        <v>0.59704331598943416</v>
+      </c>
+      <c r="X163" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC163" s="12">
+        <v>44210</v>
+      </c>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-      <c r="T164" s="6"/>
-      <c r="AC164" s="12"/>
+      <c r="A164" s="10">
+        <v>0.685076670116328</v>
+      </c>
+      <c r="B164" s="10">
+        <v>0.21214875687879692</v>
+      </c>
+      <c r="C164" s="10">
+        <v>0.10277103293765377</v>
+      </c>
+      <c r="D164" s="3">
+        <f t="shared" si="54"/>
+        <v>1.4596906355462334</v>
+      </c>
+      <c r="E164" s="4">
+        <f t="shared" si="55"/>
+        <v>4.7136736255839189</v>
+      </c>
+      <c r="F164" s="14">
+        <f t="shared" si="56"/>
+        <v>9.7303682897363863</v>
+      </c>
+      <c r="G164" s="13">
+        <v>3.1801334692001859E-2</v>
+      </c>
+      <c r="H164" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0318013346920019</v>
+      </c>
+      <c r="I164" s="5">
+        <f t="shared" si="57"/>
+        <v>1.4147012476795824</v>
+      </c>
+      <c r="J164" s="5">
+        <f t="shared" si="58"/>
+        <v>4.5683926421659216</v>
+      </c>
+      <c r="K164" s="5">
+        <f t="shared" si="59"/>
+        <v>9.4304668569177146</v>
+      </c>
+      <c r="L164">
+        <v>1.6</v>
+      </c>
+      <c r="M164">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N164">
+        <v>6.03</v>
+      </c>
+      <c r="O164" s="5">
+        <f t="shared" si="60"/>
+        <v>1.650882135507203</v>
+      </c>
+      <c r="P164" s="5">
+        <f t="shared" si="61"/>
+        <v>4.2819755389718077</v>
+      </c>
+      <c r="Q164" s="5">
+        <f t="shared" si="62"/>
+        <v>6.2217620481927716</v>
+      </c>
+      <c r="R164" s="6">
+        <f t="shared" si="63"/>
+        <v>0.60573676248108921</v>
+      </c>
+      <c r="S164" s="6">
+        <f t="shared" si="64"/>
+        <v>0.23353706505295008</v>
+      </c>
+      <c r="T164" s="6">
+        <f t="shared" si="65"/>
+        <v>0.16072617246596066</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="66"/>
+        <v>1.1309808361478071</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="67"/>
+        <v>0.90841578757828556</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="68"/>
+        <v>0.6394169123850636</v>
+      </c>
+      <c r="X164" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC164" s="12">
+        <v>44210</v>
+      </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-      <c r="T165" s="6"/>
-      <c r="AC165" s="12"/>
+      <c r="A165" s="10">
+        <v>2.9096438058754028E-2</v>
+      </c>
+      <c r="B165" s="10">
+        <v>7.3738913463547051E-2</v>
+      </c>
+      <c r="C165" s="10">
+        <v>0.89627369639094234</v>
+      </c>
+      <c r="D165" s="3">
+        <f t="shared" si="54"/>
+        <v>34.368467988442916</v>
+      </c>
+      <c r="E165" s="4">
+        <f t="shared" si="55"/>
+        <v>13.561360657888613</v>
+      </c>
+      <c r="F165" s="14">
+        <f t="shared" si="56"/>
+        <v>1.115730612230099</v>
+      </c>
+      <c r="G165" s="13">
+        <v>3.1294060401205304E-2</v>
+      </c>
+      <c r="H165" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0312940604012053</v>
+      </c>
+      <c r="I165" s="5">
+        <f t="shared" si="57"/>
+        <v>33.325575418394749</v>
+      </c>
+      <c r="J165" s="5">
+        <f t="shared" si="58"/>
+        <v>13.149848504521421</v>
+      </c>
+      <c r="K165" s="5">
+        <f t="shared" si="59"/>
+        <v>1.0818743703382188</v>
+      </c>
+      <c r="L165">
+        <v>7.52</v>
+      </c>
+      <c r="M165">
+        <v>5.59</v>
+      </c>
+      <c r="N165">
+        <v>1.39</v>
+      </c>
+      <c r="O165" s="5">
+        <f t="shared" si="60"/>
+        <v>7.7553313342170638</v>
+      </c>
+      <c r="P165" s="5">
+        <f t="shared" si="61"/>
+        <v>5.7649337976427377</v>
+      </c>
+      <c r="Q165" s="5">
+        <f t="shared" si="62"/>
+        <v>1.4334987439576752</v>
+      </c>
+      <c r="R165" s="6">
+        <f t="shared" si="63"/>
+        <v>0.12894355597522056</v>
+      </c>
+      <c r="S165" s="6">
+        <f t="shared" si="64"/>
+        <v>0.17346252968401765</v>
+      </c>
+      <c r="T165" s="6">
+        <f t="shared" si="65"/>
+        <v>0.69759391434076179</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="66"/>
+        <v>0.22565251779116102</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="67"/>
+        <v>0.42509995442745552</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="68"/>
+        <v>1.2848072180187187</v>
+      </c>
+      <c r="X165" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC165" s="12">
+        <v>44210</v>
+      </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6"/>
-      <c r="T166" s="6"/>
-      <c r="AC166" s="12"/>
+      <c r="A166" s="10">
+        <v>0.19776907102474942</v>
+      </c>
+      <c r="B166" s="10">
+        <v>0.19252551207028185</v>
+      </c>
+      <c r="C166" s="10">
+        <v>0.6096738124864749</v>
+      </c>
+      <c r="D166" s="3">
+        <f t="shared" si="54"/>
+        <v>5.0564023728202523</v>
+      </c>
+      <c r="E166" s="4">
+        <f t="shared" si="55"/>
+        <v>5.1941168172815866</v>
+      </c>
+      <c r="F166" s="14">
+        <f t="shared" si="56"/>
+        <v>1.6402213438061752</v>
+      </c>
+      <c r="G166" s="13">
+        <v>2.7548746459710394E-2</v>
+      </c>
+      <c r="H166" s="8">
+        <f t="shared" si="53"/>
+        <v>1.0275487464597104</v>
+      </c>
+      <c r="I166" s="5">
+        <f t="shared" si="57"/>
+        <v>4.9208394153965438</v>
+      </c>
+      <c r="J166" s="5">
+        <f t="shared" si="58"/>
+        <v>5.0548617135462051</v>
+      </c>
+      <c r="K166" s="5">
+        <f t="shared" si="59"/>
+        <v>1.5962467468889929</v>
+      </c>
+      <c r="L166">
+        <v>3.02</v>
+      </c>
+      <c r="M166">
+        <v>3.51</v>
+      </c>
+      <c r="N166">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O166" s="5">
+        <f t="shared" si="60"/>
+        <v>3.1031972143083255</v>
+      </c>
+      <c r="P166" s="5">
+        <f t="shared" si="61"/>
+        <v>3.6066961000735831</v>
+      </c>
+      <c r="Q166" s="5">
+        <f t="shared" si="62"/>
+        <v>2.4969434538970963</v>
+      </c>
+      <c r="R166" s="6">
+        <f t="shared" si="63"/>
+        <v>0.32224829133938587</v>
+      </c>
+      <c r="S166" s="6">
+        <f t="shared" si="64"/>
+        <v>0.27726206263388764</v>
+      </c>
+      <c r="T166" s="6">
+        <f t="shared" si="65"/>
+        <v>0.40048964602672654</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="66"/>
+        <v>0.61371643028034772</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="67"/>
+        <v>0.69438101354855508</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="68"/>
+        <v>1.5223210351005894</v>
+      </c>
+      <c r="X166" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC166" s="12">
+        <v>44210</v>
+      </c>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2way" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="352">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1239,6 +1239,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,9 +1267,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1554,9 +1554,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U173" sqref="U173"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T151" sqref="T151:U160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,40 +1571,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="2" t="s">
         <v>161</v>
       </c>
@@ -13340,7 +13340,7 @@
       <c r="S144" t="s">
         <v>145</v>
       </c>
-      <c r="T144" s="31" t="s">
+      <c r="T144" s="22" t="s">
         <v>313</v>
       </c>
       <c r="U144" s="9" t="s">
@@ -13923,6 +13923,9 @@
       <c r="V151" s="12">
         <v>44209</v>
       </c>
+      <c r="W151" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
@@ -14002,6 +14005,9 @@
       <c r="V152" s="12">
         <v>44209</v>
       </c>
+      <c r="W152" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
@@ -14081,6 +14087,9 @@
       <c r="V153" s="12">
         <v>44209</v>
       </c>
+      <c r="W153" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
@@ -14160,6 +14169,9 @@
       <c r="V154" s="12">
         <v>44209</v>
       </c>
+      <c r="W154" s="9" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
@@ -14239,6 +14251,9 @@
       <c r="V155" s="12">
         <v>44209</v>
       </c>
+      <c r="W155" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
@@ -14318,6 +14333,9 @@
       <c r="V156" s="12">
         <v>44209</v>
       </c>
+      <c r="W156" s="9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
@@ -14397,6 +14415,9 @@
       <c r="V157" s="12">
         <v>44209</v>
       </c>
+      <c r="W157" s="9" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
@@ -14476,6 +14497,9 @@
       <c r="V158" s="12">
         <v>44209</v>
       </c>
+      <c r="W158" s="9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
@@ -14555,6 +14579,9 @@
       <c r="V159" s="12">
         <v>44209</v>
       </c>
+      <c r="W159" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
@@ -14633,6 +14660,9 @@
       </c>
       <c r="V160" s="12">
         <v>44209</v>
+      </c>
+      <c r="W160" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
@@ -18744,9 +18774,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166:C166"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB164" sqref="AB164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18761,47 +18791,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="26" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
       <c r="X1" s="2" t="s">
         <v>161</v>
       </c>
@@ -34255,7 +34285,7 @@
       <c r="Z144" t="s">
         <v>145</v>
       </c>
-      <c r="AA144" s="31" t="s">
+      <c r="AA144" s="22" t="s">
         <v>313</v>
       </c>
       <c r="AB144" s="9" t="s">
@@ -35011,8 +35041,17 @@
       <c r="Z151" t="s">
         <v>166</v>
       </c>
+      <c r="AA151" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB151" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC151" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD151" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
@@ -35110,8 +35149,17 @@
       <c r="Z152" t="s">
         <v>349</v>
       </c>
+      <c r="AA152" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB152" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC152" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD152" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.25">
@@ -35209,8 +35257,17 @@
       <c r="Z153" t="s">
         <v>349</v>
       </c>
+      <c r="AA153" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB153" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="AC153" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD153" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
@@ -35308,8 +35365,17 @@
       <c r="Z154" t="s">
         <v>145</v>
       </c>
+      <c r="AA154" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB154" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC154" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD154" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
@@ -35407,8 +35473,17 @@
       <c r="Z155" t="s">
         <v>294</v>
       </c>
+      <c r="AA155" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB155" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC155" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD155" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
@@ -35506,8 +35581,17 @@
       <c r="Z156" t="s">
         <v>151</v>
       </c>
+      <c r="AA156" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB156" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="AC156" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD156" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.25">
@@ -35605,8 +35689,17 @@
       <c r="Z157" t="s">
         <v>151</v>
       </c>
+      <c r="AA157" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB157" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC157" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD157" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
@@ -35704,8 +35797,17 @@
       <c r="Z158" t="s">
         <v>151</v>
       </c>
+      <c r="AA158" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB158" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="AC158" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD158" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
@@ -35803,8 +35905,17 @@
       <c r="Z159" t="s">
         <v>151</v>
       </c>
+      <c r="AA159" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB159" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="AC159" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD159" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
@@ -35902,8 +36013,17 @@
       <c r="Z160" t="s">
         <v>153</v>
       </c>
+      <c r="AA160" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB160" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="AC160" s="12">
         <v>44209</v>
+      </c>
+      <c r="AD160" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="435">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1827,8 +1827,8 @@
   <dimension ref="A1:W409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U187" sqref="U187"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U196" sqref="U196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17010,15 +17010,19 @@
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="16" t="e">
+      <c r="A187" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="B187" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="C187" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D187" s="17" t="e">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D187" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>1.2820512820512819</v>
       </c>
       <c r="E187" s="12">
         <v>3.0357331084642114E-2</v>
@@ -17027,13 +17031,13 @@
         <f t="shared" si="34"/>
         <v>1.0303573310846421</v>
       </c>
-      <c r="G187" s="7" t="e">
+      <c r="G187" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H187" s="7" t="e">
+        <v>4.4115322018135323</v>
+      </c>
+      <c r="H187" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>1.2442783133320217</v>
       </c>
       <c r="I187">
         <v>1.79</v>
@@ -17057,13 +17061,13 @@
         <f t="shared" si="52"/>
         <v>0.45780051150895146</v>
       </c>
-      <c r="O187" s="15" t="e">
+      <c r="O187" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P187" s="15" t="e">
+        <v>0.40575471698113202</v>
+      </c>
+      <c r="P187" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.7037988826815644</v>
       </c>
       <c r="Q187" t="s">
         <v>248</v>
@@ -17074,20 +17078,30 @@
       <c r="S187" t="s">
         <v>291</v>
       </c>
+      <c r="T187" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="U187" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="V187" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="16" t="e">
+      <c r="A188" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B188" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C188" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D188" s="17" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="D188" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="E188" s="12">
         <v>3.4313725490195957E-2</v>
@@ -17096,13 +17110,13 @@
         <f t="shared" si="34"/>
         <v>1.034313725490196</v>
       </c>
-      <c r="G188" s="7" t="e">
+      <c r="G188" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H188" s="7" t="e">
+        <v>1.2085308056872039</v>
+      </c>
+      <c r="H188" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>4.8341232227488158</v>
       </c>
       <c r="I188">
         <v>1.5</v>
@@ -17126,13 +17140,13 @@
         <f t="shared" si="52"/>
         <v>0.35545023696682471</v>
       </c>
-      <c r="O188" s="15" t="e">
+      <c r="O188" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P188" s="15" t="e">
+        <v>1.2411764705882351</v>
+      </c>
+      <c r="P188" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>0.56266666666666665</v>
       </c>
       <c r="Q188" t="s">
         <v>226</v>
@@ -17143,20 +17157,30 @@
       <c r="S188" t="s">
         <v>291</v>
       </c>
+      <c r="T188" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="U188" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="V188" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="16" t="e">
+      <c r="A189" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="B189" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="C189" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D189" s="17" t="e">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="D189" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>1.9230769230769229</v>
       </c>
       <c r="E189" s="12">
         <v>2.8345418589321048E-2</v>
@@ -17165,13 +17189,13 @@
         <f t="shared" si="34"/>
         <v>1.028345418589321</v>
       </c>
-      <c r="G189" s="7" t="e">
+      <c r="G189" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H189" s="7" t="e">
+        <v>2.0259081196581197</v>
+      </c>
+      <c r="H189" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>1.8700690335305719</v>
       </c>
       <c r="I189">
         <v>1.85</v>
@@ -17195,13 +17219,13 @@
         <f t="shared" si="52"/>
         <v>0.47435897435897439</v>
       </c>
-      <c r="O189" s="15" t="e">
+      <c r="O189" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P189" s="15" t="e">
+        <v>0.91317073170731711</v>
+      </c>
+      <c r="P189" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.0962162162162161</v>
       </c>
       <c r="Q189" t="s">
         <v>228</v>
@@ -17212,20 +17236,30 @@
       <c r="S189" t="s">
         <v>292</v>
       </c>
+      <c r="T189" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U189" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="V189" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="16" t="e">
+      <c r="A190" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B190" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="C190" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D190" s="17" t="e">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="D190" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="E190" s="12">
         <v>2.861071447458885E-2</v>
@@ -17234,13 +17268,13 @@
         <f t="shared" si="34"/>
         <v>1.0286107144745888</v>
       </c>
-      <c r="G190" s="7" t="e">
+      <c r="G190" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H190" s="7" t="e">
+        <v>1.7360448035255232</v>
+      </c>
+      <c r="H190" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>2.2095115681233937</v>
       </c>
       <c r="I190">
         <v>1.91</v>
@@ -17264,13 +17298,13 @@
         <f t="shared" si="52"/>
         <v>0.49100257069408743</v>
       </c>
-      <c r="O190" s="15" t="e">
+      <c r="O190" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P190" s="15" t="e">
+        <v>1.1002020202020202</v>
+      </c>
+      <c r="P190" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>0.8961256544502616</v>
       </c>
       <c r="Q190" t="s">
         <v>251</v>
@@ -17281,20 +17315,30 @@
       <c r="S190" t="s">
         <v>292</v>
       </c>
+      <c r="T190" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U190" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="V190" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="16" t="e">
+      <c r="A191" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="B191" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="C191" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D191" s="17" t="e">
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="D191" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="E191" s="12">
         <v>3.5940803382663811E-2</v>
@@ -17303,13 +17347,13 @@
         <f t="shared" si="34"/>
         <v>1.0359408033826638</v>
       </c>
-      <c r="G191" s="7" t="e">
+      <c r="G191" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H191" s="7" t="e">
+        <v>1.8213323065075084</v>
+      </c>
+      <c r="H191" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>2.053842813721233</v>
       </c>
       <c r="I191">
         <v>1.72</v>
@@ -17333,13 +17377,13 @@
         <f t="shared" si="52"/>
         <v>0.43877551020408162</v>
       </c>
-      <c r="O191" s="15" t="e">
+      <c r="O191" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P191" s="15" t="e">
+        <v>0.94436363636363652</v>
+      </c>
+      <c r="P191" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.0711627906976746</v>
       </c>
       <c r="Q191" t="s">
         <v>257</v>
@@ -17350,20 +17394,30 @@
       <c r="S191" t="s">
         <v>292</v>
       </c>
+      <c r="T191" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="V191" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="16" t="e">
+      <c r="A192" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="B192" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="C192" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D192" s="17" t="e">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D192" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>1.5625</v>
       </c>
       <c r="E192" s="12">
         <v>2.8001534330648337E-2</v>
@@ -17372,13 +17426,13 @@
         <f t="shared" si="34"/>
         <v>1.0280015343306483</v>
       </c>
-      <c r="G192" s="7" t="e">
+      <c r="G192" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H192" s="7" t="e">
+        <v>2.7021144278606961</v>
+      </c>
+      <c r="H192" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>1.5199393656716416</v>
       </c>
       <c r="I192">
         <v>2.37</v>
@@ -17402,13 +17456,13 @@
         <f t="shared" si="52"/>
         <v>0.58955223880597019</v>
       </c>
-      <c r="O192" s="15" t="e">
+      <c r="O192" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P192" s="15" t="e">
+        <v>0.87709090909090925</v>
+      </c>
+      <c r="P192" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.0855696202531646</v>
       </c>
       <c r="Q192" t="s">
         <v>331</v>
@@ -17419,20 +17473,30 @@
       <c r="S192" t="s">
         <v>349</v>
       </c>
+      <c r="T192" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U192" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="V192" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="16" t="e">
+      <c r="A193" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="B193" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="C193" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D193" s="17" t="e">
+        <v>1.5625</v>
+      </c>
+      <c r="D193" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="E193" s="12">
         <v>3.0163599182004175E-2</v>
@@ -17441,13 +17505,13 @@
         <f t="shared" si="34"/>
         <v>1.0301635991820042</v>
       </c>
-      <c r="G193" s="7" t="e">
+      <c r="G193" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H193" s="7" t="e">
+        <v>1.5167493796526053</v>
+      </c>
+      <c r="H193" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>2.6964433416046316</v>
       </c>
       <c r="I193">
         <v>1.63</v>
@@ -17471,13 +17535,13 @@
         <f t="shared" si="52"/>
         <v>0.40446650124069478</v>
       </c>
-      <c r="O193" s="15" t="e">
+      <c r="O193" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P193" s="15" t="e">
+        <v>1.0746666666666667</v>
+      </c>
+      <c r="P193" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>0.89006134969325157</v>
       </c>
       <c r="Q193" t="s">
         <v>360</v>
@@ -17488,20 +17552,30 @@
       <c r="S193" t="s">
         <v>349</v>
       </c>
+      <c r="T193" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U193" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="V193" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="16" t="e">
+      <c r="A194" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="B194" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="C194" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D194" s="17" t="e">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="D194" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="E194" s="12">
         <v>2.79347143753923E-2</v>
@@ -17510,13 +17584,13 @@
         <f t="shared" ref="F194:F257" si="55">(E194/100%) + 1</f>
         <v>1.0279347143753923</v>
       </c>
-      <c r="G194" s="7" t="e">
+      <c r="G194" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H194" s="7" t="e">
+        <v>2.4944216089254256</v>
+      </c>
+      <c r="H194" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>1.594794143411338</v>
       </c>
       <c r="I194">
         <v>2.16</v>
@@ -17540,13 +17614,13 @@
         <f t="shared" si="52"/>
         <v>0.54961832061068705</v>
       </c>
-      <c r="O194" s="15" t="e">
+      <c r="O194" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P194" s="15" t="e">
+        <v>0.86593220338983057</v>
+      </c>
+      <c r="P194" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.109861111111111</v>
       </c>
       <c r="Q194" t="s">
         <v>361</v>
@@ -17557,20 +17631,30 @@
       <c r="S194" t="s">
         <v>349</v>
       </c>
+      <c r="T194" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U194" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="V194" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="16" t="e">
+      <c r="A195" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="B195" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C195" s="16">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D195" s="17" t="e">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="D195" s="17">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="E195" s="12">
         <v>2.9539874871307603E-2</v>
@@ -17579,13 +17663,13 @@
         <f t="shared" si="55"/>
         <v>1.0295398748713076</v>
       </c>
-      <c r="G195" s="7" t="e">
+      <c r="G195" s="7">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H195" s="7" t="e">
+        <v>2.2075174825174826</v>
+      </c>
+      <c r="H195" s="7">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>1.7344780219780218</v>
       </c>
       <c r="I195">
         <v>1.83</v>
@@ -17609,13 +17693,13 @@
         <f t="shared" si="52"/>
         <v>0.46923076923076917</v>
       </c>
-      <c r="O195" s="15" t="e">
+      <c r="O195" s="15">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P195" s="15" t="e">
+        <v>0.82898550724637676</v>
+      </c>
+      <c r="P195" s="15">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>1.1934426229508197</v>
       </c>
       <c r="Q195" t="s">
         <v>344</v>
@@ -17625,6 +17709,12 @@
       </c>
       <c r="S195" t="s">
         <v>349</v>
+      </c>
+      <c r="T195" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="U195" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="V195" t="s">
         <v>432</v>
@@ -27616,7 +27706,7 @@
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186:XFD186"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47495,20 +47585,26 @@
       </c>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="3" t="e">
+      <c r="A187" s="9">
+        <v>0.37129934086969912</v>
+      </c>
+      <c r="B187" s="9">
+        <v>0.34884400310672858</v>
+      </c>
+      <c r="C187" s="9">
+        <v>0.2798566525160639</v>
+      </c>
+      <c r="D187" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E187" s="4" t="e">
+        <v>2.6932447487186146</v>
+      </c>
+      <c r="E187" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F187" s="13" t="e">
+        <v>2.8666108377791168</v>
+      </c>
+      <c r="F187" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>3.573257919758043</v>
       </c>
       <c r="G187" s="12">
         <v>2.3510032943995007E-2</v>
@@ -47517,17 +47613,17 @@
         <f t="shared" si="53"/>
         <v>1.023510032943995</v>
       </c>
-      <c r="I187" s="5" t="e">
+      <c r="I187" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J187" s="5" t="e">
+        <v>2.6313808971386852</v>
+      </c>
+      <c r="J187" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K187" s="5" t="e">
+        <v>2.8007647658652446</v>
+      </c>
+      <c r="K187" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>3.4911801592017873</v>
       </c>
       <c r="L187">
         <v>3.6</v>
@@ -47562,17 +47658,17 @@
         <f t="shared" si="80"/>
         <v>0.46525237746891013</v>
       </c>
-      <c r="U187" t="e">
+      <c r="U187">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V187" t="e">
+        <v>1.3681029621802656</v>
+      </c>
+      <c r="V187">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W187" t="e">
+        <v>1.3246382006858273</v>
+      </c>
+      <c r="W187">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>0.60151579243625675</v>
       </c>
       <c r="X187" t="s">
         <v>248</v>
@@ -47588,20 +47684,26 @@
       </c>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="3" t="e">
+      <c r="A188" s="9">
+        <v>0.23463255043551384</v>
+      </c>
+      <c r="B188" s="9">
+        <v>0.18073184744129223</v>
+      </c>
+      <c r="C188" s="9">
+        <v>0.58453651640354176</v>
+      </c>
+      <c r="D188" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E188" s="4" t="e">
+        <v>4.2619832505926709</v>
+      </c>
+      <c r="E188" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F188" s="13" t="e">
+        <v>5.5330591379299303</v>
+      </c>
+      <c r="F188" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>1.7107571074475663</v>
       </c>
       <c r="G188" s="12">
         <v>2.2604823394235973E-2</v>
@@ -47610,17 +47712,17 @@
         <f t="shared" si="53"/>
         <v>1.022604823394236</v>
       </c>
-      <c r="I188" s="5" t="e">
+      <c r="I188" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J188" s="5" t="e">
+        <v>4.1677715116248626</v>
+      </c>
+      <c r="J188" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K188" s="5" t="e">
+        <v>5.4107500877656411</v>
+      </c>
+      <c r="K188" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>1.6729405810635736</v>
       </c>
       <c r="L188">
         <v>2.92</v>
@@ -47655,17 +47757,17 @@
         <f t="shared" si="80"/>
         <v>0.4143622285614485</v>
       </c>
-      <c r="U188" t="e">
+      <c r="U188">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V188" t="e">
+        <v>0.70061422317789157</v>
+      </c>
+      <c r="V188">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W188" t="e">
+        <v>0.72078730984422479</v>
+      </c>
+      <c r="W188">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>1.4106896722534088</v>
       </c>
       <c r="X188" t="s">
         <v>226</v>
@@ -47681,20 +47783,26 @@
       </c>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="3" t="e">
+      <c r="A189" s="9">
+        <v>0.64022647314302727</v>
+      </c>
+      <c r="B189" s="9">
+        <v>0.21705378938130396</v>
+      </c>
+      <c r="C189" s="9">
+        <v>0.14271536689544242</v>
+      </c>
+      <c r="D189" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E189" s="4" t="e">
+        <v>1.56194728264009</v>
+      </c>
+      <c r="E189" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F189" s="13" t="e">
+        <v>4.6071529220956116</v>
+      </c>
+      <c r="F189" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>7.0069539234175817</v>
       </c>
       <c r="G189" s="12">
         <v>2.9655095309967017E-2</v>
@@ -47703,17 +47811,17 @@
         <f t="shared" si="53"/>
         <v>1.029655095309967</v>
       </c>
-      <c r="I189" s="5" t="e">
+      <c r="I189" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J189" s="5" t="e">
+        <v>1.5169616406063449</v>
+      </c>
+      <c r="J189" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K189" s="5" t="e">
+        <v>4.4744623156637475</v>
+      </c>
+      <c r="K189" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>6.8051466508872185</v>
       </c>
       <c r="L189">
         <v>2</v>
@@ -47748,17 +47856,17 @@
         <f t="shared" si="80"/>
         <v>0.24159179130812458</v>
       </c>
-      <c r="U189" t="e">
+      <c r="U189">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V189" t="e">
+        <v>1.3184249004480957</v>
+      </c>
+      <c r="V189">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W189" t="e">
+        <v>0.79562632308635395</v>
+      </c>
+      <c r="W189">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>0.59072937090575317</v>
       </c>
       <c r="X189" t="s">
         <v>228</v>
@@ -47774,20 +47882,26 @@
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="3" t="e">
+      <c r="A190" s="9">
+        <v>0.69437545673915368</v>
+      </c>
+      <c r="B190" s="9">
+        <v>0.18693221088767259</v>
+      </c>
+      <c r="C190" s="9">
+        <v>0.11867617256818047</v>
+      </c>
+      <c r="D190" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E190" s="4" t="e">
+        <v>1.4401430671183069</v>
+      </c>
+      <c r="E190" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F190" s="13" t="e">
+        <v>5.3495328346643225</v>
+      </c>
+      <c r="F190" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>8.4262912963888468</v>
       </c>
       <c r="G190" s="12">
         <v>2.6999982289286795E-2</v>
@@ -47796,17 +47910,17 @@
         <f t="shared" si="53"/>
         <v>1.0269999822892868</v>
       </c>
-      <c r="I190" s="5" t="e">
+      <c r="I190" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J190" s="5" t="e">
+        <v>1.4022814916783954</v>
+      </c>
+      <c r="J190" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K190" s="5" t="e">
+        <v>5.2088928207570877</v>
+      </c>
+      <c r="K190" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>8.2047628448890446</v>
       </c>
       <c r="L190">
         <v>3.19</v>
@@ -47841,17 +47955,17 @@
         <f t="shared" si="80"/>
         <v>0.41970252209527914</v>
       </c>
-      <c r="U190" t="e">
+      <c r="U190">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V190" t="e">
+        <v>2.2748642258565921</v>
+      </c>
+      <c r="V190">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W190" t="e">
+        <v>0.67960699553911685</v>
+      </c>
+      <c r="W190">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>0.28276259093158151</v>
       </c>
       <c r="X190" t="s">
         <v>251</v>
@@ -47867,20 +47981,26 @@
       </c>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="3" t="e">
+      <c r="A191" s="9">
+        <v>0.78569468180377411</v>
+      </c>
+      <c r="B191" s="9">
+        <v>0.15203477560086567</v>
+      </c>
+      <c r="C191" s="9">
+        <v>6.2240492415554412E-2</v>
+      </c>
+      <c r="D191" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E191" s="4" t="e">
+        <v>1.2727590286143089</v>
+      </c>
+      <c r="E191" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F191" s="13" t="e">
+        <v>6.5774425360766351</v>
+      </c>
+      <c r="F191" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>16.066710933509448</v>
       </c>
       <c r="G191" s="12">
         <v>2.9844758948999184E-2</v>
@@ -47889,17 +48009,17 @@
         <f t="shared" si="53"/>
         <v>1.0298447589489992</v>
       </c>
-      <c r="I191" s="5" t="e">
+      <c r="I191" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J191" s="5" t="e">
+        <v>1.2358746476636091</v>
+      </c>
+      <c r="J191" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K191" s="5" t="e">
+        <v>6.3868291593668909</v>
+      </c>
+      <c r="K191" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>15.601099868592055</v>
       </c>
       <c r="L191">
         <v>1.67</v>
@@ -47934,17 +48054,17 @@
         <f t="shared" si="80"/>
         <v>0.18286631601608488</v>
       </c>
-      <c r="U191" t="e">
+      <c r="U191">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V191" t="e">
+        <v>1.3512697288168296</v>
+      </c>
+      <c r="V191">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W191" t="e">
+        <v>0.64507753334181939</v>
+      </c>
+      <c r="W191">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>0.34036061846447296</v>
       </c>
       <c r="X191" t="s">
         <v>257</v>
@@ -47960,20 +48080,26 @@
       </c>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="3" t="e">
+      <c r="A192" s="9">
+        <v>0.60094847821193087</v>
+      </c>
+      <c r="B192" s="9">
+        <v>0.2552177012388635</v>
+      </c>
+      <c r="C192" s="9">
+        <v>0.14383314036308029</v>
+      </c>
+      <c r="D192" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E192" s="4" t="e">
+        <v>1.6640361632588065</v>
+      </c>
+      <c r="E192" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F192" s="13" t="e">
+        <v>3.9182235211188563</v>
+      </c>
+      <c r="F192" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>6.9525006370276285</v>
       </c>
       <c r="G192" s="12">
         <v>2.520991848574905E-2</v>
@@ -47982,17 +48108,17 @@
         <f t="shared" si="53"/>
         <v>1.025209918485749</v>
       </c>
-      <c r="I192" s="5" t="e">
+      <c r="I192" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J192" s="5" t="e">
+        <v>1.6231175033076286</v>
+      </c>
+      <c r="J192" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K192" s="5" t="e">
+        <v>3.8218743795476864</v>
+      </c>
+      <c r="K192" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>6.7815386016715289</v>
       </c>
       <c r="L192">
         <v>1.63</v>
@@ -48027,17 +48153,17 @@
         <f t="shared" si="80"/>
         <v>0.13796463841186254</v>
       </c>
-      <c r="U192" t="e">
+      <c r="U192">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V192" t="e">
+        <v>1.0042402947897155</v>
+      </c>
+      <c r="V192">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W192" t="e">
+        <v>0.96811135912789736</v>
+      </c>
+      <c r="W192">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>1.0425362760977828</v>
       </c>
       <c r="X192" t="s">
         <v>331</v>
@@ -48053,20 +48179,26 @@
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="3" t="e">
+      <c r="A193" s="9">
+        <v>0.47791523624913868</v>
+      </c>
+      <c r="B193" s="9">
+        <v>0.22533944083901677</v>
+      </c>
+      <c r="C193" s="9">
+        <v>0.29674073680652535</v>
+      </c>
+      <c r="D193" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E193" s="4" t="e">
+        <v>2.0924212583143027</v>
+      </c>
+      <c r="E193" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F193" s="13" t="e">
+        <v>4.4377495403230505</v>
+      </c>
+      <c r="F193" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>3.3699451270554706</v>
       </c>
       <c r="G193" s="12">
         <v>2.2740349867345966E-2</v>
@@ -48075,17 +48207,17 @@
         <f t="shared" si="53"/>
         <v>1.022740349867346</v>
       </c>
-      <c r="I193" s="5" t="e">
+      <c r="I193" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J193" s="5" t="e">
+        <v>2.0458968481938737</v>
+      </c>
+      <c r="J193" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K193" s="5" t="e">
+        <v>4.3390774020978506</v>
+      </c>
+      <c r="K193" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>3.2950153257301009</v>
       </c>
       <c r="L193">
         <v>2.1800000000000002</v>
@@ -48120,17 +48252,17 @@
         <f t="shared" si="80"/>
         <v>0.2850627625498377</v>
       </c>
-      <c r="U193" t="e">
+      <c r="U193">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V193" t="e">
+        <v>1.0655473671238671</v>
+      </c>
+      <c r="V193">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W193" t="e">
+        <v>0.84580192052477188</v>
+      </c>
+      <c r="W193">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>1.0409663266862013</v>
       </c>
       <c r="X193" t="s">
         <v>360</v>
@@ -48146,20 +48278,26 @@
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="3" t="e">
+      <c r="A194" s="9">
+        <v>0.70368336387766373</v>
+      </c>
+      <c r="B194" s="9">
+        <v>0.21055529732355346</v>
+      </c>
+      <c r="C194" s="9">
+        <v>8.5758318025254424E-2</v>
+      </c>
+      <c r="D194" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E194" s="4" t="e">
+        <v>1.4210937068193235</v>
+      </c>
+      <c r="E194" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F194" s="13" t="e">
+        <v>4.7493461941417348</v>
+      </c>
+      <c r="F194" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>11.660676457128233</v>
       </c>
       <c r="G194" s="12">
         <v>2.5570618145352775E-2</v>
@@ -48168,17 +48306,17 @@
         <f t="shared" ref="H194:H257" si="84">(G194/100%) + 1</f>
         <v>1.0255706181453528</v>
       </c>
-      <c r="I194" s="5" t="e">
+      <c r="I194" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J194" s="5" t="e">
+        <v>1.3856614860800485</v>
+      </c>
+      <c r="J194" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K194" s="5" t="e">
+        <v>4.6309304401977478</v>
+      </c>
+      <c r="K194" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>11.369940061480564</v>
       </c>
       <c r="L194">
         <v>1.85</v>
@@ -48213,17 +48351,17 @@
         <f t="shared" si="80"/>
         <v>0.19980879830338752</v>
       </c>
-      <c r="U194" t="e">
+      <c r="U194">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V194" t="e">
+        <v>1.3351024175706412</v>
+      </c>
+      <c r="V194">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W194" t="e">
+        <v>0.77090339535472607</v>
+      </c>
+      <c r="W194">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>0.42920191079393771</v>
       </c>
       <c r="X194" t="s">
         <v>361</v>
@@ -48239,20 +48377,26 @@
       </c>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="3" t="e">
+      <c r="A195" s="9">
+        <v>0.14233193326741073</v>
+      </c>
+      <c r="B195" s="9">
+        <v>0.22849422328188518</v>
+      </c>
+      <c r="C195" s="9">
+        <v>0.62917141647687258</v>
+      </c>
+      <c r="D195" s="3">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E195" s="4" t="e">
+        <v>7.0258302339027292</v>
+      </c>
+      <c r="E195" s="4">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F195" s="13" t="e">
+        <v>4.3764782568106133</v>
+      </c>
+      <c r="F195" s="13">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>1.5893919746062695</v>
       </c>
       <c r="G195" s="12">
         <v>2.7676672623270449E-2</v>
@@ -48261,17 +48405,17 @@
         <f t="shared" si="84"/>
         <v>1.0276766726232704</v>
       </c>
-      <c r="I195" s="5" t="e">
+      <c r="I195" s="5">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J195" s="5" t="e">
+        <v>6.8366154658044715</v>
+      </c>
+      <c r="J195" s="5">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K195" s="5" t="e">
+        <v>4.2586139915379384</v>
+      </c>
+      <c r="K195" s="5">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>1.5465875765664234</v>
       </c>
       <c r="L195">
         <v>6.81</v>
@@ -48306,17 +48450,17 @@
         <f t="shared" si="80"/>
         <v>0.62376198477809619</v>
       </c>
-      <c r="U195" t="e">
+      <c r="U195">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V195" t="e">
+        <v>0.99610692367625508</v>
+      </c>
+      <c r="V195">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W195" t="e">
+        <v>0.97919182351017997</v>
+      </c>
+      <c r="W195">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>1.0086722689596108</v>
       </c>
       <c r="X195" t="s">
         <v>344</v>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="448">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1365,6 +1365,9 @@
   <si>
     <t>Nottm Forest</t>
   </si>
+  <si>
+    <t>6-1</t>
+  </si>
 </sst>
 </file>
 
@@ -1559,6 +1562,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,16 +1597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1882,8 +1885,8 @@
   <dimension ref="A1:W409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q378" sqref="Q378"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W387" sqref="W387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,40 +1901,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="2" t="s">
         <v>161</v>
       </c>
@@ -28031,10 +28034,10 @@
       </c>
     </row>
     <row r="320" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="42">
+      <c r="A320" s="33">
         <v>0.48064106349817248</v>
       </c>
-      <c r="B320" s="42">
+      <c r="B320" s="33">
         <v>0.51739395282467671</v>
       </c>
       <c r="C320" s="22">
@@ -28102,7 +28105,7 @@
       <c r="T320" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="U320" s="43" t="s">
+      <c r="U320" s="34" t="s">
         <v>304</v>
       </c>
       <c r="V320" s="26" t="s">
@@ -28112,7 +28115,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" s="9">
         <v>0.45826909075889449</v>
       </c>
@@ -28184,14 +28187,17 @@
       <c r="T321" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U321" s="44" t="s">
+      <c r="U321" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V321" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W321" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" s="9">
         <v>0.42916577841295683</v>
       </c>
@@ -28263,14 +28269,17 @@
       <c r="T322" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U322" s="44" t="s">
+      <c r="U322" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V322" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W322" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" s="9">
         <v>0.44336760694289612</v>
       </c>
@@ -28342,14 +28351,17 @@
       <c r="T323" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U323" s="44" t="s">
+      <c r="U323" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V323" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W323" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" s="9">
         <v>0.61507776793339553</v>
       </c>
@@ -28421,14 +28433,17 @@
       <c r="T324" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U324" s="44" t="s">
+      <c r="U324" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V324" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W324" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" s="9">
         <v>0.54375591722228112</v>
       </c>
@@ -28500,14 +28515,17 @@
       <c r="T325" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U325" s="44" t="s">
+      <c r="U325" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V325" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W325" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" s="9">
         <v>0.34409548227475423</v>
       </c>
@@ -28579,14 +28597,17 @@
       <c r="T326" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U326" s="44" t="s">
+      <c r="U326" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V326" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W326" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" s="9">
         <v>0.52869579107792453</v>
       </c>
@@ -28658,14 +28679,17 @@
       <c r="T327" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U327" s="44" t="s">
+      <c r="U327" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V327" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W327" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" s="9">
         <v>0.50240822574988597</v>
       </c>
@@ -28737,14 +28761,17 @@
       <c r="T328" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U328" s="44" t="s">
+      <c r="U328" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V328" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W328" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" s="9">
         <v>0.26140234160972442</v>
       </c>
@@ -28816,14 +28843,17 @@
       <c r="T329" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U329" s="44" t="s">
+      <c r="U329" s="35" t="s">
         <v>305</v>
       </c>
       <c r="V329" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W329" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" s="9">
         <v>0.48287516277696918</v>
       </c>
@@ -28895,14 +28925,17 @@
       <c r="T330" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U330" s="44" t="s">
+      <c r="U330" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V330" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W330" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" s="9">
         <v>0.30985472640879647</v>
       </c>
@@ -28974,14 +29007,17 @@
       <c r="T331" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U331" s="44" t="s">
+      <c r="U331" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V331" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W331" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" s="9">
         <v>0.15205709314264901</v>
       </c>
@@ -29053,14 +29089,17 @@
       <c r="T332" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U332" s="44" t="s">
+      <c r="U332" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V332" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W332" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" s="9">
         <v>0.5695388583517953</v>
       </c>
@@ -29132,14 +29171,17 @@
       <c r="T333" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U333" s="44" t="s">
+      <c r="U333" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V333" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W333" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" s="9">
         <v>0.30175548520401591</v>
       </c>
@@ -29211,14 +29253,17 @@
       <c r="T334" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U334" s="44" t="s">
+      <c r="U334" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V334" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W334" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" s="9">
         <v>0.520677327254222</v>
       </c>
@@ -29290,14 +29335,17 @@
       <c r="T335" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U335" s="44" t="s">
+      <c r="U335" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V335" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W335" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" s="9">
         <v>0.55835333913987795</v>
       </c>
@@ -29369,14 +29417,17 @@
       <c r="T336" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U336" s="44" t="s">
+      <c r="U336" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V336" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W336" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" s="9">
         <v>0.39800520720814631</v>
       </c>
@@ -29448,14 +29499,17 @@
       <c r="T337" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U337" s="44" t="s">
+      <c r="U337" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V337" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W337" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" s="9">
         <v>0.78331836034193714</v>
       </c>
@@ -29527,14 +29581,17 @@
       <c r="T338" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U338" s="44" t="s">
+      <c r="U338" s="35" t="s">
         <v>301</v>
       </c>
       <c r="V338" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W338" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" s="9">
         <v>0.45083906361279252</v>
       </c>
@@ -29606,14 +29663,17 @@
       <c r="T339" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U339" s="44" t="s">
+      <c r="U339" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V339" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W339" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" s="9">
         <v>0.35739326064492699</v>
       </c>
@@ -29685,14 +29745,17 @@
       <c r="T340" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U340" s="44" t="s">
+      <c r="U340" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V340" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W340" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="9">
         <v>0.32374313771585961</v>
       </c>
@@ -29764,14 +29827,17 @@
       <c r="T341" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U341" s="44" t="s">
+      <c r="U341" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V341" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W341" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" s="9">
         <v>0.46585707923770819</v>
       </c>
@@ -29843,14 +29909,17 @@
       <c r="T342" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U342" s="44" t="s">
+      <c r="U342" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V342" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W342" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" s="9">
         <v>0.60832117915473105</v>
       </c>
@@ -29922,14 +29991,17 @@
       <c r="T343" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U343" s="44" t="s">
+      <c r="U343" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V343" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W343" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" s="9">
         <v>0.41158382366728663</v>
       </c>
@@ -30001,14 +30073,17 @@
       <c r="T344" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U344" s="44" t="s">
+      <c r="U344" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V344" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W344" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" s="9">
         <v>0.44175051899635015</v>
       </c>
@@ -30080,14 +30155,17 @@
       <c r="T345" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U345" s="44" t="s">
+      <c r="U345" s="35" t="s">
         <v>316</v>
       </c>
       <c r="V345" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W345" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
         <v>0.54966483109397835</v>
       </c>
@@ -30159,14 +30237,17 @@
       <c r="T346" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U346" s="44" t="s">
+      <c r="U346" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V346" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W346" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" s="9">
         <v>0.43297439074657723</v>
       </c>
@@ -30238,14 +30319,17 @@
       <c r="T347" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U347" s="44" t="s">
+      <c r="U347" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V347" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W347" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" s="9">
         <v>0.23989829490680517</v>
       </c>
@@ -30317,14 +30401,17 @@
       <c r="T348" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U348" s="44" t="s">
+      <c r="U348" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V348" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W348" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="9">
         <v>7.5212987917225069E-2</v>
       </c>
@@ -30396,14 +30483,17 @@
       <c r="T349" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U349" s="44" t="s">
+      <c r="U349" s="35" t="s">
         <v>305</v>
       </c>
       <c r="V349" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W349" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
         <v>0.51438880672445819</v>
       </c>
@@ -30475,14 +30565,17 @@
       <c r="T350" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U350" s="44" t="s">
+      <c r="U350" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V350" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W350" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
         <v>0.32305323294959104</v>
       </c>
@@ -30554,14 +30647,17 @@
       <c r="T351" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U351" s="44" t="s">
+      <c r="U351" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V351" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W351" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" s="9">
         <v>0.28260672274901721</v>
       </c>
@@ -30633,11 +30729,14 @@
       <c r="T352" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U352" s="44" t="s">
+      <c r="U352" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V352" s="11">
         <v>44215</v>
+      </c>
+      <c r="W352" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="353" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -30712,13 +30811,15 @@
       <c r="T353" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="U353" s="45" t="s">
+      <c r="U353" s="36" t="s">
         <v>309</v>
       </c>
       <c r="V353" s="11">
         <v>44215</v>
       </c>
-      <c r="W353" s="19"/>
+      <c r="W353" s="19" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
@@ -30792,11 +30893,14 @@
       <c r="T354" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U354" s="44" t="s">
+      <c r="U354" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V354" s="11">
         <v>44215</v>
+      </c>
+      <c r="W354" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.25">
@@ -30871,11 +30975,14 @@
       <c r="T355" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U355" s="44" t="s">
+      <c r="U355" s="35" t="s">
         <v>308</v>
       </c>
       <c r="V355" s="11">
         <v>44215</v>
+      </c>
+      <c r="W355" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.25">
@@ -30950,11 +31057,14 @@
       <c r="T356" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U356" s="44" t="s">
+      <c r="U356" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V356" s="11">
         <v>44215</v>
+      </c>
+      <c r="W356" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.25">
@@ -31029,11 +31139,14 @@
       <c r="T357" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U357" s="44" t="s">
+      <c r="U357" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V357" s="11">
         <v>44215</v>
+      </c>
+      <c r="W357" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.25">
@@ -31108,11 +31221,14 @@
       <c r="T358" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U358" s="44" t="s">
+      <c r="U358" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V358" s="11">
         <v>44215</v>
+      </c>
+      <c r="W358" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.25">
@@ -31187,11 +31303,14 @@
       <c r="T359" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U359" s="44" t="s">
+      <c r="U359" s="35" t="s">
         <v>317</v>
       </c>
       <c r="V359" s="11">
         <v>44216</v>
+      </c>
+      <c r="W359" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.25">
@@ -31266,11 +31385,14 @@
       <c r="T360" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U360" s="44" t="s">
+      <c r="U360" s="35" t="s">
         <v>317</v>
       </c>
       <c r="V360" s="11">
         <v>44216</v>
+      </c>
+      <c r="W360" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.25">
@@ -31345,11 +31467,14 @@
       <c r="T361" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U361" s="44" t="s">
+      <c r="U361" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V361" s="11">
         <v>44216</v>
+      </c>
+      <c r="W361" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.25">
@@ -31424,11 +31549,14 @@
       <c r="T362" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U362" s="44" t="s">
+      <c r="U362" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V362" s="11">
         <v>44216</v>
+      </c>
+      <c r="W362" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.25">
@@ -31503,11 +31631,14 @@
       <c r="T363" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U363" s="44" t="s">
+      <c r="U363" s="35" t="s">
         <v>308</v>
       </c>
       <c r="V363" s="11">
         <v>44216</v>
+      </c>
+      <c r="W363" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.25">
@@ -31582,11 +31713,14 @@
       <c r="T364" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U364" s="44" t="s">
+      <c r="U364" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V364" s="11">
         <v>44216</v>
+      </c>
+      <c r="W364" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.25">
@@ -31661,11 +31795,14 @@
       <c r="T365" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U365" s="44" t="s">
+      <c r="U365" s="35" t="s">
         <v>318</v>
       </c>
       <c r="V365" s="11">
         <v>44216</v>
+      </c>
+      <c r="W365" s="8" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.25">
@@ -31740,11 +31877,14 @@
       <c r="T366" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U366" s="44" t="s">
+      <c r="U366" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V366" s="11">
         <v>44216</v>
+      </c>
+      <c r="W366" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.25">
@@ -31819,11 +31959,14 @@
       <c r="T367" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U367" s="44" t="s">
+      <c r="U367" s="35" t="s">
         <v>317</v>
       </c>
       <c r="V367" s="11">
         <v>44216</v>
+      </c>
+      <c r="W367" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.25">
@@ -31898,14 +32041,17 @@
       <c r="T368" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U368" s="44" t="s">
+      <c r="U368" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V368" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W368" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" s="9">
         <v>0.31456894335887348</v>
       </c>
@@ -31977,14 +32123,17 @@
       <c r="T369" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U369" s="44" t="s">
+      <c r="U369" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V369" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W369" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" s="9">
         <v>0.60174320446830354</v>
       </c>
@@ -32056,14 +32205,17 @@
       <c r="T370" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U370" s="44" t="s">
+      <c r="U370" s="35" t="s">
         <v>318</v>
       </c>
       <c r="V370" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W370" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" s="9">
         <v>0.32179001527511614</v>
       </c>
@@ -32135,14 +32287,17 @@
       <c r="T371" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U371" s="44" t="s">
+      <c r="U371" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V371" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W371" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" s="9">
         <v>0.2979406034593321</v>
       </c>
@@ -32214,14 +32369,17 @@
       <c r="T372" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U372" s="44" t="s">
+      <c r="U372" s="35" t="s">
         <v>308</v>
       </c>
       <c r="V372" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W372" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" s="9">
         <v>0.55543622991082664</v>
       </c>
@@ -32293,14 +32451,17 @@
       <c r="T373" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U373" s="44" t="s">
+      <c r="U373" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V373" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W373" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" s="9">
         <v>0.29417174235855181</v>
       </c>
@@ -32372,14 +32533,17 @@
       <c r="T374" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U374" s="44" t="s">
+      <c r="U374" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V374" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W374" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" s="9">
         <v>0.31458828864751215</v>
       </c>
@@ -32451,14 +32615,17 @@
       <c r="T375" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U375" s="44" t="s">
+      <c r="U375" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V375" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W375" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" s="9">
         <v>0.64683595940431282</v>
       </c>
@@ -32530,14 +32697,17 @@
       <c r="T376" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U376" s="44" t="s">
+      <c r="U376" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V376" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W376" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" s="9">
         <v>0.56802729097901306</v>
       </c>
@@ -32609,14 +32779,17 @@
       <c r="T377" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U377" s="44" t="s">
+      <c r="U377" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V377" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W377" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" s="9">
         <v>0.47796004466074909</v>
       </c>
@@ -32688,14 +32861,17 @@
       <c r="T378" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U378" s="44" t="s">
+      <c r="U378" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V378" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W378" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" s="9">
         <v>0.60254808430620987</v>
       </c>
@@ -32767,14 +32943,17 @@
       <c r="T379" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U379" s="44" t="s">
+      <c r="U379" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V379" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W379" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="9">
         <v>0.33411939351904485</v>
       </c>
@@ -32846,14 +33025,17 @@
       <c r="T380" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U380" s="44" t="s">
+      <c r="U380" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V380" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W380" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" s="9">
         <v>0.37863268230304847</v>
       </c>
@@ -32925,14 +33107,17 @@
       <c r="T381" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U381" s="44" t="s">
+      <c r="U381" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V381" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W381" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" s="9">
         <v>0.51014665844832341</v>
       </c>
@@ -33004,14 +33189,17 @@
       <c r="T382" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U382" s="44" t="s">
+      <c r="U382" s="35" t="s">
         <v>316</v>
       </c>
       <c r="V382" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W382" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="9">
         <v>0.45292059370085569</v>
       </c>
@@ -33083,14 +33271,17 @@
       <c r="T383" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U383" s="44" t="s">
+      <c r="U383" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V383" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W383" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" s="9">
         <v>0.57463852462941156</v>
       </c>
@@ -33162,14 +33353,17 @@
       <c r="T384" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U384" s="44" t="s">
+      <c r="U384" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V384" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W384" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="9">
         <v>0.60527986375764498</v>
       </c>
@@ -33241,14 +33435,17 @@
       <c r="T385" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U385" s="44" t="s">
+      <c r="U385" s="35" t="s">
         <v>319</v>
       </c>
       <c r="V385" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W385" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" s="9">
         <v>0.73868422237164333</v>
       </c>
@@ -33320,14 +33517,14 @@
       <c r="T386" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U386" s="44" t="s">
+      <c r="U386" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V386" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" s="9">
         <v>0.55777419144914564</v>
       </c>
@@ -33399,14 +33596,14 @@
       <c r="T387" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U387" s="44" t="s">
+      <c r="U387" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V387" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="9">
         <v>0.54370463756824783</v>
       </c>
@@ -33478,14 +33675,14 @@
       <c r="T388" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U388" s="44" t="s">
+      <c r="U388" s="35" t="s">
         <v>315</v>
       </c>
       <c r="V388" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" s="9">
         <v>7.7075106176441657E-2</v>
       </c>
@@ -33557,14 +33754,14 @@
       <c r="T389" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U389" s="44" t="s">
+      <c r="U389" s="35" t="s">
         <v>308</v>
       </c>
       <c r="V389" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" s="9">
         <v>0.50517508861178329</v>
       </c>
@@ -33636,14 +33833,14 @@
       <c r="T390" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U390" s="44" t="s">
+      <c r="U390" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V390" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" s="9">
         <v>0.11374219264609951</v>
       </c>
@@ -33715,14 +33912,14 @@
       <c r="T391" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U391" s="44" t="s">
+      <c r="U391" s="35" t="s">
         <v>305</v>
       </c>
       <c r="V391" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="9">
         <v>0.25072195703993838</v>
       </c>
@@ -33794,14 +33991,14 @@
       <c r="T392" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="U392" s="44" t="s">
+      <c r="U392" s="35" t="s">
         <v>309</v>
       </c>
       <c r="V392" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="9">
         <v>0.70124503111690328</v>
       </c>
@@ -33873,14 +34070,14 @@
       <c r="T393" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U393" s="44" t="s">
+      <c r="U393" s="35" t="s">
         <v>319</v>
       </c>
       <c r="V393" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="9">
         <v>0.50373760809717238</v>
       </c>
@@ -33952,14 +34149,14 @@
       <c r="T394" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="U394" s="44" t="s">
+      <c r="U394" s="35" t="s">
         <v>304</v>
       </c>
       <c r="V394" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" s="9">
         <v>0.41189187237920355</v>
       </c>
@@ -34031,14 +34228,14 @@
       <c r="T395" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U395" s="44" t="s">
+      <c r="U395" s="35" t="s">
         <v>300</v>
       </c>
       <c r="V395" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="3"/>
@@ -34053,7 +34250,7 @@
       <c r="N396" s="6"/>
       <c r="V396" s="11"/>
     </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="3"/>
@@ -34068,7 +34265,7 @@
       <c r="N397" s="6"/>
       <c r="V397" s="11"/>
     </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="3"/>
@@ -34083,7 +34280,7 @@
       <c r="N398" s="6"/>
       <c r="V398" s="11"/>
     </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="3"/>
@@ -34098,7 +34295,7 @@
       <c r="N399" s="6"/>
       <c r="V399" s="11"/>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="3"/>
@@ -34268,9 +34465,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD395"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H390" sqref="A390:XFD390"/>
+    <sheetView topLeftCell="F1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y386" sqref="Y386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34285,47 +34482,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
       <c r="X1" s="2" t="s">
         <v>161</v>
       </c>
@@ -66022,15 +66219,15 @@
         <v>1.0568000953504542</v>
       </c>
       <c r="I295" s="5">
-        <f t="shared" ref="I295:I320" si="104">D295/H295</f>
+        <f t="shared" ref="I295:I319" si="104">D295/H295</f>
         <v>1.2407865178617068</v>
       </c>
       <c r="J295" s="5">
-        <f t="shared" ref="J295:J320" si="105">E295/H295</f>
+        <f t="shared" ref="J295:J319" si="105">E295/H295</f>
         <v>5.5728768384363576</v>
       </c>
       <c r="K295" s="5">
-        <f t="shared" ref="K295:K320" si="106">F295/H295</f>
+        <f t="shared" ref="K295:K319" si="106">F295/H295</f>
         <v>14.712636879214662</v>
       </c>
       <c r="L295">
@@ -66067,15 +66264,15 @@
         <v>0.13693961698730217</v>
       </c>
       <c r="U295">
-        <f t="shared" ref="U295:U320" si="113">(L295/I295)</f>
+        <f t="shared" ref="U295:U319" si="113">(L295/I295)</f>
         <v>1.192791812849916</v>
       </c>
       <c r="V295">
-        <f t="shared" ref="V295:V320" si="114">(M295/J295)</f>
+        <f t="shared" ref="V295:V319" si="114">(M295/J295)</f>
         <v>0.75903346200395438</v>
       </c>
       <c r="W295">
-        <f t="shared" ref="W295:W320" si="115">(N295/K295)</f>
+        <f t="shared" ref="W295:W319" si="115">(N295/K295)</f>
         <v>0.46966427953932111</v>
       </c>
       <c r="X295" t="s">
@@ -68800,7 +68997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A321" s="9">
         <v>0.47420874980224442</v>
       </c>
@@ -68898,14 +69095,17 @@
       <c r="AA321" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB321" s="44" t="s">
+      <c r="AB321" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC321" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD321" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="322" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A322" s="9">
         <v>0.59084860224322211</v>
       </c>
@@ -69003,14 +69203,17 @@
       <c r="AA322" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB322" s="44" t="s">
+      <c r="AB322" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC322" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD322" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="323" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A323" s="9">
         <v>0.49571473151381518</v>
       </c>
@@ -69108,14 +69311,17 @@
       <c r="AA323" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB323" s="44" t="s">
+      <c r="AB323" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC323" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD323" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A324" s="9">
         <v>0.50104841919803234</v>
       </c>
@@ -69213,14 +69419,17 @@
       <c r="AA324" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB324" s="44" t="s">
+      <c r="AB324" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC324" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD324" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="325" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A325" s="9">
         <v>0.35151408199122597</v>
       </c>
@@ -69318,14 +69527,17 @@
       <c r="AA325" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB325" s="44" t="s">
+      <c r="AB325" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC325" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD325" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A326" s="9">
         <v>0.16359138458120112</v>
       </c>
@@ -69423,14 +69635,17 @@
       <c r="AA326" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB326" s="44" t="s">
+      <c r="AB326" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC326" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD326" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="327" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A327" s="9">
         <v>0.64799720799925542</v>
       </c>
@@ -69528,14 +69743,17 @@
       <c r="AA327" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB327" s="44" t="s">
+      <c r="AB327" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC327" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD327" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="328" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A328" s="9">
         <v>0.29478148429217771</v>
       </c>
@@ -69633,14 +69851,17 @@
       <c r="AA328" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB328" s="44" t="s">
+      <c r="AB328" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC328" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD328" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="329" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A329" s="9">
         <v>6.9803625601683919E-2</v>
       </c>
@@ -69738,14 +69959,17 @@
       <c r="AA329" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB329" s="44" t="s">
+      <c r="AB329" s="35" t="s">
         <v>305</v>
       </c>
       <c r="AC329" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD329" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="330" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A330" s="9">
         <v>0.6289349548097356</v>
       </c>
@@ -69843,14 +70067,17 @@
       <c r="AA330" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB330" s="44" t="s">
+      <c r="AB330" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC330" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD330" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="331" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A331" s="9">
         <v>0.29891948951579433</v>
       </c>
@@ -69948,14 +70175,17 @@
       <c r="AA331" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB331" s="44" t="s">
+      <c r="AB331" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC331" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD331" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A332" s="9">
         <v>0.20654274204950299</v>
       </c>
@@ -70053,14 +70283,17 @@
       <c r="AA332" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB332" s="44" t="s">
+      <c r="AB332" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC332" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD332" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="333" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A333" s="9">
         <v>0.73528572054257357</v>
       </c>
@@ -70158,14 +70391,17 @@
       <c r="AA333" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB333" s="44" t="s">
+      <c r="AB333" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC333" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD333" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="334" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A334" s="9">
         <v>0.3646707619136117</v>
       </c>
@@ -70263,14 +70499,17 @@
       <c r="AA334" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB334" s="44" t="s">
+      <c r="AB334" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC334" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD334" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A335" s="9">
         <v>0.60698987411552574</v>
       </c>
@@ -70368,14 +70607,17 @@
       <c r="AA335" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB335" s="44" t="s">
+      <c r="AB335" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC335" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD335" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A336" s="9">
         <v>0.58130038105166693</v>
       </c>
@@ -70473,14 +70715,17 @@
       <c r="AA336" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB336" s="44" t="s">
+      <c r="AB336" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC336" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD336" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="337" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A337" s="9">
         <v>0.55774346693655807</v>
       </c>
@@ -70578,14 +70823,17 @@
       <c r="AA337" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB337" s="44" t="s">
+      <c r="AB337" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC337" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD337" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="338" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A338" s="9">
         <v>0.57712028357300849</v>
       </c>
@@ -70683,14 +70931,17 @@
       <c r="AA338" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB338" s="44" t="s">
+      <c r="AB338" s="35" t="s">
         <v>301</v>
       </c>
       <c r="AC338" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD338" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="339" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A339" s="9">
         <v>0.42189800054501247</v>
       </c>
@@ -70788,14 +71039,17 @@
       <c r="AA339" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB339" s="44" t="s">
+      <c r="AB339" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC339" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD339" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="340" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A340" s="9">
         <v>0.39400620989208723</v>
       </c>
@@ -70893,14 +71147,17 @@
       <c r="AA340" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB340" s="44" t="s">
+      <c r="AB340" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC340" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD340" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="341" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A341" s="9">
         <v>0.57018437814154388</v>
       </c>
@@ -70998,14 +71255,17 @@
       <c r="AA341" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB341" s="44" t="s">
+      <c r="AB341" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC341" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD341" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A342" s="9">
         <v>0.58926477667436417</v>
       </c>
@@ -71103,14 +71363,17 @@
       <c r="AA342" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB342" s="44" t="s">
+      <c r="AB342" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC342" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD342" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="343" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A343" s="9">
         <v>0.17289730183288171</v>
       </c>
@@ -71208,14 +71471,17 @@
       <c r="AA343" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB343" s="44" t="s">
+      <c r="AB343" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC343" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD343" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="344" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A344" s="9">
         <v>0.35089937761617046</v>
       </c>
@@ -71313,14 +71579,17 @@
       <c r="AA344" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB344" s="44" t="s">
+      <c r="AB344" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC344" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD344" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="345" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A345" s="9">
         <v>0.72762597389148154</v>
       </c>
@@ -71418,14 +71687,17 @@
       <c r="AA345" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB345" s="44" t="s">
+      <c r="AB345" s="35" t="s">
         <v>316</v>
       </c>
       <c r="AC345" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD345" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="346" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
         <v>0.41910354127750094</v>
       </c>
@@ -71523,14 +71795,17 @@
       <c r="AA346" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB346" s="44" t="s">
+      <c r="AB346" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC346" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD346" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="347" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A347" s="9">
         <v>0.16202034862336173</v>
       </c>
@@ -71628,14 +71903,17 @@
       <c r="AA347" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB347" s="44" t="s">
+      <c r="AB347" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC347" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD347" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="348" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A348" s="9">
         <v>0.2768350171032764</v>
       </c>
@@ -71733,14 +72011,17 @@
       <c r="AA348" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB348" s="44" t="s">
+      <c r="AB348" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC348" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD348" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="349" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A349" s="9">
         <v>0.18869079875302092</v>
       </c>
@@ -71838,14 +72119,17 @@
       <c r="AA349" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB349" s="44" t="s">
+      <c r="AB349" s="35" t="s">
         <v>305</v>
       </c>
       <c r="AC349" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD349" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="350" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
         <v>0.70532844903239689</v>
       </c>
@@ -71943,14 +72227,17 @@
       <c r="AA350" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB350" s="44" t="s">
+      <c r="AB350" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC350" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD350" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="351" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
         <v>0.25727557765316744</v>
       </c>
@@ -72048,14 +72335,17 @@
       <c r="AA351" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB351" s="44" t="s">
+      <c r="AB351" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC351" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD351" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="352" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A352" s="9">
         <v>0.33574867169271011</v>
       </c>
@@ -72153,14 +72443,17 @@
       <c r="AA352" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB352" s="44" t="s">
+      <c r="AB352" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC352" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD352" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="353" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A353" s="9">
         <v>0.30181230188787006</v>
       </c>
@@ -72258,14 +72551,17 @@
       <c r="AA353" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="AB353" s="45" t="s">
+      <c r="AB353" s="36" t="s">
         <v>309</v>
       </c>
       <c r="AC353" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD353" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="354" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
         <v>0.22808936290997836</v>
       </c>
@@ -72363,14 +72659,17 @@
       <c r="AA354" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB354" s="44" t="s">
+      <c r="AB354" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC354" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD354" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="355" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A355" s="9">
         <v>0.41919616180444907</v>
       </c>
@@ -72468,14 +72767,17 @@
       <c r="AA355" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB355" s="44" t="s">
+      <c r="AB355" s="35" t="s">
         <v>308</v>
       </c>
       <c r="AC355" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD355" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="356" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A356" s="9">
         <v>0.74615125061175269</v>
       </c>
@@ -72573,14 +72875,17 @@
       <c r="AA356" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB356" s="44" t="s">
+      <c r="AB356" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC356" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD356" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="357" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A357" s="9">
         <v>0.26486684684936568</v>
       </c>
@@ -72678,14 +72983,17 @@
       <c r="AA357" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB357" s="44" t="s">
+      <c r="AB357" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC357" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD357" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="358" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A358" s="9">
         <v>0.35900444989341401</v>
       </c>
@@ -72783,14 +73091,17 @@
       <c r="AA358" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB358" s="44" t="s">
+      <c r="AB358" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC358" s="11">
         <v>44215</v>
       </c>
-    </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD358" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="359" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A359" s="9">
         <v>0.56417907407093937</v>
       </c>
@@ -72888,14 +73199,17 @@
       <c r="AA359" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB359" s="44" t="s">
+      <c r="AB359" s="35" t="s">
         <v>317</v>
       </c>
       <c r="AC359" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD359" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="360" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A360" s="9">
         <v>0.46680375409214342</v>
       </c>
@@ -72993,14 +73307,17 @@
       <c r="AA360" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB360" s="44" t="s">
+      <c r="AB360" s="35" t="s">
         <v>317</v>
       </c>
       <c r="AC360" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD360" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="361" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A361" s="9">
         <v>0.30429757710863314</v>
       </c>
@@ -73098,14 +73415,17 @@
       <c r="AA361" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB361" s="44" t="s">
+      <c r="AB361" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC361" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD361" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="362" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A362" s="9">
         <v>0.5617335493077994</v>
       </c>
@@ -73203,14 +73523,17 @@
       <c r="AA362" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB362" s="44" t="s">
+      <c r="AB362" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC362" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD362" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="363" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A363" s="9">
         <v>0.58832835243455417</v>
       </c>
@@ -73308,14 +73631,17 @@
       <c r="AA363" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB363" s="44" t="s">
+      <c r="AB363" s="35" t="s">
         <v>308</v>
       </c>
       <c r="AC363" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD363" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="364" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A364" s="9">
         <v>0.30247908395388545</v>
       </c>
@@ -73413,14 +73739,17 @@
       <c r="AA364" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB364" s="44" t="s">
+      <c r="AB364" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC364" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD364" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="365" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A365" s="9">
         <v>0.15862095618660546</v>
       </c>
@@ -73518,14 +73847,17 @@
       <c r="AA365" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB365" s="44" t="s">
+      <c r="AB365" s="35" t="s">
         <v>318</v>
       </c>
       <c r="AC365" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD365" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="366" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A366" s="9">
         <v>7.0626476078056874E-2</v>
       </c>
@@ -73623,14 +73955,17 @@
       <c r="AA366" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB366" s="44" t="s">
+      <c r="AB366" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC366" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD366" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="367" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A367" s="9">
         <v>0.54387446395278327</v>
       </c>
@@ -73728,14 +74063,17 @@
       <c r="AA367" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB367" s="44" t="s">
+      <c r="AB367" s="35" t="s">
         <v>317</v>
       </c>
       <c r="AC367" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD367" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="368" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A368" s="9">
         <v>0.58596734848057541</v>
       </c>
@@ -73833,14 +74171,17 @@
       <c r="AA368" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB368" s="44" t="s">
+      <c r="AB368" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC368" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD368" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="369" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A369" s="9">
         <v>0.3365490260487517</v>
       </c>
@@ -73938,14 +74279,17 @@
       <c r="AA369" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB369" s="44" t="s">
+      <c r="AB369" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC369" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD369" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="370" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A370" s="9">
         <v>6.3372932092859352E-2</v>
       </c>
@@ -74043,14 +74387,17 @@
       <c r="AA370" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB370" s="44" t="s">
+      <c r="AB370" s="35" t="s">
         <v>318</v>
       </c>
       <c r="AC370" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD370" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="371" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A371" s="9">
         <v>0.52820010714677945</v>
       </c>
@@ -74148,14 +74495,17 @@
       <c r="AA371" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB371" s="44" t="s">
+      <c r="AB371" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC371" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD371" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="372" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A372" s="9">
         <v>0.64027022245604537</v>
       </c>
@@ -74253,14 +74603,17 @@
       <c r="AA372" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB372" s="44" t="s">
+      <c r="AB372" s="35" t="s">
         <v>308</v>
       </c>
       <c r="AC372" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD372" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="373" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A373" s="9">
         <v>0.57138266050393149</v>
       </c>
@@ -74358,14 +74711,17 @@
       <c r="AA373" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB373" s="44" t="s">
+      <c r="AB373" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC373" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD373" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="374" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A374" s="9">
         <v>0.47313053719674519</v>
       </c>
@@ -74463,14 +74819,17 @@
       <c r="AA374" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB374" s="44" t="s">
+      <c r="AB374" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC374" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD374" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="375" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A375" s="9">
         <v>0.3833000067323945</v>
       </c>
@@ -74568,14 +74927,17 @@
       <c r="AA375" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB375" s="44" t="s">
+      <c r="AB375" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC375" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD375" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A376" s="9">
         <v>0.12372152202154811</v>
       </c>
@@ -74673,14 +75035,17 @@
       <c r="AA376" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB376" s="44" t="s">
+      <c r="AB376" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC376" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD376" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="377" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A377" s="9">
         <v>0.5023222583458864</v>
       </c>
@@ -74778,14 +75143,17 @@
       <c r="AA377" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB377" s="44" t="s">
+      <c r="AB377" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC377" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD377" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="378" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A378" s="9">
         <v>0.12775501622818758</v>
       </c>
@@ -74883,14 +75251,17 @@
       <c r="AA378" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB378" s="44" t="s">
+      <c r="AB378" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC378" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD378" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="379" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A379" s="9">
         <v>0.10732499126172242</v>
       </c>
@@ -74988,14 +75359,17 @@
       <c r="AA379" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB379" s="44" t="s">
+      <c r="AB379" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC379" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD379" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="380" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A380" s="9">
         <v>0.5331574324879742</v>
       </c>
@@ -75093,14 +75467,17 @@
       <c r="AA380" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB380" s="44" t="s">
+      <c r="AB380" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC380" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD380" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="381" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A381" s="9">
         <v>0.4403500331679282</v>
       </c>
@@ -75198,14 +75575,17 @@
       <c r="AA381" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB381" s="44" t="s">
+      <c r="AB381" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC381" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD381" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="382" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A382" s="9">
         <v>0.81218521330540949</v>
       </c>
@@ -75303,14 +75683,17 @@
       <c r="AA382" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB382" s="44" t="s">
+      <c r="AB382" s="35" t="s">
         <v>316</v>
       </c>
       <c r="AC382" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD382" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="383" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A383" s="9">
         <v>0.69119153639176101</v>
       </c>
@@ -75408,14 +75791,17 @@
       <c r="AA383" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB383" s="44" t="s">
+      <c r="AB383" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC383" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD383" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="384" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A384" s="9">
         <v>0.30147019373700018</v>
       </c>
@@ -75513,14 +75899,17 @@
       <c r="AA384" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB384" s="44" t="s">
+      <c r="AB384" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC384" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD384" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="385" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A385" s="9">
         <v>0.81331160620624909</v>
       </c>
@@ -75618,14 +76007,17 @@
       <c r="AA385" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB385" s="44" t="s">
+      <c r="AB385" s="35" t="s">
         <v>319</v>
       </c>
       <c r="AC385" s="11">
         <v>44216</v>
       </c>
-    </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD385" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="386" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A386" s="9">
         <v>0.21778617723350654</v>
       </c>
@@ -75723,14 +76115,14 @@
       <c r="AA386" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB386" s="44" t="s">
+      <c r="AB386" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC386" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A387" s="9">
         <v>0.66163334983711897</v>
       </c>
@@ -75828,14 +76220,14 @@
       <c r="AA387" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB387" s="44" t="s">
+      <c r="AB387" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC387" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A388" s="9">
         <v>0.85527103869562238</v>
       </c>
@@ -75933,14 +76325,14 @@
       <c r="AA388" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB388" s="44" t="s">
+      <c r="AB388" s="35" t="s">
         <v>315</v>
       </c>
       <c r="AC388" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A389" s="9">
         <v>0.28232909194557371</v>
       </c>
@@ -76038,14 +76430,14 @@
       <c r="AA389" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB389" s="44" t="s">
+      <c r="AB389" s="35" t="s">
         <v>308</v>
       </c>
       <c r="AC389" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A390" s="9">
         <v>0.60782568139500637</v>
       </c>
@@ -76143,14 +76535,14 @@
       <c r="AA390" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB390" s="44" t="s">
+      <c r="AB390" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC390" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A391" s="9">
         <v>7.3725132511978639E-2</v>
       </c>
@@ -76248,14 +76640,14 @@
       <c r="AA391" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB391" s="44" t="s">
+      <c r="AB391" s="35" t="s">
         <v>305</v>
       </c>
       <c r="AC391" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A392" s="9">
         <v>0.20043277278877464</v>
       </c>
@@ -76353,14 +76745,14 @@
       <c r="AA392" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AB392" s="44" t="s">
+      <c r="AB392" s="35" t="s">
         <v>309</v>
       </c>
       <c r="AC392" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A393" s="9">
         <v>0.66324381779980601</v>
       </c>
@@ -76458,14 +76850,14 @@
       <c r="AA393" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB393" s="44" t="s">
+      <c r="AB393" s="35" t="s">
         <v>319</v>
       </c>
       <c r="AC393" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A394" s="9">
         <v>0.51541887512083584</v>
       </c>
@@ -76563,14 +76955,14 @@
       <c r="AA394" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AB394" s="44" t="s">
+      <c r="AB394" s="35" t="s">
         <v>304</v>
       </c>
       <c r="AC394" s="11">
         <v>44217</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A395" s="9">
         <v>9.3725686975151448E-2</v>
       </c>
@@ -76668,7 +77060,7 @@
       <c r="AA395" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AB395" s="44" t="s">
+      <c r="AB395" s="35" t="s">
         <v>300</v>
       </c>
       <c r="AC395" s="11">

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2way" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="450">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1508,7 +1508,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1613,6 +1613,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1900,9 +1903,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,9 +2956,8 @@
       <c r="X12" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="17"/>
-        <v>Y</v>
+      <c r="Y12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -7403,9 +7405,8 @@
       <c r="X62" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="Y62" t="str">
-        <f t="shared" si="17"/>
-        <v>Y</v>
+      <c r="Y62" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -8649,9 +8650,8 @@
       <c r="X76" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="Y76" t="str">
-        <f t="shared" si="29"/>
-        <v>Y</v>
+      <c r="Y76" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -9272,9 +9272,8 @@
       <c r="X83" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="Y83" t="str">
-        <f t="shared" si="29"/>
-        <v>Y</v>
+      <c r="Y83" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -9806,9 +9805,8 @@
       <c r="X89" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="Y89" t="str">
-        <f t="shared" si="29"/>
-        <v>Y</v>
+      <c r="Y89" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -12921,9 +12919,8 @@
       <c r="X124" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="Y124" t="str">
-        <f t="shared" si="29"/>
-        <v>Y</v>
+      <c r="Y124" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
@@ -13984,10 +13981,10 @@
         <v>419</v>
       </c>
       <c r="W136" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="X136" s="8" t="s">
-        <v>440</v>
+        <v>428</v>
+      </c>
+      <c r="X136" s="46">
+        <v>4</v>
       </c>
       <c r="Y136" t="str">
         <f t="shared" si="41"/>
@@ -26572,11 +26569,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD654"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="bottomRight" activeCell="AF181" sqref="AF181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="459">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1932,9 +1932,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E235" sqref="A235:XFD235"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y262" sqref="Y262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="Y131" t="str">
-        <f t="shared" ref="Y131:Y197" si="41">IF(X131 &gt;= 3,"Y","N")</f>
+        <f t="shared" ref="Y131:Y196" si="41">IF(X131 &gt;= 3,"Y","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="Y198" s="13" t="str">
-        <f t="shared" ref="Y198:Y234" si="55">IF(X198 &gt;= 3,"Y","N")</f>
+        <f t="shared" ref="Y198:Y260" si="55">IF(X198 &gt;= 3,"Y","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -22814,6 +22814,16 @@
       <c r="V235" s="39">
         <v>44257</v>
       </c>
+      <c r="W235" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="X235">
+        <v>2</v>
+      </c>
+      <c r="Y235" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="26">
@@ -22893,6 +22903,16 @@
       <c r="V236" s="39">
         <v>44257</v>
       </c>
+      <c r="W236" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="X236">
+        <v>2</v>
+      </c>
+      <c r="Y236" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="26">
@@ -22972,6 +22992,16 @@
       <c r="V237" s="39">
         <v>44257</v>
       </c>
+      <c r="W237" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="X237">
+        <v>3</v>
+      </c>
+      <c r="Y237" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="26">
@@ -23051,6 +23081,16 @@
       <c r="V238" s="39">
         <v>44257</v>
       </c>
+      <c r="W238" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="X238">
+        <v>4</v>
+      </c>
+      <c r="Y238" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="26">
@@ -23130,6 +23170,16 @@
       <c r="V239" s="39">
         <v>44257</v>
       </c>
+      <c r="W239" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X239">
+        <v>1</v>
+      </c>
+      <c r="Y239" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="26">
@@ -23209,8 +23259,18 @@
       <c r="V240" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W240" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X240">
+        <v>5</v>
+      </c>
+      <c r="Y240" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="26">
         <v>0.20255017844509965</v>
       </c>
@@ -23288,8 +23348,18 @@
       <c r="V241" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W241" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X241">
+        <v>3</v>
+      </c>
+      <c r="Y241" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="26">
         <v>0.41418014060762287</v>
       </c>
@@ -23367,8 +23437,18 @@
       <c r="V242" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W242" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="X242">
+        <v>2</v>
+      </c>
+      <c r="Y242" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="26">
         <v>0.45409531178946588</v>
       </c>
@@ -23446,8 +23526,18 @@
       <c r="V243" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W243" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="26">
         <v>0.50300138651359438</v>
       </c>
@@ -23525,8 +23615,18 @@
       <c r="V244" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W244" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="X244">
+        <v>2</v>
+      </c>
+      <c r="Y244" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="26">
         <v>0.44027467007696219</v>
       </c>
@@ -23604,8 +23704,18 @@
       <c r="V245" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W245" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="X245">
+        <v>4</v>
+      </c>
+      <c r="Y245" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="26">
         <v>0.22989407756252961</v>
       </c>
@@ -23683,8 +23793,18 @@
       <c r="V246" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W246" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="X246">
+        <v>1</v>
+      </c>
+      <c r="Y246" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="26">
         <v>0.41441992642426645</v>
       </c>
@@ -23762,8 +23882,18 @@
       <c r="V247" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W247" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="X247">
+        <v>4</v>
+      </c>
+      <c r="Y247" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="26">
         <v>0.41140965351639047</v>
       </c>
@@ -23841,8 +23971,18 @@
       <c r="V248" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W248" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
+      <c r="Y248" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="26">
         <v>0.65925953186525776</v>
       </c>
@@ -23920,8 +24060,18 @@
       <c r="V249" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W249" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="X249">
+        <v>3</v>
+      </c>
+      <c r="Y249" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="26">
         <v>0.33129341121899453</v>
       </c>
@@ -23999,8 +24149,18 @@
       <c r="V250" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W250" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="X250">
+        <v>2</v>
+      </c>
+      <c r="Y250" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="26">
         <v>0.31047211150617032</v>
       </c>
@@ -24078,8 +24238,18 @@
       <c r="V251" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W251" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X251">
+        <v>3</v>
+      </c>
+      <c r="Y251" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="26">
         <v>0.17332839886902807</v>
       </c>
@@ -24157,8 +24327,18 @@
       <c r="V252" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W252" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X252">
+        <v>3</v>
+      </c>
+      <c r="Y252" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="26">
         <v>0.66512226311258404</v>
       </c>
@@ -24236,8 +24416,18 @@
       <c r="V253" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W253" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="X253">
+        <v>1</v>
+      </c>
+      <c r="Y253" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="26">
         <v>0.16717221802787069</v>
       </c>
@@ -24315,8 +24505,18 @@
       <c r="V254" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W254" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="X254">
+        <v>2</v>
+      </c>
+      <c r="Y254" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="26">
         <v>0.50407567349820082</v>
       </c>
@@ -24394,8 +24594,18 @@
       <c r="V255" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W255" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="X255">
+        <v>5</v>
+      </c>
+      <c r="Y255" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="26">
         <v>0.32630169202831294</v>
       </c>
@@ -24473,8 +24683,18 @@
       <c r="V256" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W256" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="26">
         <v>0.54682929403758029</v>
       </c>
@@ -24552,8 +24772,18 @@
       <c r="V257" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W257" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="X257">
+        <v>2</v>
+      </c>
+      <c r="Y257" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="26">
         <v>0.14738690202646582</v>
       </c>
@@ -24631,8 +24861,18 @@
       <c r="V258" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W258" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="X258">
+        <v>2</v>
+      </c>
+      <c r="Y258" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="26">
         <v>0.62456648433411821</v>
       </c>
@@ -24710,8 +24950,18 @@
       <c r="V259" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W259" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="X259">
+        <v>2</v>
+      </c>
+      <c r="Y259" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="26">
         <v>0.54559775765145668</v>
       </c>
@@ -24789,8 +25039,18 @@
       <c r="V260" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W260" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="26">
         <v>0.48594613747812809</v>
       </c>
@@ -24869,7 +25129,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="26">
         <v>0.4740626449270674</v>
       </c>
@@ -24948,7 +25208,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="26">
         <v>0.53425011863576022</v>
       </c>
@@ -25027,7 +25287,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="26">
         <v>0.38171297285828693</v>
       </c>
@@ -25106,7 +25366,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="26">
         <v>0.22531145187735993</v>
       </c>
@@ -25185,7 +25445,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="26">
         <v>0.51072614603521715</v>
       </c>
@@ -25264,7 +25524,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="26">
         <v>0.71038699767787661</v>
       </c>
@@ -25343,7 +25603,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="26">
         <v>0.19808931683720901</v>
       </c>
@@ -25422,7 +25682,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="26">
         <v>0.335038696320417</v>
       </c>
@@ -25501,7 +25761,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="26">
         <v>0.40258081406292401</v>
       </c>
@@ -25580,7 +25840,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="26">
         <v>0.24607913857224759</v>
       </c>
@@ -25659,7 +25919,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="26">
         <v>0.67904659474464479</v>
       </c>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1933,8 +1933,8 @@
   <dimension ref="A1:Y654"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y262" sqref="Y262"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261:XFD261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32442,10 +32442,10 @@
   <dimension ref="A1:AD654"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A199" sqref="A199:XFD199"/>
+      <selection pane="bottomRight" activeCell="A262" sqref="A262:XFD262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/myodds.xlsx
+++ b/myodds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2way" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="459">
   <si>
     <t>Bookmaker's odds</t>
   </si>
@@ -1932,9 +1932,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y654"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261:XFD261"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W190" sqref="W190:W267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="Y198" s="13" t="str">
-        <f t="shared" ref="Y198:Y260" si="55">IF(X198 &gt;= 3,"Y","N")</f>
+        <f t="shared" ref="Y198:Y267" si="55">IF(X198 &gt;= 3,"Y","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -24861,7 +24861,7 @@
       <c r="V258" s="39">
         <v>44257</v>
       </c>
-      <c r="W258" s="8" t="s">
+      <c r="W258" s="32" t="s">
         <v>421</v>
       </c>
       <c r="X258">
@@ -25128,6 +25128,16 @@
       <c r="V261" s="39">
         <v>44288</v>
       </c>
+      <c r="W261" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X261">
+        <v>1</v>
+      </c>
+      <c r="Y261" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="26">
@@ -25207,6 +25217,16 @@
       <c r="V262" s="39">
         <v>44288</v>
       </c>
+      <c r="W262" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="X262">
+        <v>2</v>
+      </c>
+      <c r="Y262" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="26">
@@ -25286,6 +25306,16 @@
       <c r="V263" s="39">
         <v>44288</v>
       </c>
+      <c r="W263" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="26">
@@ -25365,6 +25395,16 @@
       <c r="V264" s="39">
         <v>44288</v>
       </c>
+      <c r="W264" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X264">
+        <v>3</v>
+      </c>
+      <c r="Y264" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="26">
@@ -25444,6 +25484,16 @@
       <c r="V265" s="39">
         <v>44288</v>
       </c>
+      <c r="W265" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="X265">
+        <v>2</v>
+      </c>
+      <c r="Y265" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
+      </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="26">
@@ -25523,6 +25573,16 @@
       <c r="V266" s="39">
         <v>44288</v>
       </c>
+      <c r="W266" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="X266">
+        <v>4</v>
+      </c>
+      <c r="Y266" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>Y</v>
+      </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="26">
@@ -25601,6 +25661,16 @@
       </c>
       <c r="V267" s="39">
         <v>44288</v>
+      </c>
+      <c r="W267" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="X267">
+        <v>1</v>
+      </c>
+      <c r="Y267" s="13" t="str">
+        <f t="shared" si="55"/>
+        <v>N</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
@@ -32441,11 +32511,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD654"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D243" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A262" sqref="A262:XFD262"/>
+      <selection pane="bottomRight" activeCell="AD273" sqref="AD273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52932,6 +53002,9 @@
       <c r="AC190" s="39">
         <v>44229</v>
       </c>
+      <c r="AD190" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
@@ -53037,6 +53110,9 @@
       <c r="AC191" s="39">
         <v>44229</v>
       </c>
+      <c r="AD191" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
@@ -53142,6 +53218,9 @@
       <c r="AC192" s="39">
         <v>44229</v>
       </c>
+      <c r="AD192" s="8" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
@@ -53247,6 +53326,9 @@
       <c r="AC193" s="39">
         <v>44229</v>
       </c>
+      <c r="AD193" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
@@ -53352,6 +53434,9 @@
       <c r="AC194" s="39">
         <v>44229</v>
       </c>
+      <c r="AD194" s="8" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
@@ -53457,6 +53542,9 @@
       <c r="AC195" s="39">
         <v>44229</v>
       </c>
+      <c r="AD195" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" s="9">
@@ -53562,6 +53650,9 @@
       <c r="AC196" s="39">
         <v>44229</v>
       </c>
+      <c r="AD196" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
@@ -53667,6 +53758,9 @@
       <c r="AC197" s="39">
         <v>44229</v>
       </c>
+      <c r="AD197" s="8" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
@@ -53772,6 +53866,9 @@
       <c r="AC198" s="39">
         <v>44229</v>
       </c>
+      <c r="AD198" s="8" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
@@ -53877,6 +53974,9 @@
       <c r="AC199" s="39">
         <v>44229</v>
       </c>
+      <c r="AD199" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
@@ -53982,7 +54082,9 @@
       <c r="AC200" s="39">
         <v>44229</v>
       </c>
-      <c r="AD200" s="17"/>
+      <c r="AD200" s="17" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
@@ -54088,6 +54190,9 @@
       <c r="AC201" s="39">
         <v>44229</v>
       </c>
+      <c r="AD201" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
@@ -54193,6 +54298,9 @@
       <c r="AC202" s="39">
         <v>44229</v>
       </c>
+      <c r="AD202" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
@@ -54298,6 +54406,9 @@
       <c r="AC203" s="39">
         <v>44229</v>
       </c>
+      <c r="AD203" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
@@ -54403,6 +54514,9 @@
       <c r="AC204" s="39">
         <v>44229</v>
       </c>
+      <c r="AD204" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" s="9">
@@ -54508,6 +54622,9 @@
       <c r="AC205" s="39">
         <v>44229</v>
       </c>
+      <c r="AD205" s="8" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" s="9">
@@ -54613,6 +54730,9 @@
       <c r="AC206" s="39">
         <v>44229</v>
       </c>
+      <c r="AD206" s="8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
@@ -54718,6 +54838,9 @@
       <c r="AC207" s="39">
         <v>44229</v>
       </c>
+      <c r="AD207" s="8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
@@ -54823,8 +54946,11 @@
       <c r="AC208" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD208" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>0.65412199961895523</v>
       </c>
@@ -54928,8 +55054,11 @@
       <c r="AC209" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD209" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>0.76647132395772644</v>
       </c>
@@ -55033,8 +55162,11 @@
       <c r="AC210" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD210" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
         <v>0.51298092503713366</v>
       </c>
@@ -55138,8 +55270,11 @@
       <c r="AC211" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD211" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>0.5305946796433727</v>
       </c>
@@ -55243,8 +55378,11 @@
       <c r="AC212" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD212" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
         <v>0.60077852939282972</v>
       </c>
@@ -55348,8 +55486,11 @@
       <c r="AC213" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD213" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <v>0.24413359399045215</v>
       </c>
@@ -55453,8 +55594,11 @@
       <c r="AC214" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD214" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>0.25994097570980057</v>
       </c>
@@ -55558,8 +55702,11 @@
       <c r="AC215" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD215" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>0.40459729368438324</v>
       </c>
@@ -55663,8 +55810,11 @@
       <c r="AC216" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD216" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>0.49637017200502076</v>
       </c>
@@ -55768,8 +55918,11 @@
       <c r="AC217" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD217" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>0.35304551911651494</v>
       </c>
@@ -55873,8 +56026,11 @@
       <c r="AC218" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD218" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>0.31116373782668694</v>
       </c>
@@ -55978,8 +56134,11 @@
       <c r="AC219" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD219" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>0.55625496827224918</v>
       </c>
@@ -56083,8 +56242,11 @@
       <c r="AC220" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD220" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>0.51602244761834182</v>
       </c>
@@ -56188,8 +56350,11 @@
       <c r="AC221" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD221" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>0.78571107104159921</v>
       </c>
@@ -56293,8 +56458,11 @@
       <c r="AC222" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD222" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>0.30115942137303081</v>
       </c>
@@ -56398,8 +56566,11 @@
       <c r="AC223" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD223" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>0.68196573921450032</v>
       </c>
@@ -56503,8 +56674,11 @@
       <c r="AC224" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD224" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>0.2127627185048499</v>
       </c>
@@ -56608,8 +56782,11 @@
       <c r="AC225" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD225" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>0.61030475391650119</v>
       </c>
@@ -56713,8 +56890,11 @@
       <c r="AC226" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD226" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>0.33935198039082154</v>
       </c>
@@ -56818,8 +56998,11 @@
       <c r="AC227" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD227" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>0.17420648921493787</v>
       </c>
@@ -56923,8 +57106,11 @@
       <c r="AC228" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD228" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>0.43629602801941197</v>
       </c>
@@ -57028,8 +57214,11 @@
       <c r="AC229" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD229" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>8.8799427048609408E-2</v>
       </c>
@@ -57133,8 +57322,11 @@
       <c r="AC230" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD230" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>0.1797321774079057</v>
       </c>
@@ -57238,8 +57430,11 @@
       <c r="AC231" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD231" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
         <v>0.25972577664357377</v>
       </c>
@@ -57343,8 +57538,11 @@
       <c r="AC232" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD232" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>0.85162457895863453</v>
       </c>
@@ -57448,8 +57646,11 @@
       <c r="AC233" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD233" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>0.60472232708726148</v>
       </c>
@@ -57553,8 +57754,11 @@
       <c r="AC234" s="39">
         <v>44229</v>
       </c>
-    </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD234" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>0.11826937073243576</v>
       </c>
@@ -57658,8 +57862,11 @@
       <c r="AC235" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD235" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>6.5751127347180263E-2</v>
       </c>
@@ -57763,8 +57970,11 @@
       <c r="AC236" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD236" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>0.24471374980141802</v>
       </c>
@@ -57868,8 +58078,11 @@
       <c r="AC237" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD237" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
         <v>0.49649632414666489</v>
       </c>
@@ -57973,8 +58186,11 @@
       <c r="AC238" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD238" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>0.68401573072699096</v>
       </c>
@@ -58078,8 +58294,11 @@
       <c r="AC239" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD239" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>0.67656392161588286</v>
       </c>
@@ -58183,8 +58402,11 @@
       <c r="AC240" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD240" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>0.23526786779513018</v>
       </c>
@@ -58288,8 +58510,11 @@
       <c r="AC241" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD241" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>0.49496249681391763</v>
       </c>
@@ -58393,8 +58618,11 @@
       <c r="AC242" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD242" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
         <v>0.38776709814224281</v>
       </c>
@@ -58498,8 +58726,11 @@
       <c r="AC243" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD243" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
         <v>0.6228916599981783</v>
       </c>
@@ -58603,8 +58834,11 @@
       <c r="AC244" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD244" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>0.48643670790171722</v>
       </c>
@@ -58708,8 +58942,11 @@
       <c r="AC245" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD245" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
         <v>5.9399681377411133E-2</v>
       </c>
@@ -58813,8 +59050,11 @@
       <c r="AC246" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD246" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
         <v>0.30868800124165119</v>
       </c>
@@ -58918,8 +59158,11 @@
       <c r="AC247" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD247" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>0.35550693480762513</v>
       </c>
@@ -59023,8 +59266,11 @@
       <c r="AC248" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD248" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
         <v>0.8762293669278004</v>
       </c>
@@ -59128,8 +59374,11 @@
       <c r="AC249" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD249" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
         <v>0.39436434417601735</v>
       </c>
@@ -59233,8 +59482,11 @@
       <c r="AC250" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD250" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>0.42996616104543883</v>
       </c>
@@ -59338,8 +59590,11 @@
       <c r="AC251" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD251" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>0.41195544753965208</v>
       </c>
@@ -59443,8 +59698,11 @@
       <c r="AC252" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD252" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
         <v>0.80019028075545351</v>
       </c>
@@ -59548,8 +59806,11 @@
       <c r="AC253" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD253" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
         <v>0.28692201973478737</v>
       </c>
@@ -59653,8 +59914,11 @@
       <c r="AC254" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD254" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
         <v>0.38857460387891291</v>
       </c>
@@ -59758,8 +60022,11 @@
       <c r="AC255" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD255" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
         <v>0.43044102651370714</v>
       </c>
@@ -59863,8 +60130,11 @@
       <c r="AC256" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD256" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>0.54179752859225205</v>
       </c>
@@ -59968,8 +60238,11 @@
       <c r="AC257" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD257" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>0.22979988177976024</v>
       </c>
@@ -60073,8 +60346,11 @@
       <c r="AC258" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD258" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>0.28885735153537906</v>
       </c>
@@ -60178,8 +60454,11 @@
       <c r="AC259" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD259" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>0.78407656126334913</v>
       </c>
@@ -60283,8 +60562,11 @@
       <c r="AC260" s="39">
         <v>44257</v>
       </c>
-    </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD260" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>0.38878441209712539</v>
       </c>
@@ -60388,8 +60670,11 @@
       <c r="AC261" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD261" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
         <v>0.38974611413236887</v>
       </c>
@@ -60493,8 +60778,11 @@
       <c r="AC262" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD262" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>0.13469332684004315</v>
       </c>
@@ -60598,8 +60886,11 @@
       <c r="AC263" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD263" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>0.78887930679800211</v>
       </c>
@@ -60703,8 +60994,11 @@
       <c r="AC264" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD264" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
         <v>0.52097587401417567</v>
       </c>
@@ -60808,8 +61102,11 @@
       <c r="AC265" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD265" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>0.6455897326992055</v>
       </c>
@@ -60913,8 +61210,11 @@
       <c r="AC266" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD266" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>0.59667870631898412</v>
       </c>
@@ -61018,8 +61318,11 @@
       <c r="AC267" s="39">
         <v>44288</v>
       </c>
-    </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD267" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
         <v>0.4718220064459519</v>
       </c>
@@ -61124,7 +61427,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>0.18660572223367491</v>
       </c>
@@ -61229,7 +61532,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>4.2988225042661116E-2</v>
       </c>
@@ -61334,7 +61637,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>0.29042523581422536</v>
       </c>
@@ -61439,7 +61742,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>0.84454014502070873</v>
       </c>
